--- a/testfiles/original_packing_list.xlsx
+++ b/testfiles/original_packing_list.xlsx
@@ -1144,12 +1144,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1551,7 +1557,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1575,16 +1581,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1593,85 +1599,85 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
@@ -1692,7 +1698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="125">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1700,6 +1706,9 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1715,6 +1724,9 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1743,7 +1755,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1754,7 +1766,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1769,134 +1781,167 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1907,7 +1952,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1917,6 +1962,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1929,22 +1990,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1952,11 +2016,15 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2002,15 +2070,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2027,7 +2102,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2041,20 +2116,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2144,10 +2230,10 @@
       <color rgb="00666666"/>
       <color rgb="00333333"/>
       <color rgb="00FFFFFF"/>
-      <color rgb="00FFFF00"/>
       <color rgb="00FF0000"/>
       <color rgb="00E6B8B7"/>
       <color rgb="00000000"/>
+      <color rgb="00FFFF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3030,63 +3116,68 @@
   <dimension ref="A1:AC81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD3"/>
+      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="P40" sqref="P40:P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6272727272727" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.75454545454545" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.1818181818182" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.37272727272727" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.6272727272727" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.75454545454545" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.1818181818182" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.37272727272727" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.6272727272727" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.6272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.8727272727273" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.8727272727273" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.7545454545455" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.6272727272727" style="6" customWidth="1"/>
-    <col min="10" max="11" width="10.6272727272727" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.8727272727273" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.8727272727273" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.7545454545455" style="5" customWidth="1"/>
+    <col min="9" max="9" width="21.6272727272727" style="7" customWidth="1"/>
+    <col min="10" max="11" width="10.6272727272727" style="4" customWidth="1"/>
     <col min="12" max="12" width="13.2545454545455" style="2" customWidth="1"/>
-    <col min="13" max="15" width="10.6272727272727" style="7" customWidth="1"/>
-    <col min="16" max="20" width="10.6272727272727" style="8" customWidth="1"/>
-    <col min="21" max="21" width="10.6272727272727" style="9" customWidth="1"/>
+    <col min="13" max="15" width="10.6272727272727" style="8" customWidth="1"/>
+    <col min="16" max="16" width="10.6272727272727" style="9" customWidth="1"/>
+    <col min="17" max="17" width="10.6272727272727" style="10" customWidth="1"/>
+    <col min="18" max="18" width="10.6272727272727" style="9" customWidth="1"/>
+    <col min="19" max="20" width="10.6272727272727" style="10" customWidth="1"/>
+    <col min="21" max="21" width="10.6272727272727" style="11" customWidth="1"/>
     <col min="22" max="25" width="10.6272727272727" style="2" customWidth="1"/>
-    <col min="26" max="26" width="10.6272727272727" style="3" customWidth="1"/>
-    <col min="27" max="27" width="10.6272727272727" style="10" customWidth="1"/>
-    <col min="28" max="28" width="10.6272727272727" style="11" customWidth="1"/>
+    <col min="26" max="26" width="10.6272727272727" style="4" customWidth="1"/>
+    <col min="27" max="27" width="10.6272727272727" style="12" customWidth="1"/>
+    <col min="28" max="28" width="10.6272727272727" style="13" customWidth="1"/>
     <col min="29" max="29" width="10.6272727272727" style="2" customWidth="1"/>
     <col min="30" max="16384" width="10.6272727272727" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:27">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="14" spans="1:27">
       <c r="A2" s="1" t="s">
@@ -3134,13 +3225,13 @@
       <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="50" t="s">
         <v>16</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="50" t="s">
         <v>18</v>
       </c>
       <c r="S2" s="1" t="s">
@@ -3217,13 +3308,13 @@
       <c r="O3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="50" t="s">
         <v>43</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="50" t="s">
         <v>45</v>
       </c>
       <c r="S3" s="1" t="s">
@@ -3255,4426 +3346,4411 @@
       </c>
     </row>
     <row r="4" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A4" s="12">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="14" t="str">
+      <c r="I4" s="16" t="str">
         <f>VLOOKUP(B4,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="14">
         <v>500</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="47">
+      <c r="M4" s="51">
         <f ca="1" t="shared" ref="M4:M9" si="0">ROUND(EVALUATE(L4)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N4" s="48">
+      <c r="N4" s="52">
         <f ca="1">M4*T4</f>
         <v>0.01</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="53">
         <v>2.8</v>
       </c>
-      <c r="P4" s="50">
+      <c r="P4" s="54">
         <f>O4*T4</f>
         <v>2.8</v>
       </c>
-      <c r="Q4" s="50">
+      <c r="Q4" s="76">
         <v>2.6</v>
       </c>
-      <c r="R4" s="50">
+      <c r="R4" s="54">
         <v>2.6</v>
       </c>
-      <c r="S4" s="31">
+      <c r="S4" s="33">
         <v>500</v>
       </c>
-      <c r="T4" s="31">
+      <c r="T4" s="33">
         <f>J4/S4</f>
         <v>1</v>
       </c>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14" t="s">
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y4" s="14" t="s">
+      <c r="Y4" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Z4" s="14">
         <v>5</v>
       </c>
-      <c r="AA4" s="76">
+      <c r="AA4" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A5" s="12">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="14" t="str">
+      <c r="I5" s="16" t="str">
         <f>VLOOKUP(B5,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="14">
         <v>3</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="51" t="s">
+      <c r="L5" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="52">
+      <c r="M5" s="56">
         <f ca="1" t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="N5" s="52">
+      <c r="N5" s="56">
         <f ca="1">M5*T5</f>
         <v>0.04</v>
       </c>
-      <c r="O5" s="53">
+      <c r="O5" s="57">
         <v>2.04</v>
       </c>
-      <c r="P5" s="52">
+      <c r="P5" s="58">
         <f t="shared" ref="P4:P5" si="1">O5*T5</f>
         <v>2.04</v>
       </c>
-      <c r="Q5" s="50">
+      <c r="Q5" s="76">
         <v>1.1</v>
       </c>
-      <c r="R5" s="50">
+      <c r="R5" s="54">
         <v>1.1</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="14">
         <v>3</v>
       </c>
-      <c r="T5" s="58">
+      <c r="T5" s="66">
         <f>J5/S5</f>
         <v>1</v>
       </c>
-      <c r="U5" s="69" t="s">
+      <c r="U5" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14" t="s">
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y5" s="14" t="s">
+      <c r="Y5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="Z5" s="14">
         <v>110</v>
       </c>
-      <c r="AA5" s="76">
+      <c r="AA5" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A6" s="12">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="14" t="str">
+      <c r="I6" s="16" t="str">
         <f>VLOOKUP(B6,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>12-14</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="14">
         <v>2</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="50">
+      <c r="L6" s="30"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="76">
         <v>0.5</v>
       </c>
-      <c r="R6" s="50">
+      <c r="R6" s="54">
         <v>0.5</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="14">
         <v>2</v>
       </c>
-      <c r="T6" s="27"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14" t="s">
+      <c r="T6" s="29"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y6" s="14" t="s">
+      <c r="Y6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z6" s="12">
+      <c r="Z6" s="14">
         <v>78</v>
       </c>
-      <c r="AA6" s="76">
+      <c r="AA6" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A7" s="12">
+      <c r="A7" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="14" t="str">
+      <c r="I7" s="16" t="str">
         <f>VLOOKUP(B7,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>8-14</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="14">
         <v>1</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50">
+      <c r="L7" s="34"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="76">
         <v>0.2</v>
       </c>
-      <c r="R7" s="50">
+      <c r="R7" s="54">
         <v>0.2</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="14">
         <v>1</v>
       </c>
-      <c r="T7" s="31"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14" t="s">
+      <c r="T7" s="33"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="14" t="s">
+      <c r="Y7" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="Z7" s="14">
         <v>78</v>
       </c>
-      <c r="AA7" s="76">
+      <c r="AA7" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A8" s="12">
+      <c r="A8" s="14">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="14" t="str">
+      <c r="I8" s="16" t="str">
         <f>VLOOKUP(B8,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="14">
         <v>3</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="L8" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="47">
+      <c r="M8" s="51">
         <f ca="1" t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="N8" s="52">
+      <c r="N8" s="56">
         <f ca="1">M8*T8</f>
         <v>0.04</v>
       </c>
-      <c r="O8" s="48">
+      <c r="O8" s="52">
         <v>1.88</v>
       </c>
-      <c r="P8" s="48">
+      <c r="P8" s="61">
         <f>O8*T8</f>
         <v>1.88</v>
       </c>
-      <c r="Q8" s="50">
+      <c r="Q8" s="76">
         <v>1.55</v>
       </c>
-      <c r="R8" s="50">
+      <c r="R8" s="54">
         <v>1.55</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="14">
         <v>3</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="14">
         <f>J8/S8</f>
         <v>1</v>
       </c>
-      <c r="U8" s="69" t="s">
+      <c r="U8" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14" t="s">
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y8" s="14" t="s">
+      <c r="Y8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z8" s="12">
+      <c r="Z8" s="14">
         <v>110</v>
       </c>
-      <c r="AA8" s="76">
+      <c r="AA8" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A9" s="12">
+      <c r="A9" s="14">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="14" t="str">
+      <c r="I9" s="16" t="str">
         <f>VLOOKUP(B9,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>QLDZ.0014</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="14">
         <v>100</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="54">
+      <c r="M9" s="62">
         <f ca="1" t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="N9" s="52">
+      <c r="N9" s="56">
         <f ca="1">M9*T9</f>
         <v>0.01</v>
       </c>
-      <c r="O9" s="53">
+      <c r="O9" s="57">
         <v>4.3</v>
       </c>
-      <c r="P9" s="55">
+      <c r="P9" s="63">
         <f>O9*T9</f>
         <v>4.3</v>
       </c>
-      <c r="Q9" s="50">
+      <c r="Q9" s="76">
         <v>2</v>
       </c>
-      <c r="R9" s="50">
+      <c r="R9" s="54">
         <v>2</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="14">
         <v>100</v>
       </c>
-      <c r="T9" s="27">
+      <c r="T9" s="29">
         <f>J9/S9</f>
         <v>1</v>
       </c>
-      <c r="U9" s="69" t="s">
+      <c r="U9" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14" t="s">
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y9" s="14" t="s">
+      <c r="Y9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z9" s="12">
+      <c r="Z9" s="14">
         <v>22.6</v>
       </c>
-      <c r="AA9" s="76">
+      <c r="AA9" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A10" s="12">
+      <c r="A10" s="14">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="14" t="str">
+      <c r="I10" s="16" t="str">
         <f>VLOOKUP(B10,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>N510059196AA</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="14">
         <v>137</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50">
+      <c r="L10" s="34"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="76">
         <v>2.1</v>
       </c>
-      <c r="R10" s="50">
+      <c r="R10" s="54">
         <v>2.1</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="14">
         <v>137</v>
       </c>
-      <c r="T10" s="31"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="32" t="s">
+      <c r="T10" s="33"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y10" s="14" t="s">
+      <c r="Y10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z10" s="12">
+      <c r="Z10" s="14">
         <v>0.8</v>
       </c>
-      <c r="AA10" s="76">
+      <c r="AA10" s="93">
         <v>0.01</v>
       </c>
     </row>
     <row r="11" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A11" s="12">
+      <c r="A11" s="14">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="14" t="str">
+      <c r="I11" s="16" t="str">
         <f>VLOOKUP(B11,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>FA2P5N1W20360133</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="14">
         <v>1</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="51" t="s">
+      <c r="L11" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="M11" s="54">
+      <c r="M11" s="62">
         <f ca="1">ROUND(EVALUATE(L11)*1000*0.000000001,2)</f>
         <v>0.02</v>
       </c>
-      <c r="N11" s="52">
+      <c r="N11" s="56">
         <f ca="1">M11*T11</f>
         <v>0.02</v>
       </c>
-      <c r="O11" s="53">
+      <c r="O11" s="57">
         <v>14</v>
       </c>
-      <c r="P11" s="55">
+      <c r="P11" s="63">
         <f>O11*T11</f>
         <v>14</v>
       </c>
-      <c r="Q11" s="50">
+      <c r="Q11" s="76">
         <v>3</v>
       </c>
-      <c r="R11" s="50">
+      <c r="R11" s="54">
         <v>3</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="14">
         <v>1</v>
       </c>
-      <c r="T11" s="58">
+      <c r="T11" s="66">
         <f>J11/S11</f>
         <v>1</v>
       </c>
-      <c r="U11" s="69" t="s">
+      <c r="U11" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14" t="s">
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y11" s="14" t="s">
+      <c r="Y11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z11" s="12">
+      <c r="Z11" s="14">
         <v>1140</v>
       </c>
-      <c r="AA11" s="76">
+      <c r="AA11" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A12" s="12">
+      <c r="A12" s="14">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="14" t="str">
+      <c r="I12" s="16" t="str">
         <f>VLOOKUP(B12,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>STM86118S</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="14">
         <v>1</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="50">
+      <c r="L12" s="30"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="76">
         <v>5</v>
       </c>
-      <c r="R12" s="50">
+      <c r="R12" s="54">
         <v>5</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="14">
         <v>1</v>
       </c>
-      <c r="T12" s="27"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14" t="s">
+      <c r="T12" s="29"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y12" s="14" t="s">
+      <c r="Y12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z12" s="12">
+      <c r="Z12" s="14">
         <v>230</v>
       </c>
-      <c r="AA12" s="76">
+      <c r="AA12" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A13" s="12">
+      <c r="A13" s="14">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="14" t="str">
+      <c r="I13" s="16" t="str">
         <f>VLOOKUP(B13,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>STM8680</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="14">
         <v>3</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50">
+      <c r="L13" s="34"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="76">
         <v>5</v>
       </c>
-      <c r="R13" s="50">
+      <c r="R13" s="54">
         <v>5</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="14">
         <v>3</v>
       </c>
-      <c r="T13" s="31"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14" t="s">
+      <c r="T13" s="33"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y13" s="14" t="s">
+      <c r="Y13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z13" s="12">
+      <c r="Z13" s="14">
         <v>185</v>
       </c>
-      <c r="AA13" s="76">
+      <c r="AA13" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="14" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A14" s="12">
+      <c r="A14" s="14">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="14" t="str">
+      <c r="I14" s="16" t="str">
         <f>VLOOKUP(B14,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="14">
         <v>5</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="M14" s="47">
+      <c r="M14" s="51">
         <f ca="1">ROUND(EVALUATE(L14)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N14" s="48">
+      <c r="N14" s="52">
         <f ca="1">M14*T14</f>
         <v>0.01</v>
       </c>
-      <c r="O14" s="49">
+      <c r="O14" s="53">
         <v>1.44</v>
       </c>
-      <c r="P14" s="50">
+      <c r="P14" s="54">
         <f>O14*T14</f>
         <v>1.44</v>
       </c>
-      <c r="Q14" s="50">
+      <c r="Q14" s="76">
         <v>1.23</v>
       </c>
-      <c r="R14" s="50">
+      <c r="R14" s="54">
         <v>1.23</v>
       </c>
-      <c r="S14" s="31">
+      <c r="S14" s="33">
         <v>5</v>
       </c>
-      <c r="T14" s="31">
+      <c r="T14" s="33">
         <f>J14/S14</f>
         <v>1</v>
       </c>
-      <c r="U14" s="68" t="s">
+      <c r="U14" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14" t="s">
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y14" s="14" t="s">
+      <c r="Y14" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z14" s="12">
+      <c r="Z14" s="14">
         <v>350</v>
       </c>
-      <c r="AA14" s="76">
+      <c r="AA14" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="15" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A15" s="12">
+      <c r="A15" s="14">
         <v>12</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="14" t="str">
+      <c r="I15" s="16" t="str">
         <f>VLOOKUP(B15,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-sk</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="14">
         <v>30</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="51" t="s">
+      <c r="L15" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="M15" s="52">
+      <c r="M15" s="56">
         <f ca="1">ROUND(EVALUATE(L15)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N15" s="52">
+      <c r="N15" s="56">
         <f ca="1">M15*T15</f>
         <v>0.01</v>
       </c>
-      <c r="O15" s="58">
+      <c r="O15" s="66">
         <v>7.55</v>
       </c>
-      <c r="P15" s="58">
+      <c r="P15" s="67">
         <f>O15*T15</f>
         <v>7.55</v>
       </c>
-      <c r="Q15" s="50">
+      <c r="Q15" s="76">
         <v>0.15</v>
       </c>
-      <c r="R15" s="50">
+      <c r="R15" s="54">
         <v>0.15</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S15" s="14">
         <v>30</v>
       </c>
-      <c r="T15" s="27">
+      <c r="T15" s="29">
         <f>J15/S15</f>
         <v>1</v>
       </c>
-      <c r="U15" s="69" t="s">
+      <c r="U15" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="32" t="s">
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y15" s="14" t="s">
+      <c r="Y15" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z15" s="12">
+      <c r="Z15" s="14">
         <v>5</v>
       </c>
-      <c r="AA15" s="76">
+      <c r="AA15" s="93">
         <v>0.01</v>
       </c>
     </row>
     <row r="16" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A16" s="12">
+      <c r="A16" s="14">
         <v>13</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="I16" s="14" t="str">
+      <c r="I16" s="16" t="str">
         <f>VLOOKUP(B16,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-B</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="14">
         <v>500</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27">
+      <c r="L16" s="30"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="68">
         <f t="shared" ref="P16:P22" si="2">O16*T16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="50">
+      <c r="Q16" s="76">
         <v>2.5</v>
       </c>
-      <c r="R16" s="50">
+      <c r="R16" s="54">
         <v>2.5</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="14">
         <v>500</v>
       </c>
-      <c r="T16" s="27"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14" t="s">
+      <c r="T16" s="29"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y16" s="14" t="s">
+      <c r="Y16" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z16" s="12">
+      <c r="Z16" s="14">
         <v>5</v>
       </c>
-      <c r="AA16" s="76">
+      <c r="AA16" s="93">
         <v>0.01</v>
       </c>
     </row>
     <row r="17" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A17" s="12">
+      <c r="A17" s="14">
         <v>14</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="14" t="str">
+      <c r="I17" s="16" t="str">
         <f>VLOOKUP(B17,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-4C</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="14">
         <v>400</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27">
+      <c r="L17" s="30"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="50">
+      <c r="Q17" s="76">
         <v>2</v>
       </c>
-      <c r="R17" s="50">
+      <c r="R17" s="54">
         <v>2</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="14">
         <v>400</v>
       </c>
-      <c r="T17" s="27"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14" t="s">
+      <c r="T17" s="29"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y17" s="14" t="s">
+      <c r="Y17" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z17" s="12">
+      <c r="Z17" s="14">
         <v>5</v>
       </c>
-      <c r="AA17" s="76">
+      <c r="AA17" s="93">
         <v>0.01</v>
       </c>
     </row>
     <row r="18" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A18" s="12">
+      <c r="A18" s="14">
         <v>15</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="I18" s="14" t="str">
+      <c r="I18" s="16" t="str">
         <f>VLOOKUP(B18,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-2C</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="14">
         <v>40</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27">
+      <c r="L18" s="30"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="50">
+      <c r="Q18" s="76">
         <v>0.2</v>
       </c>
-      <c r="R18" s="50">
+      <c r="R18" s="54">
         <v>0.2</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18" s="14">
         <v>40</v>
       </c>
-      <c r="T18" s="27"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14" t="s">
+      <c r="T18" s="29"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y18" s="14" t="s">
+      <c r="Y18" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z18" s="12">
+      <c r="Z18" s="14">
         <v>5</v>
       </c>
-      <c r="AA18" s="76">
+      <c r="AA18" s="93">
         <v>0.01</v>
       </c>
     </row>
     <row r="19" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A19" s="12">
+      <c r="A19" s="14">
         <v>16</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="14" t="str">
+      <c r="I19" s="16" t="str">
         <f>VLOOKUP(B19,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900-T-1.2D</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="14">
         <v>40</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27">
+      <c r="L19" s="30"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="50">
+      <c r="Q19" s="76">
         <v>0.2</v>
       </c>
-      <c r="R19" s="50">
+      <c r="R19" s="54">
         <v>0.2</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="14">
         <v>40</v>
       </c>
-      <c r="T19" s="27"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14" t="s">
+      <c r="T19" s="29"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y19" s="14" t="s">
+      <c r="Y19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z19" s="12">
+      <c r="Z19" s="14">
         <v>3</v>
       </c>
-      <c r="AA19" s="76">
+      <c r="AA19" s="93">
         <v>0.01</v>
       </c>
     </row>
     <row r="20" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A20" s="12">
+      <c r="A20" s="14">
         <v>17</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="I20" s="14" t="str">
+      <c r="I20" s="16" t="str">
         <f>VLOOKUP(B20,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>WRNT-013</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="14">
         <v>140</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L20" s="28"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27">
+      <c r="L20" s="30"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="50">
+      <c r="Q20" s="76">
         <v>0.7</v>
       </c>
-      <c r="R20" s="50">
+      <c r="R20" s="54">
         <v>0.7</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="14">
         <v>140</v>
       </c>
-      <c r="T20" s="27"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14" t="s">
+      <c r="T20" s="29"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y20" s="14" t="s">
+      <c r="Y20" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z20" s="12">
+      <c r="Z20" s="14">
         <v>1.2</v>
       </c>
-      <c r="AA20" s="76">
+      <c r="AA20" s="93">
         <v>0.01</v>
       </c>
     </row>
     <row r="21" ht="24.95" customHeight="1" spans="1:28">
-      <c r="A21" s="12">
+      <c r="A21" s="14">
         <v>18</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="14" t="str">
+      <c r="I21" s="16" t="str">
         <f>VLOOKUP(B21,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="14">
         <v>250</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L21" s="32"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31">
+      <c r="L21" s="34"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="50">
+      <c r="Q21" s="76">
         <v>1.25</v>
       </c>
-      <c r="R21" s="50">
+      <c r="R21" s="54">
         <v>1.25</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21" s="14">
         <v>250</v>
       </c>
-      <c r="T21" s="31"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14" t="s">
+      <c r="T21" s="33"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y21" s="14" t="s">
+      <c r="Y21" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z21" s="12">
+      <c r="Z21" s="14">
         <v>0.99</v>
       </c>
-      <c r="AA21" s="76">
+      <c r="AA21" s="93">
         <v>0.01</v>
       </c>
-      <c r="AB21" s="11" t="s">
+      <c r="AB21" s="13" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="22" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A22" s="12">
+      <c r="A22" s="14">
         <v>19</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="I22" s="14" t="str">
+      <c r="I22" s="16" t="str">
         <f>VLOOKUP(B22,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="14">
         <v>388</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="51" t="s">
+      <c r="L22" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="M22" s="58">
+      <c r="M22" s="66">
         <f ca="1">ROUND(EVALUATE(L22)*1000*0.000000001,2)</f>
         <v>0.02</v>
       </c>
-      <c r="N22" s="58">
+      <c r="N22" s="66">
         <f ca="1">M22*T22</f>
         <v>0.02</v>
       </c>
-      <c r="O22" s="58">
+      <c r="O22" s="66">
         <v>20</v>
       </c>
-      <c r="P22" s="58">
+      <c r="P22" s="67">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q22" s="50">
+      <c r="Q22" s="76">
         <v>3.49</v>
       </c>
-      <c r="R22" s="50">
+      <c r="R22" s="54">
         <v>3.49</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="14">
         <v>388</v>
       </c>
-      <c r="T22" s="27">
+      <c r="T22" s="29">
         <f>J22/S22</f>
         <v>1</v>
       </c>
-      <c r="U22" s="69" t="s">
+      <c r="U22" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14" t="s">
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y22" s="14" t="s">
+      <c r="Y22" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z22" s="12">
+      <c r="Z22" s="14">
         <v>1.32</v>
       </c>
-      <c r="AA22" s="76">
+      <c r="AA22" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="23" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A23" s="12">
+      <c r="A23" s="14">
         <v>20</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="I23" s="14" t="str">
+      <c r="I23" s="16" t="str">
         <f>VLOOKUP(B23,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="14">
         <v>457</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="50">
+      <c r="L23" s="30"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="76">
         <v>4.11</v>
       </c>
-      <c r="R23" s="50">
+      <c r="R23" s="54">
         <v>4.11</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23" s="14">
         <v>457</v>
       </c>
-      <c r="T23" s="27"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14" t="s">
+      <c r="T23" s="29"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y23" s="14" t="s">
+      <c r="Y23" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z23" s="12">
+      <c r="Z23" s="14">
         <v>1.32</v>
       </c>
-      <c r="AA23" s="76">
+      <c r="AA23" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="24" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A24" s="12">
+      <c r="A24" s="14">
         <v>21</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="I24" s="14" t="str">
+      <c r="I24" s="16" t="str">
         <f>VLOOKUP(B24,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="14">
         <v>458</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="50">
+      <c r="L24" s="30"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="76">
         <v>4.12</v>
       </c>
-      <c r="R24" s="50">
+      <c r="R24" s="54">
         <v>4.12</v>
       </c>
-      <c r="S24" s="12">
+      <c r="S24" s="14">
         <v>458</v>
       </c>
-      <c r="T24" s="27"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14" t="s">
+      <c r="T24" s="29"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y24" s="14" t="s">
+      <c r="Y24" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z24" s="12">
+      <c r="Z24" s="14">
         <v>1.32</v>
       </c>
-      <c r="AA24" s="76">
+      <c r="AA24" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="25" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A25" s="12">
+      <c r="A25" s="14">
         <v>22</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="I25" s="14" t="str">
+      <c r="I25" s="16" t="str">
         <f>VLOOKUP(B25,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="14">
         <v>287</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="28"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="50">
+      <c r="L25" s="30"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="76">
         <v>2.58</v>
       </c>
-      <c r="R25" s="50">
+      <c r="R25" s="54">
         <v>2.58</v>
       </c>
-      <c r="S25" s="12">
+      <c r="S25" s="14">
         <v>287</v>
       </c>
-      <c r="T25" s="27"/>
-      <c r="U25" s="70"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14" t="s">
+      <c r="T25" s="29"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y25" s="14" t="s">
+      <c r="Y25" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z25" s="12">
+      <c r="Z25" s="14">
         <v>1.32</v>
       </c>
-      <c r="AA25" s="76">
+      <c r="AA25" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="26" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A26" s="12">
+      <c r="A26" s="14">
         <v>23</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="I26" s="14" t="str">
+      <c r="I26" s="16" t="str">
         <f>VLOOKUP(B26,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="14">
         <v>40</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L26" s="28"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="50">
+      <c r="L26" s="30"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="76">
         <v>0.36</v>
       </c>
-      <c r="R26" s="50">
+      <c r="R26" s="54">
         <v>0.36</v>
       </c>
-      <c r="S26" s="12">
+      <c r="S26" s="14">
         <v>40</v>
       </c>
-      <c r="T26" s="27"/>
-      <c r="U26" s="70"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14" t="s">
+      <c r="T26" s="29"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y26" s="14" t="s">
+      <c r="Y26" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="12">
+      <c r="Z26" s="14">
         <v>1.32</v>
       </c>
-      <c r="AA26" s="76">
+      <c r="AA26" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="27" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A27" s="12">
+      <c r="A27" s="14">
         <v>24</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="I27" s="14" t="str">
+      <c r="I27" s="16" t="str">
         <f>VLOOKUP(B27,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="14">
         <v>60</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="28"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="50">
+      <c r="L27" s="30"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="76">
         <v>0.54</v>
       </c>
-      <c r="R27" s="50">
+      <c r="R27" s="54">
         <v>0.54</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S27" s="14">
         <v>60</v>
       </c>
-      <c r="T27" s="27"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14" t="s">
+      <c r="T27" s="29"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y27" s="14" t="s">
+      <c r="Y27" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z27" s="12">
+      <c r="Z27" s="14">
         <v>1.32</v>
       </c>
-      <c r="AA27" s="76">
+      <c r="AA27" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="28" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A28" s="12">
+      <c r="A28" s="14">
         <v>25</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="I28" s="14" t="str">
+      <c r="I28" s="16" t="str">
         <f>VLOOKUP(B28,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="14">
         <v>50</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L28" s="28"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="50">
+      <c r="L28" s="30"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="76">
         <v>0.45</v>
       </c>
-      <c r="R28" s="50">
+      <c r="R28" s="54">
         <v>0.45</v>
       </c>
-      <c r="S28" s="12">
+      <c r="S28" s="14">
         <v>50</v>
       </c>
-      <c r="T28" s="27"/>
-      <c r="U28" s="70"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14" t="s">
+      <c r="T28" s="29"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y28" s="14" t="s">
+      <c r="Y28" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z28" s="12">
+      <c r="Z28" s="14">
         <v>1.32</v>
       </c>
-      <c r="AA28" s="76">
+      <c r="AA28" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="29" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A29" s="12">
+      <c r="A29" s="14">
         <v>26</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="I29" s="14" t="str">
+      <c r="I29" s="16" t="str">
         <f>VLOOKUP(B29,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="14">
         <v>50</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="28"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="50">
+      <c r="L29" s="30"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="76">
         <v>0.45</v>
       </c>
-      <c r="R29" s="50">
+      <c r="R29" s="54">
         <v>0.45</v>
       </c>
-      <c r="S29" s="12">
+      <c r="S29" s="14">
         <v>50</v>
       </c>
-      <c r="T29" s="27"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14" t="s">
+      <c r="T29" s="29"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y29" s="14" t="s">
+      <c r="Y29" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z29" s="12">
+      <c r="Z29" s="14">
         <v>1.32</v>
       </c>
-      <c r="AA29" s="76">
+      <c r="AA29" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="30" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A30" s="12">
+      <c r="A30" s="14">
         <v>27</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="I30" s="14" t="str">
+      <c r="I30" s="16" t="str">
         <f>VLOOKUP(B30,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="14">
         <v>110</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L30" s="32"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="50">
+      <c r="L30" s="34"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="76">
         <v>0.99</v>
       </c>
-      <c r="R30" s="50">
+      <c r="R30" s="54">
         <v>0.99</v>
       </c>
-      <c r="S30" s="12">
+      <c r="S30" s="14">
         <v>110</v>
       </c>
-      <c r="T30" s="31"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14" t="s">
+      <c r="T30" s="33"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y30" s="14" t="s">
+      <c r="Y30" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z30" s="12">
+      <c r="Z30" s="14">
         <v>1.32</v>
       </c>
-      <c r="AA30" s="76">
+      <c r="AA30" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:29">
-      <c r="A31" s="12">
+      <c r="A31" s="14">
         <v>28</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="I31" s="14" t="str">
+      <c r="I31" s="16" t="str">
         <f>VLOOKUP(B31,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J31" s="59">
+      <c r="J31" s="70">
         <v>2040</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K31" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="L31" s="60" t="s">
+      <c r="L31" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="M31" s="47">
+      <c r="M31" s="51">
         <f ca="1">ROUND(EVALUATE(L31)*1000*0.000000001,2)</f>
         <v>0.09</v>
       </c>
-      <c r="N31" s="60">
+      <c r="N31" s="71">
         <f ca="1">M31*T31</f>
         <v>6.12</v>
       </c>
-      <c r="O31" s="60" t="s">
+      <c r="O31" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="P31" s="61">
+      <c r="P31" s="72">
         <f>O31*T31</f>
         <v>1204.28</v>
       </c>
-      <c r="Q31" s="50">
+      <c r="Q31" s="76">
         <v>1200</v>
       </c>
-      <c r="R31" s="50">
+      <c r="R31" s="54">
         <v>1200</v>
       </c>
-      <c r="S31" s="66" t="s">
+      <c r="S31" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="T31" s="12">
+      <c r="T31" s="14">
         <f>J31/S31</f>
         <v>68</v>
       </c>
-      <c r="U31" s="68" t="s">
+      <c r="U31" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="V31" s="72"/>
-      <c r="W31" s="72"/>
-      <c r="X31" s="32" t="s">
+      <c r="V31" s="88"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y31" s="14" t="s">
+      <c r="Y31" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z31" s="77">
+      <c r="Z31" s="94">
         <v>14.8</v>
       </c>
-      <c r="AA31" s="76">
+      <c r="AA31" s="93">
         <v>0.13</v>
       </c>
-      <c r="AB31" s="78"/>
-      <c r="AC31" s="79"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="96"/>
     </row>
     <row r="32" customHeight="1" spans="1:29">
-      <c r="A32" s="12">
+      <c r="A32" s="14">
         <v>29</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="I32" s="14" t="str">
+      <c r="I32" s="16" t="str">
         <f>VLOOKUP(B32,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J32" s="59">
+      <c r="J32" s="70">
         <v>2800</v>
       </c>
-      <c r="K32" s="31" t="s">
+      <c r="K32" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="L32" s="60" t="s">
+      <c r="L32" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="M32" s="47">
+      <c r="M32" s="51">
         <f ca="1">ROUND(EVALUATE(L32)*1000*0.000000001,2)</f>
         <v>0.07</v>
       </c>
-      <c r="N32" s="52">
+      <c r="N32" s="56">
         <f ca="1">M32*T32</f>
         <v>3.92</v>
       </c>
-      <c r="O32" s="48">
+      <c r="O32" s="52">
         <v>15.5</v>
       </c>
-      <c r="P32" s="61">
+      <c r="P32" s="72">
         <f>O32*T32</f>
         <v>868</v>
       </c>
-      <c r="Q32" s="50">
+      <c r="Q32" s="76">
         <v>866</v>
       </c>
-      <c r="R32" s="50">
+      <c r="R32" s="54">
         <v>866</v>
       </c>
-      <c r="S32" s="66" t="s">
+      <c r="S32" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="T32" s="12">
+      <c r="T32" s="14">
         <f>J32/S32</f>
         <v>56</v>
       </c>
-      <c r="U32" s="68" t="s">
+      <c r="U32" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="32" t="s">
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y32" s="14" t="s">
+      <c r="Y32" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z32" s="77">
+      <c r="Z32" s="94">
         <v>7.3</v>
       </c>
-      <c r="AA32" s="76">
+      <c r="AA32" s="93">
         <v>0.13</v>
       </c>
-      <c r="AB32" s="78"/>
-      <c r="AC32" s="79"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="96"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A33" s="12">
+      <c r="A33" s="14">
         <v>30</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="I33" s="14" t="str">
+      <c r="I33" s="16" t="str">
         <f>VLOOKUP(B33,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>AT-TSSOP20-CMS</v>
       </c>
-      <c r="J33" s="62">
+      <c r="J33" s="73">
         <v>2</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L33" s="60" t="s">
+      <c r="L33" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="M33" s="48">
+      <c r="M33" s="52">
         <f ca="1">ROUND(EVALUATE(L33)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N33" s="52">
+      <c r="N33" s="56">
         <f ca="1">M33*T33</f>
         <v>0.01</v>
       </c>
-      <c r="O33" s="53">
+      <c r="O33" s="57">
         <v>1</v>
       </c>
-      <c r="P33" s="55">
+      <c r="P33" s="63">
         <f>O33*T33</f>
         <v>1</v>
       </c>
-      <c r="Q33" s="50">
+      <c r="Q33" s="76">
         <v>0.3</v>
       </c>
-      <c r="R33" s="50">
+      <c r="R33" s="54">
         <v>0.3</v>
       </c>
-      <c r="S33" s="12">
+      <c r="S33" s="14">
         <v>2</v>
       </c>
-      <c r="T33" s="58">
+      <c r="T33" s="66">
         <f>J33/S33</f>
         <v>1</v>
       </c>
-      <c r="U33" s="69" t="s">
+      <c r="U33" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="V33" s="72"/>
-      <c r="W33" s="72"/>
-      <c r="X33" s="32" t="s">
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y33" s="14" t="s">
+      <c r="Y33" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z33" s="77">
+      <c r="Z33" s="94">
         <v>580</v>
       </c>
-      <c r="AA33" s="76">
+      <c r="AA33" s="93">
         <v>0.13</v>
       </c>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="79"/>
+      <c r="AB33" s="96"/>
+      <c r="AC33" s="96"/>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A34" s="12">
+      <c r="A34" s="14">
         <v>31</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H34" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="I34" s="14" t="str">
+      <c r="I34" s="16" t="str">
         <f>VLOOKUP(B34,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>KLV-M913A-A10</v>
       </c>
-      <c r="J34" s="62">
+      <c r="J34" s="73">
         <v>5</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="K34" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="50">
+      <c r="L34" s="71"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="76">
         <v>0.6</v>
       </c>
-      <c r="R34" s="50">
+      <c r="R34" s="54">
         <v>0.6</v>
       </c>
-      <c r="S34" s="12">
+      <c r="S34" s="14">
         <v>5</v>
       </c>
-      <c r="T34" s="27"/>
-      <c r="U34" s="70"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
-      <c r="X34" s="32" t="s">
+      <c r="T34" s="29"/>
+      <c r="U34" s="86"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y34" s="14" t="s">
+      <c r="Y34" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z34" s="80">
+      <c r="Z34" s="97">
         <v>80</v>
       </c>
-      <c r="AA34" s="81">
+      <c r="AA34" s="98">
         <v>0.13</v>
       </c>
-      <c r="AB34" s="79"/>
-      <c r="AC34" s="79"/>
+      <c r="AB34" s="96"/>
+      <c r="AC34" s="96"/>
     </row>
     <row r="35" customHeight="1" spans="1:29">
-      <c r="A35" s="12">
+      <c r="A35" s="14">
         <v>32</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="I35" s="14" t="str">
+      <c r="I35" s="16" t="str">
         <f>VLOOKUP(B35,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J35" s="63">
+      <c r="J35" s="74">
         <v>3</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="K35" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="L35" s="60" t="s">
+      <c r="L35" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="M35" s="47">
+      <c r="M35" s="51">
         <f ca="1">ROUND(EVALUATE(L35)*1000*0.000000001,2)</f>
         <v>0.06</v>
       </c>
-      <c r="N35" s="52">
+      <c r="N35" s="56">
         <f ca="1" t="shared" ref="N35:N39" si="3">M35*T35</f>
         <v>0.06</v>
       </c>
-      <c r="O35" s="48">
+      <c r="O35" s="52">
         <v>34.24</v>
       </c>
-      <c r="P35" s="61">
-        <f t="shared" ref="P35:P50" si="4">O35*T35</f>
-        <v>34.24</v>
-      </c>
-      <c r="Q35" s="55">
-        <v>34</v>
-      </c>
-      <c r="R35" s="55">
+      <c r="P35" s="75">
+        <v>66.1</v>
+      </c>
+      <c r="Q35" s="75">
+        <f>SUM(P35:P37)</f>
+        <v>66.1</v>
+      </c>
+      <c r="R35" s="63">
         <v>64.2</v>
       </c>
-      <c r="S35" s="64" t="s">
+      <c r="S35" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="T35" s="12">
+      <c r="T35" s="14">
         <f>J35/S35</f>
         <v>1</v>
       </c>
-      <c r="U35" s="68" t="s">
+      <c r="U35" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="28" t="s">
+      <c r="V35" s="88"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="Y35" s="14" t="s">
+      <c r="Y35" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z35" s="80">
+      <c r="Z35" s="97">
         <v>1160</v>
       </c>
-      <c r="AA35" s="81">
+      <c r="AA35" s="98">
         <v>0.13</v>
       </c>
-      <c r="AB35" s="78" t="s">
+      <c r="AB35" s="95" t="s">
         <v>194</v>
       </c>
-      <c r="AC35" s="79"/>
+      <c r="AC35" s="96"/>
     </row>
     <row r="36" customHeight="1" spans="1:29">
-      <c r="A36" s="12">
+      <c r="A36" s="14">
         <v>33</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="20" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="I36" s="14"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="60" t="s">
+      <c r="I36" s="16"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="M36" s="47">
+      <c r="M36" s="51">
         <f ca="1">ROUND(EVALUATE(L36)*1000*0.000000001,2)</f>
         <v>0.03</v>
       </c>
-      <c r="N36" s="52">
+      <c r="N36" s="56">
         <f ca="1" t="shared" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="O36" s="49">
+      <c r="O36" s="53">
         <v>18.4</v>
       </c>
-      <c r="P36" s="61">
-        <f t="shared" si="4"/>
-        <v>18.4</v>
-      </c>
-      <c r="Q36" s="55">
+      <c r="P36" s="75"/>
+      <c r="Q36" s="75">
         <v>205</v>
       </c>
-      <c r="R36" s="55"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="12">
+      <c r="R36" s="63"/>
+      <c r="S36" s="80"/>
+      <c r="T36" s="14">
         <f>J35/S35</f>
         <v>1</v>
       </c>
-      <c r="U36" s="68" t="s">
+      <c r="U36" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="14" t="s">
+      <c r="V36" s="88"/>
+      <c r="W36" s="88"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z36" s="82"/>
-      <c r="AA36" s="83"/>
-      <c r="AB36" s="78"/>
-      <c r="AC36" s="79"/>
+      <c r="Z36" s="99"/>
+      <c r="AA36" s="100"/>
+      <c r="AB36" s="95"/>
+      <c r="AC36" s="96"/>
     </row>
     <row r="37" customHeight="1" spans="1:29">
-      <c r="A37" s="12">
+      <c r="A37" s="14">
         <v>34</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="60" t="s">
+      <c r="I37" s="16"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="M37" s="47">
+      <c r="M37" s="51">
         <f ca="1">ROUND(EVALUATE(L37)*1000*0.000000001,2)</f>
         <v>0.05</v>
       </c>
-      <c r="N37" s="52">
+      <c r="N37" s="56">
         <f ca="1" t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="O37" s="49">
+      <c r="O37" s="53">
         <v>13.38</v>
       </c>
-      <c r="P37" s="61">
-        <f t="shared" si="4"/>
-        <v>13.38</v>
-      </c>
-      <c r="Q37" s="50">
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76">
         <v>270</v>
       </c>
-      <c r="R37" s="50"/>
-      <c r="S37" s="66"/>
-      <c r="T37" s="12">
+      <c r="R37" s="54"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="14">
         <f>J35/S35</f>
         <v>1</v>
       </c>
-      <c r="U37" s="68" t="s">
+      <c r="U37" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="V37" s="72"/>
-      <c r="W37" s="72"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="14" t="s">
+      <c r="V37" s="88"/>
+      <c r="W37" s="88"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z37" s="84"/>
-      <c r="AA37" s="85"/>
-      <c r="AB37" s="78"/>
-      <c r="AC37" s="79"/>
+      <c r="Z37" s="101"/>
+      <c r="AA37" s="102"/>
+      <c r="AB37" s="95"/>
+      <c r="AC37" s="96"/>
     </row>
     <row r="38" customHeight="1" spans="1:29">
-      <c r="A38" s="12">
+      <c r="A38" s="14">
         <v>35</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="I38" s="14" t="str">
+      <c r="I38" s="16" t="str">
         <f>VLOOKUP(B38,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J38" s="63">
+      <c r="J38" s="74">
         <v>12</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K38" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="L38" s="60" t="s">
+      <c r="L38" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="M38" s="47">
-        <f ca="1" t="shared" ref="M38:M50" si="5">ROUND(EVALUATE(L38)*1000*0.000000001,2)</f>
+      <c r="M38" s="51">
+        <f ca="1" t="shared" ref="M38:M50" si="4">ROUND(EVALUATE(L38)*1000*0.000000001,2)</f>
         <v>0.05</v>
       </c>
-      <c r="N38" s="48">
+      <c r="N38" s="52">
         <f ca="1" t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="O38" s="48">
+      <c r="O38" s="52">
         <v>34.91</v>
       </c>
-      <c r="P38" s="61">
-        <f t="shared" si="4"/>
+      <c r="P38" s="72">
+        <f>O38*T38</f>
         <v>34.91</v>
       </c>
-      <c r="Q38" s="50">
+      <c r="Q38" s="76">
         <v>34</v>
       </c>
-      <c r="R38" s="50">
+      <c r="R38" s="54">
         <v>34</v>
       </c>
-      <c r="S38" s="60" t="s">
+      <c r="S38" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="T38" s="12">
+      <c r="T38" s="14">
         <v>1</v>
       </c>
-      <c r="U38" s="68" t="s">
+      <c r="U38" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="14" t="s">
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y38" s="14" t="s">
+      <c r="Y38" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z38" s="77">
+      <c r="Z38" s="94">
         <v>1300</v>
       </c>
-      <c r="AA38" s="76">
+      <c r="AA38" s="93">
         <v>0.13</v>
       </c>
-      <c r="AB38" s="78"/>
-      <c r="AC38" s="79"/>
-    </row>
-    <row r="39" ht="26.1" customHeight="1" spans="1:27">
-      <c r="A39" s="12">
+      <c r="AB38" s="95"/>
+      <c r="AC38" s="96"/>
+    </row>
+    <row r="39" s="3" customFormat="1" ht="26.1" customHeight="1" spans="1:28">
+      <c r="A39" s="37">
         <v>36</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="G39" s="37" t="s">
+      <c r="G39" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="I39" s="14" t="str">
+      <c r="I39" s="77" t="str">
         <f>VLOOKUP(B39,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J39" s="58">
+      <c r="J39" s="67">
         <v>9</v>
       </c>
-      <c r="K39" s="58" t="s">
+      <c r="K39" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="L39" s="60" t="s">
+      <c r="L39" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="M39" s="47">
-        <f ca="1" t="shared" si="5"/>
+      <c r="M39" s="61">
+        <f ca="1" t="shared" si="4"/>
         <v>0.01</v>
       </c>
-      <c r="N39" s="48">
+      <c r="N39" s="61">
         <f ca="1" t="shared" si="3"/>
         <v>0.01</v>
       </c>
-      <c r="O39" s="48">
+      <c r="O39" s="61">
         <v>10.63</v>
       </c>
-      <c r="P39" s="61">
-        <f t="shared" si="4"/>
-        <v>10.63</v>
-      </c>
-      <c r="Q39" s="55">
+      <c r="P39" s="72">
+        <v>206</v>
+      </c>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63">
         <v>205</v>
       </c>
-      <c r="R39" s="55">
-        <v>205</v>
-      </c>
-      <c r="S39" s="27">
+      <c r="S39" s="68">
         <v>9</v>
       </c>
-      <c r="T39" s="12">
+      <c r="T39" s="37">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U39" s="68" t="s">
+      <c r="U39" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="28" t="s">
+      <c r="V39" s="77"/>
+      <c r="W39" s="77"/>
+      <c r="X39" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="Y39" s="14" t="s">
+      <c r="Y39" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="Z39" s="58">
+      <c r="Z39" s="67">
         <v>300</v>
       </c>
-      <c r="AA39" s="81">
+      <c r="AA39" s="103">
         <v>0.13</v>
       </c>
+      <c r="AB39" s="104"/>
     </row>
     <row r="40" customHeight="1" spans="1:29">
-      <c r="A40" s="12">
+      <c r="A40" s="14">
         <v>37</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="20" t="s">
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="60" t="s">
+      <c r="I40" s="16"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="M40" s="47">
-        <f ca="1" t="shared" si="5"/>
+      <c r="M40" s="51">
+        <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N40" s="48">
+      <c r="N40" s="52">
         <v>0.08</v>
       </c>
-      <c r="O40" s="48">
+      <c r="O40" s="52">
         <v>25.83</v>
       </c>
-      <c r="P40" s="61">
-        <f t="shared" si="4"/>
-        <v>25.83</v>
-      </c>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="12">
+      <c r="P40" s="72">
+        <v>206</v>
+      </c>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="14">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U40" s="68" t="s">
+      <c r="U40" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="14" t="s">
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="83"/>
-      <c r="AB40" s="78"/>
-      <c r="AC40" s="79"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="100"/>
+      <c r="AB40" s="95"/>
+      <c r="AC40" s="96"/>
     </row>
     <row r="41" customHeight="1" spans="1:29">
-      <c r="A41" s="12">
+      <c r="A41" s="14">
         <v>38</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="20" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="I41" s="14"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="60" t="s">
+      <c r="I41" s="16"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="M41" s="47">
-        <f ca="1" t="shared" si="5"/>
+      <c r="M41" s="51">
+        <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N41" s="48">
+      <c r="N41" s="52">
         <v>0.08</v>
       </c>
-      <c r="O41" s="48">
+      <c r="O41" s="52">
         <v>21.09</v>
       </c>
-      <c r="P41" s="61">
-        <f t="shared" si="4"/>
-        <v>21.09</v>
-      </c>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="12">
+      <c r="P41" s="72">
+        <v>206</v>
+      </c>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="14">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U41" s="68" t="s">
+      <c r="U41" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="14" t="s">
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="83"/>
-      <c r="AB41" s="78"/>
-      <c r="AC41" s="79"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="100"/>
+      <c r="AB41" s="95"/>
+      <c r="AC41" s="96"/>
     </row>
     <row r="42" customHeight="1" spans="1:29">
-      <c r="A42" s="12">
+      <c r="A42" s="14">
         <v>39</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="20" t="s">
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="60" t="s">
+      <c r="I42" s="16"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="M42" s="47">
-        <f ca="1" t="shared" si="5"/>
+      <c r="M42" s="51">
+        <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N42" s="48">
+      <c r="N42" s="52">
         <v>0.08</v>
       </c>
-      <c r="O42" s="48">
+      <c r="O42" s="52">
         <v>33.25</v>
       </c>
-      <c r="P42" s="61">
-        <f t="shared" si="4"/>
-        <v>33.25</v>
-      </c>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="12">
+      <c r="P42" s="72">
+        <v>206</v>
+      </c>
+      <c r="Q42" s="75"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="14">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U42" s="68" t="s">
+      <c r="U42" s="84" t="s">
         <v>222</v>
       </c>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="14" t="s">
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="83"/>
-      <c r="AB42" s="78"/>
-      <c r="AC42" s="79"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="100"/>
+      <c r="AB42" s="95"/>
+      <c r="AC42" s="96"/>
     </row>
     <row r="43" customHeight="1" spans="1:29">
-      <c r="A43" s="12">
+      <c r="A43" s="14">
         <v>40</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="20" t="s">
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="I43" s="14"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="60" t="s">
+      <c r="I43" s="16"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="M43" s="47">
-        <f ca="1" t="shared" si="5"/>
+      <c r="M43" s="51">
+        <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N43" s="48">
+      <c r="N43" s="52">
         <v>0.08</v>
       </c>
-      <c r="O43" s="48">
+      <c r="O43" s="52">
         <v>33.25</v>
       </c>
-      <c r="P43" s="61">
-        <f t="shared" si="4"/>
-        <v>33.25</v>
-      </c>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="55"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="12">
+      <c r="P43" s="72">
+        <v>206</v>
+      </c>
+      <c r="Q43" s="75"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="14">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U43" s="68" t="s">
+      <c r="U43" s="84" t="s">
         <v>223</v>
       </c>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="14" t="s">
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="83"/>
-      <c r="AB43" s="78"/>
-      <c r="AC43" s="79"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="100"/>
+      <c r="AB43" s="95"/>
+      <c r="AC43" s="96"/>
     </row>
     <row r="44" customHeight="1" spans="1:29">
-      <c r="A44" s="12">
+      <c r="A44" s="14">
         <v>41</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="20" t="s">
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="I44" s="14"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="60" t="s">
+      <c r="I44" s="16"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="M44" s="47">
-        <f ca="1" t="shared" si="5"/>
+      <c r="M44" s="51">
+        <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N44" s="48">
+      <c r="N44" s="52">
         <v>0.08</v>
       </c>
-      <c r="O44" s="48">
+      <c r="O44" s="52">
         <v>33.25</v>
       </c>
-      <c r="P44" s="61">
-        <f t="shared" si="4"/>
-        <v>33.25</v>
-      </c>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="55"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="12">
+      <c r="P44" s="72">
+        <v>206</v>
+      </c>
+      <c r="Q44" s="75"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="14">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U44" s="68" t="s">
+      <c r="U44" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="14" t="s">
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="83"/>
-      <c r="AB44" s="78"/>
-      <c r="AC44" s="79"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="100"/>
+      <c r="AB44" s="95"/>
+      <c r="AC44" s="96"/>
     </row>
     <row r="45" customHeight="1" spans="1:29">
-      <c r="A45" s="12">
+      <c r="A45" s="14">
         <v>42</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="20" t="s">
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="I45" s="14"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="60" t="s">
+      <c r="I45" s="16"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="M45" s="47">
-        <f ca="1" t="shared" si="5"/>
+      <c r="M45" s="51">
+        <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N45" s="48">
+      <c r="N45" s="52">
         <v>0.08</v>
       </c>
-      <c r="O45" s="48">
+      <c r="O45" s="52">
         <v>33.25</v>
       </c>
-      <c r="P45" s="61">
-        <f t="shared" si="4"/>
-        <v>33.25</v>
-      </c>
-      <c r="Q45" s="55"/>
-      <c r="R45" s="55"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="12">
+      <c r="P45" s="72">
+        <v>206</v>
+      </c>
+      <c r="Q45" s="75"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="14">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U45" s="68" t="s">
+      <c r="U45" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="14" t="s">
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="83"/>
-      <c r="AB45" s="78"/>
-      <c r="AC45" s="79"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="100"/>
+      <c r="AB45" s="95"/>
+      <c r="AC45" s="96"/>
     </row>
     <row r="46" customHeight="1" spans="1:29">
-      <c r="A46" s="12">
+      <c r="A46" s="14">
         <v>43</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="20" t="s">
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="I46" s="14"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="60" t="s">
+      <c r="I46" s="16"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="M46" s="47">
-        <f ca="1" t="shared" si="5"/>
+      <c r="M46" s="51">
+        <f ca="1" t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="N46" s="48">
+      <c r="N46" s="52">
         <v>0.04</v>
       </c>
-      <c r="O46" s="48">
+      <c r="O46" s="52">
         <v>16.91</v>
       </c>
-      <c r="P46" s="61">
-        <f t="shared" si="4"/>
-        <v>16.91</v>
-      </c>
-      <c r="Q46" s="50"/>
-      <c r="R46" s="50"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="12">
+      <c r="P46" s="72">
+        <v>206</v>
+      </c>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="14">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U46" s="68" t="s">
+      <c r="U46" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="V46" s="12"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="32"/>
-      <c r="Y46" s="14" t="s">
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="85"/>
-      <c r="AB46" s="78"/>
-      <c r="AC46" s="79"/>
+      <c r="Z46" s="33"/>
+      <c r="AA46" s="102"/>
+      <c r="AB46" s="95"/>
+      <c r="AC46" s="96"/>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A47" s="12">
+      <c r="A47" s="14">
         <v>44</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="G47" s="43" t="s">
+      <c r="G47" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="H47" s="20" t="s">
+      <c r="H47" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="I47" s="14" t="str">
+      <c r="I47" s="16" t="str">
         <f>VLOOKUP(B47,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J47" s="31">
+      <c r="J47" s="33">
         <v>10</v>
       </c>
-      <c r="K47" s="31" t="s">
+      <c r="K47" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="L47" s="60" t="s">
+      <c r="L47" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="M47" s="47">
-        <f ca="1" t="shared" si="5"/>
+      <c r="M47" s="51">
+        <f ca="1" t="shared" si="4"/>
         <v>0.3</v>
       </c>
-      <c r="N47" s="52">
+      <c r="N47" s="56">
         <f ca="1">M47*T47</f>
         <v>3</v>
       </c>
-      <c r="O47" s="48">
+      <c r="O47" s="52">
         <v>37</v>
       </c>
-      <c r="P47" s="61">
-        <f t="shared" si="4"/>
+      <c r="P47" s="72">
+        <f>O47*T47</f>
         <v>370</v>
       </c>
-      <c r="Q47" s="50">
+      <c r="Q47" s="76">
         <v>270</v>
       </c>
-      <c r="R47" s="50">
+      <c r="R47" s="54">
         <v>270</v>
       </c>
-      <c r="S47" s="31">
+      <c r="S47" s="33">
         <v>1</v>
       </c>
-      <c r="T47" s="12">
+      <c r="T47" s="14">
         <f>J47/S47</f>
         <v>10</v>
       </c>
-      <c r="U47" s="68" t="s">
+      <c r="U47" s="84" t="s">
         <v>235</v>
       </c>
-      <c r="V47" s="12"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="32" t="s">
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y47" s="14" t="s">
+      <c r="Y47" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z47" s="31">
+      <c r="Z47" s="33">
         <v>3400</v>
       </c>
-      <c r="AA47" s="85">
+      <c r="AA47" s="102">
         <v>0.13</v>
       </c>
-      <c r="AB47" s="79"/>
-      <c r="AC47" s="79"/>
+      <c r="AB47" s="96"/>
+      <c r="AC47" s="96"/>
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A48" s="12">
+      <c r="A48" s="14">
         <v>45</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="G48" s="43" t="s">
+      <c r="G48" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="H48" s="20" t="s">
+      <c r="H48" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="I48" s="14" t="str">
+      <c r="I48" s="16" t="str">
         <f>VLOOKUP(B48,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J48" s="31">
+      <c r="J48" s="33">
         <v>10</v>
       </c>
-      <c r="K48" s="31" t="s">
+      <c r="K48" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="L48" s="60" t="s">
+      <c r="L48" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="M48" s="47">
-        <f ca="1" t="shared" si="5"/>
+      <c r="M48" s="51">
+        <f ca="1" t="shared" si="4"/>
         <v>0.43</v>
       </c>
-      <c r="N48" s="52">
+      <c r="N48" s="56">
         <f ca="1">M48*T48</f>
         <v>4.3</v>
       </c>
-      <c r="O48" s="48">
+      <c r="O48" s="52">
         <v>54</v>
       </c>
-      <c r="P48" s="61">
-        <f t="shared" si="4"/>
+      <c r="P48" s="72">
+        <f>O48*T48</f>
         <v>540</v>
       </c>
-      <c r="Q48" s="50">
+      <c r="Q48" s="76">
         <v>440</v>
       </c>
-      <c r="R48" s="50">
+      <c r="R48" s="54">
         <v>440</v>
       </c>
-      <c r="S48" s="31">
+      <c r="S48" s="33">
         <v>1</v>
       </c>
-      <c r="T48" s="12">
+      <c r="T48" s="14">
         <f>J48/S48</f>
         <v>10</v>
       </c>
-      <c r="U48" s="68" t="s">
+      <c r="U48" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="V48" s="12"/>
-      <c r="W48" s="12"/>
-      <c r="X48" s="32" t="s">
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y48" s="14" t="s">
+      <c r="Y48" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z48" s="31">
+      <c r="Z48" s="33">
         <v>5150</v>
       </c>
-      <c r="AA48" s="85">
+      <c r="AA48" s="102">
         <v>0.13</v>
       </c>
-      <c r="AB48" s="79"/>
-      <c r="AC48" s="79"/>
+      <c r="AB48" s="96"/>
+      <c r="AC48" s="96"/>
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A49" s="12">
+      <c r="A49" s="14">
         <v>46</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="44" t="s">
+      <c r="F49" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="G49" s="43" t="s">
+      <c r="G49" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="H49" s="20" t="s">
+      <c r="H49" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="I49" s="14" t="str">
+      <c r="I49" s="16" t="str">
         <f>VLOOKUP(B49,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>AEVF4</v>
       </c>
-      <c r="J49" s="31">
+      <c r="J49" s="33">
         <v>1</v>
       </c>
-      <c r="K49" s="31" t="s">
+      <c r="K49" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L49" s="60" t="s">
+      <c r="L49" s="71" t="s">
         <v>245</v>
       </c>
-      <c r="M49" s="47">
-        <f ca="1" t="shared" si="5"/>
+      <c r="M49" s="51">
+        <f ca="1" t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="N49" s="48">
+      <c r="N49" s="52">
         <f ca="1">M49*T49</f>
         <v>0.02</v>
       </c>
-      <c r="O49" s="49">
+      <c r="O49" s="53">
         <v>15.16</v>
       </c>
-      <c r="P49" s="50">
-        <f t="shared" si="4"/>
+      <c r="P49" s="54">
+        <f>O49*T49</f>
         <v>15.16</v>
       </c>
-      <c r="Q49" s="50">
+      <c r="Q49" s="76">
         <v>15</v>
       </c>
-      <c r="R49" s="50">
+      <c r="R49" s="54">
         <v>15</v>
       </c>
-      <c r="S49" s="31">
+      <c r="S49" s="33">
         <v>1</v>
       </c>
-      <c r="T49" s="31">
+      <c r="T49" s="33">
         <f>J49/S49</f>
         <v>1</v>
       </c>
-      <c r="U49" s="68" t="s">
+      <c r="U49" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="32" t="s">
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y49" s="14" t="s">
+      <c r="Y49" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z49" s="31">
+      <c r="Z49" s="33">
         <v>935</v>
       </c>
-      <c r="AA49" s="85">
+      <c r="AA49" s="102">
         <v>0.13</v>
       </c>
-      <c r="AB49" s="79"/>
-      <c r="AC49" s="79"/>
+      <c r="AB49" s="96"/>
+      <c r="AC49" s="96"/>
     </row>
     <row r="50" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A50" s="12">
+      <c r="A50" s="14">
         <v>47</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="H50" s="20" t="s">
+      <c r="H50" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="I50" s="14" t="str">
+      <c r="I50" s="16" t="str">
         <f>VLOOKUP(B50,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J50" s="31">
+      <c r="J50" s="33">
         <v>10</v>
       </c>
-      <c r="K50" s="31" t="s">
+      <c r="K50" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L50" s="64" t="s">
+      <c r="L50" s="79" t="s">
         <v>252</v>
       </c>
-      <c r="M50" s="54">
-        <f ca="1" t="shared" si="5"/>
+      <c r="M50" s="62">
+        <f ca="1" t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="N50" s="52">
+      <c r="N50" s="56">
         <f ca="1">M50*T50</f>
         <v>0.02</v>
       </c>
-      <c r="O50" s="53">
+      <c r="O50" s="57">
         <v>5</v>
       </c>
-      <c r="P50" s="55">
-        <f t="shared" si="4"/>
+      <c r="P50" s="63">
+        <f>O50*T50</f>
         <v>5</v>
       </c>
-      <c r="Q50" s="50">
+      <c r="Q50" s="76">
         <v>0.09</v>
       </c>
-      <c r="R50" s="50">
+      <c r="R50" s="54">
         <v>0.09</v>
       </c>
-      <c r="S50" s="31">
+      <c r="S50" s="33">
         <v>10</v>
       </c>
-      <c r="T50" s="27">
+      <c r="T50" s="29">
         <f>J50/S50</f>
         <v>1</v>
       </c>
-      <c r="U50" s="69" t="s">
+      <c r="U50" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="V50" s="12"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="32" t="s">
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y50" s="14" t="s">
+      <c r="Y50" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z50" s="31">
+      <c r="Z50" s="33">
         <v>22</v>
       </c>
-      <c r="AA50" s="85">
+      <c r="AA50" s="102">
         <v>0.13</v>
       </c>
-      <c r="AB50" s="79"/>
-      <c r="AC50" s="79"/>
+      <c r="AB50" s="96"/>
+      <c r="AC50" s="96"/>
     </row>
     <row r="51" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A51" s="12">
+      <c r="A51" s="14">
         <v>48</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="44" t="s">
+      <c r="F51" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="G51" s="43" t="s">
+      <c r="G51" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="20" t="s">
+      <c r="H51" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="I51" s="14" t="str">
+      <c r="I51" s="16" t="str">
         <f>VLOOKUP(B51,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>TG-205A-FU</v>
       </c>
-      <c r="J51" s="31">
+      <c r="J51" s="33">
         <v>5</v>
       </c>
-      <c r="K51" s="31" t="s">
+      <c r="K51" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L51" s="65"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="55"/>
-      <c r="Q51" s="50">
+      <c r="L51" s="80"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="63"/>
+      <c r="Q51" s="76">
         <v>0.04</v>
       </c>
-      <c r="R51" s="50">
+      <c r="R51" s="54">
         <v>0.04</v>
       </c>
-      <c r="S51" s="31">
+      <c r="S51" s="33">
         <v>5</v>
       </c>
-      <c r="T51" s="27"/>
-      <c r="U51" s="70"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="32" t="s">
+      <c r="T51" s="29"/>
+      <c r="U51" s="86"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y51" s="14" t="s">
+      <c r="Y51" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z51" s="31">
+      <c r="Z51" s="33">
         <v>350</v>
       </c>
-      <c r="AA51" s="85">
+      <c r="AA51" s="102">
         <v>0.13</v>
       </c>
-      <c r="AB51" s="79"/>
-      <c r="AC51" s="79"/>
+      <c r="AB51" s="96"/>
+      <c r="AC51" s="96"/>
     </row>
     <row r="52" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A52" s="12">
+      <c r="A52" s="14">
         <v>49</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="G52" s="43" t="s">
+      <c r="G52" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="H52" s="20" t="s">
+      <c r="H52" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="I52" s="14" t="str">
+      <c r="I52" s="16" t="str">
         <f>VLOOKUP(B52,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>LS1D-01033</v>
       </c>
-      <c r="J52" s="31">
+      <c r="J52" s="33">
         <v>500</v>
       </c>
-      <c r="K52" s="31" t="s">
+      <c r="K52" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L52" s="65"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="50">
+      <c r="L52" s="80"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="63"/>
+      <c r="Q52" s="76">
         <v>4.5</v>
       </c>
-      <c r="R52" s="50">
+      <c r="R52" s="54">
         <v>4.5</v>
       </c>
-      <c r="S52" s="31">
+      <c r="S52" s="33">
         <v>500</v>
       </c>
-      <c r="T52" s="27"/>
-      <c r="U52" s="70"/>
-      <c r="V52" s="12"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="32" t="s">
+      <c r="T52" s="29"/>
+      <c r="U52" s="86"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+      <c r="X52" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y52" s="14" t="s">
+      <c r="Y52" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z52" s="31">
+      <c r="Z52" s="33">
         <v>8</v>
       </c>
-      <c r="AA52" s="85">
+      <c r="AA52" s="102">
         <v>0.13</v>
       </c>
-      <c r="AB52" s="79"/>
-      <c r="AC52" s="79"/>
+      <c r="AB52" s="96"/>
+      <c r="AC52" s="96"/>
     </row>
     <row r="53" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A53" s="12">
+      <c r="A53" s="14">
         <v>50</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="45" t="s">
+      <c r="F53" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="G53" s="43" t="s">
+      <c r="G53" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="H53" s="20" t="s">
+      <c r="H53" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="I53" s="14" t="str">
+      <c r="I53" s="16" t="str">
         <f>VLOOKUP(B53,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J53" s="31">
+      <c r="J53" s="33">
         <v>4</v>
       </c>
-      <c r="K53" s="31" t="s">
+      <c r="K53" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L53" s="65"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="50">
+      <c r="L53" s="80"/>
+      <c r="M53" s="65"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="63"/>
+      <c r="Q53" s="76">
         <v>0.04</v>
       </c>
-      <c r="R53" s="50">
+      <c r="R53" s="54">
         <v>0.04</v>
       </c>
-      <c r="S53" s="31">
+      <c r="S53" s="33">
         <v>4</v>
       </c>
-      <c r="T53" s="27"/>
-      <c r="U53" s="70"/>
-      <c r="V53" s="12"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="32" t="s">
+      <c r="T53" s="29"/>
+      <c r="U53" s="86"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y53" s="14" t="s">
+      <c r="Y53" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z53" s="31">
+      <c r="Z53" s="33">
         <v>110</v>
       </c>
-      <c r="AA53" s="85">
+      <c r="AA53" s="102">
         <v>0.13</v>
       </c>
-      <c r="AB53" s="79"/>
-      <c r="AC53" s="79"/>
+      <c r="AB53" s="96"/>
+      <c r="AC53" s="96"/>
     </row>
     <row r="54" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A54" s="12">
+      <c r="A54" s="14">
         <v>51</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="G54" s="43" t="s">
+      <c r="G54" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="H54" s="20" t="s">
+      <c r="H54" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="I54" s="14" t="str">
+      <c r="I54" s="16" t="str">
         <f>VLOOKUP(B54,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J54" s="31">
+      <c r="J54" s="33">
         <v>5</v>
       </c>
-      <c r="K54" s="31" t="s">
+      <c r="K54" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L54" s="65"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="50">
+      <c r="L54" s="80"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="63"/>
+      <c r="Q54" s="76">
         <v>0.04</v>
       </c>
-      <c r="R54" s="50">
+      <c r="R54" s="54">
         <v>0.04</v>
       </c>
-      <c r="S54" s="31">
+      <c r="S54" s="33">
         <v>5</v>
       </c>
-      <c r="T54" s="27"/>
-      <c r="U54" s="70"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="32" t="s">
+      <c r="T54" s="29"/>
+      <c r="U54" s="86"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y54" s="14" t="s">
+      <c r="Y54" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z54" s="31">
+      <c r="Z54" s="33">
         <v>186.45</v>
       </c>
-      <c r="AA54" s="85">
+      <c r="AA54" s="102">
         <v>0.13</v>
       </c>
-      <c r="AB54" s="79"/>
-      <c r="AC54" s="79"/>
+      <c r="AB54" s="96"/>
+      <c r="AC54" s="96"/>
     </row>
     <row r="55" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A55" s="12">
+      <c r="A55" s="14">
         <v>52</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F55" s="45" t="s">
+      <c r="F55" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="G55" s="43" t="s">
+      <c r="G55" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="H55" s="42" t="s">
+      <c r="H55" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="I55" s="14" t="str">
+      <c r="I55" s="16" t="str">
         <f>VLOOKUP(B55,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>KYB-M7027-001</v>
       </c>
-      <c r="J55" s="31">
+      <c r="J55" s="33">
         <v>2</v>
       </c>
-      <c r="K55" s="31" t="s">
+      <c r="K55" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L55" s="65"/>
-      <c r="M55" s="57"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="50">
+      <c r="L55" s="80"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="63"/>
+      <c r="Q55" s="76">
         <v>0.02</v>
       </c>
-      <c r="R55" s="50">
+      <c r="R55" s="54">
         <v>0.02</v>
       </c>
-      <c r="S55" s="31">
+      <c r="S55" s="33">
         <v>2</v>
       </c>
-      <c r="T55" s="27"/>
-      <c r="U55" s="70"/>
-      <c r="V55" s="12"/>
-      <c r="W55" s="12"/>
-      <c r="X55" s="32" t="s">
+      <c r="T55" s="29"/>
+      <c r="U55" s="86"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+      <c r="X55" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y55" s="14" t="s">
+      <c r="Y55" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z55" s="86">
+      <c r="Z55" s="105">
         <v>4950</v>
       </c>
-      <c r="AA55" s="85">
+      <c r="AA55" s="102">
         <v>0.01</v>
       </c>
-      <c r="AB55" s="79"/>
-      <c r="AC55" s="79"/>
+      <c r="AB55" s="96"/>
+      <c r="AC55" s="96"/>
     </row>
     <row r="56" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A56" s="12">
+      <c r="A56" s="14">
         <v>53</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="G56" s="43" t="s">
+      <c r="G56" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="H56" s="20" t="s">
+      <c r="H56" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="I56" s="14" t="str">
+      <c r="I56" s="16" t="str">
         <f>VLOOKUP(B56,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J56" s="31">
+      <c r="J56" s="33">
         <v>10</v>
       </c>
-      <c r="K56" s="31" t="s">
+      <c r="K56" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L56" s="65"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="50">
+      <c r="L56" s="80"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="63"/>
+      <c r="Q56" s="76">
         <v>0.09</v>
       </c>
-      <c r="R56" s="50">
+      <c r="R56" s="54">
         <v>0.09</v>
       </c>
-      <c r="S56" s="31">
+      <c r="S56" s="33">
         <v>10</v>
       </c>
-      <c r="T56" s="27"/>
-      <c r="U56" s="70"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="32" t="s">
+      <c r="T56" s="29"/>
+      <c r="U56" s="86"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="14"/>
+      <c r="X56" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y56" s="14" t="s">
+      <c r="Y56" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z56" s="31">
+      <c r="Z56" s="33">
         <v>6.5</v>
       </c>
-      <c r="AA56" s="85">
+      <c r="AA56" s="102">
         <v>0.13</v>
       </c>
-      <c r="AB56" s="79"/>
-      <c r="AC56" s="79"/>
+      <c r="AB56" s="96"/>
+      <c r="AC56" s="96"/>
     </row>
     <row r="57" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A57" s="12">
+      <c r="A57" s="14">
         <v>54</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="G57" s="43" t="s">
+      <c r="G57" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="H57" s="20" t="s">
+      <c r="H57" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="I57" s="14" t="str">
+      <c r="I57" s="16" t="str">
         <f>VLOOKUP(B57,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J57" s="31">
+      <c r="J57" s="33">
         <v>10</v>
       </c>
-      <c r="K57" s="31" t="s">
+      <c r="K57" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L57" s="65"/>
-      <c r="M57" s="57"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="50">
+      <c r="L57" s="80"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="63"/>
+      <c r="Q57" s="76">
         <v>0.09</v>
       </c>
-      <c r="R57" s="50">
+      <c r="R57" s="54">
         <v>0.09</v>
       </c>
-      <c r="S57" s="31">
+      <c r="S57" s="33">
         <v>10</v>
       </c>
-      <c r="T57" s="27"/>
-      <c r="U57" s="70"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="32" t="s">
+      <c r="T57" s="29"/>
+      <c r="U57" s="86"/>
+      <c r="V57" s="14"/>
+      <c r="W57" s="14"/>
+      <c r="X57" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y57" s="14" t="s">
+      <c r="Y57" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z57" s="31">
+      <c r="Z57" s="33">
         <v>6.5</v>
       </c>
-      <c r="AA57" s="85">
+      <c r="AA57" s="102">
         <v>0.13</v>
       </c>
-      <c r="AB57" s="79"/>
-      <c r="AC57" s="79"/>
+      <c r="AB57" s="96"/>
+      <c r="AC57" s="96"/>
     </row>
     <row r="58" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A58" s="12">
+      <c r="A58" s="14">
         <v>55</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="C58" s="41" t="s">
+      <c r="C58" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F58" s="44" t="s">
+      <c r="F58" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="G58" s="43" t="s">
+      <c r="G58" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="H58" s="20" t="s">
+      <c r="H58" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="I58" s="14" t="str">
+      <c r="I58" s="16" t="str">
         <f>VLOOKUP(B58,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J58" s="31">
+      <c r="J58" s="33">
         <v>2</v>
       </c>
-      <c r="K58" s="31" t="s">
+      <c r="K58" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L58" s="65"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="53"/>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="50">
+      <c r="L58" s="80"/>
+      <c r="M58" s="65"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="63"/>
+      <c r="Q58" s="76">
         <v>0.02</v>
       </c>
-      <c r="R58" s="50">
+      <c r="R58" s="54">
         <v>0.02</v>
       </c>
-      <c r="S58" s="31">
+      <c r="S58" s="33">
         <v>2</v>
       </c>
-      <c r="T58" s="27"/>
-      <c r="U58" s="70"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="32" t="s">
+      <c r="T58" s="29"/>
+      <c r="U58" s="86"/>
+      <c r="V58" s="14"/>
+      <c r="W58" s="14"/>
+      <c r="X58" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y58" s="14" t="s">
+      <c r="Y58" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z58" s="31">
+      <c r="Z58" s="33">
         <v>220</v>
       </c>
-      <c r="AA58" s="85">
+      <c r="AA58" s="102">
         <v>0.13</v>
       </c>
-      <c r="AB58" s="79"/>
-      <c r="AC58" s="79"/>
+      <c r="AB58" s="96"/>
+      <c r="AC58" s="96"/>
     </row>
     <row r="59" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A59" s="12">
+      <c r="A59" s="14">
         <v>56</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="C59" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F59" s="44" t="s">
+      <c r="F59" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="G59" s="43" t="s">
+      <c r="G59" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="H59" s="20" t="s">
+      <c r="H59" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="I59" s="14" t="str">
+      <c r="I59" s="16" t="str">
         <f>VLOOKUP(B59,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J59" s="31">
+      <c r="J59" s="33">
         <v>2</v>
       </c>
-      <c r="K59" s="31" t="s">
+      <c r="K59" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L59" s="65"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="50">
+      <c r="L59" s="80"/>
+      <c r="M59" s="65"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="63"/>
+      <c r="Q59" s="76">
         <v>0.02</v>
       </c>
-      <c r="R59" s="50">
+      <c r="R59" s="54">
         <v>0.02</v>
       </c>
-      <c r="S59" s="31">
+      <c r="S59" s="33">
         <v>2</v>
       </c>
-      <c r="T59" s="27"/>
-      <c r="U59" s="70"/>
-      <c r="V59" s="12"/>
-      <c r="W59" s="12"/>
-      <c r="X59" s="32" t="s">
+      <c r="T59" s="29"/>
+      <c r="U59" s="86"/>
+      <c r="V59" s="14"/>
+      <c r="W59" s="14"/>
+      <c r="X59" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y59" s="14" t="s">
+      <c r="Y59" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z59" s="31">
+      <c r="Z59" s="33">
         <v>220</v>
       </c>
-      <c r="AA59" s="85">
+      <c r="AA59" s="102">
         <v>0.13</v>
       </c>
-      <c r="AB59" s="79"/>
-      <c r="AC59" s="79"/>
+      <c r="AB59" s="96"/>
+      <c r="AC59" s="96"/>
     </row>
     <row r="60" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A60" s="12">
+      <c r="A60" s="14">
         <v>57</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F60" s="44" t="s">
+      <c r="F60" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="H60" s="20" t="s">
+      <c r="H60" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="I60" s="14" t="str">
+      <c r="I60" s="16" t="str">
         <f>VLOOKUP(B60,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J60" s="31">
+      <c r="J60" s="33">
         <v>2</v>
       </c>
-      <c r="K60" s="31" t="s">
+      <c r="K60" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L60" s="65"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="53"/>
-      <c r="O60" s="53"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="50">
+      <c r="L60" s="80"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="63"/>
+      <c r="Q60" s="76">
         <v>0.02</v>
       </c>
-      <c r="R60" s="50">
+      <c r="R60" s="54">
         <v>0.02</v>
       </c>
-      <c r="S60" s="31">
+      <c r="S60" s="33">
         <v>2</v>
       </c>
-      <c r="T60" s="27"/>
-      <c r="U60" s="70"/>
-      <c r="V60" s="12"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="32" t="s">
+      <c r="T60" s="29"/>
+      <c r="U60" s="86"/>
+      <c r="V60" s="14"/>
+      <c r="W60" s="14"/>
+      <c r="X60" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y60" s="14" t="s">
+      <c r="Y60" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z60" s="31">
+      <c r="Z60" s="33">
         <v>220</v>
       </c>
-      <c r="AA60" s="85">
+      <c r="AA60" s="102">
         <v>0.13</v>
       </c>
-      <c r="AB60" s="79"/>
-      <c r="AC60" s="79"/>
+      <c r="AB60" s="96"/>
+      <c r="AC60" s="96"/>
     </row>
     <row r="61" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A61" s="12">
+      <c r="A61" s="14">
         <v>58</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F61" s="44" t="s">
+      <c r="F61" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="G61" s="43" t="s">
+      <c r="G61" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="H61" s="20" t="s">
+      <c r="H61" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="I61" s="14" t="str">
+      <c r="I61" s="16" t="str">
         <f>VLOOKUP(B61,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J61" s="31">
+      <c r="J61" s="33">
         <v>2</v>
       </c>
-      <c r="K61" s="31" t="s">
+      <c r="K61" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L61" s="66"/>
-      <c r="M61" s="56"/>
-      <c r="N61" s="49"/>
-      <c r="O61" s="49"/>
-      <c r="P61" s="50"/>
-      <c r="Q61" s="50">
+      <c r="L61" s="81"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="76">
         <v>0.02</v>
       </c>
-      <c r="R61" s="50">
+      <c r="R61" s="54">
         <v>0.02</v>
       </c>
-      <c r="S61" s="31">
+      <c r="S61" s="33">
         <v>2</v>
       </c>
-      <c r="T61" s="31"/>
-      <c r="U61" s="71"/>
-      <c r="V61" s="12"/>
-      <c r="W61" s="12"/>
-      <c r="X61" s="32" t="s">
+      <c r="T61" s="33"/>
+      <c r="U61" s="87"/>
+      <c r="V61" s="14"/>
+      <c r="W61" s="14"/>
+      <c r="X61" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y61" s="14" t="s">
+      <c r="Y61" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z61" s="31">
+      <c r="Z61" s="33">
         <v>220</v>
       </c>
-      <c r="AA61" s="85">
+      <c r="AA61" s="102">
         <v>0.13</v>
       </c>
-      <c r="AB61" s="79"/>
-      <c r="AC61" s="79"/>
+      <c r="AB61" s="96"/>
+      <c r="AC61" s="96"/>
     </row>
     <row r="62" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A62" s="12">
+      <c r="A62" s="14">
         <v>59</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F62" s="44" t="s">
+      <c r="F62" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="G62" s="43" t="s">
+      <c r="G62" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="H62" s="20" t="s">
+      <c r="H62" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="I62" s="14" t="str">
+      <c r="I62" s="16" t="str">
         <f>VLOOKUP(B62,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J62" s="31">
+      <c r="J62" s="33">
         <v>2</v>
       </c>
-      <c r="K62" s="31" t="s">
+      <c r="K62" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L62" s="64" t="s">
+      <c r="L62" s="79" t="s">
         <v>293</v>
       </c>
-      <c r="M62" s="54">
+      <c r="M62" s="62">
         <f ca="1">ROUND(EVALUATE(L62)*1000*0.000000001,2)</f>
         <v>0.05</v>
       </c>
-      <c r="N62" s="52">
+      <c r="N62" s="56">
         <f ca="1">M62*T62</f>
         <v>0.05</v>
       </c>
-      <c r="O62" s="53">
+      <c r="O62" s="57">
         <v>9</v>
       </c>
-      <c r="P62" s="55">
+      <c r="P62" s="63">
         <f>O62*T62</f>
         <v>9</v>
       </c>
-      <c r="Q62" s="50">
+      <c r="Q62" s="76">
         <v>4.2</v>
       </c>
-      <c r="R62" s="50">
+      <c r="R62" s="54">
         <v>4.2</v>
       </c>
-      <c r="S62" s="31">
+      <c r="S62" s="33">
         <v>2</v>
       </c>
-      <c r="T62" s="27">
+      <c r="T62" s="29">
         <f>J62/S62</f>
         <v>1</v>
       </c>
-      <c r="U62" s="69" t="s">
+      <c r="U62" s="85" t="s">
         <v>294</v>
       </c>
-      <c r="V62" s="12"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="32" t="s">
+      <c r="V62" s="14"/>
+      <c r="W62" s="14"/>
+      <c r="X62" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y62" s="14" t="s">
+      <c r="Y62" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z62" s="31">
+      <c r="Z62" s="33">
         <v>328</v>
       </c>
-      <c r="AA62" s="85">
+      <c r="AA62" s="102">
         <v>0.13</v>
       </c>
-      <c r="AB62" s="79"/>
-      <c r="AC62" s="79"/>
+      <c r="AB62" s="96"/>
+      <c r="AC62" s="96"/>
     </row>
     <row r="63" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A63" s="12">
+      <c r="A63" s="14">
         <v>60</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="C63" s="41" t="s">
+      <c r="C63" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F63" s="44" t="s">
+      <c r="F63" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="G63" s="43" t="s">
+      <c r="G63" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="H63" s="20" t="s">
+      <c r="H63" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="I63" s="14" t="str">
+      <c r="I63" s="16" t="str">
         <f>VLOOKUP(B63,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J63" s="31">
+      <c r="J63" s="33">
         <v>2</v>
       </c>
-      <c r="K63" s="31" t="s">
+      <c r="K63" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L63" s="66"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="50"/>
-      <c r="Q63" s="50">
+      <c r="L63" s="81"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="76">
         <v>4</v>
       </c>
-      <c r="R63" s="50">
+      <c r="R63" s="54">
         <v>4</v>
       </c>
-      <c r="S63" s="31">
+      <c r="S63" s="33">
         <v>2</v>
       </c>
-      <c r="T63" s="31"/>
-      <c r="U63" s="71"/>
-      <c r="V63" s="12"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="32" t="s">
+      <c r="T63" s="33"/>
+      <c r="U63" s="87"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y63" s="14" t="s">
+      <c r="Y63" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Z63" s="31">
+      <c r="Z63" s="33">
         <v>328</v>
       </c>
-      <c r="AA63" s="85">
+      <c r="AA63" s="102">
         <v>0.13</v>
       </c>
-      <c r="AB63" s="79"/>
-      <c r="AC63" s="79"/>
+      <c r="AB63" s="96"/>
+      <c r="AC63" s="96"/>
     </row>
     <row r="64" customHeight="1" spans="1:29">
-      <c r="A64" s="12"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="59">
+      <c r="A64" s="14"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="82"/>
+      <c r="J64" s="70">
         <f>SUM(J4:J63)</f>
         <v>9506</v>
       </c>
-      <c r="K64" s="31"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="48"/>
-      <c r="N64" s="59">
+      <c r="K64" s="33"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="70">
         <f ca="1">SUM(N4:N63)</f>
         <v>18.32</v>
       </c>
-      <c r="O64" s="59"/>
-      <c r="P64" s="59">
+      <c r="O64" s="70"/>
+      <c r="P64" s="83">
         <f>SUM(P4:P63)</f>
-        <v>3374.84</v>
-      </c>
-      <c r="Q64" s="73"/>
-      <c r="R64" s="59">
+        <v>4815.46</v>
+      </c>
+      <c r="Q64" s="90"/>
+      <c r="R64" s="83">
         <f>SUM(R4:R63)</f>
         <v>3156.66</v>
       </c>
-      <c r="S64" s="60"/>
-      <c r="T64" s="59">
+      <c r="S64" s="71"/>
+      <c r="T64" s="70">
         <f>SUM(T4:T63)</f>
         <v>168</v>
       </c>
-      <c r="U64" s="74"/>
-      <c r="V64" s="72"/>
-      <c r="W64" s="72"/>
-      <c r="X64" s="75"/>
-      <c r="Y64" s="60"/>
-      <c r="Z64" s="77"/>
-      <c r="AA64" s="76"/>
-      <c r="AB64" s="78"/>
-      <c r="AC64" s="79"/>
+      <c r="U64" s="91"/>
+      <c r="V64" s="88"/>
+      <c r="W64" s="88"/>
+      <c r="X64" s="92"/>
+      <c r="Y64" s="71"/>
+      <c r="Z64" s="94"/>
+      <c r="AA64" s="93"/>
+      <c r="AB64" s="95"/>
+      <c r="AC64" s="96"/>
     </row>
     <row r="65" customHeight="1" spans="1:27">
-      <c r="A65" s="87"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="90"/>
-      <c r="G65" s="91"/>
-      <c r="H65" s="91"/>
-      <c r="I65" s="93"/>
-      <c r="J65" s="94"/>
-      <c r="K65" s="87"/>
-      <c r="L65" s="95"/>
-      <c r="M65" s="96"/>
-      <c r="N65" s="96"/>
-      <c r="O65" s="96"/>
-      <c r="P65" s="97"/>
-      <c r="Q65" s="97"/>
-      <c r="R65" s="87"/>
-      <c r="S65" s="87"/>
-      <c r="T65" s="87"/>
-      <c r="U65" s="99"/>
-      <c r="V65" s="100"/>
-      <c r="W65" s="100"/>
-      <c r="X65" s="95"/>
-      <c r="Y65" s="95"/>
-      <c r="Z65" s="101"/>
-      <c r="AA65" s="102"/>
+      <c r="A65" s="106"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="110"/>
+      <c r="H65" s="110"/>
+      <c r="I65" s="112"/>
+      <c r="J65" s="113"/>
+      <c r="K65" s="106"/>
+      <c r="L65" s="114"/>
+      <c r="M65" s="115"/>
+      <c r="N65" s="115"/>
+      <c r="O65" s="115"/>
+      <c r="P65" s="116"/>
+      <c r="Q65" s="118"/>
+      <c r="R65" s="119"/>
+      <c r="S65" s="106"/>
+      <c r="T65" s="106"/>
+      <c r="U65" s="120"/>
+      <c r="V65" s="121"/>
+      <c r="W65" s="121"/>
+      <c r="X65" s="114"/>
+      <c r="Y65" s="114"/>
+      <c r="Z65" s="123"/>
+      <c r="AA65" s="124"/>
     </row>
     <row r="66" customHeight="1" spans="1:27">
-      <c r="A66" s="87"/>
-      <c r="B66" s="87"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="87"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="87"/>
-      <c r="I66" s="87"/>
-      <c r="J66" s="3"/>
-      <c r="P66" s="98"/>
-      <c r="Q66" s="98"/>
-      <c r="Z66" s="101"/>
-      <c r="AA66" s="102"/>
+      <c r="A66" s="106"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="106"/>
+      <c r="H66" s="106"/>
+      <c r="I66" s="106"/>
+      <c r="J66" s="4"/>
+      <c r="P66" s="117"/>
+      <c r="Q66" s="122"/>
+      <c r="Z66" s="123"/>
+      <c r="AA66" s="124"/>
     </row>
     <row r="67" customHeight="1" spans="26:27">
-      <c r="Z67" s="101"/>
-      <c r="AA67" s="102"/>
+      <c r="Z67" s="123"/>
+      <c r="AA67" s="124"/>
     </row>
     <row r="68" customHeight="1" spans="26:27">
-      <c r="Z68" s="101"/>
-      <c r="AA68" s="102"/>
+      <c r="Z68" s="123"/>
+      <c r="AA68" s="124"/>
     </row>
     <row r="69" customHeight="1" spans="26:27">
-      <c r="Z69" s="101"/>
-      <c r="AA69" s="102"/>
+      <c r="Z69" s="123"/>
+      <c r="AA69" s="124"/>
     </row>
     <row r="70" customHeight="1" spans="26:27">
-      <c r="Z70" s="101"/>
-      <c r="AA70" s="102"/>
+      <c r="Z70" s="123"/>
+      <c r="AA70" s="124"/>
     </row>
     <row r="71" customHeight="1" spans="26:27">
-      <c r="Z71" s="101"/>
-      <c r="AA71" s="102"/>
+      <c r="Z71" s="123"/>
+      <c r="AA71" s="124"/>
     </row>
     <row r="72" customHeight="1" spans="26:27">
-      <c r="Z72" s="101"/>
-      <c r="AA72" s="102"/>
+      <c r="Z72" s="123"/>
+      <c r="AA72" s="124"/>
     </row>
     <row r="73" customHeight="1" spans="26:27">
-      <c r="Z73" s="101"/>
-      <c r="AA73" s="102"/>
+      <c r="Z73" s="123"/>
+      <c r="AA73" s="124"/>
     </row>
     <row r="74" customHeight="1" spans="26:27">
-      <c r="Z74" s="101"/>
-      <c r="AA74" s="102"/>
+      <c r="Z74" s="123"/>
+      <c r="AA74" s="124"/>
     </row>
     <row r="75" customHeight="1" spans="26:27">
-      <c r="Z75" s="101"/>
-      <c r="AA75" s="102"/>
+      <c r="Z75" s="123"/>
+      <c r="AA75" s="124"/>
     </row>
     <row r="76" customHeight="1" spans="26:27">
-      <c r="Z76" s="101"/>
-      <c r="AA76" s="102"/>
+      <c r="Z76" s="123"/>
+      <c r="AA76" s="124"/>
     </row>
     <row r="77" customHeight="1" spans="26:27">
-      <c r="Z77" s="101"/>
-      <c r="AA77" s="102"/>
+      <c r="Z77" s="123"/>
+      <c r="AA77" s="124"/>
     </row>
     <row r="78" customHeight="1" spans="26:27">
-      <c r="Z78" s="101"/>
-      <c r="AA78" s="102"/>
+      <c r="Z78" s="123"/>
+      <c r="AA78" s="124"/>
     </row>
     <row r="79" customHeight="1" spans="26:27">
-      <c r="Z79" s="101"/>
-      <c r="AA79" s="102"/>
+      <c r="Z79" s="123"/>
+      <c r="AA79" s="124"/>
     </row>
     <row r="80" customHeight="1" spans="26:27">
-      <c r="Z80" s="101"/>
-      <c r="AA80" s="102"/>
+      <c r="Z80" s="123"/>
+      <c r="AA80" s="124"/>
     </row>
     <row r="81" customHeight="1" spans="26:27">
-      <c r="Z81" s="101"/>
-      <c r="AA81" s="102"/>
+      <c r="Z81" s="123"/>
+      <c r="AA81" s="124"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
+  <mergeCells count="87">
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B39:B46"/>
@@ -7730,6 +7806,7 @@
     <mergeCell ref="P15:P21"/>
     <mergeCell ref="P22:P30"/>
     <mergeCell ref="P33:P34"/>
+    <mergeCell ref="P35:P37"/>
     <mergeCell ref="P50:P61"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="Q35:Q37"/>

--- a/testfiles/original_packing_list.xlsx
+++ b/testfiles/original_packing_list.xlsx
@@ -14,8 +14,8 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'装箱单模版-2025年更新'!$A$1:$AB$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'装箱单模版-2025年更新'!$A$2:$Y$64</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'装箱单模版-2025年更新'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'装箱单模版-2025年更新'!$A$3:$Y$64</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'装箱单模版-2025年更新'!$3:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1153,12 +1153,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1166,6 +1160,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1698,7 +1698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="105">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1706,9 +1706,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1724,9 +1721,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1755,7 +1749,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1766,7 +1760,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1781,7 +1775,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1801,7 +1795,7 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1818,17 +1812,18 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="179" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1837,7 +1832,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1849,7 +1844,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1860,13 +1855,10 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1881,7 +1873,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1897,51 +1889,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1952,7 +1916,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1962,39 +1926,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2016,10 +1965,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2070,39 +2015,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2116,20 +2054,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2138,9 +2068,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2230,10 +2157,10 @@
       <color rgb="00666666"/>
       <color rgb="00333333"/>
       <color rgb="00FFFFFF"/>
+      <color rgb="00FFFF00"/>
       <color rgb="00FF0000"/>
       <color rgb="00E6B8B7"/>
       <color rgb="00000000"/>
-      <color rgb="00FFFF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3116,68 +3043,63 @@
   <dimension ref="A1:AC81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="P40" sqref="P40:P46"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6272727272727" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.75454545454545" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.1818181818182" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.37272727272727" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.6272727272727" style="4" customWidth="1"/>
+    <col min="1" max="1" width="7.75454545454545" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.1818181818182" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.37272727272727" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.6272727272727" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.6272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.8727272727273" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.8727272727273" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.7545454545455" style="5" customWidth="1"/>
-    <col min="9" max="9" width="21.6272727272727" style="7" customWidth="1"/>
-    <col min="10" max="11" width="10.6272727272727" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.8727272727273" style="5" customWidth="1"/>
+    <col min="7" max="7" width="34.2727272727273" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.7545454545455" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.6272727272727" style="6" customWidth="1"/>
+    <col min="10" max="11" width="10.6272727272727" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.2545454545455" style="2" customWidth="1"/>
-    <col min="13" max="15" width="10.6272727272727" style="8" customWidth="1"/>
-    <col min="16" max="16" width="10.6272727272727" style="9" customWidth="1"/>
-    <col min="17" max="17" width="10.6272727272727" style="10" customWidth="1"/>
-    <col min="18" max="18" width="10.6272727272727" style="9" customWidth="1"/>
-    <col min="19" max="20" width="10.6272727272727" style="10" customWidth="1"/>
-    <col min="21" max="21" width="10.6272727272727" style="11" customWidth="1"/>
+    <col min="13" max="15" width="10.6272727272727" style="7" customWidth="1"/>
+    <col min="16" max="20" width="10.6272727272727" style="8" customWidth="1"/>
+    <col min="21" max="21" width="10.6272727272727" style="9" customWidth="1"/>
     <col min="22" max="25" width="10.6272727272727" style="2" customWidth="1"/>
-    <col min="26" max="26" width="10.6272727272727" style="4" customWidth="1"/>
-    <col min="27" max="27" width="10.6272727272727" style="12" customWidth="1"/>
-    <col min="28" max="28" width="10.6272727272727" style="13" customWidth="1"/>
+    <col min="26" max="26" width="10.6272727272727" style="3" customWidth="1"/>
+    <col min="27" max="27" width="10.6272727272727" style="10" customWidth="1"/>
+    <col min="28" max="28" width="10.6272727272727" style="11" customWidth="1"/>
     <col min="29" max="29" width="10.6272727272727" style="2" customWidth="1"/>
     <col min="30" max="16384" width="10.6272727272727" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:27">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="14" spans="1:27">
       <c r="A2" s="1" t="s">
@@ -3225,13 +3147,13 @@
       <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="47" t="s">
         <v>16</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="47" t="s">
         <v>18</v>
       </c>
       <c r="S2" s="1" t="s">
@@ -3308,13 +3230,13 @@
       <c r="O3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="47" t="s">
         <v>43</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="50" t="s">
+      <c r="R3" s="47" t="s">
         <v>45</v>
       </c>
       <c r="S3" s="1" t="s">
@@ -3346,4411 +3268,4399 @@
       </c>
     </row>
     <row r="4" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A4" s="14">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="16" t="str">
+      <c r="I4" s="14" t="str">
         <f>VLOOKUP(B4,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J4" s="14">
-        <v>500</v>
-      </c>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="12">
+        <v>498</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="48">
         <f ca="1" t="shared" ref="M4:M9" si="0">ROUND(EVALUATE(L4)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N4" s="52">
+      <c r="N4" s="49">
         <f ca="1">M4*T4</f>
-        <v>0.01</v>
-      </c>
-      <c r="O4" s="53">
+        <v>0.00996</v>
+      </c>
+      <c r="O4" s="50">
         <v>2.8</v>
       </c>
-      <c r="P4" s="54">
+      <c r="P4" s="51">
         <f>O4*T4</f>
-        <v>2.8</v>
-      </c>
-      <c r="Q4" s="76">
+        <v>2.7888</v>
+      </c>
+      <c r="Q4" s="51">
         <v>2.6</v>
       </c>
-      <c r="R4" s="54">
+      <c r="R4" s="51">
         <v>2.6</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S4" s="31">
         <v>500</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T4" s="31">
         <f>J4/S4</f>
-        <v>1</v>
-      </c>
-      <c r="U4" s="84" t="s">
+        <v>0.996</v>
+      </c>
+      <c r="U4" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16" t="s">
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y4" s="16" t="s">
+      <c r="Y4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="Z4" s="12">
         <v>5</v>
       </c>
-      <c r="AA4" s="93">
+      <c r="AA4" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A5" s="14">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="16" t="str">
+      <c r="I5" s="14" t="str">
         <f>VLOOKUP(B5,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="12">
         <v>3</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="56">
+      <c r="M5" s="53">
         <f ca="1" t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="N5" s="56">
+      <c r="N5" s="53">
         <f ca="1">M5*T5</f>
         <v>0.04</v>
       </c>
-      <c r="O5" s="57">
+      <c r="O5" s="54">
         <v>2.04</v>
       </c>
-      <c r="P5" s="58">
+      <c r="P5" s="53">
         <f t="shared" ref="P4:P5" si="1">O5*T5</f>
         <v>2.04</v>
       </c>
-      <c r="Q5" s="76">
+      <c r="Q5" s="51">
         <v>1.1</v>
       </c>
-      <c r="R5" s="54">
+      <c r="R5" s="51">
         <v>1.1</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="12">
         <v>3</v>
       </c>
-      <c r="T5" s="66">
+      <c r="T5" s="59">
         <f>J5/S5</f>
         <v>1</v>
       </c>
-      <c r="U5" s="85" t="s">
+      <c r="U5" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16" t="s">
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="Y5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="Z5" s="12">
         <v>110</v>
       </c>
-      <c r="AA5" s="93">
+      <c r="AA5" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A6" s="14">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="16" t="str">
+      <c r="I6" s="14" t="str">
         <f>VLOOKUP(B6,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>12-14</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="12">
         <v>2</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="76">
+      <c r="L6" s="28"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="51">
         <v>0.5</v>
       </c>
-      <c r="R6" s="54">
+      <c r="R6" s="51">
         <v>0.5</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="12">
         <v>2</v>
       </c>
-      <c r="T6" s="29"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16" t="s">
+      <c r="T6" s="27"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y6" s="16" t="s">
+      <c r="Y6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="Z6" s="12">
         <v>78</v>
       </c>
-      <c r="AA6" s="93">
+      <c r="AA6" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A7" s="14">
+      <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="16" t="str">
+      <c r="I7" s="14" t="str">
         <f>VLOOKUP(B7,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>8-14</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="12">
         <v>1</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="76">
+      <c r="L7" s="32"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="51">
         <v>0.2</v>
       </c>
-      <c r="R7" s="54">
+      <c r="R7" s="51">
         <v>0.2</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="12">
         <v>1</v>
       </c>
-      <c r="T7" s="33"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16" t="s">
+      <c r="T7" s="31"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="16" t="s">
+      <c r="Y7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="Z7" s="12">
         <v>78</v>
       </c>
-      <c r="AA7" s="93">
+      <c r="AA7" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="16" t="str">
+      <c r="I8" s="14" t="str">
         <f>VLOOKUP(B8,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="12">
         <v>3</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="48">
         <f ca="1" t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="N8" s="56">
+      <c r="N8" s="53">
         <f ca="1">M8*T8</f>
         <v>0.04</v>
       </c>
-      <c r="O8" s="52">
+      <c r="O8" s="49">
         <v>1.88</v>
       </c>
-      <c r="P8" s="61">
+      <c r="P8" s="49">
         <f>O8*T8</f>
         <v>1.88</v>
       </c>
-      <c r="Q8" s="76">
+      <c r="Q8" s="51">
         <v>1.55</v>
       </c>
-      <c r="R8" s="54">
+      <c r="R8" s="51">
         <v>1.55</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="12">
         <v>3</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="12">
         <f>J8/S8</f>
         <v>1</v>
       </c>
-      <c r="U8" s="85" t="s">
+      <c r="U8" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16" t="s">
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y8" s="16" t="s">
+      <c r="Y8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="Z8" s="12">
         <v>110</v>
       </c>
-      <c r="AA8" s="93">
+      <c r="AA8" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A9" s="14">
+      <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="16" t="str">
+      <c r="I9" s="14" t="str">
         <f>VLOOKUP(B9,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>QLDZ.0014</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="12">
         <v>100</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="55">
         <f ca="1" t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="N9" s="56">
+      <c r="N9" s="53">
         <f ca="1">M9*T9</f>
         <v>0.01</v>
       </c>
-      <c r="O9" s="57">
+      <c r="O9" s="54">
         <v>4.3</v>
       </c>
-      <c r="P9" s="63">
+      <c r="P9" s="56">
         <f>O9*T9</f>
         <v>4.3</v>
       </c>
-      <c r="Q9" s="76">
+      <c r="Q9" s="51">
         <v>2</v>
       </c>
-      <c r="R9" s="54">
+      <c r="R9" s="51">
         <v>2</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="12">
         <v>100</v>
       </c>
-      <c r="T9" s="29">
+      <c r="T9" s="27">
         <f>J9/S9</f>
         <v>1</v>
       </c>
-      <c r="U9" s="85" t="s">
+      <c r="U9" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16" t="s">
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y9" s="16" t="s">
+      <c r="Y9" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="Z9" s="12">
         <v>22.6</v>
       </c>
-      <c r="AA9" s="93">
+      <c r="AA9" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A10" s="14">
+      <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="16" t="str">
+      <c r="I10" s="14" t="str">
         <f>VLOOKUP(B10,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>N510059196AA</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="12">
         <v>137</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="76">
+      <c r="L10" s="32"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51">
         <v>2.1</v>
       </c>
-      <c r="R10" s="54">
+      <c r="R10" s="51">
         <v>2.1</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="12">
         <v>137</v>
       </c>
-      <c r="T10" s="33"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="34" t="s">
+      <c r="T10" s="31"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y10" s="16" t="s">
+      <c r="Y10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="Z10" s="12">
         <v>0.8</v>
       </c>
-      <c r="AA10" s="93">
+      <c r="AA10" s="78">
         <v>0.01</v>
       </c>
     </row>
     <row r="11" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A11" s="14">
+      <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="14" t="str">
         <f>VLOOKUP(B11,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>FA2P5N1W20360133</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="12">
         <v>1</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="55" t="s">
+      <c r="L11" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="M11" s="62">
+      <c r="M11" s="55">
         <f ca="1">ROUND(EVALUATE(L11)*1000*0.000000001,2)</f>
         <v>0.02</v>
       </c>
-      <c r="N11" s="56">
+      <c r="N11" s="53">
         <f ca="1">M11*T11</f>
         <v>0.02</v>
       </c>
-      <c r="O11" s="57">
+      <c r="O11" s="54">
         <v>14</v>
       </c>
-      <c r="P11" s="63">
+      <c r="P11" s="56">
         <f>O11*T11</f>
         <v>14</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="51">
         <v>3</v>
       </c>
-      <c r="R11" s="54">
+      <c r="R11" s="51">
         <v>3</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="12">
         <v>1</v>
       </c>
-      <c r="T11" s="66">
+      <c r="T11" s="59">
         <f>J11/S11</f>
         <v>1</v>
       </c>
-      <c r="U11" s="85" t="s">
+      <c r="U11" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16" t="s">
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y11" s="16" t="s">
+      <c r="Y11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="Z11" s="12">
         <v>1140</v>
       </c>
-      <c r="AA11" s="93">
+      <c r="AA11" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A12" s="14">
+      <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="16" t="str">
+      <c r="I12" s="14" t="str">
         <f>VLOOKUP(B12,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>STM86118S</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="12">
         <v>1</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="76">
+      <c r="L12" s="28"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="51">
         <v>5</v>
       </c>
-      <c r="R12" s="54">
+      <c r="R12" s="51">
         <v>5</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S12" s="12">
         <v>1</v>
       </c>
-      <c r="T12" s="29"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16" t="s">
+      <c r="T12" s="27"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y12" s="16" t="s">
+      <c r="Y12" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z12" s="14">
+      <c r="Z12" s="12">
         <v>230</v>
       </c>
-      <c r="AA12" s="93">
+      <c r="AA12" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A13" s="14">
+      <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="16" t="str">
+      <c r="I13" s="14" t="str">
         <f>VLOOKUP(B13,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>STM8680</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <v>3</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="76">
+      <c r="L13" s="32"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51">
         <v>5</v>
       </c>
-      <c r="R13" s="54">
+      <c r="R13" s="51">
         <v>5</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="12">
         <v>3</v>
       </c>
-      <c r="T13" s="33"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16" t="s">
+      <c r="T13" s="31"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y13" s="16" t="s">
+      <c r="Y13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="Z13" s="12">
         <v>185</v>
       </c>
-      <c r="AA13" s="93">
+      <c r="AA13" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="14" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A14" s="14">
+      <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="16" t="str">
+      <c r="I14" s="14" t="str">
         <f>VLOOKUP(B14,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="12">
         <v>5</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="48">
         <f ca="1">ROUND(EVALUATE(L14)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N14" s="52">
+      <c r="N14" s="49">
         <f ca="1">M14*T14</f>
         <v>0.01</v>
       </c>
-      <c r="O14" s="53">
+      <c r="O14" s="50">
         <v>1.44</v>
       </c>
-      <c r="P14" s="54">
+      <c r="P14" s="51">
         <f>O14*T14</f>
         <v>1.44</v>
       </c>
-      <c r="Q14" s="76">
+      <c r="Q14" s="51">
         <v>1.23</v>
       </c>
-      <c r="R14" s="54">
+      <c r="R14" s="51">
         <v>1.23</v>
       </c>
-      <c r="S14" s="33">
+      <c r="S14" s="31">
         <v>5</v>
       </c>
-      <c r="T14" s="33">
+      <c r="T14" s="31">
         <f>J14/S14</f>
         <v>1</v>
       </c>
-      <c r="U14" s="84" t="s">
+      <c r="U14" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16" t="s">
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y14" s="16" t="s">
+      <c r="Y14" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z14" s="14">
+      <c r="Z14" s="12">
         <v>350</v>
       </c>
-      <c r="AA14" s="93">
+      <c r="AA14" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="15" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A15" s="14">
+      <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="16" t="str">
+      <c r="I15" s="14" t="str">
         <f>VLOOKUP(B15,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-sk</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="12">
         <v>30</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="55" t="s">
+      <c r="L15" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="M15" s="56">
+      <c r="M15" s="53">
         <f ca="1">ROUND(EVALUATE(L15)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N15" s="56">
+      <c r="N15" s="53">
         <f ca="1">M15*T15</f>
         <v>0.01</v>
       </c>
-      <c r="O15" s="66">
+      <c r="O15" s="59">
         <v>7.55</v>
       </c>
-      <c r="P15" s="67">
+      <c r="P15" s="59">
         <f>O15*T15</f>
         <v>7.55</v>
       </c>
-      <c r="Q15" s="76">
+      <c r="Q15" s="51">
         <v>0.15</v>
       </c>
-      <c r="R15" s="54">
+      <c r="R15" s="51">
         <v>0.15</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="12">
         <v>30</v>
       </c>
-      <c r="T15" s="29">
+      <c r="T15" s="27">
         <f>J15/S15</f>
         <v>1</v>
       </c>
-      <c r="U15" s="85" t="s">
+      <c r="U15" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="34" t="s">
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y15" s="16" t="s">
+      <c r="Y15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z15" s="14">
+      <c r="Z15" s="12">
         <v>5</v>
       </c>
-      <c r="AA15" s="93">
+      <c r="AA15" s="78">
         <v>0.01</v>
       </c>
     </row>
     <row r="16" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A16" s="14">
+      <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I16" s="16" t="str">
+      <c r="I16" s="14" t="str">
         <f>VLOOKUP(B16,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-B</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="12">
         <v>500</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="68">
+      <c r="L16" s="28"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27">
         <f t="shared" ref="P16:P22" si="2">O16*T16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="76">
+      <c r="Q16" s="51">
         <v>2.5</v>
       </c>
-      <c r="R16" s="54">
+      <c r="R16" s="51">
         <v>2.5</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16" s="12">
         <v>500</v>
       </c>
-      <c r="T16" s="29"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16" t="s">
+      <c r="T16" s="27"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y16" s="16" t="s">
+      <c r="Y16" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z16" s="14">
+      <c r="Z16" s="12">
         <v>5</v>
       </c>
-      <c r="AA16" s="93">
+      <c r="AA16" s="78">
         <v>0.01</v>
       </c>
     </row>
     <row r="17" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A17" s="14">
+      <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="16" t="str">
+      <c r="I17" s="14" t="str">
         <f>VLOOKUP(B17,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-4C</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="12">
         <v>400</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="68">
+      <c r="L17" s="28"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="76">
+      <c r="Q17" s="51">
         <v>2</v>
       </c>
-      <c r="R17" s="54">
+      <c r="R17" s="51">
         <v>2</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S17" s="12">
         <v>400</v>
       </c>
-      <c r="T17" s="29"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16" t="s">
+      <c r="T17" s="27"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y17" s="16" t="s">
+      <c r="Y17" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="Z17" s="12">
         <v>5</v>
       </c>
-      <c r="AA17" s="93">
+      <c r="AA17" s="78">
         <v>0.01</v>
       </c>
     </row>
     <row r="18" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A18" s="14">
+      <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I18" s="16" t="str">
+      <c r="I18" s="14" t="str">
         <f>VLOOKUP(B18,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-2C</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="12">
         <v>40</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="68">
+      <c r="L18" s="28"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="76">
+      <c r="Q18" s="51">
         <v>0.2</v>
       </c>
-      <c r="R18" s="54">
+      <c r="R18" s="51">
         <v>0.2</v>
       </c>
-      <c r="S18" s="14">
+      <c r="S18" s="12">
         <v>40</v>
       </c>
-      <c r="T18" s="29"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16" t="s">
+      <c r="T18" s="27"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y18" s="16" t="s">
+      <c r="Y18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z18" s="14">
+      <c r="Z18" s="12">
         <v>5</v>
       </c>
-      <c r="AA18" s="93">
+      <c r="AA18" s="78">
         <v>0.01</v>
       </c>
     </row>
     <row r="19" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A19" s="14">
+      <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="14" t="str">
         <f>VLOOKUP(B19,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900-T-1.2D</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="12">
         <v>40</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="68">
+      <c r="L19" s="28"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="76">
+      <c r="Q19" s="51">
         <v>0.2</v>
       </c>
-      <c r="R19" s="54">
+      <c r="R19" s="51">
         <v>0.2</v>
       </c>
-      <c r="S19" s="14">
+      <c r="S19" s="12">
         <v>40</v>
       </c>
-      <c r="T19" s="29"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16" t="s">
+      <c r="T19" s="27"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y19" s="16" t="s">
+      <c r="Y19" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z19" s="14">
+      <c r="Z19" s="12">
         <v>3</v>
       </c>
-      <c r="AA19" s="93">
+      <c r="AA19" s="78">
         <v>0.01</v>
       </c>
     </row>
     <row r="20" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A20" s="14">
+      <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="I20" s="16" t="str">
+      <c r="I20" s="14" t="str">
         <f>VLOOKUP(B20,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>WRNT-013</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="12">
         <v>140</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L20" s="30"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="68">
+      <c r="L20" s="28"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="76">
+      <c r="Q20" s="51">
         <v>0.7</v>
       </c>
-      <c r="R20" s="54">
+      <c r="R20" s="51">
         <v>0.7</v>
       </c>
-      <c r="S20" s="14">
+      <c r="S20" s="12">
         <v>140</v>
       </c>
-      <c r="T20" s="29"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16" t="s">
+      <c r="T20" s="27"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y20" s="16" t="s">
+      <c r="Y20" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z20" s="14">
+      <c r="Z20" s="12">
         <v>1.2</v>
       </c>
-      <c r="AA20" s="93">
+      <c r="AA20" s="78">
         <v>0.01</v>
       </c>
     </row>
     <row r="21" ht="24.95" customHeight="1" spans="1:28">
-      <c r="A21" s="14">
+      <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="16" t="str">
+      <c r="I21" s="14" t="str">
         <f>VLOOKUP(B21,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="12">
         <v>250</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="69">
+      <c r="L21" s="32"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="76">
+      <c r="Q21" s="51">
         <v>1.25</v>
       </c>
-      <c r="R21" s="54">
+      <c r="R21" s="51">
         <v>1.25</v>
       </c>
-      <c r="S21" s="14">
+      <c r="S21" s="12">
         <v>250</v>
       </c>
-      <c r="T21" s="33"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16" t="s">
+      <c r="T21" s="31"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y21" s="16" t="s">
+      <c r="Y21" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z21" s="14">
+      <c r="Z21" s="12">
         <v>0.99</v>
       </c>
-      <c r="AA21" s="93">
+      <c r="AA21" s="78">
         <v>0.01</v>
       </c>
-      <c r="AB21" s="13" t="s">
+      <c r="AB21" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="22" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A22" s="14">
+      <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I22" s="16" t="str">
+      <c r="I22" s="14" t="str">
         <f>VLOOKUP(B22,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="12">
         <v>388</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="55" t="s">
+      <c r="L22" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="M22" s="66">
+      <c r="M22" s="59">
         <f ca="1">ROUND(EVALUATE(L22)*1000*0.000000001,2)</f>
         <v>0.02</v>
       </c>
-      <c r="N22" s="66">
+      <c r="N22" s="59">
         <f ca="1">M22*T22</f>
         <v>0.02</v>
       </c>
-      <c r="O22" s="66">
+      <c r="O22" s="59">
         <v>20</v>
       </c>
-      <c r="P22" s="67">
+      <c r="P22" s="59">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q22" s="76">
+      <c r="Q22" s="51">
         <v>3.49</v>
       </c>
-      <c r="R22" s="54">
+      <c r="R22" s="51">
         <v>3.49</v>
       </c>
-      <c r="S22" s="14">
+      <c r="S22" s="12">
         <v>388</v>
       </c>
-      <c r="T22" s="29">
+      <c r="T22" s="27">
         <f>J22/S22</f>
         <v>1</v>
       </c>
-      <c r="U22" s="85" t="s">
+      <c r="U22" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16" t="s">
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y22" s="16" t="s">
+      <c r="Y22" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z22" s="14">
+      <c r="Z22" s="12">
         <v>1.32</v>
       </c>
-      <c r="AA22" s="93">
+      <c r="AA22" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="23" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A23" s="14">
+      <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I23" s="16" t="str">
+      <c r="I23" s="14" t="str">
         <f>VLOOKUP(B23,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="12">
         <v>457</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="30"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="76">
+      <c r="L23" s="28"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="51">
         <v>4.11</v>
       </c>
-      <c r="R23" s="54">
+      <c r="R23" s="51">
         <v>4.11</v>
       </c>
-      <c r="S23" s="14">
+      <c r="S23" s="12">
         <v>457</v>
       </c>
-      <c r="T23" s="29"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16" t="s">
+      <c r="T23" s="27"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y23" s="16" t="s">
+      <c r="Y23" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z23" s="14">
+      <c r="Z23" s="12">
         <v>1.32</v>
       </c>
-      <c r="AA23" s="93">
+      <c r="AA23" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="24" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A24" s="14">
+      <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I24" s="16" t="str">
+      <c r="I24" s="14" t="str">
         <f>VLOOKUP(B24,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="12">
         <v>458</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L24" s="30"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="76">
+      <c r="L24" s="28"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="51">
         <v>4.12</v>
       </c>
-      <c r="R24" s="54">
+      <c r="R24" s="51">
         <v>4.12</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S24" s="12">
         <v>458</v>
       </c>
-      <c r="T24" s="29"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16" t="s">
+      <c r="T24" s="27"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y24" s="16" t="s">
+      <c r="Y24" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z24" s="14">
+      <c r="Z24" s="12">
         <v>1.32</v>
       </c>
-      <c r="AA24" s="93">
+      <c r="AA24" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="25" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A25" s="14">
+      <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I25" s="16" t="str">
+      <c r="I25" s="14" t="str">
         <f>VLOOKUP(B25,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="12">
         <v>287</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="30"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="76">
+      <c r="L25" s="28"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="51">
         <v>2.58</v>
       </c>
-      <c r="R25" s="54">
+      <c r="R25" s="51">
         <v>2.58</v>
       </c>
-      <c r="S25" s="14">
+      <c r="S25" s="12">
         <v>287</v>
       </c>
-      <c r="T25" s="29"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16" t="s">
+      <c r="T25" s="27"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y25" s="16" t="s">
+      <c r="Y25" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z25" s="14">
+      <c r="Z25" s="12">
         <v>1.32</v>
       </c>
-      <c r="AA25" s="93">
+      <c r="AA25" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="26" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A26" s="14">
+      <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I26" s="16" t="str">
+      <c r="I26" s="14" t="str">
         <f>VLOOKUP(B26,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="12">
         <v>40</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L26" s="30"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="76">
+      <c r="L26" s="28"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="51">
         <v>0.36</v>
       </c>
-      <c r="R26" s="54">
+      <c r="R26" s="51">
         <v>0.36</v>
       </c>
-      <c r="S26" s="14">
+      <c r="S26" s="12">
         <v>40</v>
       </c>
-      <c r="T26" s="29"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16" t="s">
+      <c r="T26" s="27"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y26" s="16" t="s">
+      <c r="Y26" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z26" s="14">
+      <c r="Z26" s="12">
         <v>1.32</v>
       </c>
-      <c r="AA26" s="93">
+      <c r="AA26" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="27" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A27" s="14">
+      <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="14" t="str">
         <f>VLOOKUP(B27,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="12">
         <v>60</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="30"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="76">
+      <c r="L27" s="28"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="51">
         <v>0.54</v>
       </c>
-      <c r="R27" s="54">
+      <c r="R27" s="51">
         <v>0.54</v>
       </c>
-      <c r="S27" s="14">
+      <c r="S27" s="12">
         <v>60</v>
       </c>
-      <c r="T27" s="29"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16" t="s">
+      <c r="T27" s="27"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y27" s="16" t="s">
+      <c r="Y27" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z27" s="14">
+      <c r="Z27" s="12">
         <v>1.32</v>
       </c>
-      <c r="AA27" s="93">
+      <c r="AA27" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="28" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A28" s="14">
+      <c r="A28" s="12">
         <v>25</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I28" s="16" t="str">
+      <c r="I28" s="14" t="str">
         <f>VLOOKUP(B28,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="12">
         <v>50</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L28" s="30"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="76">
+      <c r="L28" s="28"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="51">
         <v>0.45</v>
       </c>
-      <c r="R28" s="54">
+      <c r="R28" s="51">
         <v>0.45</v>
       </c>
-      <c r="S28" s="14">
+      <c r="S28" s="12">
         <v>50</v>
       </c>
-      <c r="T28" s="29"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16" t="s">
+      <c r="T28" s="27"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y28" s="16" t="s">
+      <c r="Y28" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z28" s="14">
+      <c r="Z28" s="12">
         <v>1.32</v>
       </c>
-      <c r="AA28" s="93">
+      <c r="AA28" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="29" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A29" s="14">
+      <c r="A29" s="12">
         <v>26</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I29" s="16" t="str">
+      <c r="I29" s="14" t="str">
         <f>VLOOKUP(B29,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="12">
         <v>50</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="30"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="76">
+      <c r="L29" s="28"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="51">
         <v>0.45</v>
       </c>
-      <c r="R29" s="54">
+      <c r="R29" s="51">
         <v>0.45</v>
       </c>
-      <c r="S29" s="14">
+      <c r="S29" s="12">
         <v>50</v>
       </c>
-      <c r="T29" s="29"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16" t="s">
+      <c r="T29" s="27"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y29" s="16" t="s">
+      <c r="Y29" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z29" s="14">
+      <c r="Z29" s="12">
         <v>1.32</v>
       </c>
-      <c r="AA29" s="93">
+      <c r="AA29" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="30" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A30" s="14">
+      <c r="A30" s="12">
         <v>27</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I30" s="16" t="str">
+      <c r="I30" s="14" t="str">
         <f>VLOOKUP(B30,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="12">
         <v>110</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L30" s="34"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="76">
+      <c r="L30" s="32"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="51">
         <v>0.99</v>
       </c>
-      <c r="R30" s="54">
+      <c r="R30" s="51">
         <v>0.99</v>
       </c>
-      <c r="S30" s="14">
+      <c r="S30" s="12">
         <v>110</v>
       </c>
-      <c r="T30" s="33"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16" t="s">
+      <c r="T30" s="31"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y30" s="16" t="s">
+      <c r="Y30" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z30" s="14">
+      <c r="Z30" s="12">
         <v>1.32</v>
       </c>
-      <c r="AA30" s="93">
+      <c r="AA30" s="78">
         <v>0.13</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:29">
-      <c r="A31" s="14">
+      <c r="A31" s="12">
         <v>28</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="I31" s="16" t="str">
+      <c r="I31" s="14" t="str">
         <f>VLOOKUP(B31,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J31" s="70">
+      <c r="J31" s="60">
         <v>2040</v>
       </c>
-      <c r="K31" s="33" t="s">
+      <c r="K31" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="L31" s="71" t="s">
+      <c r="L31" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="M31" s="51">
+      <c r="M31" s="48">
         <f ca="1">ROUND(EVALUATE(L31)*1000*0.000000001,2)</f>
         <v>0.09</v>
       </c>
-      <c r="N31" s="71">
+      <c r="N31" s="61">
         <f ca="1">M31*T31</f>
         <v>6.12</v>
       </c>
-      <c r="O31" s="71" t="s">
+      <c r="O31" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="P31" s="72">
+      <c r="P31" s="62">
         <f>O31*T31</f>
         <v>1204.28</v>
       </c>
-      <c r="Q31" s="76">
+      <c r="Q31" s="51">
         <v>1200</v>
       </c>
-      <c r="R31" s="54">
+      <c r="R31" s="51">
         <v>1200</v>
       </c>
-      <c r="S31" s="81" t="s">
+      <c r="S31" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="T31" s="14">
+      <c r="T31" s="12">
         <f>J31/S31</f>
         <v>68</v>
       </c>
-      <c r="U31" s="84" t="s">
+      <c r="U31" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="34" t="s">
+      <c r="V31" s="74"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y31" s="16" t="s">
+      <c r="Y31" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z31" s="94">
+      <c r="Z31" s="79">
         <v>14.8</v>
       </c>
-      <c r="AA31" s="93">
+      <c r="AA31" s="78">
         <v>0.13</v>
       </c>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="96"/>
+      <c r="AB31" s="80"/>
+      <c r="AC31" s="81"/>
     </row>
     <row r="32" customHeight="1" spans="1:29">
-      <c r="A32" s="14">
+      <c r="A32" s="12">
         <v>29</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="I32" s="16" t="str">
+      <c r="I32" s="14" t="str">
         <f>VLOOKUP(B32,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J32" s="70">
+      <c r="J32" s="60">
         <v>2800</v>
       </c>
-      <c r="K32" s="33" t="s">
+      <c r="K32" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="L32" s="71" t="s">
+      <c r="L32" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="M32" s="51">
+      <c r="M32" s="48">
         <f ca="1">ROUND(EVALUATE(L32)*1000*0.000000001,2)</f>
         <v>0.07</v>
       </c>
-      <c r="N32" s="56">
+      <c r="N32" s="53">
         <f ca="1">M32*T32</f>
         <v>3.92</v>
       </c>
-      <c r="O32" s="52">
+      <c r="O32" s="49">
         <v>15.5</v>
       </c>
-      <c r="P32" s="72">
+      <c r="P32" s="62">
         <f>O32*T32</f>
         <v>868</v>
       </c>
-      <c r="Q32" s="76">
+      <c r="Q32" s="51">
         <v>866</v>
       </c>
-      <c r="R32" s="54">
+      <c r="R32" s="51">
         <v>866</v>
       </c>
-      <c r="S32" s="81" t="s">
+      <c r="S32" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="T32" s="14">
+      <c r="T32" s="12">
         <f>J32/S32</f>
         <v>56</v>
       </c>
-      <c r="U32" s="84" t="s">
+      <c r="U32" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="V32" s="88"/>
-      <c r="W32" s="88"/>
-      <c r="X32" s="34" t="s">
+      <c r="V32" s="74"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y32" s="16" t="s">
+      <c r="Y32" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z32" s="94">
+      <c r="Z32" s="79">
         <v>7.3</v>
       </c>
-      <c r="AA32" s="93">
+      <c r="AA32" s="78">
         <v>0.13</v>
       </c>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="96"/>
+      <c r="AB32" s="80"/>
+      <c r="AC32" s="81"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A33" s="14">
+      <c r="A33" s="12">
         <v>30</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="I33" s="16" t="str">
+      <c r="I33" s="14" t="str">
         <f>VLOOKUP(B33,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>AT-TSSOP20-CMS</v>
       </c>
-      <c r="J33" s="73">
+      <c r="J33" s="63">
         <v>2</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L33" s="71" t="s">
+      <c r="L33" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="M33" s="52">
+      <c r="M33" s="49">
         <f ca="1">ROUND(EVALUATE(L33)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N33" s="56">
+      <c r="N33" s="53">
         <f ca="1">M33*T33</f>
         <v>0.01</v>
       </c>
-      <c r="O33" s="57">
+      <c r="O33" s="54">
         <v>1</v>
       </c>
-      <c r="P33" s="63">
+      <c r="P33" s="56">
         <f>O33*T33</f>
         <v>1</v>
       </c>
-      <c r="Q33" s="76">
+      <c r="Q33" s="51">
         <v>0.3</v>
       </c>
-      <c r="R33" s="54">
+      <c r="R33" s="51">
         <v>0.3</v>
       </c>
-      <c r="S33" s="14">
+      <c r="S33" s="12">
         <v>2</v>
       </c>
-      <c r="T33" s="66">
+      <c r="T33" s="59">
         <f>J33/S33</f>
         <v>1</v>
       </c>
-      <c r="U33" s="85" t="s">
+      <c r="U33" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="V33" s="88"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="34" t="s">
+      <c r="V33" s="74"/>
+      <c r="W33" s="74"/>
+      <c r="X33" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y33" s="16" t="s">
+      <c r="Y33" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z33" s="94">
+      <c r="Z33" s="79">
         <v>580</v>
       </c>
-      <c r="AA33" s="93">
+      <c r="AA33" s="78">
         <v>0.13</v>
       </c>
-      <c r="AB33" s="96"/>
-      <c r="AC33" s="96"/>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="81"/>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A34" s="14">
+      <c r="A34" s="12">
         <v>31</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="I34" s="16" t="str">
+      <c r="I34" s="14" t="str">
         <f>VLOOKUP(B34,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>KLV-M913A-A10</v>
       </c>
-      <c r="J34" s="73">
+      <c r="J34" s="63">
         <v>5</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="71"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="76">
+      <c r="L34" s="61"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="51">
         <v>0.6</v>
       </c>
-      <c r="R34" s="54">
+      <c r="R34" s="51">
         <v>0.6</v>
       </c>
-      <c r="S34" s="14">
+      <c r="S34" s="12">
         <v>5</v>
       </c>
-      <c r="T34" s="29"/>
-      <c r="U34" s="86"/>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="34" t="s">
+      <c r="T34" s="27"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="74"/>
+      <c r="X34" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y34" s="16" t="s">
+      <c r="Y34" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z34" s="97">
+      <c r="Z34" s="82">
         <v>80</v>
       </c>
-      <c r="AA34" s="98">
+      <c r="AA34" s="83">
         <v>0.13</v>
       </c>
-      <c r="AB34" s="96"/>
-      <c r="AC34" s="96"/>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="81"/>
     </row>
     <row r="35" customHeight="1" spans="1:29">
-      <c r="A35" s="14">
+      <c r="A35" s="12">
         <v>32</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="I35" s="16" t="str">
+      <c r="I35" s="14" t="str">
         <f>VLOOKUP(B35,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J35" s="74">
+      <c r="J35" s="64">
         <v>3</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="L35" s="71" t="s">
+      <c r="L35" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="M35" s="51">
+      <c r="M35" s="48">
         <f ca="1">ROUND(EVALUATE(L35)*1000*0.000000001,2)</f>
         <v>0.06</v>
       </c>
-      <c r="N35" s="56">
+      <c r="N35" s="53">
         <f ca="1" t="shared" ref="N35:N39" si="3">M35*T35</f>
         <v>0.06</v>
       </c>
-      <c r="O35" s="52">
+      <c r="O35" s="49">
         <v>34.24</v>
       </c>
-      <c r="P35" s="75">
-        <v>66.1</v>
-      </c>
-      <c r="Q35" s="75">
+      <c r="P35" s="65">
+        <v>66.02</v>
+      </c>
+      <c r="Q35" s="56">
         <f>SUM(P35:P37)</f>
-        <v>66.1</v>
-      </c>
-      <c r="R35" s="63">
+        <v>66.02</v>
+      </c>
+      <c r="R35" s="56">
         <v>64.2</v>
       </c>
-      <c r="S35" s="79" t="s">
+      <c r="S35" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T35" s="12">
         <f>J35/S35</f>
         <v>1</v>
       </c>
-      <c r="U35" s="84" t="s">
+      <c r="U35" s="70" t="s">
         <v>193</v>
       </c>
-      <c r="V35" s="88"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="30" t="s">
+      <c r="V35" s="74"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="Y35" s="16" t="s">
+      <c r="Y35" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z35" s="97">
+      <c r="Z35" s="82">
         <v>1160</v>
       </c>
-      <c r="AA35" s="98">
+      <c r="AA35" s="83">
         <v>0.13</v>
       </c>
-      <c r="AB35" s="95" t="s">
+      <c r="AB35" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="AC35" s="96"/>
+      <c r="AC35" s="81"/>
     </row>
     <row r="36" customHeight="1" spans="1:29">
-      <c r="A36" s="14">
+      <c r="A36" s="12">
         <v>33</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="22" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="71" t="s">
+      <c r="I36" s="14"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="M36" s="51">
+      <c r="M36" s="48">
         <f ca="1">ROUND(EVALUATE(L36)*1000*0.000000001,2)</f>
         <v>0.03</v>
       </c>
-      <c r="N36" s="56">
+      <c r="N36" s="53">
         <f ca="1" t="shared" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="O36" s="53">
+      <c r="O36" s="50">
         <v>18.4</v>
       </c>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="75">
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56">
         <v>205</v>
       </c>
-      <c r="R36" s="63"/>
-      <c r="S36" s="80"/>
-      <c r="T36" s="14">
+      <c r="R36" s="56"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="12">
         <f>J35/S35</f>
         <v>1</v>
       </c>
-      <c r="U36" s="84" t="s">
+      <c r="U36" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="V36" s="88"/>
-      <c r="W36" s="88"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="16" t="s">
+      <c r="V36" s="74"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z36" s="99"/>
-      <c r="AA36" s="100"/>
-      <c r="AB36" s="95"/>
-      <c r="AC36" s="96"/>
+      <c r="Z36" s="84"/>
+      <c r="AA36" s="85"/>
+      <c r="AB36" s="80"/>
+      <c r="AC36" s="81"/>
     </row>
     <row r="37" customHeight="1" spans="1:29">
-      <c r="A37" s="14">
+      <c r="A37" s="12">
         <v>34</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="71" t="s">
+      <c r="I37" s="14"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="M37" s="51">
+      <c r="M37" s="48">
         <f ca="1">ROUND(EVALUATE(L37)*1000*0.000000001,2)</f>
         <v>0.05</v>
       </c>
-      <c r="N37" s="56">
+      <c r="N37" s="53">
         <f ca="1" t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="O37" s="53">
+      <c r="O37" s="50">
         <v>13.38</v>
       </c>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="76">
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51">
         <v>270</v>
       </c>
-      <c r="R37" s="54"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="14">
+      <c r="R37" s="51"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="12">
         <f>J35/S35</f>
         <v>1</v>
       </c>
-      <c r="U37" s="84" t="s">
+      <c r="U37" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="V37" s="88"/>
-      <c r="W37" s="88"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="16" t="s">
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z37" s="101"/>
-      <c r="AA37" s="102"/>
-      <c r="AB37" s="95"/>
-      <c r="AC37" s="96"/>
+      <c r="Z37" s="86"/>
+      <c r="AA37" s="87"/>
+      <c r="AB37" s="80"/>
+      <c r="AC37" s="81"/>
     </row>
     <row r="38" customHeight="1" spans="1:29">
-      <c r="A38" s="14">
+      <c r="A38" s="12">
         <v>35</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H38" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="I38" s="16" t="str">
+      <c r="I38" s="14" t="str">
         <f>VLOOKUP(B38,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J38" s="74">
+      <c r="J38" s="64">
         <v>12</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K38" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="L38" s="71" t="s">
+      <c r="L38" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="M38" s="51">
+      <c r="M38" s="48">
         <f ca="1" t="shared" ref="M38:M50" si="4">ROUND(EVALUATE(L38)*1000*0.000000001,2)</f>
         <v>0.05</v>
       </c>
-      <c r="N38" s="52">
+      <c r="N38" s="49">
         <f ca="1" t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="O38" s="52">
+      <c r="O38" s="49">
         <v>34.91</v>
       </c>
-      <c r="P38" s="72">
+      <c r="P38" s="62">
         <f>O38*T38</f>
         <v>34.91</v>
       </c>
-      <c r="Q38" s="76">
+      <c r="Q38" s="51">
         <v>34</v>
       </c>
-      <c r="R38" s="54">
+      <c r="R38" s="51">
         <v>34</v>
       </c>
-      <c r="S38" s="71" t="s">
+      <c r="S38" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="T38" s="14">
+      <c r="T38" s="12">
         <v>1</v>
       </c>
-      <c r="U38" s="84" t="s">
+      <c r="U38" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="16" t="s">
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y38" s="16" t="s">
+      <c r="Y38" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z38" s="94">
+      <c r="Z38" s="79">
         <v>1300</v>
       </c>
-      <c r="AA38" s="93">
+      <c r="AA38" s="78">
         <v>0.13</v>
       </c>
-      <c r="AB38" s="95"/>
-      <c r="AC38" s="96"/>
-    </row>
-    <row r="39" s="3" customFormat="1" ht="26.1" customHeight="1" spans="1:28">
-      <c r="A39" s="37">
+      <c r="AB38" s="80"/>
+      <c r="AC38" s="81"/>
+    </row>
+    <row r="39" ht="26.1" customHeight="1" spans="1:27">
+      <c r="A39" s="12">
         <v>36</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="E39" s="38" t="s">
+      <c r="E39" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="G39" s="38" t="s">
+      <c r="G39" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="H39" s="39" t="s">
+      <c r="H39" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="I39" s="77" t="str">
+      <c r="I39" s="14" t="str">
         <f>VLOOKUP(B39,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J39" s="67">
+      <c r="J39" s="59">
         <v>9</v>
       </c>
-      <c r="K39" s="67" t="s">
+      <c r="K39" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="L39" s="78" t="s">
+      <c r="L39" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="M39" s="61">
+      <c r="M39" s="48">
         <f ca="1" t="shared" si="4"/>
         <v>0.01</v>
       </c>
-      <c r="N39" s="61">
+      <c r="N39" s="49">
         <f ca="1" t="shared" si="3"/>
         <v>0.01</v>
       </c>
-      <c r="O39" s="61">
+      <c r="O39" s="49">
         <v>10.63</v>
       </c>
-      <c r="P39" s="72">
-        <v>206</v>
-      </c>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63">
+      <c r="P39" s="65">
+        <v>207.46</v>
+      </c>
+      <c r="Q39" s="56">
+        <f>SUM(P39:P46)</f>
+        <v>207.46</v>
+      </c>
+      <c r="R39" s="56">
         <v>205</v>
       </c>
-      <c r="S39" s="68">
+      <c r="S39" s="27">
         <v>9</v>
       </c>
-      <c r="T39" s="37">
+      <c r="T39" s="12">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U39" s="78" t="s">
+      <c r="U39" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="V39" s="77"/>
-      <c r="W39" s="77"/>
-      <c r="X39" s="89" t="s">
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="Y39" s="77" t="s">
+      <c r="Y39" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z39" s="67">
+      <c r="Z39" s="59">
         <v>300</v>
       </c>
-      <c r="AA39" s="103">
+      <c r="AA39" s="83">
         <v>0.13</v>
       </c>
-      <c r="AB39" s="104"/>
     </row>
     <row r="40" customHeight="1" spans="1:29">
-      <c r="A40" s="14">
+      <c r="A40" s="12">
         <v>37</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="22" t="s">
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="71" t="s">
+      <c r="I40" s="14"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="M40" s="51">
+      <c r="M40" s="48">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N40" s="52">
+      <c r="N40" s="49">
         <v>0.08</v>
       </c>
-      <c r="O40" s="52">
+      <c r="O40" s="49">
         <v>25.83</v>
       </c>
-      <c r="P40" s="72">
-        <v>206</v>
-      </c>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="63"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="14">
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="12">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U40" s="84" t="s">
+      <c r="U40" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="16" t="s">
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="100"/>
-      <c r="AB40" s="95"/>
-      <c r="AC40" s="96"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="85"/>
+      <c r="AB40" s="80"/>
+      <c r="AC40" s="81"/>
     </row>
     <row r="41" customHeight="1" spans="1:29">
-      <c r="A41" s="14">
+      <c r="A41" s="12">
         <v>38</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="22" t="s">
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="71" t="s">
+      <c r="I41" s="14"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="M41" s="51">
+      <c r="M41" s="48">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N41" s="52">
+      <c r="N41" s="49">
         <v>0.08</v>
       </c>
-      <c r="O41" s="52">
+      <c r="O41" s="49">
         <v>21.09</v>
       </c>
-      <c r="P41" s="72">
-        <v>206</v>
-      </c>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="14">
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="12">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U41" s="84" t="s">
+      <c r="U41" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="16" t="s">
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="100"/>
-      <c r="AB41" s="95"/>
-      <c r="AC41" s="96"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="85"/>
+      <c r="AB41" s="80"/>
+      <c r="AC41" s="81"/>
     </row>
     <row r="42" customHeight="1" spans="1:29">
-      <c r="A42" s="14">
+      <c r="A42" s="12">
         <v>39</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="22" t="s">
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="71" t="s">
+      <c r="I42" s="14"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="M42" s="51">
+      <c r="M42" s="48">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N42" s="52">
+      <c r="N42" s="49">
         <v>0.08</v>
       </c>
-      <c r="O42" s="52">
+      <c r="O42" s="49">
         <v>33.25</v>
       </c>
-      <c r="P42" s="72">
-        <v>206</v>
-      </c>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="14">
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="12">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U42" s="84" t="s">
+      <c r="U42" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="16" t="s">
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="100"/>
-      <c r="AB42" s="95"/>
-      <c r="AC42" s="96"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="85"/>
+      <c r="AB42" s="80"/>
+      <c r="AC42" s="81"/>
     </row>
     <row r="43" customHeight="1" spans="1:29">
-      <c r="A43" s="14">
+      <c r="A43" s="12">
         <v>40</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="22" t="s">
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="71" t="s">
+      <c r="I43" s="14"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="M43" s="51">
+      <c r="M43" s="48">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N43" s="52">
+      <c r="N43" s="49">
         <v>0.08</v>
       </c>
-      <c r="O43" s="52">
+      <c r="O43" s="49">
         <v>33.25</v>
       </c>
-      <c r="P43" s="72">
-        <v>206</v>
-      </c>
-      <c r="Q43" s="75"/>
-      <c r="R43" s="63"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="14">
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="12">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U43" s="84" t="s">
+      <c r="U43" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="16" t="s">
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="100"/>
-      <c r="AB43" s="95"/>
-      <c r="AC43" s="96"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="85"/>
+      <c r="AB43" s="80"/>
+      <c r="AC43" s="81"/>
     </row>
     <row r="44" customHeight="1" spans="1:29">
-      <c r="A44" s="14">
+      <c r="A44" s="12">
         <v>41</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="22" t="s">
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="71" t="s">
+      <c r="I44" s="14"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="M44" s="51">
+      <c r="M44" s="48">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N44" s="52">
+      <c r="N44" s="49">
         <v>0.08</v>
       </c>
-      <c r="O44" s="52">
+      <c r="O44" s="49">
         <v>33.25</v>
       </c>
-      <c r="P44" s="72">
-        <v>206</v>
-      </c>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="63"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="14">
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="12">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U44" s="84" t="s">
+      <c r="U44" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="16" t="s">
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="100"/>
-      <c r="AB44" s="95"/>
-      <c r="AC44" s="96"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="85"/>
+      <c r="AB44" s="80"/>
+      <c r="AC44" s="81"/>
     </row>
     <row r="45" customHeight="1" spans="1:29">
-      <c r="A45" s="14">
+      <c r="A45" s="12">
         <v>42</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="22" t="s">
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="I45" s="16"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="71" t="s">
+      <c r="I45" s="14"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="M45" s="51">
+      <c r="M45" s="48">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N45" s="52">
+      <c r="N45" s="49">
         <v>0.08</v>
       </c>
-      <c r="O45" s="52">
+      <c r="O45" s="49">
         <v>33.25</v>
       </c>
-      <c r="P45" s="72">
-        <v>206</v>
-      </c>
-      <c r="Q45" s="75"/>
-      <c r="R45" s="63"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="14">
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="12">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U45" s="84" t="s">
+      <c r="U45" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="16" t="s">
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="100"/>
-      <c r="AB45" s="95"/>
-      <c r="AC45" s="96"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="85"/>
+      <c r="AB45" s="80"/>
+      <c r="AC45" s="81"/>
     </row>
     <row r="46" customHeight="1" spans="1:29">
-      <c r="A46" s="14">
+      <c r="A46" s="12">
         <v>43</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="22" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="I46" s="16"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="71" t="s">
+      <c r="I46" s="14"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="M46" s="51">
+      <c r="M46" s="48">
         <f ca="1" t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="N46" s="52">
+      <c r="N46" s="49">
         <v>0.04</v>
       </c>
-      <c r="O46" s="52">
+      <c r="O46" s="49">
         <v>16.91</v>
       </c>
-      <c r="P46" s="72">
-        <v>206</v>
-      </c>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="14">
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="12">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U46" s="84" t="s">
+      <c r="U46" s="70" t="s">
         <v>228</v>
       </c>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="16" t="s">
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="102"/>
-      <c r="AB46" s="95"/>
-      <c r="AC46" s="96"/>
+      <c r="Z46" s="31"/>
+      <c r="AA46" s="87"/>
+      <c r="AB46" s="80"/>
+      <c r="AC46" s="81"/>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A47" s="14">
+      <c r="A47" s="12">
         <v>44</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="G47" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H47" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="I47" s="16" t="str">
+      <c r="I47" s="14" t="str">
         <f>VLOOKUP(B47,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J47" s="33">
+      <c r="J47" s="31">
         <v>10</v>
       </c>
-      <c r="K47" s="33" t="s">
+      <c r="K47" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="L47" s="71" t="s">
+      <c r="L47" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="M47" s="51">
+      <c r="M47" s="48">
         <f ca="1" t="shared" si="4"/>
         <v>0.3</v>
       </c>
-      <c r="N47" s="56">
+      <c r="N47" s="53">
         <f ca="1">M47*T47</f>
         <v>3</v>
       </c>
-      <c r="O47" s="52">
+      <c r="O47" s="49">
         <v>37</v>
       </c>
-      <c r="P47" s="72">
+      <c r="P47" s="62">
         <f>O47*T47</f>
         <v>370</v>
       </c>
-      <c r="Q47" s="76">
+      <c r="Q47" s="51">
         <v>270</v>
       </c>
-      <c r="R47" s="54">
+      <c r="R47" s="51">
         <v>270</v>
       </c>
-      <c r="S47" s="33">
+      <c r="S47" s="31">
         <v>1</v>
       </c>
-      <c r="T47" s="14">
+      <c r="T47" s="12">
         <f>J47/S47</f>
         <v>10</v>
       </c>
-      <c r="U47" s="84" t="s">
+      <c r="U47" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="34" t="s">
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y47" s="16" t="s">
+      <c r="Y47" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z47" s="33">
+      <c r="Z47" s="31">
         <v>3400</v>
       </c>
-      <c r="AA47" s="102">
+      <c r="AA47" s="87">
         <v>0.13</v>
       </c>
-      <c r="AB47" s="96"/>
-      <c r="AC47" s="96"/>
+      <c r="AB47" s="81"/>
+      <c r="AC47" s="81"/>
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A48" s="14">
+      <c r="A48" s="12">
         <v>45</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="G48" s="45" t="s">
+      <c r="G48" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H48" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="I48" s="16" t="str">
+      <c r="I48" s="14" t="str">
         <f>VLOOKUP(B48,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J48" s="33">
+      <c r="J48" s="31">
         <v>10</v>
       </c>
-      <c r="K48" s="33" t="s">
+      <c r="K48" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="L48" s="71" t="s">
+      <c r="L48" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="M48" s="51">
+      <c r="M48" s="48">
         <f ca="1" t="shared" si="4"/>
         <v>0.43</v>
       </c>
-      <c r="N48" s="56">
+      <c r="N48" s="53">
         <f ca="1">M48*T48</f>
         <v>4.3</v>
       </c>
-      <c r="O48" s="52">
+      <c r="O48" s="49">
         <v>54</v>
       </c>
-      <c r="P48" s="72">
+      <c r="P48" s="62">
         <f>O48*T48</f>
         <v>540</v>
       </c>
-      <c r="Q48" s="76">
+      <c r="Q48" s="51">
         <v>440</v>
       </c>
-      <c r="R48" s="54">
+      <c r="R48" s="51">
         <v>440</v>
       </c>
-      <c r="S48" s="33">
+      <c r="S48" s="31">
         <v>1</v>
       </c>
-      <c r="T48" s="14">
+      <c r="T48" s="12">
         <f>J48/S48</f>
         <v>10</v>
       </c>
-      <c r="U48" s="84" t="s">
+      <c r="U48" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="34" t="s">
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y48" s="16" t="s">
+      <c r="Y48" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z48" s="33">
+      <c r="Z48" s="31">
         <v>5150</v>
       </c>
-      <c r="AA48" s="102">
+      <c r="AA48" s="87">
         <v>0.13</v>
       </c>
-      <c r="AB48" s="96"/>
-      <c r="AC48" s="96"/>
+      <c r="AB48" s="81"/>
+      <c r="AC48" s="81"/>
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A49" s="14">
+      <c r="A49" s="12">
         <v>46</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="G49" s="45" t="s">
+      <c r="G49" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="H49" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="I49" s="16" t="str">
+      <c r="I49" s="14" t="str">
         <f>VLOOKUP(B49,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>AEVF4</v>
       </c>
-      <c r="J49" s="33">
+      <c r="J49" s="31">
         <v>1</v>
       </c>
-      <c r="K49" s="33" t="s">
+      <c r="K49" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="L49" s="71" t="s">
+      <c r="L49" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="M49" s="51">
+      <c r="M49" s="48">
         <f ca="1" t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="N49" s="52">
+      <c r="N49" s="49">
         <f ca="1">M49*T49</f>
         <v>0.02</v>
       </c>
-      <c r="O49" s="53">
+      <c r="O49" s="50">
         <v>15.16</v>
       </c>
-      <c r="P49" s="54">
+      <c r="P49" s="51">
         <f>O49*T49</f>
         <v>15.16</v>
       </c>
-      <c r="Q49" s="76">
+      <c r="Q49" s="51">
         <v>15</v>
       </c>
-      <c r="R49" s="54">
+      <c r="R49" s="51">
         <v>15</v>
       </c>
-      <c r="S49" s="33">
+      <c r="S49" s="31">
         <v>1</v>
       </c>
-      <c r="T49" s="33">
+      <c r="T49" s="31">
         <f>J49/S49</f>
         <v>1</v>
       </c>
-      <c r="U49" s="84" t="s">
+      <c r="U49" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="34" t="s">
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y49" s="16" t="s">
+      <c r="Y49" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z49" s="33">
+      <c r="Z49" s="31">
         <v>935</v>
       </c>
-      <c r="AA49" s="102">
+      <c r="AA49" s="87">
         <v>0.13</v>
       </c>
-      <c r="AB49" s="96"/>
-      <c r="AC49" s="96"/>
+      <c r="AB49" s="81"/>
+      <c r="AC49" s="81"/>
     </row>
     <row r="50" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A50" s="14">
+      <c r="A50" s="12">
         <v>47</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="G50" s="45" t="s">
+      <c r="G50" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="H50" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="I50" s="16" t="str">
+      <c r="I50" s="14" t="str">
         <f>VLOOKUP(B50,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J50" s="33">
+      <c r="J50" s="31">
         <v>10</v>
       </c>
-      <c r="K50" s="33" t="s">
+      <c r="K50" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="L50" s="79" t="s">
+      <c r="L50" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="M50" s="62">
+      <c r="M50" s="55">
         <f ca="1" t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="N50" s="56">
+      <c r="N50" s="53">
         <f ca="1">M50*T50</f>
         <v>0.02</v>
       </c>
-      <c r="O50" s="57">
+      <c r="O50" s="54">
         <v>5</v>
       </c>
-      <c r="P50" s="63">
+      <c r="P50" s="56">
         <f>O50*T50</f>
         <v>5</v>
       </c>
-      <c r="Q50" s="76">
+      <c r="Q50" s="51">
         <v>0.09</v>
       </c>
-      <c r="R50" s="54">
+      <c r="R50" s="51">
         <v>0.09</v>
       </c>
-      <c r="S50" s="33">
+      <c r="S50" s="31">
         <v>10</v>
       </c>
-      <c r="T50" s="29">
+      <c r="T50" s="27">
         <f>J50/S50</f>
         <v>1</v>
       </c>
-      <c r="U50" s="85" t="s">
+      <c r="U50" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
-      <c r="X50" s="34" t="s">
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y50" s="16" t="s">
+      <c r="Y50" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z50" s="33">
+      <c r="Z50" s="31">
         <v>22</v>
       </c>
-      <c r="AA50" s="102">
+      <c r="AA50" s="87">
         <v>0.13</v>
       </c>
-      <c r="AB50" s="96"/>
-      <c r="AC50" s="96"/>
+      <c r="AB50" s="81"/>
+      <c r="AC50" s="81"/>
     </row>
     <row r="51" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A51" s="14">
+      <c r="A51" s="12">
         <v>48</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="C51" s="43" t="s">
+      <c r="C51" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="G51" s="45" t="s">
+      <c r="G51" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="22" t="s">
+      <c r="H51" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="I51" s="16" t="str">
+      <c r="I51" s="14" t="str">
         <f>VLOOKUP(B51,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>TG-205A-FU</v>
       </c>
-      <c r="J51" s="33">
+      <c r="J51" s="31">
         <v>5</v>
       </c>
-      <c r="K51" s="33" t="s">
+      <c r="K51" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="L51" s="80"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="63"/>
-      <c r="Q51" s="76">
+      <c r="L51" s="67"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="51">
         <v>0.04</v>
       </c>
-      <c r="R51" s="54">
+      <c r="R51" s="51">
         <v>0.04</v>
       </c>
-      <c r="S51" s="33">
+      <c r="S51" s="31">
         <v>5</v>
       </c>
-      <c r="T51" s="29"/>
-      <c r="U51" s="86"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="34" t="s">
+      <c r="T51" s="27"/>
+      <c r="U51" s="72"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y51" s="16" t="s">
+      <c r="Y51" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z51" s="33">
+      <c r="Z51" s="31">
         <v>350</v>
       </c>
-      <c r="AA51" s="102">
+      <c r="AA51" s="87">
         <v>0.13</v>
       </c>
-      <c r="AB51" s="96"/>
-      <c r="AC51" s="96"/>
+      <c r="AB51" s="81"/>
+      <c r="AC51" s="81"/>
     </row>
     <row r="52" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A52" s="14">
+      <c r="A52" s="12">
         <v>49</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="G52" s="45" t="s">
+      <c r="G52" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="H52" s="22" t="s">
+      <c r="H52" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="I52" s="16" t="str">
+      <c r="I52" s="14" t="str">
         <f>VLOOKUP(B52,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>LS1D-01033</v>
       </c>
-      <c r="J52" s="33">
+      <c r="J52" s="31">
         <v>500</v>
       </c>
-      <c r="K52" s="33" t="s">
+      <c r="K52" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="L52" s="80"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="63"/>
-      <c r="Q52" s="76">
+      <c r="L52" s="67"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="51">
         <v>4.5</v>
       </c>
-      <c r="R52" s="54">
+      <c r="R52" s="51">
         <v>4.5</v>
       </c>
-      <c r="S52" s="33">
+      <c r="S52" s="31">
         <v>500</v>
       </c>
-      <c r="T52" s="29"/>
-      <c r="U52" s="86"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="14"/>
-      <c r="X52" s="34" t="s">
+      <c r="T52" s="27"/>
+      <c r="U52" s="72"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y52" s="16" t="s">
+      <c r="Y52" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z52" s="33">
+      <c r="Z52" s="31">
         <v>8</v>
       </c>
-      <c r="AA52" s="102">
+      <c r="AA52" s="87">
         <v>0.13</v>
       </c>
-      <c r="AB52" s="96"/>
-      <c r="AC52" s="96"/>
+      <c r="AB52" s="81"/>
+      <c r="AC52" s="81"/>
     </row>
     <row r="53" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A53" s="14">
+      <c r="A53" s="12">
         <v>50</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="47" t="s">
+      <c r="F53" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="G53" s="45" t="s">
+      <c r="G53" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="H53" s="22" t="s">
+      <c r="H53" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="I53" s="16" t="str">
+      <c r="I53" s="14" t="str">
         <f>VLOOKUP(B53,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J53" s="33">
+      <c r="J53" s="31">
         <v>4</v>
       </c>
-      <c r="K53" s="33" t="s">
+      <c r="K53" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="L53" s="80"/>
-      <c r="M53" s="65"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="63"/>
-      <c r="Q53" s="76">
+      <c r="L53" s="67"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="51">
         <v>0.04</v>
       </c>
-      <c r="R53" s="54">
+      <c r="R53" s="51">
         <v>0.04</v>
       </c>
-      <c r="S53" s="33">
+      <c r="S53" s="31">
         <v>4</v>
       </c>
-      <c r="T53" s="29"/>
-      <c r="U53" s="86"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="34" t="s">
+      <c r="T53" s="27"/>
+      <c r="U53" s="72"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y53" s="16" t="s">
+      <c r="Y53" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z53" s="33">
+      <c r="Z53" s="31">
         <v>110</v>
       </c>
-      <c r="AA53" s="102">
+      <c r="AA53" s="87">
         <v>0.13</v>
       </c>
-      <c r="AB53" s="96"/>
-      <c r="AC53" s="96"/>
+      <c r="AB53" s="81"/>
+      <c r="AC53" s="81"/>
     </row>
     <row r="54" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A54" s="14">
+      <c r="A54" s="12">
         <v>51</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="G54" s="45" t="s">
+      <c r="G54" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="H54" s="22" t="s">
+      <c r="H54" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="I54" s="16" t="str">
+      <c r="I54" s="14" t="str">
         <f>VLOOKUP(B54,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J54" s="33">
+      <c r="J54" s="31">
         <v>5</v>
       </c>
-      <c r="K54" s="33" t="s">
+      <c r="K54" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="L54" s="80"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="76">
+      <c r="L54" s="67"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="51">
         <v>0.04</v>
       </c>
-      <c r="R54" s="54">
+      <c r="R54" s="51">
         <v>0.04</v>
       </c>
-      <c r="S54" s="33">
+      <c r="S54" s="31">
         <v>5</v>
       </c>
-      <c r="T54" s="29"/>
-      <c r="U54" s="86"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="34" t="s">
+      <c r="T54" s="27"/>
+      <c r="U54" s="72"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y54" s="16" t="s">
+      <c r="Y54" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z54" s="33">
+      <c r="Z54" s="31">
         <v>186.45</v>
       </c>
-      <c r="AA54" s="102">
+      <c r="AA54" s="87">
         <v>0.13</v>
       </c>
-      <c r="AB54" s="96"/>
-      <c r="AC54" s="96"/>
+      <c r="AB54" s="81"/>
+      <c r="AC54" s="81"/>
     </row>
     <row r="55" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A55" s="14">
+      <c r="A55" s="12">
         <v>52</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="C55" s="43" t="s">
+      <c r="C55" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F55" s="47" t="s">
+      <c r="F55" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="G55" s="45" t="s">
+      <c r="G55" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="H55" s="44" t="s">
+      <c r="H55" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="I55" s="16" t="str">
+      <c r="I55" s="14" t="str">
         <f>VLOOKUP(B55,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>KYB-M7027-001</v>
       </c>
-      <c r="J55" s="33">
+      <c r="J55" s="31">
         <v>2</v>
       </c>
-      <c r="K55" s="33" t="s">
+      <c r="K55" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="L55" s="80"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="76">
+      <c r="L55" s="67"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="51">
         <v>0.02</v>
       </c>
-      <c r="R55" s="54">
+      <c r="R55" s="51">
         <v>0.02</v>
       </c>
-      <c r="S55" s="33">
+      <c r="S55" s="31">
         <v>2</v>
       </c>
-      <c r="T55" s="29"/>
-      <c r="U55" s="86"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="34" t="s">
+      <c r="T55" s="27"/>
+      <c r="U55" s="72"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y55" s="16" t="s">
+      <c r="Y55" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z55" s="105">
+      <c r="Z55" s="88">
         <v>4950</v>
       </c>
-      <c r="AA55" s="102">
+      <c r="AA55" s="87">
         <v>0.01</v>
       </c>
-      <c r="AB55" s="96"/>
-      <c r="AC55" s="96"/>
+      <c r="AB55" s="81"/>
+      <c r="AC55" s="81"/>
     </row>
     <row r="56" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A56" s="14">
+      <c r="A56" s="12">
         <v>53</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="C56" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="G56" s="45" t="s">
+      <c r="G56" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="H56" s="22" t="s">
+      <c r="H56" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="I56" s="16" t="str">
+      <c r="I56" s="14" t="str">
         <f>VLOOKUP(B56,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J56" s="33">
+      <c r="J56" s="31">
         <v>10</v>
       </c>
-      <c r="K56" s="33" t="s">
+      <c r="K56" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="L56" s="80"/>
-      <c r="M56" s="65"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="63"/>
-      <c r="Q56" s="76">
+      <c r="L56" s="67"/>
+      <c r="M56" s="58"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="51">
         <v>0.09</v>
       </c>
-      <c r="R56" s="54">
+      <c r="R56" s="51">
         <v>0.09</v>
       </c>
-      <c r="S56" s="33">
+      <c r="S56" s="31">
         <v>10</v>
       </c>
-      <c r="T56" s="29"/>
-      <c r="U56" s="86"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="14"/>
-      <c r="X56" s="34" t="s">
+      <c r="T56" s="27"/>
+      <c r="U56" s="72"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y56" s="16" t="s">
+      <c r="Y56" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z56" s="33">
+      <c r="Z56" s="31">
         <v>6.5</v>
       </c>
-      <c r="AA56" s="102">
+      <c r="AA56" s="87">
         <v>0.13</v>
       </c>
-      <c r="AB56" s="96"/>
-      <c r="AC56" s="96"/>
+      <c r="AB56" s="81"/>
+      <c r="AC56" s="81"/>
     </row>
     <row r="57" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A57" s="14">
+      <c r="A57" s="12">
         <v>54</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="G57" s="45" t="s">
+      <c r="G57" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="H57" s="22" t="s">
+      <c r="H57" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="I57" s="16" t="str">
+      <c r="I57" s="14" t="str">
         <f>VLOOKUP(B57,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J57" s="33">
+      <c r="J57" s="31">
         <v>10</v>
       </c>
-      <c r="K57" s="33" t="s">
+      <c r="K57" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="L57" s="80"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="63"/>
-      <c r="Q57" s="76">
+      <c r="L57" s="67"/>
+      <c r="M57" s="58"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="51">
         <v>0.09</v>
       </c>
-      <c r="R57" s="54">
+      <c r="R57" s="51">
         <v>0.09</v>
       </c>
-      <c r="S57" s="33">
+      <c r="S57" s="31">
         <v>10</v>
       </c>
-      <c r="T57" s="29"/>
-      <c r="U57" s="86"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="14"/>
-      <c r="X57" s="34" t="s">
+      <c r="T57" s="27"/>
+      <c r="U57" s="72"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y57" s="16" t="s">
+      <c r="Y57" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z57" s="33">
+      <c r="Z57" s="31">
         <v>6.5</v>
       </c>
-      <c r="AA57" s="102">
+      <c r="AA57" s="87">
         <v>0.13</v>
       </c>
-      <c r="AB57" s="96"/>
-      <c r="AC57" s="96"/>
+      <c r="AB57" s="81"/>
+      <c r="AC57" s="81"/>
     </row>
     <row r="58" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A58" s="14">
+      <c r="A58" s="12">
         <v>55</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F58" s="46" t="s">
+      <c r="F58" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="G58" s="45" t="s">
+      <c r="G58" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="H58" s="22" t="s">
+      <c r="H58" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="I58" s="16" t="str">
+      <c r="I58" s="14" t="str">
         <f>VLOOKUP(B58,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J58" s="33">
+      <c r="J58" s="31">
         <v>2</v>
       </c>
-      <c r="K58" s="33" t="s">
+      <c r="K58" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="L58" s="80"/>
-      <c r="M58" s="65"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
-      <c r="P58" s="63"/>
-      <c r="Q58" s="76">
+      <c r="L58" s="67"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="51">
         <v>0.02</v>
       </c>
-      <c r="R58" s="54">
+      <c r="R58" s="51">
         <v>0.02</v>
       </c>
-      <c r="S58" s="33">
+      <c r="S58" s="31">
         <v>2</v>
       </c>
-      <c r="T58" s="29"/>
-      <c r="U58" s="86"/>
-      <c r="V58" s="14"/>
-      <c r="W58" s="14"/>
-      <c r="X58" s="34" t="s">
+      <c r="T58" s="27"/>
+      <c r="U58" s="72"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y58" s="16" t="s">
+      <c r="Y58" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z58" s="33">
+      <c r="Z58" s="31">
         <v>220</v>
       </c>
-      <c r="AA58" s="102">
+      <c r="AA58" s="87">
         <v>0.13</v>
       </c>
-      <c r="AB58" s="96"/>
-      <c r="AC58" s="96"/>
+      <c r="AB58" s="81"/>
+      <c r="AC58" s="81"/>
     </row>
     <row r="59" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A59" s="14">
+      <c r="A59" s="12">
         <v>56</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="C59" s="43" t="s">
+      <c r="C59" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F59" s="46" t="s">
+      <c r="F59" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="G59" s="45" t="s">
+      <c r="G59" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="H59" s="22" t="s">
+      <c r="H59" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="I59" s="16" t="str">
+      <c r="I59" s="14" t="str">
         <f>VLOOKUP(B59,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J59" s="33">
+      <c r="J59" s="31">
         <v>2</v>
       </c>
-      <c r="K59" s="33" t="s">
+      <c r="K59" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="L59" s="80"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="57"/>
-      <c r="P59" s="63"/>
-      <c r="Q59" s="76">
+      <c r="L59" s="67"/>
+      <c r="M59" s="58"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="56"/>
+      <c r="Q59" s="51">
         <v>0.02</v>
       </c>
-      <c r="R59" s="54">
+      <c r="R59" s="51">
         <v>0.02</v>
       </c>
-      <c r="S59" s="33">
+      <c r="S59" s="31">
         <v>2</v>
       </c>
-      <c r="T59" s="29"/>
-      <c r="U59" s="86"/>
-      <c r="V59" s="14"/>
-      <c r="W59" s="14"/>
-      <c r="X59" s="34" t="s">
+      <c r="T59" s="27"/>
+      <c r="U59" s="72"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y59" s="16" t="s">
+      <c r="Y59" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z59" s="33">
+      <c r="Z59" s="31">
         <v>220</v>
       </c>
-      <c r="AA59" s="102">
+      <c r="AA59" s="87">
         <v>0.13</v>
       </c>
-      <c r="AB59" s="96"/>
-      <c r="AC59" s="96"/>
+      <c r="AB59" s="81"/>
+      <c r="AC59" s="81"/>
     </row>
     <row r="60" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A60" s="14">
+      <c r="A60" s="12">
         <v>57</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="C60" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="G60" s="45" t="s">
+      <c r="G60" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="H60" s="22" t="s">
+      <c r="H60" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="I60" s="16" t="str">
+      <c r="I60" s="14" t="str">
         <f>VLOOKUP(B60,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J60" s="33">
+      <c r="J60" s="31">
         <v>2</v>
       </c>
-      <c r="K60" s="33" t="s">
+      <c r="K60" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="L60" s="80"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="63"/>
-      <c r="Q60" s="76">
+      <c r="L60" s="67"/>
+      <c r="M60" s="58"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="56"/>
+      <c r="Q60" s="51">
         <v>0.02</v>
       </c>
-      <c r="R60" s="54">
+      <c r="R60" s="51">
         <v>0.02</v>
       </c>
-      <c r="S60" s="33">
+      <c r="S60" s="31">
         <v>2</v>
       </c>
-      <c r="T60" s="29"/>
-      <c r="U60" s="86"/>
-      <c r="V60" s="14"/>
-      <c r="W60" s="14"/>
-      <c r="X60" s="34" t="s">
+      <c r="T60" s="27"/>
+      <c r="U60" s="72"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y60" s="16" t="s">
+      <c r="Y60" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z60" s="33">
+      <c r="Z60" s="31">
         <v>220</v>
       </c>
-      <c r="AA60" s="102">
+      <c r="AA60" s="87">
         <v>0.13</v>
       </c>
-      <c r="AB60" s="96"/>
-      <c r="AC60" s="96"/>
+      <c r="AB60" s="81"/>
+      <c r="AC60" s="81"/>
     </row>
     <row r="61" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A61" s="14">
+      <c r="A61" s="12">
         <v>58</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="C61" s="43" t="s">
+      <c r="C61" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F61" s="46" t="s">
+      <c r="F61" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="G61" s="45" t="s">
+      <c r="G61" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="H61" s="22" t="s">
+      <c r="H61" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="I61" s="16" t="str">
+      <c r="I61" s="14" t="str">
         <f>VLOOKUP(B61,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J61" s="33">
+      <c r="J61" s="31">
         <v>2</v>
       </c>
-      <c r="K61" s="33" t="s">
+      <c r="K61" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="L61" s="81"/>
-      <c r="M61" s="64"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="76">
+      <c r="L61" s="68"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="50"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51">
         <v>0.02</v>
       </c>
-      <c r="R61" s="54">
+      <c r="R61" s="51">
         <v>0.02</v>
       </c>
-      <c r="S61" s="33">
+      <c r="S61" s="31">
         <v>2</v>
       </c>
-      <c r="T61" s="33"/>
-      <c r="U61" s="87"/>
-      <c r="V61" s="14"/>
-      <c r="W61" s="14"/>
-      <c r="X61" s="34" t="s">
+      <c r="T61" s="31"/>
+      <c r="U61" s="73"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y61" s="16" t="s">
+      <c r="Y61" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z61" s="33">
+      <c r="Z61" s="31">
         <v>220</v>
       </c>
-      <c r="AA61" s="102">
+      <c r="AA61" s="87">
         <v>0.13</v>
       </c>
-      <c r="AB61" s="96"/>
-      <c r="AC61" s="96"/>
+      <c r="AB61" s="81"/>
+      <c r="AC61" s="81"/>
     </row>
     <row r="62" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A62" s="14">
+      <c r="A62" s="12">
         <v>59</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="C62" s="43" t="s">
+      <c r="C62" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F62" s="46" t="s">
+      <c r="F62" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="G62" s="45" t="s">
+      <c r="G62" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="H62" s="22" t="s">
+      <c r="H62" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="I62" s="16" t="str">
+      <c r="I62" s="14" t="str">
         <f>VLOOKUP(B62,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J62" s="33">
+      <c r="J62" s="31">
         <v>2</v>
       </c>
-      <c r="K62" s="33" t="s">
+      <c r="K62" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="L62" s="79" t="s">
+      <c r="L62" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="M62" s="62">
+      <c r="M62" s="55">
         <f ca="1">ROUND(EVALUATE(L62)*1000*0.000000001,2)</f>
         <v>0.05</v>
       </c>
-      <c r="N62" s="56">
+      <c r="N62" s="53">
         <f ca="1">M62*T62</f>
         <v>0.05</v>
       </c>
-      <c r="O62" s="57">
+      <c r="O62" s="54">
         <v>9</v>
       </c>
-      <c r="P62" s="63">
+      <c r="P62" s="56">
         <f>O62*T62</f>
         <v>9</v>
       </c>
-      <c r="Q62" s="76">
+      <c r="Q62" s="51">
         <v>4.2</v>
       </c>
-      <c r="R62" s="54">
+      <c r="R62" s="51">
         <v>4.2</v>
       </c>
-      <c r="S62" s="33">
+      <c r="S62" s="31">
         <v>2</v>
       </c>
-      <c r="T62" s="29">
+      <c r="T62" s="27">
         <f>J62/S62</f>
         <v>1</v>
       </c>
-      <c r="U62" s="85" t="s">
+      <c r="U62" s="71" t="s">
         <v>294</v>
       </c>
-      <c r="V62" s="14"/>
-      <c r="W62" s="14"/>
-      <c r="X62" s="34" t="s">
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y62" s="16" t="s">
+      <c r="Y62" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z62" s="33">
+      <c r="Z62" s="31">
         <v>328</v>
       </c>
-      <c r="AA62" s="102">
+      <c r="AA62" s="87">
         <v>0.13</v>
       </c>
-      <c r="AB62" s="96"/>
-      <c r="AC62" s="96"/>
+      <c r="AB62" s="81"/>
+      <c r="AC62" s="81"/>
     </row>
     <row r="63" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A63" s="14">
+      <c r="A63" s="12">
         <v>60</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="C63" s="43" t="s">
+      <c r="C63" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F63" s="46" t="s">
+      <c r="F63" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="G63" s="45" t="s">
+      <c r="G63" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="H63" s="22" t="s">
+      <c r="H63" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="I63" s="16" t="str">
+      <c r="I63" s="14" t="str">
         <f>VLOOKUP(B63,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J63" s="33">
+      <c r="J63" s="31">
         <v>2</v>
       </c>
-      <c r="K63" s="33" t="s">
+      <c r="K63" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="L63" s="81"/>
-      <c r="M63" s="64"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="76">
+      <c r="L63" s="68"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="50"/>
+      <c r="P63" s="51"/>
+      <c r="Q63" s="51">
         <v>4</v>
       </c>
-      <c r="R63" s="54">
+      <c r="R63" s="51">
         <v>4</v>
       </c>
-      <c r="S63" s="33">
+      <c r="S63" s="31">
         <v>2</v>
       </c>
-      <c r="T63" s="33"/>
-      <c r="U63" s="87"/>
-      <c r="V63" s="14"/>
-      <c r="W63" s="14"/>
-      <c r="X63" s="34" t="s">
+      <c r="T63" s="31"/>
+      <c r="U63" s="73"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y63" s="16" t="s">
+      <c r="Y63" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z63" s="33">
+      <c r="Z63" s="31">
         <v>328</v>
       </c>
-      <c r="AA63" s="102">
+      <c r="AA63" s="87">
         <v>0.13</v>
       </c>
-      <c r="AB63" s="96"/>
-      <c r="AC63" s="96"/>
+      <c r="AB63" s="81"/>
+      <c r="AC63" s="81"/>
     </row>
     <row r="64" customHeight="1" spans="1:29">
-      <c r="A64" s="14"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="82"/>
-      <c r="J64" s="70">
+      <c r="A64" s="12"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="69"/>
+      <c r="J64" s="60">
         <f>SUM(J4:J63)</f>
-        <v>9506</v>
-      </c>
-      <c r="K64" s="33"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="70">
+        <v>9504</v>
+      </c>
+      <c r="K64" s="31"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="60">
         <f ca="1">SUM(N4:N63)</f>
-        <v>18.32</v>
-      </c>
-      <c r="O64" s="70"/>
-      <c r="P64" s="83">
+        <v>18.31996</v>
+      </c>
+      <c r="O64" s="60"/>
+      <c r="P64" s="60">
         <f>SUM(P4:P63)</f>
-        <v>4815.46</v>
-      </c>
-      <c r="Q64" s="90"/>
-      <c r="R64" s="83">
+        <v>3374.8288</v>
+      </c>
+      <c r="Q64" s="75"/>
+      <c r="R64" s="60">
         <f>SUM(R4:R63)</f>
         <v>3156.66</v>
       </c>
-      <c r="S64" s="71"/>
-      <c r="T64" s="70">
+      <c r="S64" s="61"/>
+      <c r="T64" s="60">
         <f>SUM(T4:T63)</f>
-        <v>168</v>
-      </c>
-      <c r="U64" s="91"/>
-      <c r="V64" s="88"/>
-      <c r="W64" s="88"/>
-      <c r="X64" s="92"/>
-      <c r="Y64" s="71"/>
-      <c r="Z64" s="94"/>
-      <c r="AA64" s="93"/>
-      <c r="AB64" s="95"/>
-      <c r="AC64" s="96"/>
+        <v>167.996</v>
+      </c>
+      <c r="U64" s="76"/>
+      <c r="V64" s="74"/>
+      <c r="W64" s="74"/>
+      <c r="X64" s="77"/>
+      <c r="Y64" s="61"/>
+      <c r="Z64" s="79"/>
+      <c r="AA64" s="78"/>
+      <c r="AB64" s="80"/>
+      <c r="AC64" s="81"/>
     </row>
     <row r="65" customHeight="1" spans="1:27">
-      <c r="A65" s="106"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="108"/>
-      <c r="E65" s="108"/>
-      <c r="F65" s="109"/>
-      <c r="G65" s="110"/>
-      <c r="H65" s="110"/>
-      <c r="I65" s="112"/>
-      <c r="J65" s="113"/>
-      <c r="K65" s="106"/>
-      <c r="L65" s="114"/>
-      <c r="M65" s="115"/>
-      <c r="N65" s="115"/>
-      <c r="O65" s="115"/>
-      <c r="P65" s="116"/>
-      <c r="Q65" s="118"/>
-      <c r="R65" s="119"/>
-      <c r="S65" s="106"/>
-      <c r="T65" s="106"/>
-      <c r="U65" s="120"/>
-      <c r="V65" s="121"/>
-      <c r="W65" s="121"/>
-      <c r="X65" s="114"/>
-      <c r="Y65" s="114"/>
-      <c r="Z65" s="123"/>
-      <c r="AA65" s="124"/>
+      <c r="A65" s="89"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="91"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="95"/>
+      <c r="J65" s="96"/>
+      <c r="K65" s="89"/>
+      <c r="L65" s="97"/>
+      <c r="M65" s="98"/>
+      <c r="N65" s="98"/>
+      <c r="O65" s="98"/>
+      <c r="P65" s="99"/>
+      <c r="Q65" s="99"/>
+      <c r="R65" s="89"/>
+      <c r="S65" s="89"/>
+      <c r="T65" s="89"/>
+      <c r="U65" s="101"/>
+      <c r="V65" s="102"/>
+      <c r="W65" s="102"/>
+      <c r="X65" s="97"/>
+      <c r="Y65" s="97"/>
+      <c r="Z65" s="103"/>
+      <c r="AA65" s="104"/>
     </row>
     <row r="66" customHeight="1" spans="1:27">
-      <c r="A66" s="106"/>
-      <c r="B66" s="106"/>
-      <c r="C66" s="106"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="106"/>
-      <c r="F66" s="111"/>
-      <c r="G66" s="106"/>
-      <c r="H66" s="106"/>
-      <c r="I66" s="106"/>
-      <c r="J66" s="4"/>
-      <c r="P66" s="117"/>
-      <c r="Q66" s="122"/>
-      <c r="Z66" s="123"/>
-      <c r="AA66" s="124"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="94"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="3"/>
+      <c r="P66" s="100"/>
+      <c r="Q66" s="100"/>
+      <c r="Z66" s="103"/>
+      <c r="AA66" s="104"/>
     </row>
     <row r="67" customHeight="1" spans="26:27">
-      <c r="Z67" s="123"/>
-      <c r="AA67" s="124"/>
+      <c r="Z67" s="103"/>
+      <c r="AA67" s="104"/>
     </row>
     <row r="68" customHeight="1" spans="26:27">
-      <c r="Z68" s="123"/>
-      <c r="AA68" s="124"/>
+      <c r="Z68" s="103"/>
+      <c r="AA68" s="104"/>
     </row>
     <row r="69" customHeight="1" spans="26:27">
-      <c r="Z69" s="123"/>
-      <c r="AA69" s="124"/>
+      <c r="Z69" s="103"/>
+      <c r="AA69" s="104"/>
     </row>
     <row r="70" customHeight="1" spans="26:27">
-      <c r="Z70" s="123"/>
-      <c r="AA70" s="124"/>
+      <c r="Z70" s="103"/>
+      <c r="AA70" s="104"/>
     </row>
     <row r="71" customHeight="1" spans="26:27">
-      <c r="Z71" s="123"/>
-      <c r="AA71" s="124"/>
+      <c r="Z71" s="103"/>
+      <c r="AA71" s="104"/>
     </row>
     <row r="72" customHeight="1" spans="26:27">
-      <c r="Z72" s="123"/>
-      <c r="AA72" s="124"/>
+      <c r="Z72" s="103"/>
+      <c r="AA72" s="104"/>
     </row>
     <row r="73" customHeight="1" spans="26:27">
-      <c r="Z73" s="123"/>
-      <c r="AA73" s="124"/>
+      <c r="Z73" s="103"/>
+      <c r="AA73" s="104"/>
     </row>
     <row r="74" customHeight="1" spans="26:27">
-      <c r="Z74" s="123"/>
-      <c r="AA74" s="124"/>
+      <c r="Z74" s="103"/>
+      <c r="AA74" s="104"/>
     </row>
     <row r="75" customHeight="1" spans="26:27">
-      <c r="Z75" s="123"/>
-      <c r="AA75" s="124"/>
+      <c r="Z75" s="103"/>
+      <c r="AA75" s="104"/>
     </row>
     <row r="76" customHeight="1" spans="26:27">
-      <c r="Z76" s="123"/>
-      <c r="AA76" s="124"/>
+      <c r="Z76" s="103"/>
+      <c r="AA76" s="104"/>
     </row>
     <row r="77" customHeight="1" spans="26:27">
-      <c r="Z77" s="123"/>
-      <c r="AA77" s="124"/>
+      <c r="Z77" s="103"/>
+      <c r="AA77" s="104"/>
     </row>
     <row r="78" customHeight="1" spans="26:27">
-      <c r="Z78" s="123"/>
-      <c r="AA78" s="124"/>
+      <c r="Z78" s="103"/>
+      <c r="AA78" s="104"/>
     </row>
     <row r="79" customHeight="1" spans="26:27">
-      <c r="Z79" s="123"/>
-      <c r="AA79" s="124"/>
+      <c r="Z79" s="103"/>
+      <c r="AA79" s="104"/>
     </row>
     <row r="80" customHeight="1" spans="26:27">
-      <c r="Z80" s="123"/>
-      <c r="AA80" s="124"/>
+      <c r="Z80" s="103"/>
+      <c r="AA80" s="104"/>
     </row>
     <row r="81" customHeight="1" spans="26:27">
-      <c r="Z81" s="123"/>
-      <c r="AA81" s="124"/>
+      <c r="Z81" s="103"/>
+      <c r="AA81" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="88">
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B39:B46"/>
@@ -7807,6 +7717,7 @@
     <mergeCell ref="P22:P30"/>
     <mergeCell ref="P33:P34"/>
     <mergeCell ref="P35:P37"/>
+    <mergeCell ref="P39:P46"/>
     <mergeCell ref="P50:P61"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="Q35:Q37"/>
@@ -7846,13 +7757,13 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:C65522 B4:B6 B9:B30">
-    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
   </conditionalFormatting>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape"/>

--- a/testfiles/original_packing_list.xlsx
+++ b/testfiles/original_packing_list.xlsx
@@ -3042,7 +3042,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -3060,7 +3060,9 @@
     <col min="10" max="11" width="10.6272727272727" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.2545454545455" style="2" customWidth="1"/>
     <col min="13" max="15" width="10.6272727272727" style="7" customWidth="1"/>
-    <col min="16" max="20" width="10.6272727272727" style="8" customWidth="1"/>
+    <col min="16" max="17" width="10.6272727272727" style="8" customWidth="1"/>
+    <col min="18" max="18" width="24.1818181818182" style="8" customWidth="1"/>
+    <col min="19" max="20" width="10.6272727272727" style="8" customWidth="1"/>
     <col min="21" max="21" width="10.6272727272727" style="9" customWidth="1"/>
     <col min="22" max="25" width="10.6272727272727" style="2" customWidth="1"/>
     <col min="26" max="26" width="10.6272727272727" style="3" customWidth="1"/>
@@ -3297,7 +3299,7 @@
         <v>/</v>
       </c>
       <c r="J4" s="12">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>61</v>
@@ -3311,14 +3313,14 @@
       </c>
       <c r="N4" s="49">
         <f ca="1">M4*T4</f>
-        <v>0.00996</v>
+        <v>0.00994</v>
       </c>
       <c r="O4" s="50">
         <v>2.8</v>
       </c>
       <c r="P4" s="51">
         <f>O4*T4</f>
-        <v>2.7888</v>
+        <v>2.7832</v>
       </c>
       <c r="Q4" s="51">
         <v>2.6</v>
@@ -3331,7 +3333,7 @@
       </c>
       <c r="T4" s="31">
         <f>J4/S4</f>
-        <v>0.996</v>
+        <v>0.994</v>
       </c>
       <c r="U4" s="70" t="s">
         <v>63</v>
@@ -7520,19 +7522,19 @@
       <c r="I64" s="69"/>
       <c r="J64" s="60">
         <f>SUM(J4:J63)</f>
-        <v>9504</v>
+        <v>9503</v>
       </c>
       <c r="K64" s="31"/>
       <c r="L64" s="61"/>
       <c r="M64" s="49"/>
       <c r="N64" s="60">
         <f ca="1">SUM(N4:N63)</f>
-        <v>18.31996</v>
+        <v>18.31994</v>
       </c>
       <c r="O64" s="60"/>
       <c r="P64" s="60">
         <f>SUM(P4:P63)</f>
-        <v>3374.8288</v>
+        <v>3374.8232</v>
       </c>
       <c r="Q64" s="75"/>
       <c r="R64" s="60">
@@ -7542,7 +7544,7 @@
       <c r="S64" s="61"/>
       <c r="T64" s="60">
         <f>SUM(T4:T63)</f>
-        <v>167.996</v>
+        <v>167.994</v>
       </c>
       <c r="U64" s="76"/>
       <c r="V64" s="74"/>

--- a/testfiles/original_packing_list.xlsx
+++ b/testfiles/original_packing_list.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'装箱单模版-2025年更新'!$A$1:$AB$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'装箱单模版-2025年更新'!$A$3:$AC$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'装箱单模版-2025年更新'!$A$3:$Y$64</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'装箱单模版-2025年更新'!$3:$3</definedName>
   </definedNames>
@@ -34,10 +34,79 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>123</author>
+  </authors>
+  <commentList>
+    <comment ref="Z2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">给工厂的时候需删除此列
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给工厂的时候需删除此列</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">给工厂的时候需删除此列
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给工厂的时候需删除此列</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="298">
-  <si>
-    <t>采购装箱单 PL25001 2025年更新版本</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="301">
+  <si>
+    <t>采购装箱单</t>
+  </si>
+  <si>
+    <t>采购装箱单编号：</t>
+  </si>
+  <si>
+    <t>CXCI2025012201</t>
+  </si>
+  <si>
+    <t>（版本: V2025-01）</t>
   </si>
   <si>
     <t>S/N</t>
@@ -61,7 +130,7 @@
     <t>Commercial Invoice Description</t>
   </si>
   <si>
-    <t>EPR Part NameEPR</t>
+    <t>EPR Part Name</t>
   </si>
   <si>
     <t>Model Number</t>
@@ -115,7 +184,7 @@
     <t>Purchasing Company</t>
   </si>
   <si>
-    <t>Unit Price (Excl. Tax, CNY)()</t>
+    <t>Unit Price (Excl. Tax, CNY)</t>
   </si>
   <si>
     <t>Tax Rate (%)</t>
@@ -142,7 +211,7 @@
     <t>供应商开票名称</t>
   </si>
   <si>
-    <t>物料名称</t>
+    <t>EPR物料名称</t>
   </si>
   <si>
     <t>型号</t>
@@ -196,7 +265,7 @@
     <t>采购公司</t>
   </si>
   <si>
-    <t>采购单价不含税</t>
+    <t>采购单价(不含税)</t>
   </si>
   <si>
     <t>开票税率</t>
@@ -211,7 +280,7 @@
     <t>SMT工厂月度辅耗材</t>
   </si>
   <si>
-    <t>Silvass</t>
+    <t>Silvassa</t>
   </si>
   <si>
     <t>Milling cutter</t>
@@ -935,7 +1004,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -945,10 +1014,11 @@
     <numFmt numFmtId="178" formatCode="&quot;US$&quot;#,##0.00_);[Red]\(&quot;US$&quot;#,##0.00\)"/>
     <numFmt numFmtId="179" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="180" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="183" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,13 +1038,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1143,6 +1218,11 @@
       <name val=""/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -1153,13 +1233,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,133 +1631,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
@@ -1687,7 +1767,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1698,11 +1778,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="115">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1733,6 +1810,18 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1741,125 +1830,138 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1873,7 +1975,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1893,7 +1995,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1909,24 +2011,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1942,12 +2044,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1965,7 +2074,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1977,6 +2086,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1985,80 +2102,80 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2157,10 +2274,10 @@
       <color rgb="00666666"/>
       <color rgb="00333333"/>
       <color rgb="00FFFFFF"/>
-      <color rgb="00FFFF00"/>
       <color rgb="00FF0000"/>
       <color rgb="00E6B8B7"/>
       <color rgb="00000000"/>
+      <color rgb="00FFFF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2744,7 +2861,12 @@
         </row>
         <row r="61">
           <cell r="B61" t="str">
-            <v>TTL:</v>
+            <v>Total:</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62" t="str">
+            <v>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</v>
           </cell>
         </row>
       </sheetData>
@@ -3042,4628 +3164,4633 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35:Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6272727272727" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.75454545454545" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.1818181818182" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.37272727272727" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.6272727272727" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.6272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.8727272727273" style="5" customWidth="1"/>
-    <col min="7" max="7" width="34.2727272727273" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.7545454545455" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.6272727272727" style="6" customWidth="1"/>
-    <col min="10" max="11" width="10.6272727272727" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.2545454545455" style="2" customWidth="1"/>
-    <col min="13" max="15" width="10.6272727272727" style="7" customWidth="1"/>
-    <col min="16" max="17" width="10.6272727272727" style="8" customWidth="1"/>
-    <col min="18" max="18" width="24.1818181818182" style="8" customWidth="1"/>
-    <col min="19" max="20" width="10.6272727272727" style="8" customWidth="1"/>
-    <col min="21" max="21" width="10.6272727272727" style="9" customWidth="1"/>
-    <col min="22" max="25" width="10.6272727272727" style="2" customWidth="1"/>
-    <col min="26" max="26" width="10.6272727272727" style="3" customWidth="1"/>
-    <col min="27" max="27" width="10.6272727272727" style="10" customWidth="1"/>
-    <col min="28" max="28" width="10.6272727272727" style="11" customWidth="1"/>
-    <col min="29" max="29" width="10.6272727272727" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="10.6272727272727" style="2"/>
+    <col min="1" max="1" width="5.23636363636364" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.1818181818182" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.37272727272727" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6272727272727" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.3272727272727" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.8727272727273" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.8727272727273" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.7545454545455" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.6272727272727" style="5" customWidth="1"/>
+    <col min="10" max="11" width="10.6272727272727" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.2545454545455" style="1" customWidth="1"/>
+    <col min="13" max="15" width="10.6272727272727" style="6" customWidth="1"/>
+    <col min="16" max="17" width="10.6272727272727" style="7" customWidth="1"/>
+    <col min="18" max="18" width="9.3" style="7" customWidth="1"/>
+    <col min="19" max="20" width="10.6272727272727" style="7" customWidth="1"/>
+    <col min="21" max="21" width="10.6272727272727" style="8" customWidth="1"/>
+    <col min="22" max="25" width="10.6272727272727" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.44545454545455" style="2" customWidth="1"/>
+    <col min="27" max="27" width="8.44545454545455" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.6272727272727" style="10" customWidth="1"/>
+    <col min="29" max="29" width="10.6272727272727" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.6272727272727" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:27">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="16.5" spans="1:27">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14" spans="1:27">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+    </row>
+    <row r="2" ht="34.5" spans="1:27">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="F2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="G2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="H2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="I2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="J2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="L2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="M2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="N2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="O2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="P2" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="Q2" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="R2" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="S2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="T2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="U2" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="V2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="W2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="X2" s="78" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14" spans="1:27">
-      <c r="A3" s="1" t="s">
+      <c r="Y2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="Z2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="AA2" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="3" ht="23" spans="1:27">
+      <c r="A3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="D3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="E3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="F3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="G3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="H3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="I3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="J3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="K3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="L3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="M3" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="N3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="47" t="s">
+      <c r="O3" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="P3" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="Q3" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="R3" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="S3" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="T3" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="U3" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="V3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="W3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="X3" s="78" t="s">
         <v>54</v>
       </c>
+      <c r="Y3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="87" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A4" s="12">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="14" t="str">
+      <c r="E4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="20" t="str">
         <f>VLOOKUP(B4,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J4" s="12">
-        <v>497</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="48">
+      <c r="J4" s="15">
+        <v>500</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="54">
         <f ca="1" t="shared" ref="M4:M9" si="0">ROUND(EVALUATE(L4)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="55">
         <f ca="1">M4*T4</f>
-        <v>0.00994</v>
-      </c>
-      <c r="O4" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="O4" s="56">
         <v>2.8</v>
       </c>
-      <c r="P4" s="51">
+      <c r="P4" s="57">
         <f>O4*T4</f>
-        <v>2.7832</v>
-      </c>
-      <c r="Q4" s="51">
+        <v>2.8</v>
+      </c>
+      <c r="Q4" s="57">
         <v>2.6</v>
       </c>
-      <c r="R4" s="51">
+      <c r="R4" s="57">
         <v>2.6</v>
       </c>
-      <c r="S4" s="31">
+      <c r="S4" s="36">
         <v>500</v>
       </c>
-      <c r="T4" s="31">
+      <c r="T4" s="36">
         <f>J4/S4</f>
-        <v>0.994</v>
-      </c>
-      <c r="U4" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y4" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z4" s="12">
+        <v>1</v>
+      </c>
+      <c r="U4" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="15">
         <v>5</v>
       </c>
-      <c r="AA4" s="78">
+      <c r="AA4" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A5" s="12">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="C5" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="14" t="str">
+      <c r="D5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="20" t="str">
         <f>VLOOKUP(B5,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="15">
         <v>3</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" s="53">
+      <c r="K5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="59">
         <f ca="1" t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="N5" s="53">
+      <c r="N5" s="59">
         <f ca="1">M5*T5</f>
         <v>0.04</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="60">
         <v>2.04</v>
       </c>
-      <c r="P5" s="53">
+      <c r="P5" s="59">
         <f t="shared" ref="P4:P5" si="1">O5*T5</f>
         <v>2.04</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="57">
         <v>1.1</v>
       </c>
-      <c r="R5" s="51">
+      <c r="R5" s="57">
         <v>1.1</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="15">
         <v>3</v>
       </c>
-      <c r="T5" s="59">
+      <c r="T5" s="65">
         <f>J5/S5</f>
         <v>1</v>
       </c>
-      <c r="U5" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z5" s="12">
+      <c r="U5" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="15">
         <v>110</v>
       </c>
-      <c r="AA5" s="78">
+      <c r="AA5" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A6" s="12">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="14" t="str">
+      <c r="C6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="20" t="str">
         <f>VLOOKUP(B6,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>12-14</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="15">
         <v>2</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="15">
+        <v>2</v>
+      </c>
+      <c r="T6" s="32"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>78</v>
+      </c>
+      <c r="AA6" s="88">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="12">
-        <v>2</v>
-      </c>
-      <c r="T6" s="27"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z6" s="12">
+      <c r="F7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="AA6" s="78">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A7" s="12">
-        <v>4</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="14" t="str">
+      <c r="H7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="20" t="str">
         <f>VLOOKUP(B7,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>8-14</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="15">
         <v>1</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="37"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="R7" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="S7" s="15">
+        <v>1</v>
+      </c>
+      <c r="T7" s="36"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>78</v>
+      </c>
+      <c r="AA7" s="88">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A8" s="15">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="51">
-        <v>0.2</v>
-      </c>
-      <c r="R7" s="51">
-        <v>0.2</v>
-      </c>
-      <c r="S7" s="12">
-        <v>1</v>
-      </c>
-      <c r="T7" s="31"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z7" s="12">
-        <v>78</v>
-      </c>
-      <c r="AA7" s="78">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="8" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A8" s="12">
-        <v>5</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="14" t="str">
+      <c r="F8" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="20" t="str">
         <f>VLOOKUP(B8,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="15">
         <v>3</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="48">
+      <c r="K8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="54">
         <f ca="1" t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="N8" s="53">
+      <c r="N8" s="59">
         <f ca="1">M8*T8</f>
         <v>0.04</v>
       </c>
-      <c r="O8" s="49">
+      <c r="O8" s="55">
         <v>1.88</v>
       </c>
-      <c r="P8" s="49">
+      <c r="P8" s="55">
         <f>O8*T8</f>
         <v>1.88</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="57">
         <v>1.55</v>
       </c>
-      <c r="R8" s="51">
+      <c r="R8" s="57">
         <v>1.55</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="15">
         <v>3</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="15">
         <f>J8/S8</f>
         <v>1</v>
       </c>
-      <c r="U8" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z8" s="12">
+      <c r="U8" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z8" s="15">
         <v>110</v>
       </c>
-      <c r="AA8" s="78">
+      <c r="AA8" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A9" s="12">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="14" t="str">
+      <c r="C9" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="20" t="str">
         <f>VLOOKUP(B9,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>QLDZ.0014</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="15">
         <v>100</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" s="55">
+      <c r="K9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="61">
         <f ca="1" t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="N9" s="53">
+      <c r="N9" s="59">
         <f ca="1">M9*T9</f>
         <v>0.01</v>
       </c>
-      <c r="O9" s="54">
+      <c r="O9" s="60">
         <v>4.3</v>
       </c>
-      <c r="P9" s="56">
+      <c r="P9" s="62">
         <f>O9*T9</f>
         <v>4.3</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="Q9" s="57">
         <v>2</v>
       </c>
-      <c r="R9" s="51">
+      <c r="R9" s="57">
         <v>2</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="15">
         <v>100</v>
       </c>
-      <c r="T9" s="27">
+      <c r="T9" s="32">
         <f>J9/S9</f>
         <v>1</v>
       </c>
-      <c r="U9" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z9" s="12">
+      <c r="U9" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z9" s="15">
         <v>22.6</v>
       </c>
-      <c r="AA9" s="78">
+      <c r="AA9" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A10" s="12">
+      <c r="A10" s="15">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="C10" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="14" t="str">
+      <c r="D10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="20" t="str">
         <f>VLOOKUP(B10,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>N510059196AA</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="15">
         <v>137</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="37"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57">
+        <v>2.1</v>
+      </c>
+      <c r="R10" s="57">
+        <v>2.1</v>
+      </c>
+      <c r="S10" s="15">
+        <v>137</v>
+      </c>
+      <c r="T10" s="36"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="AA10" s="88">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A11" s="15">
+        <v>8</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51">
-        <v>2.1</v>
-      </c>
-      <c r="R10" s="51">
-        <v>2.1</v>
-      </c>
-      <c r="S10" s="12">
-        <v>137</v>
-      </c>
-      <c r="T10" s="31"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y10" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z10" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="AA10" s="78">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A11" s="12">
-        <v>8</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="14" t="str">
+      <c r="F11" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="20" t="str">
         <f>VLOOKUP(B11,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>FA2P5N1W20360133</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="15">
         <v>1</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="M11" s="55">
+      <c r="K11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="61">
         <f ca="1">ROUND(EVALUATE(L11)*1000*0.000000001,2)</f>
         <v>0.02</v>
       </c>
-      <c r="N11" s="53">
+      <c r="N11" s="59">
         <f ca="1">M11*T11</f>
         <v>0.02</v>
       </c>
-      <c r="O11" s="54">
+      <c r="O11" s="60">
         <v>14</v>
       </c>
-      <c r="P11" s="56">
+      <c r="P11" s="62">
         <f>O11*T11</f>
         <v>14</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="Q11" s="57">
         <v>3</v>
       </c>
-      <c r="R11" s="51">
+      <c r="R11" s="57">
         <v>3</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="15">
         <v>1</v>
       </c>
-      <c r="T11" s="59">
+      <c r="T11" s="65">
         <f>J11/S11</f>
         <v>1</v>
       </c>
-      <c r="U11" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z11" s="12">
+      <c r="U11" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z11" s="15">
         <v>1140</v>
       </c>
-      <c r="AA11" s="78">
+      <c r="AA11" s="88">
         <v>0.13</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A12" s="12">
+    <row r="12" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A12" s="15">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="16" t="s">
+      <c r="B12" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="C12" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="14" t="str">
+      <c r="D12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="20" t="str">
         <f>VLOOKUP(B12,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>STM86118S</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="15">
         <v>1</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="33"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="57">
+        <v>5</v>
+      </c>
+      <c r="R12" s="57">
+        <v>5</v>
+      </c>
+      <c r="S12" s="15">
+        <v>1</v>
+      </c>
+      <c r="T12" s="32"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y12" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>230</v>
+      </c>
+      <c r="AA12" s="88">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A13" s="15">
+        <v>10</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="51">
-        <v>5</v>
-      </c>
-      <c r="R12" s="51">
-        <v>5</v>
-      </c>
-      <c r="S12" s="12">
-        <v>1</v>
-      </c>
-      <c r="T12" s="27"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y12" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z12" s="12">
-        <v>230</v>
-      </c>
-      <c r="AA12" s="78">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A13" s="12">
-        <v>10</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="14" t="str">
+      <c r="H13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="20" t="str">
         <f>VLOOKUP(B13,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>STM8680</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="15">
         <v>3</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51">
+      <c r="K13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="37"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57">
         <v>5</v>
       </c>
-      <c r="R13" s="51">
+      <c r="R13" s="57">
         <v>5</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="15">
         <v>3</v>
       </c>
-      <c r="T13" s="31"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z13" s="12">
+      <c r="T13" s="36"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z13" s="15">
         <v>185</v>
       </c>
-      <c r="AA13" s="78">
+      <c r="AA13" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="14" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A14" s="12">
+      <c r="A14" s="15">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="B14" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="14" t="str">
+      <c r="E14" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="20" t="str">
         <f>VLOOKUP(B14,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="15">
         <v>5</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14" s="48">
+      <c r="K14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="54">
         <f ca="1">ROUND(EVALUATE(L14)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N14" s="49">
+      <c r="N14" s="55">
         <f ca="1">M14*T14</f>
         <v>0.01</v>
       </c>
-      <c r="O14" s="50">
+      <c r="O14" s="56">
         <v>1.44</v>
       </c>
-      <c r="P14" s="51">
+      <c r="P14" s="57">
         <f>O14*T14</f>
         <v>1.44</v>
       </c>
-      <c r="Q14" s="51">
+      <c r="Q14" s="57">
         <v>1.23</v>
       </c>
-      <c r="R14" s="51">
+      <c r="R14" s="57">
         <v>1.23</v>
       </c>
-      <c r="S14" s="31">
+      <c r="S14" s="36">
         <v>5</v>
       </c>
-      <c r="T14" s="31">
+      <c r="T14" s="36">
         <f>J14/S14</f>
         <v>1</v>
       </c>
-      <c r="U14" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z14" s="12">
+      <c r="U14" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z14" s="15">
         <v>350</v>
       </c>
-      <c r="AA14" s="78">
+      <c r="AA14" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="15" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A15" s="12">
+      <c r="A15" s="15">
         <v>12</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="C15" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="14" t="str">
+      <c r="D15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="20" t="str">
         <f>VLOOKUP(B15,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-sk</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="15">
         <v>30</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="M15" s="53">
+      <c r="K15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="59">
         <f ca="1">ROUND(EVALUATE(L15)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N15" s="53">
+      <c r="N15" s="59">
         <f ca="1">M15*T15</f>
         <v>0.01</v>
       </c>
-      <c r="O15" s="59">
+      <c r="O15" s="65">
         <v>7.55</v>
       </c>
-      <c r="P15" s="59">
+      <c r="P15" s="65">
         <f>O15*T15</f>
         <v>7.55</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="57">
         <v>0.15</v>
       </c>
-      <c r="R15" s="51">
+      <c r="R15" s="57">
         <v>0.15</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S15" s="15">
         <v>30</v>
       </c>
-      <c r="T15" s="27">
+      <c r="T15" s="32">
         <f>J15/S15</f>
         <v>1</v>
       </c>
-      <c r="U15" s="71" t="s">
+      <c r="U15" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y15" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z15" s="15">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="88">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A16" s="15">
+        <v>13</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y15" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z15" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA15" s="78">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A16" s="12">
-        <v>13</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="14" t="str">
+      <c r="H16" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="20" t="str">
         <f>VLOOKUP(B16,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-B</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="15">
         <v>500</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27">
+      <c r="K16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="33"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32">
         <f t="shared" ref="P16:P22" si="2">O16*T16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="51">
+      <c r="Q16" s="57">
         <v>2.5</v>
       </c>
-      <c r="R16" s="51">
+      <c r="R16" s="57">
         <v>2.5</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="15">
         <v>500</v>
       </c>
-      <c r="T16" s="27"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y16" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z16" s="12">
+      <c r="T16" s="32"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y16" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z16" s="15">
         <v>5</v>
       </c>
-      <c r="AA16" s="78">
+      <c r="AA16" s="88">
         <v>0.01</v>
       </c>
     </row>
     <row r="17" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A17" s="12">
+      <c r="A17" s="15">
         <v>14</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="14" t="str">
+      <c r="B17" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="20" t="str">
         <f>VLOOKUP(B17,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-4C</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="15">
         <v>400</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27">
+      <c r="K17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="33"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="Q17" s="57">
         <v>2</v>
       </c>
-      <c r="R17" s="51">
+      <c r="R17" s="57">
         <v>2</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="15">
         <v>400</v>
       </c>
-      <c r="T17" s="27"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y17" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z17" s="12">
+      <c r="T17" s="32"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y17" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z17" s="15">
         <v>5</v>
       </c>
-      <c r="AA17" s="78">
+      <c r="AA17" s="88">
         <v>0.01</v>
       </c>
     </row>
     <row r="18" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A18" s="12">
+      <c r="A18" s="15">
         <v>15</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="I18" s="14" t="str">
+      <c r="B18" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="20" t="str">
         <f>VLOOKUP(B18,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-2C</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="15">
         <v>40</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27">
+      <c r="K18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="51">
+      <c r="Q18" s="57">
         <v>0.2</v>
       </c>
-      <c r="R18" s="51">
+      <c r="R18" s="57">
         <v>0.2</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18" s="15">
         <v>40</v>
       </c>
-      <c r="T18" s="27"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y18" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z18" s="12">
+      <c r="T18" s="32"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y18" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z18" s="15">
         <v>5</v>
       </c>
-      <c r="AA18" s="78">
+      <c r="AA18" s="88">
         <v>0.01</v>
       </c>
     </row>
     <row r="19" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A19" s="12">
+      <c r="A19" s="15">
         <v>16</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="14" t="str">
+      <c r="B19" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" s="20" t="str">
         <f>VLOOKUP(B19,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900-T-1.2D</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="15">
         <v>40</v>
       </c>
-      <c r="K19" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27">
+      <c r="K19" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="33"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="51">
+      <c r="Q19" s="57">
         <v>0.2</v>
       </c>
-      <c r="R19" s="51">
+      <c r="R19" s="57">
         <v>0.2</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="15">
         <v>40</v>
       </c>
-      <c r="T19" s="27"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y19" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z19" s="12">
+      <c r="T19" s="32"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y19" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z19" s="15">
         <v>3</v>
       </c>
-      <c r="AA19" s="78">
+      <c r="AA19" s="88">
         <v>0.01</v>
       </c>
     </row>
     <row r="20" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A20" s="12">
+      <c r="A20" s="15">
         <v>17</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I20" s="14" t="str">
+      <c r="B20" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="20" t="str">
         <f>VLOOKUP(B20,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>WRNT-013</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="15">
         <v>140</v>
       </c>
-      <c r="K20" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="28"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27">
+      <c r="K20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="33"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="51">
+      <c r="Q20" s="57">
         <v>0.7</v>
       </c>
-      <c r="R20" s="51">
+      <c r="R20" s="57">
         <v>0.7</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="15">
         <v>140</v>
       </c>
-      <c r="T20" s="27"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y20" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z20" s="12">
+      <c r="T20" s="32"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z20" s="15">
         <v>1.2</v>
       </c>
-      <c r="AA20" s="78">
+      <c r="AA20" s="88">
         <v>0.01</v>
       </c>
     </row>
     <row r="21" ht="24.95" customHeight="1" spans="1:28">
-      <c r="A21" s="12">
+      <c r="A21" s="15">
         <v>18</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" s="14" t="str">
+      <c r="B21" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I21" s="20" t="str">
         <f>VLOOKUP(B21,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="15">
         <v>250</v>
       </c>
-      <c r="K21" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" s="32"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31">
+      <c r="K21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="37"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="51">
+      <c r="Q21" s="57">
         <v>1.25</v>
       </c>
-      <c r="R21" s="51">
+      <c r="R21" s="57">
         <v>1.25</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21" s="15">
         <v>250</v>
       </c>
-      <c r="T21" s="31"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y21" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z21" s="12">
+      <c r="T21" s="36"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y21" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z21" s="15">
         <v>0.99</v>
       </c>
-      <c r="AA21" s="78">
+      <c r="AA21" s="88">
         <v>0.01</v>
       </c>
-      <c r="AB21" s="11" t="s">
-        <v>137</v>
+      <c r="AB21" s="10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="22" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A22" s="12">
+      <c r="A22" s="15">
         <v>19</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="16" t="s">
+      <c r="B22" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I22" s="14" t="str">
+      <c r="C22" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="20" t="str">
         <f>VLOOKUP(B22,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="15">
         <v>388</v>
       </c>
-      <c r="K22" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L22" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="M22" s="59">
+      <c r="K22" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="M22" s="65">
         <f ca="1">ROUND(EVALUATE(L22)*1000*0.000000001,2)</f>
         <v>0.02</v>
       </c>
-      <c r="N22" s="59">
+      <c r="N22" s="65">
         <f ca="1">M22*T22</f>
         <v>0.02</v>
       </c>
-      <c r="O22" s="59">
+      <c r="O22" s="65">
         <v>20</v>
       </c>
-      <c r="P22" s="59">
+      <c r="P22" s="65">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q22" s="51">
+      <c r="Q22" s="57">
         <v>3.49</v>
       </c>
-      <c r="R22" s="51">
+      <c r="R22" s="57">
         <v>3.49</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="15">
         <v>388</v>
       </c>
-      <c r="T22" s="27">
+      <c r="T22" s="32">
         <f>J22/S22</f>
         <v>1</v>
       </c>
-      <c r="U22" s="71" t="s">
+      <c r="U22" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z22" s="15">
+        <v>1.32</v>
+      </c>
+      <c r="AA22" s="88">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A23" s="15">
+        <v>20</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y22" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z22" s="12">
-        <v>1.32</v>
-      </c>
-      <c r="AA22" s="78">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="23" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A23" s="12">
-        <v>20</v>
-      </c>
-      <c r="B23" s="13" t="s">
+      <c r="G23" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I23" s="14" t="str">
+      <c r="H23" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="20" t="str">
         <f>VLOOKUP(B23,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="15">
         <v>457</v>
       </c>
-      <c r="K23" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="51">
+      <c r="K23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="33"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="57">
         <v>4.11</v>
       </c>
-      <c r="R23" s="51">
+      <c r="R23" s="57">
         <v>4.11</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23" s="15">
         <v>457</v>
       </c>
-      <c r="T23" s="27"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y23" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z23" s="12">
+      <c r="T23" s="32"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y23" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z23" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA23" s="78">
+      <c r="AA23" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="24" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A24" s="12">
+      <c r="A24" s="15">
         <v>21</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" s="14" t="str">
+      <c r="B24" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="20" t="str">
         <f>VLOOKUP(B24,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="15">
         <v>458</v>
       </c>
-      <c r="K24" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="51">
+      <c r="K24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="33"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="57">
         <v>4.12</v>
       </c>
-      <c r="R24" s="51">
+      <c r="R24" s="57">
         <v>4.12</v>
       </c>
-      <c r="S24" s="12">
+      <c r="S24" s="15">
         <v>458</v>
       </c>
-      <c r="T24" s="27"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y24" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z24" s="12">
+      <c r="T24" s="32"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y24" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z24" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA24" s="78">
+      <c r="AA24" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="25" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A25" s="12">
+      <c r="A25" s="15">
         <v>22</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I25" s="14" t="str">
+      <c r="B25" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="20" t="str">
         <f>VLOOKUP(B25,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="15">
         <v>287</v>
       </c>
-      <c r="K25" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L25" s="28"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="51">
+      <c r="K25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="33"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="57">
         <v>2.58</v>
       </c>
-      <c r="R25" s="51">
+      <c r="R25" s="57">
         <v>2.58</v>
       </c>
-      <c r="S25" s="12">
+      <c r="S25" s="15">
         <v>287</v>
       </c>
-      <c r="T25" s="27"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y25" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z25" s="12">
+      <c r="T25" s="32"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y25" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z25" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA25" s="78">
+      <c r="AA25" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="26" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A26" s="12">
+      <c r="A26" s="15">
         <v>23</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="I26" s="14" t="str">
+      <c r="B26" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="20" t="str">
         <f>VLOOKUP(B26,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="15">
         <v>40</v>
       </c>
-      <c r="K26" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" s="28"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="51">
+      <c r="K26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="33"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="57">
         <v>0.36</v>
       </c>
-      <c r="R26" s="51">
+      <c r="R26" s="57">
         <v>0.36</v>
       </c>
-      <c r="S26" s="12">
+      <c r="S26" s="15">
         <v>40</v>
       </c>
-      <c r="T26" s="27"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y26" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z26" s="12">
+      <c r="T26" s="32"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y26" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z26" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA26" s="78">
+      <c r="AA26" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="27" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A27" s="12">
+      <c r="A27" s="15">
         <v>24</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="I27" s="14" t="str">
+      <c r="B27" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="20" t="str">
         <f>VLOOKUP(B27,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="15">
         <v>60</v>
       </c>
-      <c r="K27" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L27" s="28"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="51">
+      <c r="K27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="33"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="57">
         <v>0.54</v>
       </c>
-      <c r="R27" s="51">
+      <c r="R27" s="57">
         <v>0.54</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S27" s="15">
         <v>60</v>
       </c>
-      <c r="T27" s="27"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y27" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z27" s="12">
+      <c r="T27" s="32"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y27" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z27" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA27" s="78">
+      <c r="AA27" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="28" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A28" s="12">
+      <c r="A28" s="15">
         <v>25</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="I28" s="14" t="str">
+      <c r="I28" s="20" t="str">
         <f>VLOOKUP(B28,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="15">
         <v>50</v>
       </c>
-      <c r="K28" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L28" s="28"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="51">
+      <c r="K28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="33"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="57">
         <v>0.45</v>
       </c>
-      <c r="R28" s="51">
+      <c r="R28" s="57">
         <v>0.45</v>
       </c>
-      <c r="S28" s="12">
+      <c r="S28" s="15">
         <v>50</v>
       </c>
-      <c r="T28" s="27"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y28" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z28" s="12">
+      <c r="T28" s="32"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y28" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z28" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA28" s="78">
+      <c r="AA28" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="29" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A29" s="12">
+      <c r="A29" s="15">
         <v>26</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I29" s="14" t="str">
+      <c r="B29" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="20" t="str">
         <f>VLOOKUP(B29,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="15">
         <v>50</v>
       </c>
-      <c r="K29" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L29" s="28"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="51">
+      <c r="K29" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="33"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="57">
         <v>0.45</v>
       </c>
-      <c r="R29" s="51">
+      <c r="R29" s="57">
         <v>0.45</v>
       </c>
-      <c r="S29" s="12">
+      <c r="S29" s="15">
         <v>50</v>
       </c>
-      <c r="T29" s="27"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y29" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z29" s="12">
+      <c r="T29" s="32"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y29" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z29" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA29" s="78">
+      <c r="AA29" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="30" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A30" s="12">
+      <c r="A30" s="15">
         <v>27</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I30" s="14" t="str">
+      <c r="B30" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="20" t="str">
         <f>VLOOKUP(B30,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="15">
         <v>110</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="37"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="57">
+        <v>0.99</v>
+      </c>
+      <c r="R30" s="57">
+        <v>0.99</v>
+      </c>
+      <c r="S30" s="15">
+        <v>110</v>
+      </c>
+      <c r="T30" s="36"/>
+      <c r="U30" s="81"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y30" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z30" s="15">
+        <v>1.32</v>
+      </c>
+      <c r="AA30" s="88">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:29">
+      <c r="A31" s="15">
+        <v>28</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L30" s="32"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="51">
-        <v>0.99</v>
-      </c>
-      <c r="R30" s="51">
-        <v>0.99</v>
-      </c>
-      <c r="S30" s="12">
-        <v>110</v>
-      </c>
-      <c r="T30" s="31"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y30" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z30" s="12">
-        <v>1.32</v>
-      </c>
-      <c r="AA30" s="78">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:29">
-      <c r="A31" s="12">
-        <v>28</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="I31" s="14" t="str">
+      <c r="F31" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" s="20" t="str">
         <f>VLOOKUP(B31,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J31" s="60">
+      <c r="J31" s="66">
         <v>2040</v>
       </c>
-      <c r="K31" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="L31" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="M31" s="48">
+      <c r="K31" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="L31" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="M31" s="54">
         <f ca="1">ROUND(EVALUATE(L31)*1000*0.000000001,2)</f>
         <v>0.09</v>
       </c>
-      <c r="N31" s="61">
+      <c r="N31" s="67">
         <f ca="1">M31*T31</f>
         <v>6.12</v>
       </c>
-      <c r="O31" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="P31" s="62">
+      <c r="O31" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="P31" s="68">
         <f>O31*T31</f>
         <v>1204.28</v>
       </c>
-      <c r="Q31" s="51">
+      <c r="Q31" s="57">
         <v>1200</v>
       </c>
-      <c r="R31" s="51">
+      <c r="R31" s="57">
         <v>1200</v>
       </c>
-      <c r="S31" s="68" t="s">
-        <v>165</v>
-      </c>
-      <c r="T31" s="12">
+      <c r="S31" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="T31" s="15">
         <f>J31/S31</f>
         <v>68</v>
       </c>
-      <c r="U31" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="V31" s="74"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y31" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z31" s="79">
+      <c r="U31" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y31" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z31" s="89">
         <v>14.8</v>
       </c>
-      <c r="AA31" s="78">
+      <c r="AA31" s="88">
         <v>0.13</v>
       </c>
-      <c r="AB31" s="80"/>
-      <c r="AC31" s="81"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="91"/>
     </row>
     <row r="32" customHeight="1" spans="1:29">
-      <c r="A32" s="12">
+      <c r="A32" s="15">
         <v>29</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="I32" s="14" t="str">
+      <c r="B32" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" s="20" t="str">
         <f>VLOOKUP(B32,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J32" s="60">
+      <c r="J32" s="66">
         <v>2800</v>
       </c>
-      <c r="K32" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="L32" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="M32" s="48">
+      <c r="K32" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="L32" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="M32" s="54">
         <f ca="1">ROUND(EVALUATE(L32)*1000*0.000000001,2)</f>
         <v>0.07</v>
       </c>
-      <c r="N32" s="53">
+      <c r="N32" s="59">
         <f ca="1">M32*T32</f>
         <v>3.92</v>
       </c>
-      <c r="O32" s="49">
+      <c r="O32" s="55">
         <v>15.5</v>
       </c>
-      <c r="P32" s="62">
+      <c r="P32" s="68">
         <f>O32*T32</f>
         <v>868</v>
       </c>
-      <c r="Q32" s="51">
+      <c r="Q32" s="57">
         <v>866</v>
       </c>
-      <c r="R32" s="51">
+      <c r="R32" s="57">
         <v>866</v>
       </c>
-      <c r="S32" s="68" t="s">
-        <v>170</v>
-      </c>
-      <c r="T32" s="12">
+      <c r="S32" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="T32" s="15">
         <f>J32/S32</f>
         <v>56</v>
       </c>
-      <c r="U32" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="V32" s="74"/>
-      <c r="W32" s="74"/>
-      <c r="X32" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y32" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z32" s="79">
+      <c r="U32" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y32" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z32" s="89">
         <v>7.3</v>
       </c>
-      <c r="AA32" s="78">
+      <c r="AA32" s="88">
         <v>0.13</v>
       </c>
-      <c r="AB32" s="80"/>
-      <c r="AC32" s="81"/>
-    </row>
-    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A33" s="12">
+      <c r="AB32" s="90"/>
+      <c r="AC32" s="91"/>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A33" s="15">
         <v>30</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="22" t="s">
+      <c r="B33" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="C33" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="D33" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="I33" s="14" t="str">
+      <c r="E33" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" s="20" t="str">
         <f>VLOOKUP(B33,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>AT-TSSOP20-CMS</v>
       </c>
-      <c r="J33" s="63">
+      <c r="J33" s="69">
         <v>2</v>
       </c>
-      <c r="K33" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L33" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="M33" s="49">
+      <c r="K33" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="M33" s="55">
         <f ca="1">ROUND(EVALUATE(L33)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N33" s="53">
+      <c r="N33" s="59">
         <f ca="1">M33*T33</f>
         <v>0.01</v>
       </c>
-      <c r="O33" s="54">
+      <c r="O33" s="60">
         <v>1</v>
       </c>
-      <c r="P33" s="56">
+      <c r="P33" s="62">
         <f>O33*T33</f>
         <v>1</v>
       </c>
-      <c r="Q33" s="51">
+      <c r="Q33" s="57">
         <v>0.3</v>
       </c>
-      <c r="R33" s="51">
+      <c r="R33" s="57">
         <v>0.3</v>
       </c>
-      <c r="S33" s="12">
+      <c r="S33" s="15">
         <v>2</v>
       </c>
-      <c r="T33" s="59">
+      <c r="T33" s="65">
         <f>J33/S33</f>
         <v>1</v>
       </c>
-      <c r="U33" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="V33" s="74"/>
-      <c r="W33" s="74"/>
-      <c r="X33" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y33" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z33" s="79">
+      <c r="U33" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="V33" s="82"/>
+      <c r="W33" s="82"/>
+      <c r="X33" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y33" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z33" s="89">
         <v>580</v>
       </c>
-      <c r="AA33" s="78">
+      <c r="AA33" s="88">
         <v>0.13</v>
       </c>
-      <c r="AB33" s="81"/>
-      <c r="AC33" s="81"/>
-    </row>
-    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A34" s="12">
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="91"/>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A34" s="15">
         <v>31</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="G34" s="24" t="s">
+      <c r="B34" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="H34" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="I34" s="14" t="str">
+      <c r="C34" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="I34" s="20" t="str">
         <f>VLOOKUP(B34,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>KLV-M913A-A10</v>
       </c>
-      <c r="J34" s="63">
+      <c r="J34" s="69">
         <v>5</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="K34" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="67"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="R34" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="S34" s="15">
+        <v>5</v>
+      </c>
+      <c r="T34" s="32"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="82"/>
+      <c r="W34" s="82"/>
+      <c r="X34" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y34" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z34" s="92">
+        <v>80</v>
+      </c>
+      <c r="AA34" s="93">
+        <v>0.13</v>
+      </c>
+      <c r="AB34" s="91"/>
+      <c r="AC34" s="91"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:29">
+      <c r="A35" s="15">
+        <v>32</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="51">
-        <v>0.6</v>
-      </c>
-      <c r="R34" s="51">
-        <v>0.6</v>
-      </c>
-      <c r="S34" s="12">
-        <v>5</v>
-      </c>
-      <c r="T34" s="27"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="74"/>
-      <c r="X34" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y34" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z34" s="82">
-        <v>80</v>
-      </c>
-      <c r="AA34" s="83">
-        <v>0.13</v>
-      </c>
-      <c r="AB34" s="81"/>
-      <c r="AC34" s="81"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:29">
-      <c r="A35" s="12">
-        <v>32</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="I35" s="14" t="str">
+      <c r="F35" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="I35" s="20" t="str">
         <f>VLOOKUP(B35,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J35" s="64">
+      <c r="J35" s="70">
         <v>3</v>
       </c>
-      <c r="K35" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="L35" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="M35" s="48">
+      <c r="K35" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="L35" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="M35" s="54">
         <f ca="1">ROUND(EVALUATE(L35)*1000*0.000000001,2)</f>
         <v>0.06</v>
       </c>
-      <c r="N35" s="53">
+      <c r="N35" s="59">
         <f ca="1" t="shared" ref="N35:N39" si="3">M35*T35</f>
         <v>0.06</v>
       </c>
-      <c r="O35" s="49">
+      <c r="O35" s="55">
         <v>34.24</v>
       </c>
-      <c r="P35" s="65">
+      <c r="P35" s="71">
+        <f>SUM(O35:O37)</f>
         <v>66.02</v>
       </c>
-      <c r="Q35" s="56">
-        <f>SUM(P35:P37)</f>
-        <v>66.02</v>
-      </c>
-      <c r="R35" s="56">
+      <c r="Q35" s="62">
         <v>64.2</v>
       </c>
-      <c r="S35" s="66" t="s">
-        <v>192</v>
-      </c>
-      <c r="T35" s="12">
+      <c r="R35" s="62">
+        <v>64.2</v>
+      </c>
+      <c r="S35" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="T35" s="15">
         <f>J35/S35</f>
         <v>1</v>
       </c>
-      <c r="U35" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="V35" s="74"/>
-      <c r="W35" s="74"/>
-      <c r="X35" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y35" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z35" s="82">
+      <c r="U35" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y35" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z35" s="92">
         <v>1160</v>
       </c>
-      <c r="AA35" s="83">
+      <c r="AA35" s="93">
         <v>0.13</v>
       </c>
-      <c r="AB35" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC35" s="81"/>
+      <c r="AB35" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC35" s="91"/>
     </row>
     <row r="36" customHeight="1" spans="1:29">
-      <c r="A36" s="12">
+      <c r="A36" s="15">
         <v>33</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="I36" s="14"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="M36" s="48">
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="M36" s="54">
         <f ca="1">ROUND(EVALUATE(L36)*1000*0.000000001,2)</f>
         <v>0.03</v>
       </c>
-      <c r="N36" s="53">
+      <c r="N36" s="59">
         <f ca="1" t="shared" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="O36" s="50">
+      <c r="O36" s="56">
         <v>18.4</v>
       </c>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56">
-        <v>205</v>
-      </c>
-      <c r="R36" s="56"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="12">
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="15">
         <f>J35/S35</f>
         <v>1</v>
       </c>
-      <c r="U36" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="V36" s="74"/>
-      <c r="W36" s="74"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z36" s="84"/>
-      <c r="AA36" s="85"/>
-      <c r="AB36" s="80"/>
-      <c r="AC36" s="81"/>
+      <c r="U36" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="V36" s="82"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z36" s="94"/>
+      <c r="AA36" s="95"/>
+      <c r="AB36" s="90"/>
+      <c r="AC36" s="91"/>
     </row>
     <row r="37" customHeight="1" spans="1:29">
-      <c r="A37" s="12">
+      <c r="A37" s="15">
         <v>34</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="M37" s="48">
+      <c r="B37" s="23"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="M37" s="54">
         <f ca="1">ROUND(EVALUATE(L37)*1000*0.000000001,2)</f>
         <v>0.05</v>
       </c>
-      <c r="N37" s="53">
+      <c r="N37" s="59">
         <f ca="1" t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="O37" s="50">
+      <c r="O37" s="56">
         <v>13.38</v>
       </c>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51">
-        <v>270</v>
-      </c>
-      <c r="R37" s="51"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="12">
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="15">
         <f>J35/S35</f>
         <v>1</v>
       </c>
-      <c r="U37" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z37" s="86"/>
-      <c r="AA37" s="87"/>
-      <c r="AB37" s="80"/>
-      <c r="AC37" s="81"/>
+      <c r="U37" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="V37" s="82"/>
+      <c r="W37" s="82"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z37" s="96"/>
+      <c r="AA37" s="97"/>
+      <c r="AB37" s="90"/>
+      <c r="AC37" s="91"/>
     </row>
     <row r="38" customHeight="1" spans="1:29">
-      <c r="A38" s="12">
+      <c r="A38" s="15">
         <v>35</v>
       </c>
-      <c r="B38" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="H38" s="25" t="s">
+      <c r="B38" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="I38" s="14" t="str">
+      <c r="C38" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="I38" s="20" t="str">
         <f>VLOOKUP(B38,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J38" s="64">
+      <c r="J38" s="70">
         <v>12</v>
       </c>
-      <c r="K38" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="L38" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="M38" s="48">
+      <c r="K38" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="L38" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="M38" s="54">
         <f ca="1" t="shared" ref="M38:M50" si="4">ROUND(EVALUATE(L38)*1000*0.000000001,2)</f>
         <v>0.05</v>
       </c>
-      <c r="N38" s="49">
+      <c r="N38" s="55">
         <f ca="1" t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="O38" s="49">
+      <c r="O38" s="55">
         <v>34.91</v>
       </c>
-      <c r="P38" s="62">
+      <c r="P38" s="68">
         <f>O38*T38</f>
         <v>34.91</v>
       </c>
-      <c r="Q38" s="51">
+      <c r="Q38" s="57">
         <v>34</v>
       </c>
-      <c r="R38" s="51">
+      <c r="R38" s="57">
         <v>34</v>
       </c>
-      <c r="S38" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="T38" s="12">
+      <c r="S38" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="T38" s="15">
         <v>1</v>
       </c>
-      <c r="U38" s="70" t="s">
-        <v>208</v>
-      </c>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y38" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z38" s="79">
+      <c r="U38" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y38" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z38" s="89">
         <v>1300</v>
       </c>
-      <c r="AA38" s="78">
+      <c r="AA38" s="88">
         <v>0.13</v>
       </c>
-      <c r="AB38" s="80"/>
-      <c r="AC38" s="81"/>
+      <c r="AB38" s="90"/>
+      <c r="AC38" s="91"/>
     </row>
     <row r="39" ht="26.1" customHeight="1" spans="1:27">
-      <c r="A39" s="12">
+      <c r="A39" s="15">
         <v>36</v>
       </c>
-      <c r="B39" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="H39" s="25" t="s">
+      <c r="B39" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="I39" s="14" t="str">
+      <c r="C39" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="I39" s="20" t="str">
         <f>VLOOKUP(B39,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J39" s="59">
+      <c r="J39" s="65">
         <v>9</v>
       </c>
-      <c r="K39" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="L39" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="M39" s="48">
+      <c r="K39" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="L39" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="M39" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.01</v>
       </c>
-      <c r="N39" s="49">
+      <c r="N39" s="55">
         <f ca="1" t="shared" si="3"/>
         <v>0.01</v>
       </c>
-      <c r="O39" s="49">
+      <c r="O39" s="55">
         <v>10.63</v>
       </c>
-      <c r="P39" s="65">
+      <c r="P39" s="71">
+        <f>SUM(O39:O46)</f>
         <v>207.46</v>
       </c>
-      <c r="Q39" s="56">
-        <f>SUM(P39:P46)</f>
-        <v>207.46</v>
-      </c>
-      <c r="R39" s="56">
+      <c r="Q39" s="62">
         <v>205</v>
       </c>
-      <c r="S39" s="27">
+      <c r="R39" s="62">
+        <v>205</v>
+      </c>
+      <c r="S39" s="32">
         <v>9</v>
       </c>
-      <c r="T39" s="12">
+      <c r="T39" s="15">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U39" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y39" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z39" s="59">
+      <c r="U39" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y39" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z39" s="65">
         <v>300</v>
       </c>
-      <c r="AA39" s="83">
+      <c r="AA39" s="93">
         <v>0.13</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:29">
-      <c r="A40" s="12">
+      <c r="A40" s="15">
         <v>37</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="M40" s="48">
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="M40" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N40" s="49">
+      <c r="N40" s="55">
         <v>0.08</v>
       </c>
-      <c r="O40" s="49">
+      <c r="O40" s="55">
         <v>25.83</v>
       </c>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="12">
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="15">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U40" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="85"/>
-      <c r="AB40" s="80"/>
-      <c r="AC40" s="81"/>
+      <c r="U40" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="95"/>
+      <c r="AB40" s="90"/>
+      <c r="AC40" s="91"/>
     </row>
     <row r="41" customHeight="1" spans="1:29">
-      <c r="A41" s="12">
+      <c r="A41" s="15">
         <v>38</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="I41" s="14"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="M41" s="48">
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="I41" s="20"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="M41" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N41" s="49">
+      <c r="N41" s="55">
         <v>0.08</v>
       </c>
-      <c r="O41" s="49">
+      <c r="O41" s="55">
         <v>21.09</v>
       </c>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="12">
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="15">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U41" s="70" t="s">
-        <v>219</v>
-      </c>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="85"/>
-      <c r="AB41" s="80"/>
-      <c r="AC41" s="81"/>
+      <c r="U41" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="95"/>
+      <c r="AB41" s="90"/>
+      <c r="AC41" s="91"/>
     </row>
     <row r="42" customHeight="1" spans="1:29">
-      <c r="A42" s="12">
+      <c r="A42" s="15">
         <v>39</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="M42" s="48">
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="I42" s="20"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="M42" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N42" s="49">
+      <c r="N42" s="55">
         <v>0.08</v>
       </c>
-      <c r="O42" s="49">
+      <c r="O42" s="55">
         <v>33.25</v>
       </c>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="12">
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="15">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U42" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="85"/>
-      <c r="AB42" s="80"/>
-      <c r="AC42" s="81"/>
+      <c r="U42" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="95"/>
+      <c r="AB42" s="90"/>
+      <c r="AC42" s="91"/>
     </row>
     <row r="43" customHeight="1" spans="1:29">
-      <c r="A43" s="12">
+      <c r="A43" s="15">
         <v>40</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="I43" s="14"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="M43" s="48">
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="I43" s="20"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="M43" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N43" s="49">
+      <c r="N43" s="55">
         <v>0.08</v>
       </c>
-      <c r="O43" s="49">
+      <c r="O43" s="55">
         <v>33.25</v>
       </c>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="12">
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="15">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U43" s="70" t="s">
+      <c r="U43" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="95"/>
+      <c r="AB43" s="90"/>
+      <c r="AC43" s="91"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:29">
+      <c r="A44" s="15">
+        <v>41</v>
+      </c>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="85"/>
-      <c r="AB43" s="80"/>
-      <c r="AC43" s="81"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:29">
-      <c r="A44" s="12">
-        <v>41</v>
-      </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="I44" s="14"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="M44" s="48">
+      <c r="I44" s="20"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="M44" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N44" s="49">
+      <c r="N44" s="55">
         <v>0.08</v>
       </c>
-      <c r="O44" s="49">
+      <c r="O44" s="55">
         <v>33.25</v>
       </c>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="12">
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="15">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U44" s="70" t="s">
+      <c r="U44" s="77" t="s">
+        <v>227</v>
+      </c>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="33"/>
+      <c r="Y44" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="95"/>
+      <c r="AB44" s="90"/>
+      <c r="AC44" s="91"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:29">
+      <c r="A45" s="15">
+        <v>42</v>
+      </c>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="85"/>
-      <c r="AB44" s="80"/>
-      <c r="AC44" s="81"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:29">
-      <c r="A45" s="12">
-        <v>42</v>
-      </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="I45" s="14"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="M45" s="48">
+      <c r="M45" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N45" s="49">
+      <c r="N45" s="55">
         <v>0.08</v>
       </c>
-      <c r="O45" s="49">
+      <c r="O45" s="55">
         <v>33.25</v>
       </c>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="56"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="12">
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="62"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="15">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U45" s="70" t="s">
-        <v>225</v>
-      </c>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="85"/>
-      <c r="AB45" s="80"/>
-      <c r="AC45" s="81"/>
+      <c r="U45" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="95"/>
+      <c r="AB45" s="90"/>
+      <c r="AC45" s="91"/>
     </row>
     <row r="46" customHeight="1" spans="1:29">
-      <c r="A46" s="12">
+      <c r="A46" s="15">
         <v>43</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="I46" s="14"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="M46" s="48">
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="M46" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="N46" s="49">
+      <c r="N46" s="55">
         <v>0.04</v>
       </c>
-      <c r="O46" s="49">
+      <c r="O46" s="55">
         <v>16.91</v>
       </c>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="51"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="12">
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="57"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="15">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U46" s="70" t="s">
-        <v>228</v>
-      </c>
-      <c r="V46" s="12"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="32"/>
-      <c r="Y46" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="87"/>
-      <c r="AB46" s="80"/>
-      <c r="AC46" s="81"/>
-    </row>
-    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A47" s="12">
+      <c r="U46" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="97"/>
+      <c r="AB46" s="90"/>
+      <c r="AC46" s="91"/>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A47" s="15">
         <v>44</v>
       </c>
-      <c r="B47" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="D47" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="G47" s="43" t="s">
+      <c r="B47" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="H47" s="20" t="s">
+      <c r="C47" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="I47" s="14" t="str">
+      <c r="D47" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="I47" s="20" t="str">
         <f>VLOOKUP(B47,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J47" s="31">
+      <c r="J47" s="36">
         <v>10</v>
       </c>
-      <c r="K47" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="L47" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="M47" s="48">
+      <c r="K47" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="L47" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="M47" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.3</v>
       </c>
-      <c r="N47" s="53">
+      <c r="N47" s="59">
         <f ca="1">M47*T47</f>
         <v>3</v>
       </c>
-      <c r="O47" s="49">
+      <c r="O47" s="55">
         <v>37</v>
       </c>
-      <c r="P47" s="62">
+      <c r="P47" s="68">
         <f>O47*T47</f>
         <v>370</v>
       </c>
-      <c r="Q47" s="51">
+      <c r="Q47" s="57">
         <v>270</v>
       </c>
-      <c r="R47" s="51">
+      <c r="R47" s="57">
         <v>270</v>
       </c>
-      <c r="S47" s="31">
+      <c r="S47" s="36">
         <v>1</v>
       </c>
-      <c r="T47" s="12">
+      <c r="T47" s="15">
         <f>J47/S47</f>
         <v>10</v>
       </c>
-      <c r="U47" s="70" t="s">
+      <c r="U47" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y47" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z47" s="36">
+        <v>3400</v>
+      </c>
+      <c r="AA47" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB47" s="91"/>
+      <c r="AC47" s="91"/>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A48" s="15">
+        <v>45</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G48" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="V47" s="12"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y47" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z47" s="31">
-        <v>3400</v>
-      </c>
-      <c r="AA47" s="87">
-        <v>0.13</v>
-      </c>
-      <c r="AB47" s="81"/>
-      <c r="AC47" s="81"/>
-    </row>
-    <row r="48" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A48" s="12">
-        <v>45</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="G48" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="I48" s="14" t="str">
+      <c r="H48" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="I48" s="20" t="str">
         <f>VLOOKUP(B48,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J48" s="31">
+      <c r="J48" s="36">
         <v>10</v>
       </c>
-      <c r="K48" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="L48" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="M48" s="48">
+      <c r="K48" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="L48" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="M48" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.43</v>
       </c>
-      <c r="N48" s="53">
+      <c r="N48" s="59">
         <f ca="1">M48*T48</f>
         <v>4.3</v>
       </c>
-      <c r="O48" s="49">
+      <c r="O48" s="55">
         <v>54</v>
       </c>
-      <c r="P48" s="62">
+      <c r="P48" s="68">
         <f>O48*T48</f>
         <v>540</v>
       </c>
-      <c r="Q48" s="51">
+      <c r="Q48" s="57">
         <v>440</v>
       </c>
-      <c r="R48" s="51">
+      <c r="R48" s="57">
         <v>440</v>
       </c>
-      <c r="S48" s="31">
+      <c r="S48" s="36">
         <v>1</v>
       </c>
-      <c r="T48" s="12">
+      <c r="T48" s="15">
         <f>J48/S48</f>
         <v>10</v>
       </c>
-      <c r="U48" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="V48" s="12"/>
-      <c r="W48" s="12"/>
-      <c r="X48" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y48" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z48" s="31">
+      <c r="U48" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y48" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z48" s="36">
         <v>5150</v>
       </c>
-      <c r="AA48" s="87">
+      <c r="AA48" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB48" s="81"/>
-      <c r="AC48" s="81"/>
-    </row>
-    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A49" s="12">
+      <c r="AB48" s="91"/>
+      <c r="AC48" s="91"/>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A49" s="15">
         <v>46</v>
       </c>
-      <c r="B49" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F49" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="G49" s="43" t="s">
+      <c r="B49" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="H49" s="20" t="s">
+      <c r="C49" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="I49" s="14" t="str">
+      <c r="D49" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="G49" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="I49" s="20" t="str">
         <f>VLOOKUP(B49,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>AEVF4</v>
       </c>
-      <c r="J49" s="31">
+      <c r="J49" s="36">
         <v>1</v>
       </c>
-      <c r="K49" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="L49" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="M49" s="48">
+      <c r="K49" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L49" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="M49" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="N49" s="49">
+      <c r="N49" s="55">
         <f ca="1">M49*T49</f>
         <v>0.02</v>
       </c>
-      <c r="O49" s="50">
+      <c r="O49" s="56">
         <v>15.16</v>
       </c>
-      <c r="P49" s="51">
+      <c r="P49" s="57">
         <f>O49*T49</f>
         <v>15.16</v>
       </c>
-      <c r="Q49" s="51">
+      <c r="Q49" s="57">
         <v>15</v>
       </c>
-      <c r="R49" s="51">
+      <c r="R49" s="57">
         <v>15</v>
       </c>
-      <c r="S49" s="31">
+      <c r="S49" s="36">
         <v>1</v>
       </c>
-      <c r="T49" s="31">
+      <c r="T49" s="36">
         <f>J49/S49</f>
         <v>1</v>
       </c>
-      <c r="U49" s="70" t="s">
-        <v>246</v>
-      </c>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y49" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z49" s="31">
+      <c r="U49" s="77" t="s">
+        <v>249</v>
+      </c>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y49" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z49" s="36">
         <v>935</v>
       </c>
-      <c r="AA49" s="87">
+      <c r="AA49" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB49" s="81"/>
-      <c r="AC49" s="81"/>
-    </row>
-    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A50" s="12">
+      <c r="AB49" s="91"/>
+      <c r="AC49" s="91"/>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A50" s="15">
         <v>47</v>
       </c>
-      <c r="B50" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="G50" s="43" t="s">
+      <c r="B50" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="H50" s="20" t="s">
+      <c r="C50" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="I50" s="14" t="str">
+      <c r="D50" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="I50" s="20" t="str">
         <f>VLOOKUP(B50,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J50" s="31">
+      <c r="J50" s="36">
         <v>10</v>
       </c>
-      <c r="K50" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="L50" s="66" t="s">
-        <v>252</v>
-      </c>
-      <c r="M50" s="55">
+      <c r="K50" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L50" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="M50" s="61">
         <f ca="1" t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="N50" s="53">
+      <c r="N50" s="59">
         <f ca="1">M50*T50</f>
         <v>0.02</v>
       </c>
-      <c r="O50" s="54">
+      <c r="O50" s="60">
         <v>5</v>
       </c>
-      <c r="P50" s="56">
+      <c r="P50" s="62">
         <f>O50*T50</f>
         <v>5</v>
       </c>
-      <c r="Q50" s="51">
+      <c r="Q50" s="57">
         <v>0.09</v>
       </c>
-      <c r="R50" s="51">
+      <c r="R50" s="57">
         <v>0.09</v>
       </c>
-      <c r="S50" s="31">
+      <c r="S50" s="36">
         <v>10</v>
       </c>
-      <c r="T50" s="27">
+      <c r="T50" s="32">
         <f>J50/S50</f>
         <v>1</v>
       </c>
-      <c r="U50" s="71" t="s">
-        <v>253</v>
-      </c>
-      <c r="V50" s="12"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y50" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z50" s="31">
+      <c r="U50" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y50" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z50" s="36">
         <v>22</v>
       </c>
-      <c r="AA50" s="87">
+      <c r="AA50" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB50" s="81"/>
-      <c r="AC50" s="81"/>
-    </row>
-    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A51" s="12">
+      <c r="AB50" s="91"/>
+      <c r="AC50" s="91"/>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A51" s="15">
         <v>48</v>
       </c>
-      <c r="B51" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="G51" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="I51" s="14" t="str">
+      <c r="B51" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="G51" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="I51" s="20" t="str">
         <f>VLOOKUP(B51,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>TG-205A-FU</v>
       </c>
-      <c r="J51" s="31">
+      <c r="J51" s="36">
         <v>5</v>
       </c>
-      <c r="K51" s="31" t="s">
+      <c r="K51" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L51" s="73"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="R51" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="S51" s="36">
+        <v>5</v>
+      </c>
+      <c r="T51" s="32"/>
+      <c r="U51" s="80"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y51" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z51" s="36">
+        <v>350</v>
+      </c>
+      <c r="AA51" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB51" s="91"/>
+      <c r="AC51" s="91"/>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A52" s="15">
+        <v>49</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L51" s="67"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="51">
-        <v>0.04</v>
-      </c>
-      <c r="R51" s="51">
-        <v>0.04</v>
-      </c>
-      <c r="S51" s="31">
-        <v>5</v>
-      </c>
-      <c r="T51" s="27"/>
-      <c r="U51" s="72"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y51" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z51" s="31">
-        <v>350</v>
-      </c>
-      <c r="AA51" s="87">
-        <v>0.13</v>
-      </c>
-      <c r="AB51" s="81"/>
-      <c r="AC51" s="81"/>
-    </row>
-    <row r="52" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A52" s="12">
-        <v>49</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="G52" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="I52" s="14" t="str">
+      <c r="F52" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="I52" s="20" t="str">
         <f>VLOOKUP(B52,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>LS1D-01033</v>
       </c>
-      <c r="J52" s="31">
+      <c r="J52" s="36">
         <v>500</v>
       </c>
-      <c r="K52" s="31" t="s">
+      <c r="K52" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L52" s="73"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="57">
+        <v>4.5</v>
+      </c>
+      <c r="R52" s="57">
+        <v>4.5</v>
+      </c>
+      <c r="S52" s="36">
+        <v>500</v>
+      </c>
+      <c r="T52" s="32"/>
+      <c r="U52" s="80"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y52" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z52" s="36">
+        <v>8</v>
+      </c>
+      <c r="AA52" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB52" s="91"/>
+      <c r="AC52" s="91"/>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A53" s="15">
+        <v>50</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L52" s="67"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="51">
-        <v>4.5</v>
-      </c>
-      <c r="R52" s="51">
-        <v>4.5</v>
-      </c>
-      <c r="S52" s="31">
-        <v>500</v>
-      </c>
-      <c r="T52" s="27"/>
-      <c r="U52" s="72"/>
-      <c r="V52" s="12"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y52" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z52" s="31">
-        <v>8</v>
-      </c>
-      <c r="AA52" s="87">
-        <v>0.13</v>
-      </c>
-      <c r="AB52" s="81"/>
-      <c r="AC52" s="81"/>
-    </row>
-    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A53" s="12">
-        <v>50</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="G53" s="43" t="s">
-        <v>263</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="I53" s="14" t="str">
+      <c r="F53" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="I53" s="20" t="str">
         <f>VLOOKUP(B53,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J53" s="31">
+      <c r="J53" s="36">
         <v>4</v>
       </c>
-      <c r="K53" s="31" t="s">
+      <c r="K53" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L53" s="73"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="R53" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="S53" s="36">
+        <v>4</v>
+      </c>
+      <c r="T53" s="32"/>
+      <c r="U53" s="80"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y53" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z53" s="36">
+        <v>110</v>
+      </c>
+      <c r="AA53" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB53" s="91"/>
+      <c r="AC53" s="91"/>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A54" s="15">
+        <v>51</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L53" s="67"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="51">
-        <v>0.04</v>
-      </c>
-      <c r="R53" s="51">
-        <v>0.04</v>
-      </c>
-      <c r="S53" s="31">
-        <v>4</v>
-      </c>
-      <c r="T53" s="27"/>
-      <c r="U53" s="72"/>
-      <c r="V53" s="12"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y53" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z53" s="31">
-        <v>110</v>
-      </c>
-      <c r="AA53" s="87">
-        <v>0.13</v>
-      </c>
-      <c r="AB53" s="81"/>
-      <c r="AC53" s="81"/>
-    </row>
-    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A54" s="12">
-        <v>51</v>
-      </c>
-      <c r="B54" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G54" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="I54" s="14" t="str">
+      <c r="F54" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="G54" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="I54" s="20" t="str">
         <f>VLOOKUP(B54,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J54" s="31">
+      <c r="J54" s="36">
         <v>5</v>
       </c>
-      <c r="K54" s="31" t="s">
+      <c r="K54" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L54" s="73"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="R54" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="S54" s="36">
+        <v>5</v>
+      </c>
+      <c r="T54" s="32"/>
+      <c r="U54" s="80"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y54" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z54" s="36">
+        <v>186.45</v>
+      </c>
+      <c r="AA54" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB54" s="91"/>
+      <c r="AC54" s="91"/>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A55" s="15">
+        <v>52</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L54" s="67"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="51">
-        <v>0.04</v>
-      </c>
-      <c r="R54" s="51">
-        <v>0.04</v>
-      </c>
-      <c r="S54" s="31">
-        <v>5</v>
-      </c>
-      <c r="T54" s="27"/>
-      <c r="U54" s="72"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y54" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z54" s="31">
-        <v>186.45</v>
-      </c>
-      <c r="AA54" s="87">
-        <v>0.13</v>
-      </c>
-      <c r="AB54" s="81"/>
-      <c r="AC54" s="81"/>
-    </row>
-    <row r="55" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A55" s="12">
-        <v>52</v>
-      </c>
-      <c r="B55" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F55" s="45" t="s">
-        <v>270</v>
-      </c>
-      <c r="G55" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="H55" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="I55" s="14" t="str">
+      <c r="F55" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="G55" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="H55" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="I55" s="20" t="str">
         <f>VLOOKUP(B55,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>KYB-M7027-001</v>
       </c>
-      <c r="J55" s="31">
+      <c r="J55" s="36">
         <v>2</v>
       </c>
-      <c r="K55" s="31" t="s">
+      <c r="K55" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L55" s="73"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="R55" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="S55" s="36">
+        <v>2</v>
+      </c>
+      <c r="T55" s="32"/>
+      <c r="U55" s="80"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y55" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z55" s="98">
+        <v>4950</v>
+      </c>
+      <c r="AA55" s="97">
+        <v>0.01</v>
+      </c>
+      <c r="AB55" s="91"/>
+      <c r="AC55" s="91"/>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A56" s="15">
+        <v>53</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="C56" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L55" s="67"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="51">
-        <v>0.02</v>
-      </c>
-      <c r="R55" s="51">
-        <v>0.02</v>
-      </c>
-      <c r="S55" s="31">
-        <v>2</v>
-      </c>
-      <c r="T55" s="27"/>
-      <c r="U55" s="72"/>
-      <c r="V55" s="12"/>
-      <c r="W55" s="12"/>
-      <c r="X55" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y55" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z55" s="88">
-        <v>4950</v>
-      </c>
-      <c r="AA55" s="87">
-        <v>0.01</v>
-      </c>
-      <c r="AB55" s="81"/>
-      <c r="AC55" s="81"/>
-    </row>
-    <row r="56" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A56" s="12">
-        <v>53</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="G56" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="I56" s="14" t="str">
+      <c r="F56" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G56" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="I56" s="20" t="str">
         <f>VLOOKUP(B56,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J56" s="31">
+      <c r="J56" s="36">
         <v>10</v>
       </c>
-      <c r="K56" s="31" t="s">
+      <c r="K56" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L56" s="73"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="60"/>
+      <c r="O56" s="60"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="57">
+        <v>0.09</v>
+      </c>
+      <c r="R56" s="57">
+        <v>0.09</v>
+      </c>
+      <c r="S56" s="36">
+        <v>10</v>
+      </c>
+      <c r="T56" s="32"/>
+      <c r="U56" s="80"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y56" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z56" s="36">
+        <v>6.5</v>
+      </c>
+      <c r="AA56" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB56" s="91"/>
+      <c r="AC56" s="91"/>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A57" s="15">
+        <v>54</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L56" s="67"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="56"/>
-      <c r="Q56" s="51">
-        <v>0.09</v>
-      </c>
-      <c r="R56" s="51">
-        <v>0.09</v>
-      </c>
-      <c r="S56" s="31">
-        <v>10</v>
-      </c>
-      <c r="T56" s="27"/>
-      <c r="U56" s="72"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y56" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z56" s="31">
-        <v>6.5</v>
-      </c>
-      <c r="AA56" s="87">
-        <v>0.13</v>
-      </c>
-      <c r="AB56" s="81"/>
-      <c r="AC56" s="81"/>
-    </row>
-    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A57" s="12">
-        <v>54</v>
-      </c>
-      <c r="B57" s="41" t="s">
+      <c r="F57" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="C57" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="G57" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="H57" s="20" t="s">
+      <c r="G57" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="I57" s="14" t="str">
+      <c r="H57" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="I57" s="20" t="str">
         <f>VLOOKUP(B57,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J57" s="31">
+      <c r="J57" s="36">
         <v>10</v>
       </c>
-      <c r="K57" s="31" t="s">
+      <c r="K57" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L57" s="73"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="57">
+        <v>0.09</v>
+      </c>
+      <c r="R57" s="57">
+        <v>0.09</v>
+      </c>
+      <c r="S57" s="36">
+        <v>10</v>
+      </c>
+      <c r="T57" s="32"/>
+      <c r="U57" s="80"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y57" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z57" s="36">
+        <v>6.5</v>
+      </c>
+      <c r="AA57" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB57" s="91"/>
+      <c r="AC57" s="91"/>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A58" s="15">
+        <v>55</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L57" s="67"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="56"/>
-      <c r="Q57" s="51">
-        <v>0.09</v>
-      </c>
-      <c r="R57" s="51">
-        <v>0.09</v>
-      </c>
-      <c r="S57" s="31">
-        <v>10</v>
-      </c>
-      <c r="T57" s="27"/>
-      <c r="U57" s="72"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y57" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z57" s="31">
-        <v>6.5</v>
-      </c>
-      <c r="AA57" s="87">
-        <v>0.13</v>
-      </c>
-      <c r="AB57" s="81"/>
-      <c r="AC57" s="81"/>
-    </row>
-    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A58" s="12">
-        <v>55</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="G58" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="I58" s="14" t="str">
+      <c r="F58" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="G58" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="I58" s="20" t="str">
         <f>VLOOKUP(B58,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J58" s="31">
+      <c r="J58" s="36">
         <v>2</v>
       </c>
-      <c r="K58" s="31" t="s">
+      <c r="K58" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L58" s="73"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="60"/>
+      <c r="O58" s="60"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="R58" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="S58" s="36">
+        <v>2</v>
+      </c>
+      <c r="T58" s="32"/>
+      <c r="U58" s="80"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y58" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z58" s="36">
+        <v>220</v>
+      </c>
+      <c r="AA58" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB58" s="91"/>
+      <c r="AC58" s="91"/>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A59" s="15">
+        <v>56</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="C59" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L58" s="67"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="51">
-        <v>0.02</v>
-      </c>
-      <c r="R58" s="51">
-        <v>0.02</v>
-      </c>
-      <c r="S58" s="31">
-        <v>2</v>
-      </c>
-      <c r="T58" s="27"/>
-      <c r="U58" s="72"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y58" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z58" s="31">
-        <v>220</v>
-      </c>
-      <c r="AA58" s="87">
-        <v>0.13</v>
-      </c>
-      <c r="AB58" s="81"/>
-      <c r="AC58" s="81"/>
-    </row>
-    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A59" s="12">
-        <v>56</v>
-      </c>
-      <c r="B59" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="C59" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F59" s="44" t="s">
+      <c r="F59" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="G59" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="G59" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="I59" s="14" t="str">
+      <c r="H59" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="I59" s="20" t="str">
         <f>VLOOKUP(B59,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J59" s="31">
+      <c r="J59" s="36">
         <v>2</v>
       </c>
-      <c r="K59" s="31" t="s">
+      <c r="K59" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L59" s="73"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="60"/>
+      <c r="O59" s="60"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="R59" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="S59" s="36">
+        <v>2</v>
+      </c>
+      <c r="T59" s="32"/>
+      <c r="U59" s="80"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y59" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z59" s="36">
+        <v>220</v>
+      </c>
+      <c r="AA59" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB59" s="91"/>
+      <c r="AC59" s="91"/>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A60" s="15">
+        <v>57</v>
+      </c>
+      <c r="B60" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L59" s="67"/>
-      <c r="M59" s="58"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="56"/>
-      <c r="Q59" s="51">
-        <v>0.02</v>
-      </c>
-      <c r="R59" s="51">
-        <v>0.02</v>
-      </c>
-      <c r="S59" s="31">
-        <v>2</v>
-      </c>
-      <c r="T59" s="27"/>
-      <c r="U59" s="72"/>
-      <c r="V59" s="12"/>
-      <c r="W59" s="12"/>
-      <c r="X59" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y59" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z59" s="31">
-        <v>220</v>
-      </c>
-      <c r="AA59" s="87">
-        <v>0.13</v>
-      </c>
-      <c r="AB59" s="81"/>
-      <c r="AC59" s="81"/>
-    </row>
-    <row r="60" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A60" s="12">
-        <v>57</v>
-      </c>
-      <c r="B60" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F60" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="G60" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="H60" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="I60" s="14" t="str">
+      <c r="F60" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="G60" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="I60" s="20" t="str">
         <f>VLOOKUP(B60,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J60" s="31">
+      <c r="J60" s="36">
         <v>2</v>
       </c>
-      <c r="K60" s="31" t="s">
+      <c r="K60" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L60" s="73"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="R60" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="S60" s="36">
+        <v>2</v>
+      </c>
+      <c r="T60" s="32"/>
+      <c r="U60" s="80"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="15"/>
+      <c r="X60" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y60" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z60" s="36">
+        <v>220</v>
+      </c>
+      <c r="AA60" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB60" s="91"/>
+      <c r="AC60" s="91"/>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A61" s="15">
+        <v>58</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L60" s="67"/>
-      <c r="M60" s="58"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="56"/>
-      <c r="Q60" s="51">
-        <v>0.02</v>
-      </c>
-      <c r="R60" s="51">
-        <v>0.02</v>
-      </c>
-      <c r="S60" s="31">
-        <v>2</v>
-      </c>
-      <c r="T60" s="27"/>
-      <c r="U60" s="72"/>
-      <c r="V60" s="12"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y60" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z60" s="31">
-        <v>220</v>
-      </c>
-      <c r="AA60" s="87">
-        <v>0.13</v>
-      </c>
-      <c r="AB60" s="81"/>
-      <c r="AC60" s="81"/>
-    </row>
-    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A61" s="12">
-        <v>58</v>
-      </c>
-      <c r="B61" s="41" t="s">
+      <c r="F61" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="G61" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="H61" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="C61" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F61" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="G61" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="H61" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="I61" s="14" t="str">
+      <c r="I61" s="20" t="str">
         <f>VLOOKUP(B61,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J61" s="31">
+      <c r="J61" s="36">
         <v>2</v>
       </c>
-      <c r="K61" s="31" t="s">
+      <c r="K61" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L61" s="74"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="R61" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="S61" s="36">
+        <v>2</v>
+      </c>
+      <c r="T61" s="36"/>
+      <c r="U61" s="81"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y61" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z61" s="36">
+        <v>220</v>
+      </c>
+      <c r="AA61" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB61" s="91"/>
+      <c r="AC61" s="91"/>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A62" s="15">
+        <v>59</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="C62" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L61" s="68"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="50"/>
-      <c r="O61" s="50"/>
-      <c r="P61" s="51"/>
-      <c r="Q61" s="51">
-        <v>0.02</v>
-      </c>
-      <c r="R61" s="51">
-        <v>0.02</v>
-      </c>
-      <c r="S61" s="31">
-        <v>2</v>
-      </c>
-      <c r="T61" s="31"/>
-      <c r="U61" s="73"/>
-      <c r="V61" s="12"/>
-      <c r="W61" s="12"/>
-      <c r="X61" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y61" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z61" s="31">
-        <v>220</v>
-      </c>
-      <c r="AA61" s="87">
-        <v>0.13</v>
-      </c>
-      <c r="AB61" s="81"/>
-      <c r="AC61" s="81"/>
-    </row>
-    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A62" s="12">
-        <v>59</v>
-      </c>
-      <c r="B62" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="C62" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F62" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="G62" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="I62" s="14" t="str">
+      <c r="F62" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="G62" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="I62" s="20" t="str">
         <f>VLOOKUP(B62,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J62" s="31">
+      <c r="J62" s="36">
         <v>2</v>
       </c>
-      <c r="K62" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="L62" s="66" t="s">
-        <v>293</v>
-      </c>
-      <c r="M62" s="55">
+      <c r="K62" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L62" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="M62" s="61">
         <f ca="1">ROUND(EVALUATE(L62)*1000*0.000000001,2)</f>
         <v>0.05</v>
       </c>
-      <c r="N62" s="53">
+      <c r="N62" s="59">
         <f ca="1">M62*T62</f>
         <v>0.05</v>
       </c>
-      <c r="O62" s="54">
+      <c r="O62" s="60">
         <v>9</v>
       </c>
-      <c r="P62" s="56">
+      <c r="P62" s="62">
         <f>O62*T62</f>
         <v>9</v>
       </c>
-      <c r="Q62" s="51">
+      <c r="Q62" s="57">
         <v>4.2</v>
       </c>
-      <c r="R62" s="51">
+      <c r="R62" s="57">
         <v>4.2</v>
       </c>
-      <c r="S62" s="31">
+      <c r="S62" s="36">
         <v>2</v>
       </c>
-      <c r="T62" s="27">
+      <c r="T62" s="32">
         <f>J62/S62</f>
         <v>1</v>
       </c>
-      <c r="U62" s="71" t="s">
+      <c r="U62" s="79" t="s">
+        <v>297</v>
+      </c>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y62" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z62" s="36">
+        <v>328</v>
+      </c>
+      <c r="AA62" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB62" s="91"/>
+      <c r="AC62" s="91"/>
+    </row>
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A63" s="15">
+        <v>60</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="C63" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="G63" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="V62" s="12"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y62" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z62" s="31">
-        <v>328</v>
-      </c>
-      <c r="AA62" s="87">
-        <v>0.13</v>
-      </c>
-      <c r="AB62" s="81"/>
-      <c r="AC62" s="81"/>
-    </row>
-    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A63" s="12">
-        <v>60</v>
-      </c>
-      <c r="B63" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="C63" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F63" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="G63" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="H63" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I63" s="14" t="str">
+      <c r="H63" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="I63" s="20" t="str">
         <f>VLOOKUP(B63,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J63" s="31">
+      <c r="J63" s="36">
         <v>2</v>
       </c>
-      <c r="K63" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="L63" s="68"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="50"/>
-      <c r="O63" s="50"/>
-      <c r="P63" s="51"/>
-      <c r="Q63" s="51">
+      <c r="K63" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L63" s="74"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57">
         <v>4</v>
       </c>
-      <c r="R63" s="51">
+      <c r="R63" s="57">
         <v>4</v>
       </c>
-      <c r="S63" s="31">
+      <c r="S63" s="36">
         <v>2</v>
       </c>
-      <c r="T63" s="31"/>
-      <c r="U63" s="73"/>
-      <c r="V63" s="12"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y63" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z63" s="31">
+      <c r="T63" s="36"/>
+      <c r="U63" s="81"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y63" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z63" s="36">
         <v>328</v>
       </c>
-      <c r="AA63" s="87">
+      <c r="AA63" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB63" s="81"/>
-      <c r="AC63" s="81"/>
+      <c r="AB63" s="91"/>
+      <c r="AC63" s="91"/>
     </row>
     <row r="64" customHeight="1" spans="1:29">
-      <c r="A64" s="12"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="69"/>
-      <c r="J64" s="60">
+      <c r="A64" s="15"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="66">
         <f>SUM(J4:J63)</f>
-        <v>9503</v>
-      </c>
-      <c r="K64" s="31"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="60">
+        <v>9506</v>
+      </c>
+      <c r="K64" s="36"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="66">
         <f ca="1">SUM(N4:N63)</f>
-        <v>18.31994</v>
-      </c>
-      <c r="O64" s="60"/>
-      <c r="P64" s="60">
+        <v>18.32</v>
+      </c>
+      <c r="O64" s="66"/>
+      <c r="P64" s="66">
         <f>SUM(P4:P63)</f>
-        <v>3374.8232</v>
-      </c>
-      <c r="Q64" s="75"/>
-      <c r="R64" s="60">
+        <v>3374.84</v>
+      </c>
+      <c r="Q64" s="83">
+        <f>SUM(Q4:Q63)</f>
+        <v>3156.66</v>
+      </c>
+      <c r="R64" s="66">
         <f>SUM(R4:R63)</f>
         <v>3156.66</v>
       </c>
-      <c r="S64" s="61"/>
-      <c r="T64" s="60">
+      <c r="S64" s="67"/>
+      <c r="T64" s="66">
         <f>SUM(T4:T63)</f>
-        <v>167.994</v>
-      </c>
-      <c r="U64" s="76"/>
-      <c r="V64" s="74"/>
-      <c r="W64" s="74"/>
-      <c r="X64" s="77"/>
-      <c r="Y64" s="61"/>
-      <c r="Z64" s="79"/>
-      <c r="AA64" s="78"/>
-      <c r="AB64" s="80"/>
-      <c r="AC64" s="81"/>
+        <v>168</v>
+      </c>
+      <c r="U64" s="84"/>
+      <c r="V64" s="82"/>
+      <c r="W64" s="82"/>
+      <c r="X64" s="85"/>
+      <c r="Y64" s="67"/>
+      <c r="Z64" s="89"/>
+      <c r="AA64" s="88"/>
+      <c r="AB64" s="90"/>
+      <c r="AC64" s="91"/>
     </row>
     <row r="65" customHeight="1" spans="1:27">
-      <c r="A65" s="89"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="90"/>
-      <c r="D65" s="91"/>
-      <c r="E65" s="91"/>
-      <c r="F65" s="92"/>
-      <c r="G65" s="93"/>
-      <c r="H65" s="93"/>
-      <c r="I65" s="95"/>
-      <c r="J65" s="96"/>
-      <c r="K65" s="89"/>
-      <c r="L65" s="97"/>
-      <c r="M65" s="98"/>
-      <c r="N65" s="98"/>
-      <c r="O65" s="98"/>
-      <c r="P65" s="99"/>
-      <c r="Q65" s="99"/>
-      <c r="R65" s="89"/>
-      <c r="S65" s="89"/>
-      <c r="T65" s="89"/>
-      <c r="U65" s="101"/>
-      <c r="V65" s="102"/>
-      <c r="W65" s="102"/>
-      <c r="X65" s="97"/>
-      <c r="Y65" s="97"/>
-      <c r="Z65" s="103"/>
-      <c r="AA65" s="104"/>
+      <c r="A65" s="99"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="103"/>
+      <c r="I65" s="105"/>
+      <c r="J65" s="106"/>
+      <c r="K65" s="99"/>
+      <c r="L65" s="107"/>
+      <c r="M65" s="108"/>
+      <c r="N65" s="108"/>
+      <c r="O65" s="108"/>
+      <c r="P65" s="109"/>
+      <c r="Q65" s="109"/>
+      <c r="R65" s="99"/>
+      <c r="S65" s="99"/>
+      <c r="T65" s="99"/>
+      <c r="U65" s="111"/>
+      <c r="V65" s="112"/>
+      <c r="W65" s="112"/>
+      <c r="X65" s="107"/>
+      <c r="Y65" s="107"/>
+      <c r="Z65" s="113"/>
+      <c r="AA65" s="114"/>
     </row>
     <row r="66" customHeight="1" spans="1:27">
-      <c r="A66" s="89"/>
-      <c r="B66" s="89"/>
-      <c r="C66" s="89"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="3"/>
-      <c r="P66" s="100"/>
-      <c r="Q66" s="100"/>
-      <c r="Z66" s="103"/>
-      <c r="AA66" s="104"/>
+      <c r="A66" s="99"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="104"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="99"/>
+      <c r="J66" s="2"/>
+      <c r="P66" s="110"/>
+      <c r="Q66" s="110"/>
+      <c r="Z66" s="113"/>
+      <c r="AA66" s="114"/>
     </row>
     <row r="67" customHeight="1" spans="26:27">
-      <c r="Z67" s="103"/>
-      <c r="AA67" s="104"/>
+      <c r="Z67" s="113"/>
+      <c r="AA67" s="114"/>
     </row>
     <row r="68" customHeight="1" spans="26:27">
-      <c r="Z68" s="103"/>
-      <c r="AA68" s="104"/>
+      <c r="Z68" s="113"/>
+      <c r="AA68" s="114"/>
     </row>
     <row r="69" customHeight="1" spans="26:27">
-      <c r="Z69" s="103"/>
-      <c r="AA69" s="104"/>
+      <c r="Z69" s="113"/>
+      <c r="AA69" s="114"/>
     </row>
     <row r="70" customHeight="1" spans="26:27">
-      <c r="Z70" s="103"/>
-      <c r="AA70" s="104"/>
+      <c r="Z70" s="113"/>
+      <c r="AA70" s="114"/>
     </row>
     <row r="71" customHeight="1" spans="26:27">
-      <c r="Z71" s="103"/>
-      <c r="AA71" s="104"/>
+      <c r="Z71" s="113"/>
+      <c r="AA71" s="114"/>
     </row>
     <row r="72" customHeight="1" spans="26:27">
-      <c r="Z72" s="103"/>
-      <c r="AA72" s="104"/>
+      <c r="Z72" s="113"/>
+      <c r="AA72" s="114"/>
     </row>
     <row r="73" customHeight="1" spans="26:27">
-      <c r="Z73" s="103"/>
-      <c r="AA73" s="104"/>
+      <c r="Z73" s="113"/>
+      <c r="AA73" s="114"/>
     </row>
     <row r="74" customHeight="1" spans="26:27">
-      <c r="Z74" s="103"/>
-      <c r="AA74" s="104"/>
+      <c r="Z74" s="113"/>
+      <c r="AA74" s="114"/>
     </row>
     <row r="75" customHeight="1" spans="26:27">
-      <c r="Z75" s="103"/>
-      <c r="AA75" s="104"/>
+      <c r="Z75" s="113"/>
+      <c r="AA75" s="114"/>
     </row>
     <row r="76" customHeight="1" spans="26:27">
-      <c r="Z76" s="103"/>
-      <c r="AA76" s="104"/>
+      <c r="Z76" s="113"/>
+      <c r="AA76" s="114"/>
     </row>
     <row r="77" customHeight="1" spans="26:27">
-      <c r="Z77" s="103"/>
-      <c r="AA77" s="104"/>
+      <c r="Z77" s="113"/>
+      <c r="AA77" s="114"/>
     </row>
     <row r="78" customHeight="1" spans="26:27">
-      <c r="Z78" s="103"/>
-      <c r="AA78" s="104"/>
+      <c r="Z78" s="113"/>
+      <c r="AA78" s="114"/>
     </row>
     <row r="79" customHeight="1" spans="26:27">
-      <c r="Z79" s="103"/>
-      <c r="AA79" s="104"/>
+      <c r="Z79" s="113"/>
+      <c r="AA79" s="114"/>
     </row>
     <row r="80" customHeight="1" spans="26:27">
-      <c r="Z80" s="103"/>
-      <c r="AA80" s="104"/>
+      <c r="Z80" s="113"/>
+      <c r="AA80" s="114"/>
     </row>
     <row r="81" customHeight="1" spans="26:27">
-      <c r="Z81" s="103"/>
-      <c r="AA81" s="104"/>
+      <c r="Z81" s="113"/>
+      <c r="AA81" s="114"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="A1:AA1"/>
+  <mergeCells count="87">
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B39:B46"/>
     <mergeCell ref="C35:C37"/>
@@ -7753,19 +7880,19 @@
     <mergeCell ref="AB35:AB37"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:C3">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+  <conditionalFormatting sqref="B8">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B67:C65522 B4:B6 B9:B30">
-    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
   </conditionalFormatting>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape"/>
@@ -7773,5 +7900,6 @@
   <ignoredErrors>
     <ignoredError sqref="O31" numberStoredAsText="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/testfiles/original_packing_list.xlsx
+++ b/testfiles/original_packing_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11630" tabRatio="495"/>
+    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="495"/>
   </bookViews>
   <sheets>
     <sheet name="装箱单模版-2025年更新" sheetId="2" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'装箱单模版-2025年更新'!$A$3:$AC$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'装箱单模版-2025年更新'!$A$3:$Y$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'装箱单模版-2025年更新'!$A$3:$AC$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'装箱单模版-2025年更新'!$A$3:$Y$64</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'装箱单模版-2025年更新'!$3:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="292">
   <si>
     <t>采购装箱单</t>
   </si>
@@ -271,18 +271,321 @@
     <t>开票税率</t>
   </si>
   <si>
+    <t>C100.C05-032-04-00</t>
+  </si>
+  <si>
+    <t>宸翔</t>
+  </si>
+  <si>
+    <t>SMT工厂月度辅耗材</t>
+  </si>
+  <si>
+    <t>Silvassa</t>
+  </si>
+  <si>
+    <t>Milling cutter</t>
+  </si>
+  <si>
+    <t>铣刀</t>
+  </si>
+  <si>
+    <t>个</t>
+  </si>
+  <si>
+    <t>29*21*12</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>一般贸易</t>
+  </si>
+  <si>
+    <t>世博创想数字科技（深圳）有限公司</t>
+  </si>
+  <si>
+    <t>E100.020310008</t>
+  </si>
+  <si>
+    <t>智梅尔克</t>
+  </si>
+  <si>
+    <t>SMT工厂设备配件</t>
+  </si>
+  <si>
+    <t>Infrared heating tube-length：630mm,110V-500W</t>
+  </si>
+  <si>
+    <t>红外发热管</t>
+  </si>
+  <si>
+    <t>108*20*20</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>E100.020310014</t>
+  </si>
+  <si>
+    <t>Coupler-X/Y axis-12-14</t>
+  </si>
+  <si>
+    <t>联轴器</t>
+  </si>
+  <si>
+    <t>X/Y轴联轴器</t>
+  </si>
+  <si>
+    <t>E100.020310015</t>
+  </si>
+  <si>
+    <t>Coupler-Z axis-8-14</t>
+  </si>
+  <si>
+    <t>Z轴联轴器</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>E100.A37-066-02-00</t>
+  </si>
+  <si>
+    <t>捷豹</t>
+  </si>
+  <si>
+    <t>Connector-metal</t>
+  </si>
+  <si>
+    <t>重型双柱爪</t>
+  </si>
+  <si>
+    <t>22*15*19</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>J100.020715018</t>
+  </si>
+  <si>
+    <t>信尔为</t>
+  </si>
+  <si>
+    <t>Filter cotton-for Nozzle-N510059196AA</t>
+  </si>
+  <si>
+    <t>过滤棉</t>
+  </si>
+  <si>
+    <t>松下贴片机3HEAD过滤棉</t>
+  </si>
+  <si>
+    <t>E100.020200009</t>
+  </si>
+  <si>
+    <t>劲拓</t>
+  </si>
+  <si>
+    <t>Frequency converter-FA2P5N1W20360133</t>
+  </si>
+  <si>
+    <t>变频器</t>
+  </si>
+  <si>
+    <t>JT波峰焊    变频器</t>
+  </si>
+  <si>
+    <t>39*24*24.5</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>E100.020310017</t>
+  </si>
+  <si>
+    <t>星火</t>
+  </si>
+  <si>
+    <t>Motor-TM86118S</t>
+  </si>
+  <si>
+    <t>电机</t>
+  </si>
+  <si>
+    <t>宽窄电机-STM86118S</t>
+  </si>
+  <si>
+    <t>E100.020310012</t>
+  </si>
+  <si>
+    <t>Motor-STM8680</t>
+  </si>
+  <si>
+    <t>步进电机-STM8680</t>
+  </si>
+  <si>
+    <t>E100.A33-013-03-00</t>
+  </si>
+  <si>
+    <t>工铭</t>
+  </si>
+  <si>
+    <t>组装厂月度辅耗材</t>
+  </si>
+  <si>
+    <t>Daman</t>
+  </si>
+  <si>
+    <t>Airtight valve</t>
+  </si>
+  <si>
+    <t>气密阀</t>
+  </si>
+  <si>
+    <t>30*20*17</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>J100.S07-010-10-00</t>
+  </si>
+  <si>
+    <t>华为达</t>
+  </si>
+  <si>
+    <t>Solder tip-900M-T-sk</t>
+  </si>
+  <si>
+    <t>烙铁头</t>
+  </si>
+  <si>
+    <t>焊料位_Blade_Type_900M-T-sk</t>
+  </si>
+  <si>
+    <t>40*26*12</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>J100.S07-010-04-01</t>
+  </si>
+  <si>
+    <t>Point Bit</t>
+  </si>
+  <si>
+    <t>J100.S07-010-06-01</t>
+  </si>
+  <si>
+    <t>Solder tip</t>
+  </si>
+  <si>
+    <t>J100.S07-010-06-02</t>
+  </si>
+  <si>
+    <t>Solder tip-900M-T-2C</t>
+  </si>
+  <si>
+    <t>焊接头(900-T-2C)</t>
+  </si>
+  <si>
+    <t>J100.S07-010-11-00</t>
+  </si>
+  <si>
+    <t>焊接头(900-T-1.2D)</t>
+  </si>
+  <si>
+    <t>C100.C06-007-01-00</t>
+  </si>
+  <si>
+    <t>Thermocouple</t>
+  </si>
+  <si>
+    <t>热电偶</t>
+  </si>
+  <si>
+    <t>C100.C06-019-06-00</t>
+  </si>
+  <si>
+    <t>Soldering sponge-size:60mm X 55mm</t>
+  </si>
+  <si>
+    <t>焊接海绵</t>
+  </si>
+  <si>
+    <t>深圳办</t>
+  </si>
+  <si>
+    <t>E100.A20-001-15-00</t>
+  </si>
+  <si>
+    <t>尼高</t>
+  </si>
+  <si>
+    <t>Screw Bit(Hexagonal)</t>
+  </si>
+  <si>
+    <t>电批头</t>
+  </si>
+  <si>
+    <t>26.5*26*32</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>E100.A20-001-16-00</t>
+  </si>
+  <si>
+    <t>E100.A20-001-17-00</t>
+  </si>
+  <si>
+    <t>E100.A20-001-20-00</t>
+  </si>
+  <si>
+    <t>E100.A20-001-52-00</t>
+  </si>
+  <si>
+    <t>Screw Bit-6.30X75XT6</t>
+  </si>
+  <si>
+    <t>螺丝批头(六角)</t>
+  </si>
+  <si>
+    <t>E100.A20-001-53-00</t>
+  </si>
+  <si>
+    <t>Screw Bit-6.30X75XT7</t>
+  </si>
+  <si>
+    <t>E100.A20-001-54-00</t>
+  </si>
+  <si>
+    <t>Screw Bit-6.30X75XT8</t>
+  </si>
+  <si>
+    <t>E100.A20-001-22-00</t>
+  </si>
+  <si>
+    <t>Screw Bit-6.30X75XT9</t>
+  </si>
+  <si>
+    <t>E100.A20-001-33-00</t>
+  </si>
+  <si>
+    <t>Screw bit-6.30X75XT10</t>
+  </si>
+  <si>
     <t>C100.C06-006-01-00</t>
   </si>
   <si>
     <t>国威</t>
   </si>
   <si>
-    <t>SMT工厂月度辅耗材</t>
-  </si>
-  <si>
-    <t>Silvassa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stencil wiping paper-roll-298 </t>
   </si>
   <si>
@@ -304,12 +607,6 @@
     <t>F09-F76</t>
   </si>
   <si>
-    <t>一般贸易</t>
-  </si>
-  <si>
-    <t>世博创想数字科技（深圳）有限公司</t>
-  </si>
-  <si>
     <t>C100.C06-006-02-00</t>
   </si>
   <si>
@@ -325,6 +622,42 @@
     <t>F77-F132</t>
   </si>
   <si>
+    <t>E100.020349014</t>
+  </si>
+  <si>
+    <t>浦洛</t>
+  </si>
+  <si>
+    <t>TP-LINK</t>
+  </si>
+  <si>
+    <t>Socket-For program machine-AT-TSSOP20-CMS</t>
+  </si>
+  <si>
+    <t>烧录座</t>
+  </si>
+  <si>
+    <t>烧录座子</t>
+  </si>
+  <si>
+    <t>29*19*23.5</t>
+  </si>
+  <si>
+    <t>F133</t>
+  </si>
+  <si>
+    <t>E100.A37-154-01-00</t>
+  </si>
+  <si>
+    <t>骏硕</t>
+  </si>
+  <si>
+    <t>Pulley-KLV-M913A-A10</t>
+  </si>
+  <si>
+    <t>滑轮</t>
+  </si>
+  <si>
     <t>E100.0111901002</t>
   </si>
   <si>
@@ -352,7 +685,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>F134</t>
+    <t>F134-F136</t>
   </si>
   <si>
     <t>配件都在这里</t>
@@ -364,16 +697,34 @@
     <t>194*13*13</t>
   </si>
   <si>
-    <t>F135</t>
-  </si>
-  <si>
     <t>铝管</t>
   </si>
   <si>
     <t>191.5*22*13</t>
   </si>
   <si>
-    <t>F136</t>
+    <t>J100.031003005</t>
+  </si>
+  <si>
+    <t>ESD turnover trolley-1450*450*450mm</t>
+  </si>
+  <si>
+    <t>周转车</t>
+  </si>
+  <si>
+    <t>不锈钢管*48条</t>
+  </si>
+  <si>
+    <t>台</t>
+  </si>
+  <si>
+    <t>140*25*15</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>F137</t>
   </si>
   <si>
     <t>E100.021335001</t>
@@ -391,7 +742,7 @@
     <t>30*24*16</t>
   </si>
   <si>
-    <t>F138</t>
+    <t>F138-F145</t>
   </si>
   <si>
     <t>铝材*30条</t>
@@ -400,54 +751,27 @@
     <t>310*19*14</t>
   </si>
   <si>
-    <t>F139</t>
-  </si>
-  <si>
     <t>铝材*21条</t>
   </si>
   <si>
-    <t>F140</t>
-  </si>
-  <si>
     <t>板*4块</t>
   </si>
   <si>
     <t>155*53*10</t>
   </si>
   <si>
-    <t>F141</t>
-  </si>
-  <si>
-    <t>F142</t>
-  </si>
-  <si>
-    <t>F143</t>
-  </si>
-  <si>
-    <t>F144</t>
-  </si>
-  <si>
     <t>板*2块</t>
   </si>
   <si>
     <t>155*52*50</t>
   </si>
   <si>
-    <t>F145</t>
-  </si>
-  <si>
     <t>E100.E17-003-01-00</t>
   </si>
   <si>
     <t>佳晨</t>
   </si>
   <si>
-    <t>TP-LINK</t>
-  </si>
-  <si>
-    <t>Daman</t>
-  </si>
-  <si>
     <t>Shielding box</t>
   </si>
   <si>
@@ -457,9 +781,6 @@
     <t>单层屏蔽箱</t>
   </si>
   <si>
-    <t>台</t>
-  </si>
-  <si>
     <t>70*70*62</t>
   </si>
   <si>
@@ -476,6 +797,180 @@
   </si>
   <si>
     <t>F156-F165</t>
+  </si>
+  <si>
+    <t>E100.020396013</t>
+  </si>
+  <si>
+    <t>华轶</t>
+  </si>
+  <si>
+    <t>Motor-AEVF4</t>
+  </si>
+  <si>
+    <t>马达</t>
+  </si>
+  <si>
+    <t>马达1/2Hp AEVF4 三相 东元</t>
+  </si>
+  <si>
+    <t>30*27.5*23.5</t>
+  </si>
+  <si>
+    <t>F166</t>
+  </si>
+  <si>
+    <t>E100.0203104001</t>
+  </si>
+  <si>
+    <t>盟川</t>
+  </si>
+  <si>
+    <t>Metal sheet-42883105</t>
+  </si>
+  <si>
+    <t>太阳片</t>
+  </si>
+  <si>
+    <t>太阳片(大）</t>
+  </si>
+  <si>
+    <t>30*25*20</t>
+  </si>
+  <si>
+    <t>F167</t>
+  </si>
+  <si>
+    <t>E100.0203154000</t>
+  </si>
+  <si>
+    <t>Motor-DZ-03060</t>
+  </si>
+  <si>
+    <t>微型直流电机(24V)</t>
+  </si>
+  <si>
+    <t>E100.0203125000</t>
+  </si>
+  <si>
+    <t>Clamp-LS1D-01033</t>
+  </si>
+  <si>
+    <t>链夹</t>
+  </si>
+  <si>
+    <t>5.0链夹</t>
+  </si>
+  <si>
+    <t>E100.0203162159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support Base </t>
+  </si>
+  <si>
+    <t>调节座</t>
+  </si>
+  <si>
+    <t>E100.0203133001</t>
+  </si>
+  <si>
+    <t>瑾信</t>
+  </si>
+  <si>
+    <t>Metal block-part of mould</t>
+  </si>
+  <si>
+    <t>模头</t>
+  </si>
+  <si>
+    <t>模头1.6</t>
+  </si>
+  <si>
+    <t>E100.E00-011-15-01</t>
+  </si>
+  <si>
+    <t>Slip Ring-KYB-M7027-001</t>
+  </si>
+  <si>
+    <t>电刷</t>
+  </si>
+  <si>
+    <t>E100.020396061</t>
+  </si>
+  <si>
+    <t>Sealing ring</t>
+  </si>
+  <si>
+    <t>密封圈</t>
+  </si>
+  <si>
+    <t>O型密封圈 4#</t>
+  </si>
+  <si>
+    <t>E100.020396062</t>
+  </si>
+  <si>
+    <t>O型密封圈7#</t>
+  </si>
+  <si>
+    <t>E100.020396047</t>
+  </si>
+  <si>
+    <t>Gear-36.8*81.5mm-L</t>
+  </si>
+  <si>
+    <t>齿轮</t>
+  </si>
+  <si>
+    <t>13齿左螺旋齿轮</t>
+  </si>
+  <si>
+    <t>E100.020396048</t>
+  </si>
+  <si>
+    <t>Gear-36.8x81.5mm-R</t>
+  </si>
+  <si>
+    <t>13齿右螺旋齿轮</t>
+  </si>
+  <si>
+    <t>E100.020396049</t>
+  </si>
+  <si>
+    <t>Gear-36.8*65mm-L</t>
+  </si>
+  <si>
+    <t>E100.020396050</t>
+  </si>
+  <si>
+    <t>Gear-36.8*65mm-R</t>
+  </si>
+  <si>
+    <t>E100.020396055</t>
+  </si>
+  <si>
+    <t>Heat board-380V  1.2KW   L=1128mm</t>
+  </si>
+  <si>
+    <t>发热板</t>
+  </si>
+  <si>
+    <t>锡炉450发热板1</t>
+  </si>
+  <si>
+    <t>134*26*15</t>
+  </si>
+  <si>
+    <t>F168</t>
+  </si>
+  <si>
+    <t>E100.020396056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat board-380V  1.2KW   L=1058mm </t>
+  </si>
+  <si>
+    <t>锡炉450发热板2</t>
   </si>
 </sst>
 </file>
@@ -496,7 +991,7 @@
     <numFmt numFmtId="182" formatCode="0.00_ "/>
     <numFmt numFmtId="183" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +1029,11 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -697,7 +1197,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,6 +1225,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8B7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,55 +1604,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1161,70 +1664,73 @@
     <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
@@ -1234,7 +1740,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1245,7 +1751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="124">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1309,19 +1815,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="178" fontId="4" fillId="3" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1347,7 +1876,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1362,9 +1894,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1389,35 +1918,69 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1428,34 +1991,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1463,32 +2017,154 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1511,97 +2187,12 @@
     <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2580,12 +3171,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="R17" sqref="A1:AB19"/>
+      <selection pane="bottomLeft" activeCell="T39" sqref="T39:T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6272727272727" defaultRowHeight="30" customHeight="1"/>
@@ -2675,7 +3266,7 @@
       <c r="H2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="15" t="s">
@@ -2687,31 +3278,31 @@
       <c r="L2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="Q2" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="75" t="s">
+      <c r="R2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="50" t="s">
+      <c r="S2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="50" t="s">
+      <c r="T2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="76" t="s">
+      <c r="U2" s="80" t="s">
         <v>24</v>
       </c>
       <c r="V2" s="17" t="s">
@@ -2720,16 +3311,16 @@
       <c r="W2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="77" t="s">
+      <c r="X2" s="81" t="s">
         <v>27</v>
       </c>
       <c r="Y2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="87" t="s">
+      <c r="Z2" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="88" t="s">
+      <c r="AA2" s="96" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2758,7 +3349,7 @@
       <c r="H3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>39</v>
       </c>
       <c r="J3" s="15" t="s">
@@ -2770,31 +3361,31 @@
       <c r="L3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="Q3" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="75" t="s">
+      <c r="R3" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="S3" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="76" t="s">
+      <c r="U3" s="80" t="s">
         <v>51</v>
       </c>
       <c r="V3" s="17" t="s">
@@ -2803,24 +3394,24 @@
       <c r="W3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="77" t="s">
+      <c r="X3" s="81" t="s">
         <v>54</v>
       </c>
       <c r="Y3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="87" t="s">
+      <c r="Z3" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" s="88" t="s">
+      <c r="AA3" s="96" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:29">
+    <row r="4" ht="24.95" customHeight="1" spans="1:27">
       <c r="A4" s="15">
-        <v>28</v>
-      </c>
-      <c r="B4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -2829,1158 +3420,4412 @@
       <c r="D4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="21" t="str">
+      <c r="I4" s="20" t="str">
         <f>VLOOKUP(B4,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J4" s="51">
-        <v>2040</v>
-      </c>
-      <c r="K4" s="29" t="s">
+      <c r="J4" s="15">
+        <v>500</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="53">
-        <f ca="1">ROUND(EVALUATE(L4)*1000*0.000000001,2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="N4" s="52">
-        <f ca="1" t="shared" ref="N4:N9" si="0">M4*T4</f>
-        <v>6.12</v>
-      </c>
-      <c r="O4" s="54" t="s">
+      <c r="M4" s="54">
+        <f ca="1" t="shared" ref="M4:M9" si="0">ROUND(EVALUATE(L4)*1000*0.000000001,2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="N4" s="55">
+        <f ca="1">M4*T4</f>
+        <v>0.01</v>
+      </c>
+      <c r="O4" s="56">
+        <v>2.8</v>
+      </c>
+      <c r="P4" s="57">
+        <f>O4*T4</f>
+        <v>2.8</v>
+      </c>
+      <c r="Q4" s="57">
+        <v>2.6</v>
+      </c>
+      <c r="R4" s="57">
+        <v>2.6</v>
+      </c>
+      <c r="S4" s="36">
+        <v>500</v>
+      </c>
+      <c r="T4" s="36">
+        <f>J4/S4</f>
+        <v>1</v>
+      </c>
+      <c r="U4" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="55">
-        <f>O4*T4</f>
-        <v>1204.28</v>
-      </c>
-      <c r="Q4" s="67">
-        <v>1200</v>
-      </c>
-      <c r="R4" s="63">
-        <v>1200</v>
-      </c>
-      <c r="S4" s="78" t="s">
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="T4" s="15">
-        <f>J4/S4</f>
+      <c r="Y4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="U4" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="30" t="s">
+      <c r="Z4" s="15">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A5" s="15">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="Y4" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="Z4" s="89">
-        <v>14.8</v>
-      </c>
-      <c r="AA4" s="90">
-        <v>0.13</v>
-      </c>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:29">
-      <c r="A5" s="15">
-        <v>29</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="D5" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="21" t="str">
+      <c r="G5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="20" t="str">
         <f>VLOOKUP(B5,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J5" s="51">
-        <v>2800</v>
-      </c>
-      <c r="K5" s="29" t="s">
+      <c r="J5" s="15">
+        <v>3</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="59">
+        <f ca="1" t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="N5" s="59">
+        <f ca="1">M5*T5</f>
+        <v>0.04</v>
+      </c>
+      <c r="O5" s="60">
+        <v>2.04</v>
+      </c>
+      <c r="P5" s="59">
+        <f t="shared" ref="P4:P5" si="1">O5*T5</f>
+        <v>2.04</v>
+      </c>
+      <c r="Q5" s="57">
+        <v>1.1</v>
+      </c>
+      <c r="R5" s="57">
+        <v>1.1</v>
+      </c>
+      <c r="S5" s="15">
+        <v>3</v>
+      </c>
+      <c r="T5" s="65">
+        <f>J5/S5</f>
+        <v>1</v>
+      </c>
+      <c r="U5" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>110</v>
+      </c>
+      <c r="AA5" s="97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A6" s="15">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="20" t="str">
+        <f>VLOOKUP(B6,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>12-14</v>
+      </c>
+      <c r="J6" s="15">
+        <v>2</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="15">
+        <v>2</v>
+      </c>
+      <c r="T6" s="32"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>78</v>
+      </c>
+      <c r="AA6" s="97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="20" t="str">
+        <f>VLOOKUP(B7,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>8-14</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="37"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="R7" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="S7" s="15">
+        <v>1</v>
+      </c>
+      <c r="T7" s="36"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>78</v>
+      </c>
+      <c r="AA7" s="97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A8" s="15">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="53">
-        <f ca="1">ROUND(EVALUATE(L5)*1000*0.000000001,2)</f>
-        <v>0.07</v>
-      </c>
-      <c r="N5" s="56">
+      <c r="H8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="20" t="str">
+        <f>VLOOKUP(B8,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J8" s="15">
+        <v>3</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="54">
         <f ca="1" t="shared" si="0"/>
-        <v>3.92</v>
-      </c>
-      <c r="O5" s="57">
-        <v>15.5</v>
-      </c>
-      <c r="P5" s="55">
-        <f>O5*T5</f>
-        <v>868</v>
-      </c>
-      <c r="Q5" s="67">
-        <v>866</v>
-      </c>
-      <c r="R5" s="63">
-        <v>866</v>
-      </c>
-      <c r="S5" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="T5" s="15">
-        <f>J5/S5</f>
-        <v>56</v>
-      </c>
-      <c r="U5" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y5" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z5" s="89">
-        <v>7.3</v>
-      </c>
-      <c r="AA5" s="90">
+        <v>0.04</v>
+      </c>
+      <c r="N8" s="59">
+        <f ca="1">M8*T8</f>
+        <v>0.04</v>
+      </c>
+      <c r="O8" s="55">
+        <v>1.88</v>
+      </c>
+      <c r="P8" s="55">
+        <f>O8*T8</f>
+        <v>1.88</v>
+      </c>
+      <c r="Q8" s="57">
+        <v>1.55</v>
+      </c>
+      <c r="R8" s="57">
+        <v>1.55</v>
+      </c>
+      <c r="S8" s="15">
+        <v>3</v>
+      </c>
+      <c r="T8" s="15">
+        <f>J8/S8</f>
+        <v>1</v>
+      </c>
+      <c r="U8" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z8" s="15">
+        <v>110</v>
+      </c>
+      <c r="AA8" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="92"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:29">
-      <c r="A6" s="15">
-        <v>32</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="26" t="s">
+    </row>
+    <row r="9" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A9" s="15">
+        <v>6</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="21" t="str">
-        <f>VLOOKUP(B6,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
-      </c>
-      <c r="J6" s="58">
-        <v>3</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" s="53">
-        <f ca="1">ROUND(EVALUATE(L6)*1000*0.000000001,2)</f>
-        <v>0.06</v>
-      </c>
-      <c r="N6" s="56">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-      <c r="O6" s="59">
-        <v>34.24</v>
-      </c>
-      <c r="P6" s="60">
-        <f>SUM(O6:O8)</f>
-        <v>66.02</v>
-      </c>
-      <c r="Q6" s="62">
-        <v>34</v>
-      </c>
-      <c r="R6" s="66">
-        <v>64.2</v>
-      </c>
-      <c r="S6" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="T6" s="15">
-        <f>J6/S6</f>
-        <v>1</v>
-      </c>
-      <c r="U6" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y6" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z6" s="93">
-        <v>1160</v>
-      </c>
-      <c r="AA6" s="94">
-        <v>0.13</v>
-      </c>
-      <c r="AB6" s="91" t="s">
+      <c r="F9" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="AC6" s="92"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:29">
-      <c r="A7" s="15">
-        <v>33</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="23" t="s">
+      <c r="G9" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="52" t="s">
+      <c r="H9" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="20" t="str">
+        <f>VLOOKUP(B9,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>QLDZ.0014</v>
+      </c>
+      <c r="J9" s="15">
+        <v>100</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="M7" s="53">
-        <f ca="1">ROUND(EVALUATE(L7)*1000*0.000000001,2)</f>
-        <v>0.03</v>
-      </c>
-      <c r="N7" s="56">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.03</v>
-      </c>
-      <c r="O7" s="61">
-        <v>18.4</v>
-      </c>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62">
-        <v>205</v>
-      </c>
-      <c r="R7" s="66"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="15">
-        <f>J6/S6</f>
-        <v>1</v>
-      </c>
-      <c r="U7" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="96"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="92"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:29">
-      <c r="A8" s="15">
-        <v>34</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="M8" s="53">
-        <f ca="1">ROUND(EVALUATE(L8)*1000*0.000000001,2)</f>
-        <v>0.05</v>
-      </c>
-      <c r="N8" s="56">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="O8" s="61">
-        <v>13.38</v>
-      </c>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63">
-        <v>270</v>
-      </c>
-      <c r="R8" s="67"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="15">
-        <f>J6/S6</f>
-        <v>1</v>
-      </c>
-      <c r="U8" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="91"/>
-      <c r="AC8" s="92"/>
-    </row>
-    <row r="9" ht="26.1" customHeight="1" spans="1:27">
-      <c r="A9" s="15">
-        <v>36</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="21" t="str">
-        <f>VLOOKUP(B9,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
-      </c>
-      <c r="J9" s="64">
-        <v>9</v>
-      </c>
-      <c r="K9" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="M9" s="53">
-        <f ca="1" t="shared" ref="M9:M20" si="1">ROUND(EVALUATE(L9)*1000*0.000000001,2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="N9" s="59">
+      <c r="M9" s="61">
         <f ca="1" t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="O9" s="57">
-        <v>10.63</v>
-      </c>
-      <c r="P9" s="65">
-        <f>SUM(O9:O16)</f>
-        <v>207.46</v>
-      </c>
-      <c r="Q9" s="66">
-        <v>205</v>
-      </c>
-      <c r="R9" s="62">
-        <v>205</v>
-      </c>
-      <c r="S9" s="25">
-        <v>9</v>
-      </c>
-      <c r="T9" s="15">
+      <c r="N9" s="59">
+        <f ca="1">M9*T9</f>
+        <v>0.01</v>
+      </c>
+      <c r="O9" s="60">
+        <v>4.3</v>
+      </c>
+      <c r="P9" s="62">
+        <f>O9*T9</f>
+        <v>4.3</v>
+      </c>
+      <c r="Q9" s="57">
+        <v>2</v>
+      </c>
+      <c r="R9" s="57">
+        <v>2</v>
+      </c>
+      <c r="S9" s="15">
+        <v>100</v>
+      </c>
+      <c r="T9" s="32">
         <f>J9/S9</f>
         <v>1</v>
       </c>
-      <c r="U9" s="76" t="s">
+      <c r="U9" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>22.6</v>
+      </c>
+      <c r="AA9" s="97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="10" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A10" s="15">
+        <v>7</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="20" t="str">
+        <f>VLOOKUP(B10,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>N510059196AA</v>
+      </c>
+      <c r="J10" s="15">
+        <v>137</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="37"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57">
+        <v>2.1</v>
+      </c>
+      <c r="R10" s="57">
+        <v>2.1</v>
+      </c>
+      <c r="S10" s="15">
+        <v>137</v>
+      </c>
+      <c r="T10" s="36"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="AA10" s="97">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A11" s="15">
+        <v>8</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y9" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z9" s="64">
+      <c r="H11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="20" t="str">
+        <f>VLOOKUP(B11,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>FA2P5N1W20360133</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="61">
+        <f ca="1">ROUND(EVALUATE(L11)*1000*0.000000001,2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="N11" s="59">
+        <f ca="1">M11*T11</f>
+        <v>0.02</v>
+      </c>
+      <c r="O11" s="60">
+        <v>14</v>
+      </c>
+      <c r="P11" s="62">
+        <f>O11*T11</f>
+        <v>14</v>
+      </c>
+      <c r="Q11" s="57">
+        <v>3</v>
+      </c>
+      <c r="R11" s="57">
+        <v>3</v>
+      </c>
+      <c r="S11" s="15">
+        <v>1</v>
+      </c>
+      <c r="T11" s="65">
+        <f>J11/S11</f>
+        <v>1</v>
+      </c>
+      <c r="U11" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z11" s="15">
+        <v>1140</v>
+      </c>
+      <c r="AA11" s="97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A12" s="15">
+        <v>9</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="20" t="str">
+        <f>VLOOKUP(B12,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>STM86118S</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="33"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="57">
+        <v>5</v>
+      </c>
+      <c r="R12" s="57">
+        <v>5</v>
+      </c>
+      <c r="S12" s="15">
+        <v>1</v>
+      </c>
+      <c r="T12" s="32"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y12" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>230</v>
+      </c>
+      <c r="AA12" s="97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A13" s="15">
+        <v>10</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="20" t="str">
+        <f>VLOOKUP(B13,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>STM8680</v>
+      </c>
+      <c r="J13" s="15">
+        <v>3</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="37"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57">
+        <v>5</v>
+      </c>
+      <c r="R13" s="57">
+        <v>5</v>
+      </c>
+      <c r="S13" s="15">
+        <v>3</v>
+      </c>
+      <c r="T13" s="36"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>185</v>
+      </c>
+      <c r="AA13" s="97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="14" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A14" s="15">
+        <v>11</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="20" t="str">
+        <f>VLOOKUP(B14,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J14" s="15">
+        <v>5</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="54">
+        <f ca="1">ROUND(EVALUATE(L14)*1000*0.000000001,2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="N14" s="55">
+        <f ca="1">M14*T14</f>
+        <v>0.01</v>
+      </c>
+      <c r="O14" s="56">
+        <v>1.44</v>
+      </c>
+      <c r="P14" s="57">
+        <f>O14*T14</f>
+        <v>1.44</v>
+      </c>
+      <c r="Q14" s="57">
+        <v>1.23</v>
+      </c>
+      <c r="R14" s="57">
+        <v>1.23</v>
+      </c>
+      <c r="S14" s="36">
+        <v>5</v>
+      </c>
+      <c r="T14" s="36">
+        <f>J14/S14</f>
+        <v>1</v>
+      </c>
+      <c r="U14" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z14" s="15">
+        <v>350</v>
+      </c>
+      <c r="AA14" s="97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="15" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A15" s="15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="20" t="str">
+        <f>VLOOKUP(B15,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>900M-T-sk</v>
+      </c>
+      <c r="J15" s="15">
+        <v>30</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="59">
+        <f ca="1">ROUND(EVALUATE(L15)*1000*0.000000001,2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="N15" s="59">
+        <f ca="1">M15*T15</f>
+        <v>0.01</v>
+      </c>
+      <c r="O15" s="65">
+        <v>7.55</v>
+      </c>
+      <c r="P15" s="65">
+        <f>O15*T15</f>
+        <v>7.55</v>
+      </c>
+      <c r="Q15" s="57">
+        <v>0.15</v>
+      </c>
+      <c r="R15" s="57">
+        <v>0.15</v>
+      </c>
+      <c r="S15" s="15">
+        <v>30</v>
+      </c>
+      <c r="T15" s="32">
+        <f>J15/S15</f>
+        <v>1</v>
+      </c>
+      <c r="U15" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y15" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z15" s="15">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="97">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A16" s="15">
+        <v>13</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="20" t="str">
+        <f>VLOOKUP(B16,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>900M-T-B</v>
+      </c>
+      <c r="J16" s="15">
+        <v>500</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="33"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32">
+        <f t="shared" ref="P16:P22" si="2">O16*T16</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="57">
+        <v>2.5</v>
+      </c>
+      <c r="R16" s="57">
+        <v>2.5</v>
+      </c>
+      <c r="S16" s="15">
+        <v>500</v>
+      </c>
+      <c r="T16" s="32"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y16" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z16" s="15">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="97">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A17" s="15">
+        <v>14</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="20" t="str">
+        <f>VLOOKUP(B17,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>900M-T-4C</v>
+      </c>
+      <c r="J17" s="15">
+        <v>400</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="33"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="57">
+        <v>2</v>
+      </c>
+      <c r="R17" s="57">
+        <v>2</v>
+      </c>
+      <c r="S17" s="15">
+        <v>400</v>
+      </c>
+      <c r="T17" s="32"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y17" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z17" s="15">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="97">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A18" s="15">
+        <v>15</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="20" t="str">
+        <f>VLOOKUP(B18,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>900M-T-2C</v>
+      </c>
+      <c r="J18" s="15">
+        <v>40</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="R18" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="S18" s="15">
+        <v>40</v>
+      </c>
+      <c r="T18" s="32"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y18" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z18" s="15">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="97">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A19" s="15">
+        <v>16</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" s="20" t="str">
+        <f>VLOOKUP(B19,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>900-T-1.2D</v>
+      </c>
+      <c r="J19" s="15">
+        <v>40</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="33"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="R19" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="S19" s="15">
+        <v>40</v>
+      </c>
+      <c r="T19" s="32"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y19" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z19" s="15">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="97">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A20" s="15">
+        <v>17</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="20" t="str">
+        <f>VLOOKUP(B20,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>WRNT-013</v>
+      </c>
+      <c r="J20" s="15">
+        <v>140</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="33"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="57">
+        <v>0.7</v>
+      </c>
+      <c r="R20" s="57">
+        <v>0.7</v>
+      </c>
+      <c r="S20" s="15">
+        <v>140</v>
+      </c>
+      <c r="T20" s="32"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z20" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="AA20" s="97">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" ht="24.95" customHeight="1" spans="1:28">
+      <c r="A21" s="15">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I21" s="20" t="str">
+        <f>VLOOKUP(B21,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J21" s="15">
+        <v>250</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="37"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="57">
+        <v>1.25</v>
+      </c>
+      <c r="R21" s="57">
+        <v>1.25</v>
+      </c>
+      <c r="S21" s="15">
+        <v>250</v>
+      </c>
+      <c r="T21" s="36"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y21" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z21" s="15">
+        <v>0.99</v>
+      </c>
+      <c r="AA21" s="97">
+        <v>0.01</v>
+      </c>
+      <c r="AB21" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A22" s="15">
+        <v>19</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="20" t="str">
+        <f>VLOOKUP(B22,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J22" s="15">
+        <v>388</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="M22" s="65">
+        <f ca="1">ROUND(EVALUATE(L22)*1000*0.000000001,2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="N22" s="65">
+        <f ca="1">M22*T22</f>
+        <v>0.02</v>
+      </c>
+      <c r="O22" s="65">
+        <v>20</v>
+      </c>
+      <c r="P22" s="65">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="Q22" s="57">
+        <v>3.49</v>
+      </c>
+      <c r="R22" s="57">
+        <v>3.49</v>
+      </c>
+      <c r="S22" s="15">
+        <v>388</v>
+      </c>
+      <c r="T22" s="32">
+        <f>J22/S22</f>
+        <v>1</v>
+      </c>
+      <c r="U22" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z22" s="15">
+        <v>1.32</v>
+      </c>
+      <c r="AA22" s="97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A23" s="15">
+        <v>20</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="20" t="str">
+        <f>VLOOKUP(B23,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J23" s="15">
+        <v>457</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="33"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="57">
+        <v>4.11</v>
+      </c>
+      <c r="R23" s="57">
+        <v>4.11</v>
+      </c>
+      <c r="S23" s="15">
+        <v>457</v>
+      </c>
+      <c r="T23" s="32"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y23" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z23" s="15">
+        <v>1.32</v>
+      </c>
+      <c r="AA23" s="97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="24" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A24" s="15">
+        <v>21</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="20" t="str">
+        <f>VLOOKUP(B24,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J24" s="15">
+        <v>458</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="33"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="57">
+        <v>4.12</v>
+      </c>
+      <c r="R24" s="57">
+        <v>4.12</v>
+      </c>
+      <c r="S24" s="15">
+        <v>458</v>
+      </c>
+      <c r="T24" s="32"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y24" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z24" s="15">
+        <v>1.32</v>
+      </c>
+      <c r="AA24" s="97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="25" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A25" s="15">
+        <v>22</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="20" t="str">
+        <f>VLOOKUP(B25,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J25" s="15">
+        <v>287</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="33"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="57">
+        <v>2.58</v>
+      </c>
+      <c r="R25" s="57">
+        <v>2.58</v>
+      </c>
+      <c r="S25" s="15">
+        <v>287</v>
+      </c>
+      <c r="T25" s="32"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y25" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z25" s="15">
+        <v>1.32</v>
+      </c>
+      <c r="AA25" s="97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="26" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A26" s="15">
+        <v>23</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="20" t="str">
+        <f>VLOOKUP(B26,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J26" s="15">
+        <v>40</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="33"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="57">
+        <v>0.36</v>
+      </c>
+      <c r="R26" s="57">
+        <v>0.36</v>
+      </c>
+      <c r="S26" s="15">
+        <v>40</v>
+      </c>
+      <c r="T26" s="32"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y26" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z26" s="15">
+        <v>1.32</v>
+      </c>
+      <c r="AA26" s="97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="27" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A27" s="15">
+        <v>24</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="20" t="str">
+        <f>VLOOKUP(B27,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J27" s="15">
+        <v>60</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="33"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="57">
+        <v>0.54</v>
+      </c>
+      <c r="R27" s="57">
+        <v>0.54</v>
+      </c>
+      <c r="S27" s="15">
+        <v>60</v>
+      </c>
+      <c r="T27" s="32"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y27" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z27" s="15">
+        <v>1.32</v>
+      </c>
+      <c r="AA27" s="97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="28" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A28" s="15">
+        <v>25</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I28" s="20" t="str">
+        <f>VLOOKUP(B28,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J28" s="15">
+        <v>50</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="33"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="57">
+        <v>0.45</v>
+      </c>
+      <c r="R28" s="57">
+        <v>0.45</v>
+      </c>
+      <c r="S28" s="15">
+        <v>50</v>
+      </c>
+      <c r="T28" s="32"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y28" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z28" s="15">
+        <v>1.32</v>
+      </c>
+      <c r="AA28" s="97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="29" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A29" s="15">
+        <v>26</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="20" t="str">
+        <f>VLOOKUP(B29,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J29" s="15">
+        <v>50</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="33"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="57">
+        <v>0.45</v>
+      </c>
+      <c r="R29" s="57">
+        <v>0.45</v>
+      </c>
+      <c r="S29" s="15">
+        <v>50</v>
+      </c>
+      <c r="T29" s="32"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y29" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z29" s="15">
+        <v>1.32</v>
+      </c>
+      <c r="AA29" s="97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="30" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A30" s="15">
+        <v>27</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="20" t="str">
+        <f>VLOOKUP(B30,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J30" s="15">
+        <v>110</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="37"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="57">
+        <v>0.99</v>
+      </c>
+      <c r="R30" s="57">
+        <v>0.99</v>
+      </c>
+      <c r="S30" s="15">
+        <v>110</v>
+      </c>
+      <c r="T30" s="36"/>
+      <c r="U30" s="84"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y30" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z30" s="15">
+        <v>1.32</v>
+      </c>
+      <c r="AA30" s="97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:29">
+      <c r="A31" s="15">
+        <v>28</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" s="20" t="str">
+        <f>VLOOKUP(B31,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J31" s="66">
+        <v>2040</v>
+      </c>
+      <c r="K31" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="L31" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="M31" s="54">
+        <f ca="1">ROUND(EVALUATE(L31)*1000*0.000000001,2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="N31" s="67">
+        <f ca="1">M31*T31</f>
+        <v>6.12</v>
+      </c>
+      <c r="O31" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="P31" s="68">
+        <f>O31*T31</f>
+        <v>1204.28</v>
+      </c>
+      <c r="Q31" s="57">
+        <v>1200</v>
+      </c>
+      <c r="R31" s="57">
+        <v>1200</v>
+      </c>
+      <c r="S31" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="T31" s="15">
+        <f>J31/S31</f>
+        <v>68</v>
+      </c>
+      <c r="U31" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="V31" s="85"/>
+      <c r="W31" s="85"/>
+      <c r="X31" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y31" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z31" s="98">
+        <v>14.8</v>
+      </c>
+      <c r="AA31" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB31" s="99"/>
+      <c r="AC31" s="100"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:29">
+      <c r="A32" s="15">
+        <v>29</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" s="20" t="str">
+        <f>VLOOKUP(B32,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J32" s="66">
+        <v>2800</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="L32" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="M32" s="54">
+        <f ca="1">ROUND(EVALUATE(L32)*1000*0.000000001,2)</f>
+        <v>0.07</v>
+      </c>
+      <c r="N32" s="59">
+        <f ca="1">M32*T32</f>
+        <v>3.92</v>
+      </c>
+      <c r="O32" s="55">
+        <v>15.5</v>
+      </c>
+      <c r="P32" s="68">
+        <f>O32*T32</f>
+        <v>868</v>
+      </c>
+      <c r="Q32" s="57">
+        <v>866</v>
+      </c>
+      <c r="R32" s="57">
+        <v>866</v>
+      </c>
+      <c r="S32" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="T32" s="15">
+        <f>J32/S32</f>
+        <v>56</v>
+      </c>
+      <c r="U32" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="V32" s="85"/>
+      <c r="W32" s="85"/>
+      <c r="X32" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y32" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z32" s="98">
+        <v>7.3</v>
+      </c>
+      <c r="AA32" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB32" s="99"/>
+      <c r="AC32" s="100"/>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A33" s="15">
+        <v>30</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" s="20" t="str">
+        <f>VLOOKUP(B33,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>AT-TSSOP20-CMS</v>
+      </c>
+      <c r="J33" s="69">
+        <v>2</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="M33" s="55">
+        <f ca="1">ROUND(EVALUATE(L33)*1000*0.000000001,2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="N33" s="59">
+        <f ca="1">M33*T33</f>
+        <v>0.01</v>
+      </c>
+      <c r="O33" s="60">
+        <v>1</v>
+      </c>
+      <c r="P33" s="62">
+        <f>O33*T33</f>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="R33" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="S33" s="15">
+        <v>2</v>
+      </c>
+      <c r="T33" s="65">
+        <f>J33/S33</f>
+        <v>1</v>
+      </c>
+      <c r="U33" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="V33" s="85"/>
+      <c r="W33" s="85"/>
+      <c r="X33" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y33" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z33" s="98">
+        <v>580</v>
+      </c>
+      <c r="AA33" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB33" s="100"/>
+      <c r="AC33" s="100"/>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A34" s="15">
+        <v>31</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="I34" s="20" t="str">
+        <f>VLOOKUP(B34,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>KLV-M913A-A10</v>
+      </c>
+      <c r="J34" s="69">
+        <v>5</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="67"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="R34" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="S34" s="15">
+        <v>5</v>
+      </c>
+      <c r="T34" s="32"/>
+      <c r="U34" s="83"/>
+      <c r="V34" s="85"/>
+      <c r="W34" s="85"/>
+      <c r="X34" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y34" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z34" s="101">
+        <v>80</v>
+      </c>
+      <c r="AA34" s="102">
+        <v>0.13</v>
+      </c>
+      <c r="AB34" s="100"/>
+      <c r="AC34" s="100"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:29">
+      <c r="A35" s="15">
+        <v>32</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="I35" s="20" t="str">
+        <f>VLOOKUP(B35,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J35" s="70">
+        <v>3</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="L35" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="M35" s="54">
+        <f ca="1">ROUND(EVALUATE(L35)*1000*0.000000001,2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="N35" s="71">
+        <f ca="1" t="shared" ref="N35:N39" si="3">M35*T35</f>
+        <v>0.18</v>
+      </c>
+      <c r="O35" s="55">
+        <v>34.24</v>
+      </c>
+      <c r="P35" s="72">
+        <f>SUM(O35:O37)</f>
+        <v>66.02</v>
+      </c>
+      <c r="Q35" s="62">
+        <v>34</v>
+      </c>
+      <c r="R35" s="62">
+        <v>64.2</v>
+      </c>
+      <c r="S35" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="T35" s="86">
+        <v>3</v>
+      </c>
+      <c r="U35" s="87" t="s">
+        <v>196</v>
+      </c>
+      <c r="V35" s="85"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y35" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z35" s="101">
+        <v>1160</v>
+      </c>
+      <c r="AA35" s="102">
+        <v>0.13</v>
+      </c>
+      <c r="AB35" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC35" s="100"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:29">
+      <c r="A36" s="15">
+        <v>33</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="M36" s="54">
+        <f ca="1">ROUND(EVALUATE(L36)*1000*0.000000001,2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="N36" s="73"/>
+      <c r="O36" s="56">
+        <v>18.4</v>
+      </c>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62">
+        <v>205</v>
+      </c>
+      <c r="R36" s="62"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="88"/>
+      <c r="U36" s="89"/>
+      <c r="V36" s="85"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z36" s="103"/>
+      <c r="AA36" s="104"/>
+      <c r="AB36" s="99"/>
+      <c r="AC36" s="100"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:29">
+      <c r="A37" s="15">
+        <v>34</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="M37" s="54">
+        <f ca="1">ROUND(EVALUATE(L37)*1000*0.000000001,2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="N37" s="73"/>
+      <c r="O37" s="56">
+        <v>13.38</v>
+      </c>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57">
+        <v>270</v>
+      </c>
+      <c r="R37" s="57"/>
+      <c r="S37" s="77"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="91"/>
+      <c r="V37" s="85"/>
+      <c r="W37" s="85"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z37" s="105"/>
+      <c r="AA37" s="106"/>
+      <c r="AB37" s="99"/>
+      <c r="AC37" s="100"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:29">
+      <c r="A38" s="15">
+        <v>35</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I38" s="20" t="str">
+        <f>VLOOKUP(B38,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J38" s="70">
+        <v>12</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L38" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="M38" s="54">
+        <f ca="1" t="shared" ref="M38:M50" si="4">ROUND(EVALUATE(L38)*1000*0.000000001,2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="N38" s="55">
+        <f ca="1" t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="O38" s="55">
+        <v>34.91</v>
+      </c>
+      <c r="P38" s="68">
+        <f>O38*T38</f>
+        <v>34.91</v>
+      </c>
+      <c r="Q38" s="57">
+        <v>34</v>
+      </c>
+      <c r="R38" s="57">
+        <v>34</v>
+      </c>
+      <c r="S38" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="T38" s="15">
+        <v>1</v>
+      </c>
+      <c r="U38" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y38" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z38" s="98">
+        <v>1300</v>
+      </c>
+      <c r="AA38" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB38" s="99"/>
+      <c r="AC38" s="100"/>
+    </row>
+    <row r="39" ht="26.1" customHeight="1" spans="1:27">
+      <c r="A39" s="15">
+        <v>36</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="I39" s="20" t="str">
+        <f>VLOOKUP(B39,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J39" s="65">
+        <v>9</v>
+      </c>
+      <c r="K39" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="L39" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="M39" s="54">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="N39" s="71">
+        <v>0.53</v>
+      </c>
+      <c r="O39" s="55">
+        <v>10.63</v>
+      </c>
+      <c r="P39" s="72">
+        <f>SUM(O39:O46)</f>
+        <v>207.46</v>
+      </c>
+      <c r="Q39" s="62">
+        <v>205</v>
+      </c>
+      <c r="R39" s="62">
+        <v>205</v>
+      </c>
+      <c r="S39" s="32">
+        <v>9</v>
+      </c>
+      <c r="T39" s="86">
+        <v>8</v>
+      </c>
+      <c r="U39" s="87" t="s">
+        <v>215</v>
+      </c>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y39" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z39" s="65">
         <v>300</v>
       </c>
-      <c r="AA9" s="94">
+      <c r="AA39" s="102">
         <v>0.13</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:29">
-      <c r="A10" s="15">
+    <row r="40" customHeight="1" spans="1:29">
+      <c r="A40" s="15">
         <v>37</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" s="53">
-        <f ca="1" t="shared" si="1"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="M40" s="54">
+        <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N10" s="59">
+      <c r="N40" s="73"/>
+      <c r="O40" s="55">
+        <v>25.83</v>
+      </c>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="89"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="104"/>
+      <c r="AB40" s="99"/>
+      <c r="AC40" s="100"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:29">
+      <c r="A41" s="15">
+        <v>38</v>
+      </c>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="I41" s="20"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="M41" s="54">
+        <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="O10" s="59">
-        <v>25.83</v>
-      </c>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="15">
-        <f>J9/S9</f>
+      <c r="N41" s="73"/>
+      <c r="O41" s="55">
+        <v>21.09</v>
+      </c>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="88"/>
+      <c r="U41" s="89"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="104"/>
+      <c r="AB41" s="99"/>
+      <c r="AC41" s="100"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:29">
+      <c r="A42" s="15">
+        <v>39</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="I42" s="20"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="M42" s="54">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+      <c r="N42" s="73"/>
+      <c r="O42" s="55">
+        <v>33.25</v>
+      </c>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="88"/>
+      <c r="U42" s="89"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="104"/>
+      <c r="AB42" s="99"/>
+      <c r="AC42" s="100"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:29">
+      <c r="A43" s="15">
+        <v>40</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="I43" s="20"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="M43" s="54">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+      <c r="N43" s="73"/>
+      <c r="O43" s="55">
+        <v>33.25</v>
+      </c>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="88"/>
+      <c r="U43" s="89"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="104"/>
+      <c r="AB43" s="99"/>
+      <c r="AC43" s="100"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:29">
+      <c r="A44" s="15">
+        <v>41</v>
+      </c>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="M44" s="54">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+      <c r="N44" s="73"/>
+      <c r="O44" s="55">
+        <v>33.25</v>
+      </c>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="88"/>
+      <c r="U44" s="89"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="33"/>
+      <c r="Y44" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="104"/>
+      <c r="AB44" s="99"/>
+      <c r="AC44" s="100"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:29">
+      <c r="A45" s="15">
+        <v>42</v>
+      </c>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="M45" s="54">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+      <c r="N45" s="73"/>
+      <c r="O45" s="55">
+        <v>33.25</v>
+      </c>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="62"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="88"/>
+      <c r="U45" s="89"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="104"/>
+      <c r="AB45" s="99"/>
+      <c r="AC45" s="100"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:29">
+      <c r="A46" s="15">
+        <v>43</v>
+      </c>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="M46" s="54">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="N46" s="74"/>
+      <c r="O46" s="55">
+        <v>16.91</v>
+      </c>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="57"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="90"/>
+      <c r="U46" s="91"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="106"/>
+      <c r="AB46" s="99"/>
+      <c r="AC46" s="100"/>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A47" s="15">
+        <v>44</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="I47" s="20" t="str">
+        <f>VLOOKUP(B47,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J47" s="36">
+        <v>10</v>
+      </c>
+      <c r="K47" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="L47" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="M47" s="54">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="N47" s="59">
+        <f ca="1">M47*T47</f>
+        <v>3</v>
+      </c>
+      <c r="O47" s="55">
+        <v>37</v>
+      </c>
+      <c r="P47" s="68">
+        <f>O47*T47</f>
+        <v>370</v>
+      </c>
+      <c r="Q47" s="57">
+        <v>270</v>
+      </c>
+      <c r="R47" s="57">
+        <v>270</v>
+      </c>
+      <c r="S47" s="36">
         <v>1</v>
       </c>
-      <c r="U10" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="92"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:29">
-      <c r="A11" s="15">
-        <v>38</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="53">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.08</v>
-      </c>
-      <c r="N11" s="59">
-        <v>0.08</v>
-      </c>
-      <c r="O11" s="59">
-        <v>21.09</v>
-      </c>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="15">
-        <f>J9/S9</f>
+      <c r="T47" s="15">
+        <f>J47/S47</f>
+        <v>10</v>
+      </c>
+      <c r="U47" s="80" t="s">
+        <v>229</v>
+      </c>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y47" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z47" s="36">
+        <v>3400</v>
+      </c>
+      <c r="AA47" s="106">
+        <v>0.13</v>
+      </c>
+      <c r="AB47" s="100"/>
+      <c r="AC47" s="100"/>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A48" s="15">
+        <v>45</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="I48" s="20" t="str">
+        <f>VLOOKUP(B48,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J48" s="36">
+        <v>10</v>
+      </c>
+      <c r="K48" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="L48" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="M48" s="54">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.43</v>
+      </c>
+      <c r="N48" s="59">
+        <f ca="1">M48*T48</f>
+        <v>4.3</v>
+      </c>
+      <c r="O48" s="55">
+        <v>54</v>
+      </c>
+      <c r="P48" s="68">
+        <f>O48*T48</f>
+        <v>540</v>
+      </c>
+      <c r="Q48" s="57">
+        <v>440</v>
+      </c>
+      <c r="R48" s="57">
+        <v>440</v>
+      </c>
+      <c r="S48" s="36">
         <v>1</v>
       </c>
-      <c r="U11" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="91"/>
-      <c r="AC11" s="92"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:29">
-      <c r="A12" s="15">
-        <v>39</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="52" t="s">
+      <c r="T48" s="15">
+        <f>J48/S48</f>
+        <v>10</v>
+      </c>
+      <c r="U48" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y48" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z48" s="36">
+        <v>5150</v>
+      </c>
+      <c r="AA48" s="106">
+        <v>0.13</v>
+      </c>
+      <c r="AB48" s="100"/>
+      <c r="AC48" s="100"/>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A49" s="15">
+        <v>46</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="G49" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="I49" s="20" t="str">
+        <f>VLOOKUP(B49,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>AEVF4</v>
+      </c>
+      <c r="J49" s="36">
+        <v>1</v>
+      </c>
+      <c r="K49" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L49" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="M49" s="54">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="N49" s="55">
+        <f ca="1">M49*T49</f>
+        <v>0.02</v>
+      </c>
+      <c r="O49" s="56">
+        <v>15.16</v>
+      </c>
+      <c r="P49" s="57">
+        <f>O49*T49</f>
+        <v>15.16</v>
+      </c>
+      <c r="Q49" s="57">
+        <v>15</v>
+      </c>
+      <c r="R49" s="57">
+        <v>15</v>
+      </c>
+      <c r="S49" s="36">
+        <v>1</v>
+      </c>
+      <c r="T49" s="36">
+        <f>J49/S49</f>
+        <v>1</v>
+      </c>
+      <c r="U49" s="80" t="s">
+        <v>240</v>
+      </c>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y49" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z49" s="36">
+        <v>935</v>
+      </c>
+      <c r="AA49" s="106">
+        <v>0.13</v>
+      </c>
+      <c r="AB49" s="100"/>
+      <c r="AC49" s="100"/>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A50" s="15">
+        <v>47</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="I50" s="20" t="str">
+        <f>VLOOKUP(B50,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J50" s="36">
+        <v>10</v>
+      </c>
+      <c r="K50" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L50" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="M50" s="61">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="N50" s="59">
+        <f ca="1">M50*T50</f>
+        <v>0.02</v>
+      </c>
+      <c r="O50" s="60">
+        <v>5</v>
+      </c>
+      <c r="P50" s="62">
+        <f>O50*T50</f>
+        <v>5</v>
+      </c>
+      <c r="Q50" s="57">
+        <v>0.09</v>
+      </c>
+      <c r="R50" s="57">
+        <v>0.09</v>
+      </c>
+      <c r="S50" s="36">
+        <v>10</v>
+      </c>
+      <c r="T50" s="32">
+        <f>J50/S50</f>
+        <v>1</v>
+      </c>
+      <c r="U50" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y50" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z50" s="36">
+        <v>22</v>
+      </c>
+      <c r="AA50" s="106">
+        <v>0.13</v>
+      </c>
+      <c r="AB50" s="100"/>
+      <c r="AC50" s="100"/>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A51" s="15">
+        <v>48</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="G51" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="M12" s="53">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.08</v>
-      </c>
-      <c r="N12" s="59">
-        <v>0.08</v>
-      </c>
-      <c r="O12" s="59">
-        <v>33.25</v>
-      </c>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="15">
-        <f>J9/S9</f>
+      <c r="H51" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="I51" s="20" t="str">
+        <f>VLOOKUP(B51,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>TG-205A-FU</v>
+      </c>
+      <c r="J51" s="36">
+        <v>5</v>
+      </c>
+      <c r="K51" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L51" s="76"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="R51" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="S51" s="36">
+        <v>5</v>
+      </c>
+      <c r="T51" s="32"/>
+      <c r="U51" s="83"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y51" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z51" s="36">
+        <v>350</v>
+      </c>
+      <c r="AA51" s="106">
+        <v>0.13</v>
+      </c>
+      <c r="AB51" s="100"/>
+      <c r="AC51" s="100"/>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A52" s="15">
+        <v>49</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="I52" s="20" t="str">
+        <f>VLOOKUP(B52,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>LS1D-01033</v>
+      </c>
+      <c r="J52" s="36">
+        <v>500</v>
+      </c>
+      <c r="K52" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L52" s="76"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="57">
+        <v>4.5</v>
+      </c>
+      <c r="R52" s="57">
+        <v>4.5</v>
+      </c>
+      <c r="S52" s="36">
+        <v>500</v>
+      </c>
+      <c r="T52" s="32"/>
+      <c r="U52" s="83"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y52" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z52" s="36">
+        <v>8</v>
+      </c>
+      <c r="AA52" s="106">
+        <v>0.13</v>
+      </c>
+      <c r="AB52" s="100"/>
+      <c r="AC52" s="100"/>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A53" s="15">
+        <v>50</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="I53" s="20" t="str">
+        <f>VLOOKUP(B53,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J53" s="36">
+        <v>4</v>
+      </c>
+      <c r="K53" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L53" s="76"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="R53" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="S53" s="36">
+        <v>4</v>
+      </c>
+      <c r="T53" s="32"/>
+      <c r="U53" s="83"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y53" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z53" s="36">
+        <v>110</v>
+      </c>
+      <c r="AA53" s="106">
+        <v>0.13</v>
+      </c>
+      <c r="AB53" s="100"/>
+      <c r="AC53" s="100"/>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A54" s="15">
+        <v>51</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="G54" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="I54" s="20" t="str">
+        <f>VLOOKUP(B54,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J54" s="36">
+        <v>5</v>
+      </c>
+      <c r="K54" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L54" s="76"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="R54" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="S54" s="36">
+        <v>5</v>
+      </c>
+      <c r="T54" s="32"/>
+      <c r="U54" s="83"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y54" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z54" s="36">
+        <v>186.45</v>
+      </c>
+      <c r="AA54" s="106">
+        <v>0.13</v>
+      </c>
+      <c r="AB54" s="100"/>
+      <c r="AC54" s="100"/>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A55" s="15">
+        <v>52</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="G55" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="H55" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="I55" s="20" t="str">
+        <f>VLOOKUP(B55,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>KYB-M7027-001</v>
+      </c>
+      <c r="J55" s="36">
+        <v>2</v>
+      </c>
+      <c r="K55" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L55" s="76"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="R55" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="S55" s="36">
+        <v>2</v>
+      </c>
+      <c r="T55" s="32"/>
+      <c r="U55" s="83"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y55" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z55" s="107">
+        <v>4950</v>
+      </c>
+      <c r="AA55" s="106">
+        <v>0.01</v>
+      </c>
+      <c r="AB55" s="100"/>
+      <c r="AC55" s="100"/>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A56" s="15">
+        <v>53</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="G56" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="I56" s="20" t="str">
+        <f>VLOOKUP(B56,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J56" s="36">
+        <v>10</v>
+      </c>
+      <c r="K56" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L56" s="76"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="60"/>
+      <c r="O56" s="60"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="57">
+        <v>0.09</v>
+      </c>
+      <c r="R56" s="57">
+        <v>0.09</v>
+      </c>
+      <c r="S56" s="36">
+        <v>10</v>
+      </c>
+      <c r="T56" s="32"/>
+      <c r="U56" s="83"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y56" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z56" s="36">
+        <v>6.5</v>
+      </c>
+      <c r="AA56" s="106">
+        <v>0.13</v>
+      </c>
+      <c r="AB56" s="100"/>
+      <c r="AC56" s="100"/>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A57" s="15">
+        <v>54</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="G57" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="I57" s="20" t="str">
+        <f>VLOOKUP(B57,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J57" s="36">
+        <v>10</v>
+      </c>
+      <c r="K57" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L57" s="76"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="57">
+        <v>0.09</v>
+      </c>
+      <c r="R57" s="57">
+        <v>0.09</v>
+      </c>
+      <c r="S57" s="36">
+        <v>10</v>
+      </c>
+      <c r="T57" s="32"/>
+      <c r="U57" s="83"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y57" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z57" s="36">
+        <v>6.5</v>
+      </c>
+      <c r="AA57" s="106">
+        <v>0.13</v>
+      </c>
+      <c r="AB57" s="100"/>
+      <c r="AC57" s="100"/>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A58" s="15">
+        <v>55</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="G58" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="I58" s="20" t="str">
+        <f>VLOOKUP(B58,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J58" s="36">
+        <v>2</v>
+      </c>
+      <c r="K58" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L58" s="76"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="60"/>
+      <c r="O58" s="60"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="R58" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="S58" s="36">
+        <v>2</v>
+      </c>
+      <c r="T58" s="32"/>
+      <c r="U58" s="83"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y58" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z58" s="36">
+        <v>220</v>
+      </c>
+      <c r="AA58" s="106">
+        <v>0.13</v>
+      </c>
+      <c r="AB58" s="100"/>
+      <c r="AC58" s="100"/>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A59" s="15">
+        <v>56</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="C59" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="G59" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="I59" s="20" t="str">
+        <f>VLOOKUP(B59,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J59" s="36">
+        <v>2</v>
+      </c>
+      <c r="K59" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L59" s="76"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="60"/>
+      <c r="O59" s="60"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="R59" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="S59" s="36">
+        <v>2</v>
+      </c>
+      <c r="T59" s="32"/>
+      <c r="U59" s="83"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y59" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z59" s="36">
+        <v>220</v>
+      </c>
+      <c r="AA59" s="106">
+        <v>0.13</v>
+      </c>
+      <c r="AB59" s="100"/>
+      <c r="AC59" s="100"/>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A60" s="15">
+        <v>57</v>
+      </c>
+      <c r="B60" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="C60" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="G60" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="I60" s="20" t="str">
+        <f>VLOOKUP(B60,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J60" s="36">
+        <v>2</v>
+      </c>
+      <c r="K60" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L60" s="76"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="R60" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="S60" s="36">
+        <v>2</v>
+      </c>
+      <c r="T60" s="32"/>
+      <c r="U60" s="83"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="15"/>
+      <c r="X60" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y60" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z60" s="36">
+        <v>220</v>
+      </c>
+      <c r="AA60" s="106">
+        <v>0.13</v>
+      </c>
+      <c r="AB60" s="100"/>
+      <c r="AC60" s="100"/>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A61" s="15">
+        <v>58</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="G61" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="I61" s="20" t="str">
+        <f>VLOOKUP(B61,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J61" s="36">
+        <v>2</v>
+      </c>
+      <c r="K61" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L61" s="77"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="R61" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="S61" s="36">
+        <v>2</v>
+      </c>
+      <c r="T61" s="36"/>
+      <c r="U61" s="84"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y61" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z61" s="36">
+        <v>220</v>
+      </c>
+      <c r="AA61" s="106">
+        <v>0.13</v>
+      </c>
+      <c r="AB61" s="100"/>
+      <c r="AC61" s="100"/>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A62" s="15">
+        <v>59</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="G62" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="I62" s="20" t="str">
+        <f>VLOOKUP(B62,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J62" s="36">
+        <v>2</v>
+      </c>
+      <c r="K62" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L62" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="M62" s="61">
+        <f ca="1">ROUND(EVALUATE(L62)*1000*0.000000001,2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="N62" s="59">
+        <f ca="1">M62*T62</f>
+        <v>0.05</v>
+      </c>
+      <c r="O62" s="60">
+        <v>9</v>
+      </c>
+      <c r="P62" s="62">
+        <f>O62*T62</f>
+        <v>9</v>
+      </c>
+      <c r="Q62" s="57">
+        <v>4.2</v>
+      </c>
+      <c r="R62" s="57">
+        <v>4.2</v>
+      </c>
+      <c r="S62" s="36">
+        <v>2</v>
+      </c>
+      <c r="T62" s="32">
+        <f>J62/S62</f>
         <v>1</v>
       </c>
-      <c r="U12" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="91"/>
-      <c r="AC12" s="92"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:29">
-      <c r="A13" s="15">
-        <v>40</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="M13" s="53">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.08</v>
-      </c>
-      <c r="N13" s="59">
-        <v>0.08</v>
-      </c>
-      <c r="O13" s="59">
-        <v>33.25</v>
-      </c>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="15">
-        <f>J9/S9</f>
-        <v>1</v>
-      </c>
-      <c r="U13" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="91"/>
-      <c r="AC13" s="92"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:29">
-      <c r="A14" s="15">
-        <v>41</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="M14" s="53">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.08</v>
-      </c>
-      <c r="N14" s="59">
-        <v>0.08</v>
-      </c>
-      <c r="O14" s="59">
-        <v>33.25</v>
-      </c>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="15">
-        <f>J9/S9</f>
-        <v>1</v>
-      </c>
-      <c r="U14" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="91"/>
-      <c r="AC14" s="92"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:29">
-      <c r="A15" s="15">
-        <v>42</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="M15" s="53">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.08</v>
-      </c>
-      <c r="N15" s="59">
-        <v>0.08</v>
-      </c>
-      <c r="O15" s="59">
-        <v>33.25</v>
-      </c>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="15">
-        <f>J9/S9</f>
-        <v>1</v>
-      </c>
-      <c r="U15" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="91"/>
-      <c r="AC15" s="92"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:29">
-      <c r="A16" s="15">
-        <v>43</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="M16" s="53">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="N16" s="59">
-        <v>0.04</v>
-      </c>
-      <c r="O16" s="59">
-        <v>16.91</v>
-      </c>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="15">
-        <f>J9/S9</f>
-        <v>1</v>
-      </c>
-      <c r="U16" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="98"/>
-      <c r="AB16" s="91"/>
-      <c r="AC16" s="92"/>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A17" s="15">
-        <v>44</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" s="21" t="str">
-        <f>VLOOKUP(B17,[1]CXCI2025012201!$B:$D,3,0)</f>
+      <c r="U62" s="82" t="s">
+        <v>288</v>
+      </c>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y62" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z62" s="36">
+        <v>328</v>
+      </c>
+      <c r="AA62" s="106">
+        <v>0.13</v>
+      </c>
+      <c r="AB62" s="100"/>
+      <c r="AC62" s="100"/>
+    </row>
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A63" s="15">
+        <v>60</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="C63" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="G63" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I63" s="20" t="str">
+        <f>VLOOKUP(B63,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J17" s="29">
-        <v>10</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="M17" s="53">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="N17" s="56">
-        <f ca="1">M17*T17</f>
-        <v>3</v>
-      </c>
-      <c r="O17" s="57">
-        <v>37</v>
-      </c>
-      <c r="P17" s="55">
-        <f>O17*T17</f>
-        <v>370</v>
-      </c>
-      <c r="Q17" s="67">
-        <v>270</v>
-      </c>
-      <c r="R17" s="63">
-        <v>270</v>
-      </c>
-      <c r="S17" s="29">
-        <v>1</v>
-      </c>
-      <c r="T17" s="15">
-        <f>J17/S17</f>
-        <v>10</v>
-      </c>
-      <c r="U17" s="76" t="s">
-        <v>122</v>
-      </c>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y17" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z17" s="29">
-        <v>3400</v>
-      </c>
-      <c r="AA17" s="98">
+      <c r="J63" s="36">
+        <v>2</v>
+      </c>
+      <c r="K63" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L63" s="77"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57">
+        <v>4</v>
+      </c>
+      <c r="R63" s="57">
+        <v>4</v>
+      </c>
+      <c r="S63" s="36">
+        <v>2</v>
+      </c>
+      <c r="T63" s="36"/>
+      <c r="U63" s="84"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y63" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z63" s="36">
+        <v>328</v>
+      </c>
+      <c r="AA63" s="106">
         <v>0.13</v>
       </c>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="92"/>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A18" s="15">
-        <v>45</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="21" t="str">
-        <f>VLOOKUP(B18,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
-      </c>
-      <c r="J18" s="29">
-        <v>10</v>
-      </c>
-      <c r="K18" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="M18" s="53">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.43</v>
-      </c>
-      <c r="N18" s="56">
-        <f ca="1">M18*T18</f>
-        <v>4.3</v>
-      </c>
-      <c r="O18" s="57">
-        <v>54</v>
-      </c>
-      <c r="P18" s="55">
-        <f>O18*T18</f>
-        <v>540</v>
-      </c>
-      <c r="Q18" s="67">
-        <v>440</v>
-      </c>
-      <c r="R18" s="63">
-        <v>440</v>
-      </c>
-      <c r="S18" s="29">
-        <v>1</v>
-      </c>
-      <c r="T18" s="15">
-        <f>J18/S18</f>
-        <v>10</v>
-      </c>
-      <c r="U18" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y18" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z18" s="29">
-        <v>5150</v>
-      </c>
-      <c r="AA18" s="98">
-        <v>0.13</v>
-      </c>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="92"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:29">
-      <c r="A19" s="15"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="51">
-        <f>SUM(J4:J18)</f>
-        <v>4872</v>
-      </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="51">
-        <f ca="1">SUM(N4:N18)</f>
-        <v>18.01</v>
-      </c>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51">
-        <f>SUM(P4:P18)</f>
-        <v>3255.76</v>
-      </c>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="51">
-        <f>SUM(R4:R18)</f>
-        <v>3045.2</v>
-      </c>
-      <c r="S19" s="52"/>
-      <c r="T19" s="51">
-        <f>SUM(T4:T18)</f>
-        <v>155</v>
-      </c>
-      <c r="U19" s="83"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="91"/>
-      <c r="AC19" s="92"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:27">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="100"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:27">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="2"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="100"/>
-    </row>
-    <row r="22" customHeight="1" spans="26:27">
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="100"/>
-    </row>
-    <row r="23" customHeight="1" spans="26:27">
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="100"/>
-    </row>
-    <row r="24" customHeight="1" spans="26:27">
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="100"/>
-    </row>
-    <row r="25" customHeight="1" spans="26:27">
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="100"/>
-    </row>
-    <row r="26" customHeight="1" spans="26:27">
-      <c r="Z26" s="99"/>
-      <c r="AA26" s="100"/>
-    </row>
-    <row r="27" customHeight="1" spans="26:27">
-      <c r="Z27" s="99"/>
-      <c r="AA27" s="100"/>
-    </row>
-    <row r="28" customHeight="1" spans="26:27">
-      <c r="Z28" s="99"/>
-      <c r="AA28" s="100"/>
-    </row>
-    <row r="29" customHeight="1" spans="26:27">
-      <c r="Z29" s="99"/>
-      <c r="AA29" s="100"/>
-    </row>
-    <row r="30" customHeight="1" spans="26:27">
-      <c r="Z30" s="99"/>
-      <c r="AA30" s="100"/>
-    </row>
-    <row r="31" customHeight="1" spans="26:27">
-      <c r="Z31" s="99"/>
-      <c r="AA31" s="100"/>
-    </row>
-    <row r="32" customHeight="1" spans="26:27">
-      <c r="Z32" s="99"/>
-      <c r="AA32" s="100"/>
-    </row>
-    <row r="33" customHeight="1" spans="26:27">
-      <c r="Z33" s="99"/>
-      <c r="AA33" s="100"/>
-    </row>
-    <row r="34" customHeight="1" spans="26:27">
-      <c r="Z34" s="99"/>
-      <c r="AA34" s="100"/>
-    </row>
-    <row r="35" customHeight="1" spans="26:27">
-      <c r="Z35" s="99"/>
-      <c r="AA35" s="100"/>
-    </row>
-    <row r="36" customHeight="1" spans="26:27">
-      <c r="Z36" s="99"/>
-      <c r="AA36" s="100"/>
+      <c r="AB63" s="100"/>
+      <c r="AC63" s="100"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:29">
+      <c r="A64" s="15"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="66">
+        <f>SUM(J4:J63)</f>
+        <v>9506</v>
+      </c>
+      <c r="K64" s="36"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="66">
+        <f ca="1">SUM(N4:N63)</f>
+        <v>18.36</v>
+      </c>
+      <c r="O64" s="66"/>
+      <c r="P64" s="66">
+        <f>SUM(P4:P63)</f>
+        <v>3374.84</v>
+      </c>
+      <c r="Q64" s="92"/>
+      <c r="R64" s="66">
+        <f>SUM(R4:R63)</f>
+        <v>3156.66</v>
+      </c>
+      <c r="S64" s="67"/>
+      <c r="T64" s="66">
+        <f>SUM(T4:T63)</f>
+        <v>168</v>
+      </c>
+      <c r="U64" s="93"/>
+      <c r="V64" s="85"/>
+      <c r="W64" s="85"/>
+      <c r="X64" s="94"/>
+      <c r="Y64" s="67"/>
+      <c r="Z64" s="98"/>
+      <c r="AA64" s="97"/>
+      <c r="AB64" s="99"/>
+      <c r="AC64" s="100"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:27">
+      <c r="A65" s="108"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="109"/>
+      <c r="D65" s="110"/>
+      <c r="E65" s="110"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="112"/>
+      <c r="H65" s="112"/>
+      <c r="I65" s="114"/>
+      <c r="J65" s="115"/>
+      <c r="K65" s="108"/>
+      <c r="L65" s="116"/>
+      <c r="M65" s="117"/>
+      <c r="N65" s="117"/>
+      <c r="O65" s="117"/>
+      <c r="P65" s="118"/>
+      <c r="Q65" s="118"/>
+      <c r="R65" s="108"/>
+      <c r="S65" s="108"/>
+      <c r="T65" s="108"/>
+      <c r="U65" s="120"/>
+      <c r="V65" s="121"/>
+      <c r="W65" s="121"/>
+      <c r="X65" s="116"/>
+      <c r="Y65" s="116"/>
+      <c r="Z65" s="122"/>
+      <c r="AA65" s="123"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:27">
+      <c r="A66" s="108"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="108"/>
+      <c r="D66" s="108"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="113"/>
+      <c r="G66" s="108"/>
+      <c r="H66" s="108"/>
+      <c r="I66" s="108"/>
+      <c r="J66" s="2"/>
+      <c r="P66" s="119"/>
+      <c r="Q66" s="119"/>
+      <c r="Z66" s="122"/>
+      <c r="AA66" s="123"/>
+    </row>
+    <row r="67" customHeight="1" spans="26:27">
+      <c r="Z67" s="122"/>
+      <c r="AA67" s="123"/>
+    </row>
+    <row r="68" customHeight="1" spans="26:27">
+      <c r="Z68" s="122"/>
+      <c r="AA68" s="123"/>
+    </row>
+    <row r="69" customHeight="1" spans="26:27">
+      <c r="Z69" s="122"/>
+      <c r="AA69" s="123"/>
+    </row>
+    <row r="70" customHeight="1" spans="26:27">
+      <c r="Z70" s="122"/>
+      <c r="AA70" s="123"/>
+    </row>
+    <row r="71" customHeight="1" spans="26:27">
+      <c r="Z71" s="122"/>
+      <c r="AA71" s="123"/>
+    </row>
+    <row r="72" customHeight="1" spans="26:27">
+      <c r="Z72" s="122"/>
+      <c r="AA72" s="123"/>
+    </row>
+    <row r="73" customHeight="1" spans="26:27">
+      <c r="Z73" s="122"/>
+      <c r="AA73" s="123"/>
+    </row>
+    <row r="74" customHeight="1" spans="26:27">
+      <c r="Z74" s="122"/>
+      <c r="AA74" s="123"/>
+    </row>
+    <row r="75" customHeight="1" spans="26:27">
+      <c r="Z75" s="122"/>
+      <c r="AA75" s="123"/>
+    </row>
+    <row r="76" customHeight="1" spans="26:27">
+      <c r="Z76" s="122"/>
+      <c r="AA76" s="123"/>
+    </row>
+    <row r="77" customHeight="1" spans="26:27">
+      <c r="Z77" s="122"/>
+      <c r="AA77" s="123"/>
+    </row>
+    <row r="78" customHeight="1" spans="26:27">
+      <c r="Z78" s="122"/>
+      <c r="AA78" s="123"/>
+    </row>
+    <row r="79" customHeight="1" spans="26:27">
+      <c r="Z79" s="122"/>
+      <c r="AA79" s="123"/>
+    </row>
+    <row r="80" customHeight="1" spans="26:27">
+      <c r="Z80" s="122"/>
+      <c r="AA80" s="123"/>
+    </row>
+    <row r="81" customHeight="1" spans="26:27">
+      <c r="Z81" s="122"/>
+      <c r="AA81" s="123"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="F9:F16"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G9:G16"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J9:J16"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="K9:K16"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="P9:P16"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="Q9:Q16"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="R9:R16"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="S9:S16"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="X9:X16"/>
-    <mergeCell ref="Z6:Z8"/>
-    <mergeCell ref="Z9:Z16"/>
-    <mergeCell ref="AA6:AA8"/>
-    <mergeCell ref="AA9:AA16"/>
-    <mergeCell ref="AB6:AB8"/>
+  <mergeCells count="93">
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D39:D46"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E39:E46"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="F39:F46"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G39:G46"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="J39:J46"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="K39:K46"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L15:L21"/>
+    <mergeCell ref="L22:L30"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="L50:L61"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M15:M21"/>
+    <mergeCell ref="M22:M30"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M50:M61"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N15:N21"/>
+    <mergeCell ref="N22:N30"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="N39:N46"/>
+    <mergeCell ref="N50:N61"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O15:O21"/>
+    <mergeCell ref="O22:O30"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O50:O61"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="P15:P21"/>
+    <mergeCell ref="P22:P30"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="P39:P46"/>
+    <mergeCell ref="P50:P61"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q35:Q37"/>
+    <mergeCell ref="Q39:Q46"/>
+    <mergeCell ref="R35:R37"/>
+    <mergeCell ref="R39:R46"/>
+    <mergeCell ref="S35:S37"/>
+    <mergeCell ref="S39:S46"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="T15:T21"/>
+    <mergeCell ref="T22:T30"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="T39:T46"/>
+    <mergeCell ref="T50:T61"/>
+    <mergeCell ref="T62:T63"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="U15:U21"/>
+    <mergeCell ref="U22:U30"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="U35:U37"/>
+    <mergeCell ref="U39:U46"/>
+    <mergeCell ref="U50:U61"/>
+    <mergeCell ref="U62:U63"/>
+    <mergeCell ref="X35:X37"/>
+    <mergeCell ref="X39:X46"/>
+    <mergeCell ref="Z35:Z37"/>
+    <mergeCell ref="Z39:Z46"/>
+    <mergeCell ref="AA35:AA37"/>
+    <mergeCell ref="AA39:AA46"/>
+    <mergeCell ref="AB35:AB37"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C2">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -3988,14 +7833,20 @@
   <conditionalFormatting sqref="B3:C3">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C65477">
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:C65522 B4:B6 B9:B30">
     <cfRule type="duplicateValues" dxfId="0" priority="74"/>
   </conditionalFormatting>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="O4" numberStoredAsText="1"/>
+    <ignoredError sqref="O31" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/testfiles/original_packing_list.xlsx
+++ b/testfiles/original_packing_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="495"/>
+    <workbookView windowWidth="24750" windowHeight="11630" tabRatio="495"/>
   </bookViews>
   <sheets>
     <sheet name="装箱单模版-2025年更新" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'装箱单模版-2025年更新'!$A$3:$AC$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'装箱单模版-2025年更新'!$A$2:$AC$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'装箱单模版-2025年更新'!$A$3:$Y$64</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'装箱单模版-2025年更新'!$3:$3</definedName>
   </definedNames>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="296">
   <si>
     <t>采购装箱单</t>
   </si>
@@ -280,7 +280,7 @@
     <t>SMT工厂月度辅耗材</t>
   </si>
   <si>
-    <t>Silvassa</t>
+    <t>Daman</t>
   </si>
   <si>
     <t>Milling cutter</t>
@@ -310,9 +310,6 @@
     <t>智梅尔克</t>
   </si>
   <si>
-    <t>SMT工厂设备配件</t>
-  </si>
-  <si>
     <t>Infrared heating tube-length：630mm,110V-500W</t>
   </si>
   <si>
@@ -433,12 +430,6 @@
     <t>工铭</t>
   </si>
   <si>
-    <t>组装厂月度辅耗材</t>
-  </si>
-  <si>
-    <t>Daman</t>
-  </si>
-  <si>
     <t>Airtight valve</t>
   </si>
   <si>
@@ -628,9 +619,6 @@
     <t>浦洛</t>
   </si>
   <si>
-    <t>TP-LINK</t>
-  </si>
-  <si>
     <t>Socket-For program machine-AT-TSSOP20-CMS</t>
   </si>
   <si>
@@ -664,9 +652,6 @@
     <t>宇思</t>
   </si>
   <si>
-    <t>麦格米特</t>
-  </si>
-  <si>
     <t>Bracket-3m*45cm</t>
   </si>
   <si>
@@ -685,7 +670,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>F134-F136</t>
+    <t>F134</t>
   </si>
   <si>
     <t>配件都在这里</t>
@@ -697,12 +682,18 @@
     <t>194*13*13</t>
   </si>
   <si>
+    <t>F135</t>
+  </si>
+  <si>
     <t>铝管</t>
   </si>
   <si>
     <t>191.5*22*13</t>
   </si>
   <si>
+    <t>F136</t>
+  </si>
+  <si>
     <t>J100.031003005</t>
   </si>
   <si>
@@ -742,7 +733,7 @@
     <t>30*24*16</t>
   </si>
   <si>
-    <t>F138-F145</t>
+    <t>F138</t>
   </si>
   <si>
     <t>铝材*30条</t>
@@ -751,19 +742,40 @@
     <t>310*19*14</t>
   </si>
   <si>
+    <t>F139</t>
+  </si>
+  <si>
     <t>铝材*21条</t>
   </si>
   <si>
+    <t>F140</t>
+  </si>
+  <si>
     <t>板*4块</t>
   </si>
   <si>
     <t>155*53*10</t>
   </si>
   <si>
+    <t>F141</t>
+  </si>
+  <si>
+    <t>F142</t>
+  </si>
+  <si>
+    <t>F143</t>
+  </si>
+  <si>
+    <t>F144</t>
+  </si>
+  <si>
     <t>板*2块</t>
   </si>
   <si>
     <t>155*52*50</t>
+  </si>
+  <si>
+    <t>F145</t>
   </si>
   <si>
     <t>E100.E17-003-01-00</t>
@@ -1751,7 +1763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="115">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1815,152 +1827,152 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2001,19 +2013,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2057,30 +2057,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3173,10 +3149,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="T39" sqref="T39:T46"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6272727272727" defaultRowHeight="30" customHeight="1"/>
@@ -3266,7 +3242,7 @@
       <c r="H2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="49" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="15" t="s">
@@ -3278,31 +3254,31 @@
       <c r="L2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="79" t="s">
+      <c r="R2" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="S2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="53" t="s">
+      <c r="T2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="80" t="s">
+      <c r="U2" s="77" t="s">
         <v>24</v>
       </c>
       <c r="V2" s="17" t="s">
@@ -3311,16 +3287,16 @@
       <c r="W2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="81" t="s">
+      <c r="X2" s="78" t="s">
         <v>27</v>
       </c>
       <c r="Y2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="95" t="s">
+      <c r="Z2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="96" t="s">
+      <c r="AA2" s="87" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3349,7 +3325,7 @@
       <c r="H3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="49" t="s">
         <v>39</v>
       </c>
       <c r="J3" s="15" t="s">
@@ -3361,31 +3337,31 @@
       <c r="L3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="52" t="s">
+      <c r="M3" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="N3" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="O3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="53" t="s">
+      <c r="P3" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="53" t="s">
+      <c r="Q3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="79" t="s">
+      <c r="R3" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="53" t="s">
+      <c r="T3" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="80" t="s">
+      <c r="U3" s="77" t="s">
         <v>51</v>
       </c>
       <c r="V3" s="17" t="s">
@@ -3394,16 +3370,16 @@
       <c r="W3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="81" t="s">
+      <c r="X3" s="78" t="s">
         <v>54</v>
       </c>
       <c r="Y3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="95" t="s">
+      <c r="Z3" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" s="96" t="s">
+      <c r="AA3" s="87" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3420,19 +3396,19 @@
       <c r="D4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>61</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>63</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="20" t="str">
+      <c r="I4" s="49" t="str">
         <f>VLOOKUP(B4,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
@@ -3442,52 +3418,52 @@
       <c r="K4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="54">
+      <c r="M4" s="52">
         <f ca="1" t="shared" ref="M4:M9" si="0">ROUND(EVALUATE(L4)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N4" s="55">
+      <c r="N4" s="53">
         <f ca="1">M4*T4</f>
         <v>0.01</v>
       </c>
-      <c r="O4" s="56">
+      <c r="O4" s="54">
         <v>2.8</v>
       </c>
-      <c r="P4" s="57">
+      <c r="P4" s="55">
         <f>O4*T4</f>
         <v>2.8</v>
       </c>
-      <c r="Q4" s="57">
+      <c r="Q4" s="55">
         <v>2.6</v>
       </c>
-      <c r="R4" s="57">
+      <c r="R4" s="55">
         <v>2.6</v>
       </c>
-      <c r="S4" s="36">
+      <c r="S4" s="34">
         <v>500</v>
       </c>
-      <c r="T4" s="36">
+      <c r="T4" s="34">
         <f>J4/S4</f>
         <v>1</v>
       </c>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20" t="s">
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y4" s="20" t="s">
+      <c r="Y4" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z4" s="15">
         <v>5</v>
       </c>
-      <c r="AA4" s="97">
+      <c r="AA4" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -3498,25 +3474,25 @@
       <c r="B5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>73</v>
-      </c>
       <c r="H5" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="20" t="str">
+        <v>72</v>
+      </c>
+      <c r="I5" s="49" t="str">
         <f>VLOOKUP(B5,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
@@ -3526,28 +3502,28 @@
       <c r="K5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" s="59">
+      <c r="L5" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="57">
         <f ca="1" t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="N5" s="59">
+      <c r="N5" s="57">
         <f ca="1">M5*T5</f>
         <v>0.04</v>
       </c>
-      <c r="O5" s="60">
+      <c r="O5" s="58">
         <v>2.04</v>
       </c>
-      <c r="P5" s="59">
+      <c r="P5" s="57">
         <f t="shared" ref="P4:P5" si="1">O5*T5</f>
         <v>2.04</v>
       </c>
-      <c r="Q5" s="57">
+      <c r="Q5" s="55">
         <v>1.1</v>
       </c>
-      <c r="R5" s="57">
+      <c r="R5" s="55">
         <v>1.1</v>
       </c>
       <c r="S5" s="15">
@@ -3557,21 +3533,21 @@
         <f>J5/S5</f>
         <v>1</v>
       </c>
-      <c r="U5" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20" t="s">
+      <c r="U5" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y5" s="20" t="s">
+      <c r="Y5" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z5" s="15">
         <v>110</v>
       </c>
-      <c r="AA5" s="97">
+      <c r="AA5" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -3580,27 +3556,27 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="H6" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="20" t="str">
+      <c r="I6" s="49" t="str">
         <f>VLOOKUP(B6,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>12-14</v>
       </c>
@@ -3610,34 +3586,34 @@
       <c r="K6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="57">
+      <c r="L6" s="59"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="55">
         <v>0.5</v>
       </c>
-      <c r="R6" s="57">
+      <c r="R6" s="55">
         <v>0.5</v>
       </c>
       <c r="S6" s="15">
         <v>2</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20" t="s">
+      <c r="T6" s="31"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y6" s="20" t="s">
+      <c r="Y6" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z6" s="15">
         <v>78</v>
       </c>
-      <c r="AA6" s="97">
+      <c r="AA6" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -3646,27 +3622,27 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="20" t="str">
+      <c r="I7" s="49" t="str">
         <f>VLOOKUP(B7,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>8-14</v>
       </c>
@@ -3676,34 +3652,34 @@
       <c r="K7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="57">
+      <c r="L7" s="60"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55">
         <v>0.2</v>
       </c>
-      <c r="R7" s="57">
+      <c r="R7" s="55">
         <v>0.2</v>
       </c>
       <c r="S7" s="15">
         <v>1</v>
       </c>
-      <c r="T7" s="36"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20" t="s">
+      <c r="T7" s="34"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y7" s="20" t="s">
+      <c r="Y7" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z7" s="15">
         <v>78</v>
       </c>
-      <c r="AA7" s="97">
+      <c r="AA7" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -3714,25 +3690,25 @@
       <c r="B8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="18" t="s">
+      <c r="G8" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="21" t="s">
-        <v>73</v>
-      </c>
       <c r="H8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="20" t="str">
+        <v>72</v>
+      </c>
+      <c r="I8" s="49" t="str">
         <f>VLOOKUP(B8,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
@@ -3742,28 +3718,28 @@
       <c r="K8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="54">
+      <c r="L8" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="52">
         <f ca="1" t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="N8" s="59">
+      <c r="N8" s="57">
         <f ca="1">M8*T8</f>
         <v>0.04</v>
       </c>
-      <c r="O8" s="55">
+      <c r="O8" s="53">
         <v>1.88</v>
       </c>
-      <c r="P8" s="55">
+      <c r="P8" s="53">
         <f>O8*T8</f>
         <v>1.88</v>
       </c>
-      <c r="Q8" s="57">
+      <c r="Q8" s="55">
         <v>1.55</v>
       </c>
-      <c r="R8" s="57">
+      <c r="R8" s="55">
         <v>1.55</v>
       </c>
       <c r="S8" s="15">
@@ -3773,21 +3749,21 @@
         <f>J8/S8</f>
         <v>1</v>
       </c>
-      <c r="U8" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20" t="s">
+      <c r="U8" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y8" s="20" t="s">
+      <c r="Y8" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z8" s="15">
         <v>110</v>
       </c>
-      <c r="AA8" s="97">
+      <c r="AA8" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -3796,27 +3772,27 @@
         <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="G9" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>87</v>
-      </c>
       <c r="H9" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="20" t="str">
+        <v>86</v>
+      </c>
+      <c r="I9" s="49" t="str">
         <f>VLOOKUP(B9,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>QLDZ.0014</v>
       </c>
@@ -3826,52 +3802,52 @@
       <c r="K9" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="58" t="s">
-        <v>88</v>
+      <c r="L9" s="56" t="s">
+        <v>87</v>
       </c>
       <c r="M9" s="61">
         <f ca="1" t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="N9" s="59">
+      <c r="N9" s="57">
         <f ca="1">M9*T9</f>
         <v>0.01</v>
       </c>
-      <c r="O9" s="60">
+      <c r="O9" s="58">
         <v>4.3</v>
       </c>
       <c r="P9" s="62">
         <f>O9*T9</f>
         <v>4.3</v>
       </c>
-      <c r="Q9" s="57">
+      <c r="Q9" s="55">
         <v>2</v>
       </c>
-      <c r="R9" s="57">
+      <c r="R9" s="55">
         <v>2</v>
       </c>
       <c r="S9" s="15">
         <v>100</v>
       </c>
-      <c r="T9" s="32">
+      <c r="T9" s="31">
         <f>J9/S9</f>
         <v>1</v>
       </c>
-      <c r="U9" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20" t="s">
+      <c r="U9" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y9" s="20" t="s">
+      <c r="Y9" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z9" s="15">
         <v>22.6</v>
       </c>
-      <c r="AA9" s="97">
+      <c r="AA9" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -3880,27 +3856,27 @@
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>91</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="15" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="H10" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="20" t="str">
+      <c r="I10" s="49" t="str">
         <f>VLOOKUP(B10,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>N510059196AA</v>
       </c>
@@ -3910,34 +3886,34 @@
       <c r="K10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="37"/>
+      <c r="L10" s="60"/>
       <c r="M10" s="63"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57">
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55">
         <v>2.1</v>
       </c>
-      <c r="R10" s="57">
+      <c r="R10" s="55">
         <v>2.1</v>
       </c>
       <c r="S10" s="15">
         <v>137</v>
       </c>
-      <c r="T10" s="36"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="37" t="s">
+      <c r="T10" s="34"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y10" s="20" t="s">
+      <c r="Y10" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z10" s="15">
         <v>0.8</v>
       </c>
-      <c r="AA10" s="97">
+      <c r="AA10" s="88">
         <v>0.01</v>
       </c>
     </row>
@@ -3946,27 +3922,27 @@
         <v>8</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="H11" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="20" t="str">
+      <c r="I11" s="49" t="str">
         <f>VLOOKUP(B11,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>FA2P5N1W20360133</v>
       </c>
@@ -3976,28 +3952,28 @@
       <c r="K11" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="58" t="s">
-        <v>100</v>
+      <c r="L11" s="56" t="s">
+        <v>99</v>
       </c>
       <c r="M11" s="61">
         <f ca="1">ROUND(EVALUATE(L11)*1000*0.000000001,2)</f>
         <v>0.02</v>
       </c>
-      <c r="N11" s="59">
+      <c r="N11" s="57">
         <f ca="1">M11*T11</f>
         <v>0.02</v>
       </c>
-      <c r="O11" s="60">
+      <c r="O11" s="58">
         <v>14</v>
       </c>
       <c r="P11" s="62">
         <f>O11*T11</f>
         <v>14</v>
       </c>
-      <c r="Q11" s="57">
+      <c r="Q11" s="55">
         <v>3</v>
       </c>
-      <c r="R11" s="57">
+      <c r="R11" s="55">
         <v>3</v>
       </c>
       <c r="S11" s="15">
@@ -4007,21 +3983,21 @@
         <f>J11/S11</f>
         <v>1</v>
       </c>
-      <c r="U11" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20" t="s">
+      <c r="U11" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y11" s="20" t="s">
+      <c r="Y11" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z11" s="15">
         <v>1140</v>
       </c>
-      <c r="AA11" s="97">
+      <c r="AA11" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -4030,27 +4006,27 @@
         <v>9</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="G12" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="H12" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="20" t="str">
+      <c r="I12" s="49" t="str">
         <f>VLOOKUP(B12,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>STM86118S</v>
       </c>
@@ -4060,34 +4036,34 @@
       <c r="K12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="33"/>
+      <c r="L12" s="59"/>
       <c r="M12" s="64"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
       <c r="P12" s="62"/>
-      <c r="Q12" s="57">
+      <c r="Q12" s="55">
         <v>5</v>
       </c>
-      <c r="R12" s="57">
+      <c r="R12" s="55">
         <v>5</v>
       </c>
       <c r="S12" s="15">
         <v>1</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20" t="s">
+      <c r="T12" s="31"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y12" s="20" t="s">
+      <c r="Y12" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z12" s="15">
         <v>230</v>
       </c>
-      <c r="AA12" s="97">
+      <c r="AA12" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -4096,27 +4072,27 @@
         <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="18" t="s">
+      <c r="G13" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="20" t="str">
+      <c r="I13" s="49" t="str">
         <f>VLOOKUP(B13,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>STM8680</v>
       </c>
@@ -4126,34 +4102,34 @@
       <c r="K13" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="37"/>
+      <c r="L13" s="60"/>
       <c r="M13" s="63"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57">
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55">
         <v>5</v>
       </c>
-      <c r="R13" s="57">
+      <c r="R13" s="55">
         <v>5</v>
       </c>
       <c r="S13" s="15">
         <v>3</v>
       </c>
-      <c r="T13" s="36"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20" t="s">
+      <c r="T13" s="34"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y13" s="20" t="s">
+      <c r="Y13" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z13" s="15">
         <v>185</v>
       </c>
-      <c r="AA13" s="97">
+      <c r="AA13" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -4162,27 +4138,27 @@
         <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="G14" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>115</v>
-      </c>
       <c r="H14" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="I14" s="20" t="str">
+        <v>112</v>
+      </c>
+      <c r="I14" s="49" t="str">
         <f>VLOOKUP(B14,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
@@ -4192,52 +4168,52 @@
       <c r="K14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="M14" s="54">
+      <c r="L14" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="52">
         <f ca="1">ROUND(EVALUATE(L14)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N14" s="55">
+      <c r="N14" s="53">
         <f ca="1">M14*T14</f>
         <v>0.01</v>
       </c>
-      <c r="O14" s="56">
+      <c r="O14" s="54">
         <v>1.44</v>
       </c>
-      <c r="P14" s="57">
+      <c r="P14" s="55">
         <f>O14*T14</f>
         <v>1.44</v>
       </c>
-      <c r="Q14" s="57">
+      <c r="Q14" s="55">
         <v>1.23</v>
       </c>
-      <c r="R14" s="57">
+      <c r="R14" s="55">
         <v>1.23</v>
       </c>
-      <c r="S14" s="36">
+      <c r="S14" s="34">
         <v>5</v>
       </c>
-      <c r="T14" s="36">
+      <c r="T14" s="34">
         <f>J14/S14</f>
         <v>1</v>
       </c>
-      <c r="U14" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20" t="s">
+      <c r="U14" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y14" s="20" t="s">
+      <c r="Y14" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z14" s="15">
         <v>350</v>
       </c>
-      <c r="AA14" s="97">
+      <c r="AA14" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -4246,27 +4222,27 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="15" t="s">
         <v>61</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="I15" s="20" t="str">
+        <v>119</v>
+      </c>
+      <c r="I15" s="49" t="str">
         <f>VLOOKUP(B15,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-sk</v>
       </c>
@@ -4276,14 +4252,14 @@
       <c r="K15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="M15" s="59">
+      <c r="L15" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" s="57">
         <f ca="1">ROUND(EVALUATE(L15)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N15" s="59">
+      <c r="N15" s="57">
         <f ca="1">M15*T15</f>
         <v>0.01</v>
       </c>
@@ -4294,34 +4270,34 @@
         <f>O15*T15</f>
         <v>7.55</v>
       </c>
-      <c r="Q15" s="57">
+      <c r="Q15" s="55">
         <v>0.15</v>
       </c>
-      <c r="R15" s="57">
+      <c r="R15" s="55">
         <v>0.15</v>
       </c>
       <c r="S15" s="15">
         <v>30</v>
       </c>
-      <c r="T15" s="32">
+      <c r="T15" s="31">
         <f>J15/S15</f>
         <v>1</v>
       </c>
-      <c r="U15" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="37" t="s">
+      <c r="U15" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y15" s="20" t="s">
+      <c r="Y15" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z15" s="15">
         <v>5</v>
       </c>
-      <c r="AA15" s="97">
+      <c r="AA15" s="88">
         <v>0.01</v>
       </c>
     </row>
@@ -4330,27 +4306,27 @@
         <v>13</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="20" t="str">
+        <v>118</v>
+      </c>
+      <c r="I16" s="49" t="str">
         <f>VLOOKUP(B16,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-B</v>
       </c>
@@ -4360,37 +4336,37 @@
       <c r="K16" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32">
+      <c r="L16" s="59"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31">
         <f t="shared" ref="P16:P22" si="2">O16*T16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="57">
+      <c r="Q16" s="55">
         <v>2.5</v>
       </c>
-      <c r="R16" s="57">
+      <c r="R16" s="55">
         <v>2.5</v>
       </c>
       <c r="S16" s="15">
         <v>500</v>
       </c>
-      <c r="T16" s="32"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20" t="s">
+      <c r="T16" s="31"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y16" s="20" t="s">
+      <c r="Y16" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z16" s="15">
         <v>5</v>
       </c>
-      <c r="AA16" s="97">
+      <c r="AA16" s="88">
         <v>0.01</v>
       </c>
     </row>
@@ -4399,27 +4375,27 @@
         <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17" s="20" t="str">
+        <v>118</v>
+      </c>
+      <c r="I17" s="49" t="str">
         <f>VLOOKUP(B17,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-4C</v>
       </c>
@@ -4429,37 +4405,37 @@
       <c r="K17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="33"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32">
+      <c r="L17" s="59"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="57">
+      <c r="Q17" s="55">
         <v>2</v>
       </c>
-      <c r="R17" s="57">
+      <c r="R17" s="55">
         <v>2</v>
       </c>
       <c r="S17" s="15">
         <v>400</v>
       </c>
-      <c r="T17" s="32"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20" t="s">
+      <c r="T17" s="31"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y17" s="20" t="s">
+      <c r="Y17" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z17" s="15">
         <v>5</v>
       </c>
-      <c r="AA17" s="97">
+      <c r="AA17" s="88">
         <v>0.01</v>
       </c>
     </row>
@@ -4468,27 +4444,27 @@
         <v>15</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>121</v>
+        <v>127</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="I18" s="20" t="str">
+        <v>128</v>
+      </c>
+      <c r="I18" s="49" t="str">
         <f>VLOOKUP(B18,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-2C</v>
       </c>
@@ -4498,37 +4474,37 @@
       <c r="K18" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="33"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32">
+      <c r="L18" s="59"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="57">
+      <c r="Q18" s="55">
         <v>0.2</v>
       </c>
-      <c r="R18" s="57">
+      <c r="R18" s="55">
         <v>0.2</v>
       </c>
       <c r="S18" s="15">
         <v>40</v>
       </c>
-      <c r="T18" s="32"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20" t="s">
+      <c r="T18" s="31"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y18" s="20" t="s">
+      <c r="Y18" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z18" s="15">
         <v>5</v>
       </c>
-      <c r="AA18" s="97">
+      <c r="AA18" s="88">
         <v>0.01</v>
       </c>
     </row>
@@ -4537,27 +4513,27 @@
         <v>16</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" s="20" t="str">
+        <v>130</v>
+      </c>
+      <c r="I19" s="49" t="str">
         <f>VLOOKUP(B19,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900-T-1.2D</v>
       </c>
@@ -4567,37 +4543,37 @@
       <c r="K19" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="33"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32">
+      <c r="L19" s="59"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="57">
+      <c r="Q19" s="55">
         <v>0.2</v>
       </c>
-      <c r="R19" s="57">
+      <c r="R19" s="55">
         <v>0.2</v>
       </c>
       <c r="S19" s="15">
         <v>40</v>
       </c>
-      <c r="T19" s="32"/>
-      <c r="U19" s="83"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20" t="s">
+      <c r="T19" s="31"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y19" s="20" t="s">
+      <c r="Y19" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z19" s="15">
         <v>3</v>
       </c>
-      <c r="AA19" s="97">
+      <c r="AA19" s="88">
         <v>0.01</v>
       </c>
     </row>
@@ -4606,27 +4582,27 @@
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I20" s="20" t="str">
+        <v>133</v>
+      </c>
+      <c r="I20" s="49" t="str">
         <f>VLOOKUP(B20,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>WRNT-013</v>
       </c>
@@ -4636,37 +4612,37 @@
       <c r="K20" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="33"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32">
+      <c r="L20" s="59"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="57">
+      <c r="Q20" s="55">
         <v>0.7</v>
       </c>
-      <c r="R20" s="57">
+      <c r="R20" s="55">
         <v>0.7</v>
       </c>
       <c r="S20" s="15">
         <v>140</v>
       </c>
-      <c r="T20" s="32"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20" t="s">
+      <c r="T20" s="31"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y20" s="20" t="s">
+      <c r="Y20" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z20" s="15">
         <v>1.2</v>
       </c>
-      <c r="AA20" s="97">
+      <c r="AA20" s="88">
         <v>0.01</v>
       </c>
     </row>
@@ -4675,27 +4651,27 @@
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>139</v>
+        <v>135</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I21" s="20" t="str">
+        <v>136</v>
+      </c>
+      <c r="I21" s="49" t="str">
         <f>VLOOKUP(B21,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
@@ -4705,41 +4681,41 @@
       <c r="K21" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="37"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36">
+      <c r="L21" s="60"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="57">
+      <c r="Q21" s="55">
         <v>1.25</v>
       </c>
-      <c r="R21" s="57">
+      <c r="R21" s="55">
         <v>1.25</v>
       </c>
       <c r="S21" s="15">
         <v>250</v>
       </c>
-      <c r="T21" s="36"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20" t="s">
+      <c r="T21" s="34"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y21" s="20" t="s">
+      <c r="Y21" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z21" s="15">
         <v>0.99</v>
       </c>
-      <c r="AA21" s="97">
+      <c r="AA21" s="88">
         <v>0.01</v>
       </c>
       <c r="AB21" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" ht="24.95" customHeight="1" spans="1:27">
@@ -4747,27 +4723,27 @@
         <v>19</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="H22" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I22" s="20" t="str">
+        <v>141</v>
+      </c>
+      <c r="I22" s="49" t="str">
         <f>VLOOKUP(B22,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
@@ -4777,8 +4753,8 @@
       <c r="K22" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="58" t="s">
-        <v>145</v>
+      <c r="L22" s="56" t="s">
+        <v>142</v>
       </c>
       <c r="M22" s="65">
         <f ca="1">ROUND(EVALUATE(L22)*1000*0.000000001,2)</f>
@@ -4795,34 +4771,34 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q22" s="57">
+      <c r="Q22" s="55">
         <v>3.49</v>
       </c>
-      <c r="R22" s="57">
+      <c r="R22" s="55">
         <v>3.49</v>
       </c>
       <c r="S22" s="15">
         <v>388</v>
       </c>
-      <c r="T22" s="32">
+      <c r="T22" s="31">
         <f>J22/S22</f>
         <v>1</v>
       </c>
-      <c r="U22" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20" t="s">
+      <c r="U22" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y22" s="20" t="s">
+      <c r="Y22" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z22" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA22" s="97">
+      <c r="AA22" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -4831,27 +4807,27 @@
         <v>20</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I23" s="20" t="str">
+        <v>141</v>
+      </c>
+      <c r="I23" s="49" t="str">
         <f>VLOOKUP(B23,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
@@ -4861,34 +4837,34 @@
       <c r="K23" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="33"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="57">
+      <c r="L23" s="59"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="55">
         <v>4.11</v>
       </c>
-      <c r="R23" s="57">
+      <c r="R23" s="55">
         <v>4.11</v>
       </c>
       <c r="S23" s="15">
         <v>457</v>
       </c>
-      <c r="T23" s="32"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20" t="s">
+      <c r="T23" s="31"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y23" s="20" t="s">
+      <c r="Y23" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z23" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA23" s="97">
+      <c r="AA23" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -4897,27 +4873,27 @@
         <v>21</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I24" s="20" t="str">
+        <v>141</v>
+      </c>
+      <c r="I24" s="49" t="str">
         <f>VLOOKUP(B24,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
@@ -4927,34 +4903,34 @@
       <c r="K24" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="33"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="57">
+      <c r="L24" s="59"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="55">
         <v>4.12</v>
       </c>
-      <c r="R24" s="57">
+      <c r="R24" s="55">
         <v>4.12</v>
       </c>
       <c r="S24" s="15">
         <v>458</v>
       </c>
-      <c r="T24" s="32"/>
-      <c r="U24" s="83"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20" t="s">
+      <c r="T24" s="31"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y24" s="20" t="s">
+      <c r="Y24" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z24" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA24" s="97">
+      <c r="AA24" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -4963,27 +4939,27 @@
         <v>22</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I25" s="20" t="str">
+        <v>141</v>
+      </c>
+      <c r="I25" s="49" t="str">
         <f>VLOOKUP(B25,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
@@ -4993,34 +4969,34 @@
       <c r="K25" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L25" s="33"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="57">
+      <c r="L25" s="59"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="55">
         <v>2.58</v>
       </c>
-      <c r="R25" s="57">
+      <c r="R25" s="55">
         <v>2.58</v>
       </c>
       <c r="S25" s="15">
         <v>287</v>
       </c>
-      <c r="T25" s="32"/>
-      <c r="U25" s="83"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20" t="s">
+      <c r="T25" s="31"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y25" s="20" t="s">
+      <c r="Y25" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z25" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA25" s="97">
+      <c r="AA25" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -5029,27 +5005,27 @@
         <v>23</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>144</v>
+        <v>148</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" s="20" t="str">
+        <v>149</v>
+      </c>
+      <c r="I26" s="49" t="str">
         <f>VLOOKUP(B26,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
@@ -5059,34 +5035,34 @@
       <c r="K26" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="33"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="57">
+      <c r="L26" s="59"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="55">
         <v>0.36</v>
       </c>
-      <c r="R26" s="57">
+      <c r="R26" s="55">
         <v>0.36</v>
       </c>
       <c r="S26" s="15">
         <v>40</v>
       </c>
-      <c r="T26" s="32"/>
-      <c r="U26" s="83"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20" t="s">
+      <c r="T26" s="31"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y26" s="20" t="s">
+      <c r="Y26" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z26" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA26" s="97">
+      <c r="AA26" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -5095,27 +5071,27 @@
         <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>144</v>
+        <v>151</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="I27" s="20" t="str">
+        <v>149</v>
+      </c>
+      <c r="I27" s="49" t="str">
         <f>VLOOKUP(B27,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
@@ -5125,34 +5101,34 @@
       <c r="K27" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L27" s="33"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="57">
+      <c r="L27" s="59"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="55">
         <v>0.54</v>
       </c>
-      <c r="R27" s="57">
+      <c r="R27" s="55">
         <v>0.54</v>
       </c>
       <c r="S27" s="15">
         <v>60</v>
       </c>
-      <c r="T27" s="32"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20" t="s">
+      <c r="T27" s="31"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y27" s="20" t="s">
+      <c r="Y27" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z27" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA27" s="97">
+      <c r="AA27" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -5161,27 +5137,27 @@
         <v>25</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>144</v>
+        <v>153</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="I28" s="20" t="str">
+        <v>149</v>
+      </c>
+      <c r="I28" s="49" t="str">
         <f>VLOOKUP(B28,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
@@ -5191,34 +5167,34 @@
       <c r="K28" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L28" s="33"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="57">
+      <c r="L28" s="59"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="55">
         <v>0.45</v>
       </c>
-      <c r="R28" s="57">
+      <c r="R28" s="55">
         <v>0.45</v>
       </c>
       <c r="S28" s="15">
         <v>50</v>
       </c>
-      <c r="T28" s="32"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20" t="s">
+      <c r="T28" s="31"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y28" s="20" t="s">
+      <c r="Y28" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z28" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA28" s="97">
+      <c r="AA28" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -5227,27 +5203,27 @@
         <v>26</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>144</v>
+        <v>155</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I29" s="20" t="str">
+        <v>141</v>
+      </c>
+      <c r="I29" s="49" t="str">
         <f>VLOOKUP(B29,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
@@ -5257,34 +5233,34 @@
       <c r="K29" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L29" s="33"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="57">
+      <c r="L29" s="59"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="55">
         <v>0.45</v>
       </c>
-      <c r="R29" s="57">
+      <c r="R29" s="55">
         <v>0.45</v>
       </c>
       <c r="S29" s="15">
         <v>50</v>
       </c>
-      <c r="T29" s="32"/>
-      <c r="U29" s="83"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20" t="s">
+      <c r="T29" s="31"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y29" s="20" t="s">
+      <c r="Y29" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z29" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA29" s="97">
+      <c r="AA29" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -5293,27 +5269,27 @@
         <v>27</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>144</v>
+        <v>157</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" s="20" t="str">
+        <v>141</v>
+      </c>
+      <c r="I30" s="49" t="str">
         <f>VLOOKUP(B30,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
@@ -5323,34 +5299,34 @@
       <c r="K30" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L30" s="37"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="57">
+      <c r="L30" s="60"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="55">
         <v>0.99</v>
       </c>
-      <c r="R30" s="57">
+      <c r="R30" s="55">
         <v>0.99</v>
       </c>
       <c r="S30" s="15">
         <v>110</v>
       </c>
-      <c r="T30" s="36"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20" t="s">
+      <c r="T30" s="34"/>
+      <c r="U30" s="81"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y30" s="20" t="s">
+      <c r="Y30" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z30" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA30" s="97">
+      <c r="AA30" s="88">
         <v>0.13</v>
       </c>
     </row>
@@ -5358,41 +5334,41 @@
       <c r="A31" s="15">
         <v>28</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>161</v>
+      <c r="B31" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="15" t="s">
         <v>61</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="I31" s="20" t="str">
+        <v>160</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I31" s="49" t="str">
         <f>VLOOKUP(B31,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
       <c r="J31" s="66">
         <v>2040</v>
       </c>
-      <c r="K31" s="36" t="s">
-        <v>165</v>
+      <c r="K31" s="34" t="s">
+        <v>162</v>
       </c>
       <c r="L31" s="67" t="s">
-        <v>166</v>
-      </c>
-      <c r="M31" s="54">
+        <v>163</v>
+      </c>
+      <c r="M31" s="52">
         <f ca="1">ROUND(EVALUATE(L31)*1000*0.000000001,2)</f>
         <v>0.09</v>
       </c>
@@ -5401,157 +5377,157 @@
         <v>6.12</v>
       </c>
       <c r="O31" s="67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P31" s="68">
         <f>O31*T31</f>
         <v>1204.28</v>
       </c>
-      <c r="Q31" s="57">
+      <c r="Q31" s="55">
         <v>1200</v>
       </c>
-      <c r="R31" s="57">
+      <c r="R31" s="55">
         <v>1200</v>
       </c>
-      <c r="S31" s="77" t="s">
-        <v>168</v>
+      <c r="S31" s="74" t="s">
+        <v>165</v>
       </c>
       <c r="T31" s="15">
         <f>J31/S31</f>
         <v>68</v>
       </c>
-      <c r="U31" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="V31" s="85"/>
-      <c r="W31" s="85"/>
-      <c r="X31" s="37" t="s">
+      <c r="U31" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y31" s="20" t="s">
+      <c r="Y31" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z31" s="98">
+      <c r="Z31" s="89">
         <v>14.8</v>
       </c>
-      <c r="AA31" s="97">
+      <c r="AA31" s="88">
         <v>0.13</v>
       </c>
-      <c r="AB31" s="99"/>
-      <c r="AC31" s="100"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="91"/>
     </row>
     <row r="32" customHeight="1" spans="1:29">
       <c r="A32" s="15">
         <v>29</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>170</v>
+      <c r="B32" s="22" t="s">
+        <v>167</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="15" t="s">
         <v>61</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="I32" s="20" t="str">
+        <v>168</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" s="49" t="str">
         <f>VLOOKUP(B32,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
       <c r="J32" s="66">
         <v>2800</v>
       </c>
-      <c r="K32" s="36" t="s">
-        <v>165</v>
+      <c r="K32" s="34" t="s">
+        <v>162</v>
       </c>
       <c r="L32" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="M32" s="54">
+        <v>169</v>
+      </c>
+      <c r="M32" s="52">
         <f ca="1">ROUND(EVALUATE(L32)*1000*0.000000001,2)</f>
         <v>0.07</v>
       </c>
-      <c r="N32" s="59">
+      <c r="N32" s="57">
         <f ca="1">M32*T32</f>
         <v>3.92</v>
       </c>
-      <c r="O32" s="55">
+      <c r="O32" s="53">
         <v>15.5</v>
       </c>
       <c r="P32" s="68">
         <f>O32*T32</f>
         <v>868</v>
       </c>
-      <c r="Q32" s="57">
+      <c r="Q32" s="55">
         <v>866</v>
       </c>
-      <c r="R32" s="57">
+      <c r="R32" s="55">
         <v>866</v>
       </c>
-      <c r="S32" s="77" t="s">
-        <v>173</v>
+      <c r="S32" s="74" t="s">
+        <v>170</v>
       </c>
       <c r="T32" s="15">
         <f>J32/S32</f>
         <v>56</v>
       </c>
-      <c r="U32" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="V32" s="85"/>
-      <c r="W32" s="85"/>
-      <c r="X32" s="37" t="s">
+      <c r="U32" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y32" s="20" t="s">
+      <c r="Y32" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z32" s="98">
+      <c r="Z32" s="89">
         <v>7.3</v>
       </c>
-      <c r="AA32" s="97">
+      <c r="AA32" s="88">
         <v>0.13</v>
       </c>
-      <c r="AB32" s="99"/>
-      <c r="AC32" s="100"/>
+      <c r="AB32" s="90"/>
+      <c r="AC32" s="91"/>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A33" s="15">
         <v>30</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="H33" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="I33" s="20" t="str">
+      <c r="I33" s="49" t="str">
         <f>VLOOKUP(B33,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>AT-TSSOP20-CMS</v>
       </c>
@@ -5562,27 +5538,27 @@
         <v>64</v>
       </c>
       <c r="L33" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="M33" s="55">
+        <v>177</v>
+      </c>
+      <c r="M33" s="53">
         <f ca="1">ROUND(EVALUATE(L33)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N33" s="59">
+      <c r="N33" s="57">
         <f ca="1">M33*T33</f>
         <v>0.01</v>
       </c>
-      <c r="O33" s="60">
+      <c r="O33" s="58">
         <v>1</v>
       </c>
       <c r="P33" s="62">
         <f>O33*T33</f>
         <v>1</v>
       </c>
-      <c r="Q33" s="57">
+      <c r="Q33" s="55">
         <v>0.3</v>
       </c>
-      <c r="R33" s="57">
+      <c r="R33" s="55">
         <v>0.3</v>
       </c>
       <c r="S33" s="15">
@@ -5592,52 +5568,52 @@
         <f>J33/S33</f>
         <v>1</v>
       </c>
-      <c r="U33" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="V33" s="85"/>
-      <c r="W33" s="85"/>
-      <c r="X33" s="37" t="s">
+      <c r="U33" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="V33" s="82"/>
+      <c r="W33" s="82"/>
+      <c r="X33" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y33" s="20" t="s">
+      <c r="Y33" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z33" s="98">
+      <c r="Z33" s="89">
         <v>580</v>
       </c>
-      <c r="AA33" s="97">
+      <c r="AA33" s="88">
         <v>0.13</v>
       </c>
-      <c r="AB33" s="100"/>
-      <c r="AC33" s="100"/>
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="91"/>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A34" s="15">
         <v>31</v>
       </c>
-      <c r="B34" s="28" t="s">
-        <v>183</v>
+      <c r="B34" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="I34" s="20" t="str">
+      <c r="F34" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="I34" s="49" t="str">
         <f>VLOOKUP(B34,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>KLV-M913A-A10</v>
       </c>
@@ -5648,64 +5624,64 @@
         <v>64</v>
       </c>
       <c r="L34" s="67"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
       <c r="P34" s="62"/>
-      <c r="Q34" s="57">
+      <c r="Q34" s="55">
         <v>0.6</v>
       </c>
-      <c r="R34" s="57">
+      <c r="R34" s="55">
         <v>0.6</v>
       </c>
       <c r="S34" s="15">
         <v>5</v>
       </c>
-      <c r="T34" s="32"/>
-      <c r="U34" s="83"/>
-      <c r="V34" s="85"/>
-      <c r="W34" s="85"/>
-      <c r="X34" s="37" t="s">
+      <c r="T34" s="31"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="82"/>
+      <c r="W34" s="82"/>
+      <c r="X34" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y34" s="20" t="s">
+      <c r="Y34" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z34" s="101">
+      <c r="Z34" s="92">
         <v>80</v>
       </c>
-      <c r="AA34" s="102">
+      <c r="AA34" s="93">
         <v>0.13</v>
       </c>
-      <c r="AB34" s="100"/>
-      <c r="AC34" s="100"/>
+      <c r="AB34" s="91"/>
+      <c r="AC34" s="91"/>
     </row>
     <row r="35" customHeight="1" spans="1:29">
       <c r="A35" s="15">
         <v>32</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="H35" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="I35" s="20" t="str">
+      <c r="I35" s="49" t="str">
         <f>VLOOKUP(B35,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
@@ -5713,23 +5689,23 @@
         <v>3</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L35" s="67" t="s">
-        <v>194</v>
-      </c>
-      <c r="M35" s="54">
+        <v>189</v>
+      </c>
+      <c r="M35" s="52">
         <f ca="1">ROUND(EVALUATE(L35)*1000*0.000000001,2)</f>
         <v>0.06</v>
       </c>
-      <c r="N35" s="71">
+      <c r="N35" s="57">
         <f ca="1" t="shared" ref="N35:N39" si="3">M35*T35</f>
-        <v>0.18</v>
-      </c>
-      <c r="O35" s="55">
+        <v>0.06</v>
+      </c>
+      <c r="O35" s="53">
         <v>34.24</v>
       </c>
-      <c r="P35" s="72">
+      <c r="P35" s="71">
         <f>SUM(O35:O37)</f>
         <v>66.02</v>
       </c>
@@ -5739,59 +5715,65 @@
       <c r="R35" s="62">
         <v>64.2</v>
       </c>
-      <c r="S35" s="75" t="s">
-        <v>195</v>
-      </c>
-      <c r="T35" s="86">
-        <v>3</v>
-      </c>
-      <c r="U35" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="V35" s="85"/>
-      <c r="W35" s="85"/>
-      <c r="X35" s="33" t="s">
+      <c r="S35" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="T35" s="15">
+        <f>J35/S35</f>
+        <v>1</v>
+      </c>
+      <c r="U35" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="Y35" s="20" t="s">
+      <c r="Y35" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z35" s="101">
+      <c r="Z35" s="92">
         <v>1160</v>
       </c>
-      <c r="AA35" s="102">
+      <c r="AA35" s="93">
         <v>0.13</v>
       </c>
-      <c r="AB35" s="99" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC35" s="100"/>
+      <c r="AB35" s="90" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC35" s="91"/>
     </row>
     <row r="36" customHeight="1" spans="1:29">
       <c r="A36" s="15">
         <v>33</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="I36" s="20"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" s="49"/>
       <c r="J36" s="70"/>
       <c r="K36" s="15"/>
       <c r="L36" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="M36" s="54">
+        <v>194</v>
+      </c>
+      <c r="M36" s="52">
         <f ca="1">ROUND(EVALUATE(L36)*1000*0.000000001,2)</f>
         <v>0.03</v>
       </c>
-      <c r="N36" s="73"/>
-      <c r="O36" s="56">
+      <c r="N36" s="57">
+        <f ca="1" t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="O36" s="54">
         <v>18.4</v>
       </c>
       <c r="P36" s="62"/>
@@ -5799,92 +5781,107 @@
         <v>205</v>
       </c>
       <c r="R36" s="62"/>
-      <c r="S36" s="76"/>
-      <c r="T36" s="88"/>
-      <c r="U36" s="89"/>
-      <c r="V36" s="85"/>
-      <c r="W36" s="85"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="20" t="s">
+      <c r="S36" s="73"/>
+      <c r="T36" s="15">
+        <f>J35/S35</f>
+        <v>1</v>
+      </c>
+      <c r="U36" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="V36" s="82"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z36" s="103"/>
-      <c r="AA36" s="104"/>
-      <c r="AB36" s="99"/>
-      <c r="AC36" s="100"/>
+      <c r="Z36" s="94"/>
+      <c r="AA36" s="95"/>
+      <c r="AB36" s="90"/>
+      <c r="AC36" s="91"/>
     </row>
     <row r="37" customHeight="1" spans="1:29">
       <c r="A37" s="15">
         <v>34</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="I37" s="20"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="I37" s="49"/>
       <c r="J37" s="70"/>
       <c r="K37" s="15"/>
       <c r="L37" s="67" t="s">
-        <v>201</v>
-      </c>
-      <c r="M37" s="54">
+        <v>197</v>
+      </c>
+      <c r="M37" s="52">
         <f ca="1">ROUND(EVALUATE(L37)*1000*0.000000001,2)</f>
         <v>0.05</v>
       </c>
-      <c r="N37" s="73"/>
-      <c r="O37" s="56">
+      <c r="N37" s="57">
+        <f ca="1" t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="O37" s="54">
         <v>13.38</v>
       </c>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57">
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55">
         <v>270</v>
       </c>
-      <c r="R37" s="57"/>
-      <c r="S37" s="77"/>
-      <c r="T37" s="90"/>
-      <c r="U37" s="91"/>
-      <c r="V37" s="85"/>
-      <c r="W37" s="85"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="20" t="s">
+      <c r="R37" s="55"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="15">
+        <f>J35/S35</f>
+        <v>1</v>
+      </c>
+      <c r="U37" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="V37" s="82"/>
+      <c r="W37" s="82"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z37" s="105"/>
-      <c r="AA37" s="106"/>
-      <c r="AB37" s="99"/>
-      <c r="AC37" s="100"/>
+      <c r="Z37" s="96"/>
+      <c r="AA37" s="97"/>
+      <c r="AB37" s="90"/>
+      <c r="AC37" s="91"/>
     </row>
     <row r="38" customHeight="1" spans="1:29">
       <c r="A38" s="15">
         <v>35</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H38" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="I38" s="20" t="str">
+      <c r="I38" s="49" t="str">
         <f>VLOOKUP(B38,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
@@ -5892,84 +5889,84 @@
         <v>12</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L38" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="M38" s="54">
+        <v>204</v>
+      </c>
+      <c r="M38" s="52">
         <f ca="1" t="shared" ref="M38:M50" si="4">ROUND(EVALUATE(L38)*1000*0.000000001,2)</f>
         <v>0.05</v>
       </c>
-      <c r="N38" s="55">
+      <c r="N38" s="53">
         <f ca="1" t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="O38" s="55">
+      <c r="O38" s="53">
         <v>34.91</v>
       </c>
       <c r="P38" s="68">
         <f>O38*T38</f>
         <v>34.91</v>
       </c>
-      <c r="Q38" s="57">
+      <c r="Q38" s="55">
         <v>34</v>
       </c>
-      <c r="R38" s="57">
+      <c r="R38" s="55">
         <v>34</v>
       </c>
       <c r="S38" s="67" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="T38" s="15">
         <v>1</v>
       </c>
-      <c r="U38" s="80" t="s">
-        <v>209</v>
+      <c r="U38" s="77" t="s">
+        <v>206</v>
       </c>
       <c r="V38" s="15"/>
       <c r="W38" s="15"/>
-      <c r="X38" s="20" t="s">
+      <c r="X38" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y38" s="20" t="s">
+      <c r="Y38" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z38" s="98">
+      <c r="Z38" s="89">
         <v>1300</v>
       </c>
-      <c r="AA38" s="97">
+      <c r="AA38" s="88">
         <v>0.13</v>
       </c>
-      <c r="AB38" s="99"/>
-      <c r="AC38" s="100"/>
+      <c r="AB38" s="90"/>
+      <c r="AC38" s="91"/>
     </row>
     <row r="39" ht="26.1" customHeight="1" spans="1:27">
       <c r="A39" s="15">
         <v>36</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="C39" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="G39" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="I39" s="20" t="str">
+      <c r="I39" s="49" t="str">
         <f>VLOOKUP(B39,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
@@ -5977,22 +5974,23 @@
         <v>9</v>
       </c>
       <c r="K39" s="65" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L39" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="M39" s="54">
+        <v>211</v>
+      </c>
+      <c r="M39" s="52">
         <f ca="1" t="shared" si="4"/>
         <v>0.01</v>
       </c>
-      <c r="N39" s="71">
-        <v>0.53</v>
-      </c>
-      <c r="O39" s="55">
+      <c r="N39" s="53">
+        <f ca="1" t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="O39" s="53">
         <v>10.63</v>
       </c>
-      <c r="P39" s="72">
+      <c r="P39" s="71">
         <f>SUM(O39:O46)</f>
         <v>207.46</v>
       </c>
@@ -6002,27 +6000,28 @@
       <c r="R39" s="62">
         <v>205</v>
       </c>
-      <c r="S39" s="32">
+      <c r="S39" s="31">
         <v>9</v>
       </c>
-      <c r="T39" s="86">
-        <v>8</v>
-      </c>
-      <c r="U39" s="87" t="s">
-        <v>215</v>
-      </c>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="33" t="s">
+      <c r="T39" s="15">
+        <f>J39/S39</f>
+        <v>1</v>
+      </c>
+      <c r="U39" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="Y39" s="20" t="s">
+      <c r="Y39" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Z39" s="65">
         <v>300</v>
       </c>
-      <c r="AA39" s="102">
+      <c r="AA39" s="93">
         <v>0.13</v>
       </c>
     </row>
@@ -6030,1583 +6029,1632 @@
       <c r="A40" s="15">
         <v>37</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="I40" s="49"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
       <c r="L40" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="M40" s="54">
+        <v>214</v>
+      </c>
+      <c r="M40" s="52">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N40" s="73"/>
-      <c r="O40" s="55">
+      <c r="N40" s="53">
+        <v>0.08</v>
+      </c>
+      <c r="O40" s="53">
         <v>25.83</v>
       </c>
       <c r="P40" s="62"/>
       <c r="Q40" s="62"/>
       <c r="R40" s="62"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="88"/>
-      <c r="U40" s="89"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="15">
+        <f>J39/S39</f>
+        <v>1</v>
+      </c>
+      <c r="U40" s="77" t="s">
+        <v>215</v>
+      </c>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="20" t="s">
+      <c r="X40" s="59"/>
+      <c r="Y40" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z40" s="32"/>
-      <c r="AA40" s="104"/>
-      <c r="AB40" s="99"/>
-      <c r="AC40" s="100"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="95"/>
+      <c r="AB40" s="90"/>
+      <c r="AC40" s="91"/>
     </row>
     <row r="41" customHeight="1" spans="1:29">
       <c r="A41" s="15">
         <v>38</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="I41" s="49"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
       <c r="L41" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="M41" s="54">
+        <v>214</v>
+      </c>
+      <c r="M41" s="52">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N41" s="73"/>
-      <c r="O41" s="55">
+      <c r="N41" s="53">
+        <v>0.08</v>
+      </c>
+      <c r="O41" s="53">
         <v>21.09</v>
       </c>
       <c r="P41" s="62"/>
       <c r="Q41" s="62"/>
       <c r="R41" s="62"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="89"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="15">
+        <f>J39/S39</f>
+        <v>1</v>
+      </c>
+      <c r="U41" s="77" t="s">
+        <v>217</v>
+      </c>
       <c r="V41" s="15"/>
       <c r="W41" s="15"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="20" t="s">
+      <c r="X41" s="59"/>
+      <c r="Y41" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="104"/>
-      <c r="AB41" s="99"/>
-      <c r="AC41" s="100"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="95"/>
+      <c r="AB41" s="90"/>
+      <c r="AC41" s="91"/>
     </row>
     <row r="42" customHeight="1" spans="1:29">
       <c r="A42" s="15">
         <v>39</v>
       </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="25" t="s">
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="I42" s="49"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="M42" s="54">
+      <c r="M42" s="52">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N42" s="73"/>
-      <c r="O42" s="55">
+      <c r="N42" s="53">
+        <v>0.08</v>
+      </c>
+      <c r="O42" s="53">
         <v>33.25</v>
       </c>
       <c r="P42" s="62"/>
       <c r="Q42" s="62"/>
       <c r="R42" s="62"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="89"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="15">
+        <f>J39/S39</f>
+        <v>1</v>
+      </c>
+      <c r="U42" s="77" t="s">
+        <v>220</v>
+      </c>
       <c r="V42" s="15"/>
       <c r="W42" s="15"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="20" t="s">
+      <c r="X42" s="59"/>
+      <c r="Y42" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="104"/>
-      <c r="AB42" s="99"/>
-      <c r="AC42" s="100"/>
+      <c r="Z42" s="31"/>
+      <c r="AA42" s="95"/>
+      <c r="AB42" s="90"/>
+      <c r="AC42" s="91"/>
     </row>
     <row r="43" customHeight="1" spans="1:29">
       <c r="A43" s="15">
         <v>40</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="25" t="s">
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="I43" s="49"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="M43" s="54">
+      <c r="M43" s="52">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N43" s="73"/>
-      <c r="O43" s="55">
+      <c r="N43" s="53">
+        <v>0.08</v>
+      </c>
+      <c r="O43" s="53">
         <v>33.25</v>
       </c>
       <c r="P43" s="62"/>
       <c r="Q43" s="62"/>
       <c r="R43" s="62"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="88"/>
-      <c r="U43" s="89"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="15">
+        <f>J39/S39</f>
+        <v>1</v>
+      </c>
+      <c r="U43" s="77" t="s">
+        <v>221</v>
+      </c>
       <c r="V43" s="15"/>
       <c r="W43" s="15"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="20" t="s">
+      <c r="X43" s="59"/>
+      <c r="Y43" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z43" s="32"/>
-      <c r="AA43" s="104"/>
-      <c r="AB43" s="99"/>
-      <c r="AC43" s="100"/>
+      <c r="Z43" s="31"/>
+      <c r="AA43" s="95"/>
+      <c r="AB43" s="90"/>
+      <c r="AC43" s="91"/>
     </row>
     <row r="44" customHeight="1" spans="1:29">
       <c r="A44" s="15">
         <v>41</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="25" t="s">
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="I44" s="49"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="M44" s="54">
+      <c r="M44" s="52">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N44" s="73"/>
-      <c r="O44" s="55">
+      <c r="N44" s="53">
+        <v>0.08</v>
+      </c>
+      <c r="O44" s="53">
         <v>33.25</v>
       </c>
       <c r="P44" s="62"/>
       <c r="Q44" s="62"/>
       <c r="R44" s="62"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="88"/>
-      <c r="U44" s="89"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="15">
+        <f>J39/S39</f>
+        <v>1</v>
+      </c>
+      <c r="U44" s="77" t="s">
+        <v>222</v>
+      </c>
       <c r="V44" s="15"/>
       <c r="W44" s="15"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="20" t="s">
+      <c r="X44" s="59"/>
+      <c r="Y44" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z44" s="32"/>
-      <c r="AA44" s="104"/>
-      <c r="AB44" s="99"/>
-      <c r="AC44" s="100"/>
+      <c r="Z44" s="31"/>
+      <c r="AA44" s="95"/>
+      <c r="AB44" s="90"/>
+      <c r="AC44" s="91"/>
     </row>
     <row r="45" customHeight="1" spans="1:29">
       <c r="A45" s="15">
         <v>42</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="25" t="s">
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="I45" s="49"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="M45" s="54">
+      <c r="M45" s="52">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N45" s="73"/>
-      <c r="O45" s="55">
+      <c r="N45" s="53">
+        <v>0.08</v>
+      </c>
+      <c r="O45" s="53">
         <v>33.25</v>
       </c>
       <c r="P45" s="62"/>
       <c r="Q45" s="62"/>
       <c r="R45" s="62"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="88"/>
-      <c r="U45" s="89"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="15">
+        <f>J39/S39</f>
+        <v>1</v>
+      </c>
+      <c r="U45" s="77" t="s">
+        <v>223</v>
+      </c>
       <c r="V45" s="15"/>
       <c r="W45" s="15"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="20" t="s">
+      <c r="X45" s="59"/>
+      <c r="Y45" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z45" s="32"/>
-      <c r="AA45" s="104"/>
-      <c r="AB45" s="99"/>
-      <c r="AC45" s="100"/>
+      <c r="Z45" s="31"/>
+      <c r="AA45" s="95"/>
+      <c r="AB45" s="90"/>
+      <c r="AC45" s="91"/>
     </row>
     <row r="46" customHeight="1" spans="1:29">
       <c r="A46" s="15">
         <v>43</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="I46" s="49"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
       <c r="L46" s="67" t="s">
-        <v>222</v>
-      </c>
-      <c r="M46" s="54">
+        <v>225</v>
+      </c>
+      <c r="M46" s="52">
         <f ca="1" t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="N46" s="74"/>
-      <c r="O46" s="55">
+      <c r="N46" s="53">
+        <v>0.04</v>
+      </c>
+      <c r="O46" s="53">
         <v>16.91</v>
       </c>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="57"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="90"/>
-      <c r="U46" s="91"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="15">
+        <f>J39/S39</f>
+        <v>1</v>
+      </c>
+      <c r="U46" s="77" t="s">
+        <v>226</v>
+      </c>
       <c r="V46" s="15"/>
       <c r="W46" s="15"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="20" t="s">
+      <c r="X46" s="60"/>
+      <c r="Y46" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="106"/>
-      <c r="AB46" s="99"/>
-      <c r="AC46" s="100"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="97"/>
+      <c r="AB46" s="90"/>
+      <c r="AC46" s="91"/>
     </row>
     <row r="47" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A47" s="15">
         <v>44</v>
       </c>
-      <c r="B47" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>177</v>
+      <c r="B47" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="G47" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="H47" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="I47" s="20" t="str">
+        <v>229</v>
+      </c>
+      <c r="G47" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="I47" s="49" t="str">
         <f>VLOOKUP(B47,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J47" s="36">
+      <c r="J47" s="34">
         <v>10</v>
       </c>
-      <c r="K47" s="36" t="s">
-        <v>206</v>
+      <c r="K47" s="34" t="s">
+        <v>203</v>
       </c>
       <c r="L47" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="M47" s="54">
+        <v>232</v>
+      </c>
+      <c r="M47" s="52">
         <f ca="1" t="shared" si="4"/>
         <v>0.3</v>
       </c>
-      <c r="N47" s="59">
+      <c r="N47" s="57">
         <f ca="1">M47*T47</f>
         <v>3</v>
       </c>
-      <c r="O47" s="55">
+      <c r="O47" s="53">
         <v>37</v>
       </c>
       <c r="P47" s="68">
         <f>O47*T47</f>
         <v>370</v>
       </c>
-      <c r="Q47" s="57">
+      <c r="Q47" s="55">
         <v>270</v>
       </c>
-      <c r="R47" s="57">
+      <c r="R47" s="55">
         <v>270</v>
       </c>
-      <c r="S47" s="36">
+      <c r="S47" s="34">
         <v>1</v>
       </c>
       <c r="T47" s="15">
         <f>J47/S47</f>
         <v>10</v>
       </c>
-      <c r="U47" s="80" t="s">
-        <v>229</v>
+      <c r="U47" s="77" t="s">
+        <v>233</v>
       </c>
       <c r="V47" s="15"/>
       <c r="W47" s="15"/>
-      <c r="X47" s="37" t="s">
+      <c r="X47" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y47" s="20" t="s">
+      <c r="Y47" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z47" s="36">
+      <c r="Z47" s="34">
         <v>3400</v>
       </c>
-      <c r="AA47" s="106">
+      <c r="AA47" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB47" s="100"/>
-      <c r="AC47" s="100"/>
+      <c r="AB47" s="91"/>
+      <c r="AC47" s="91"/>
     </row>
     <row r="48" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A48" s="15">
         <v>45</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="G48" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="C48" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="G48" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="I48" s="20" t="str">
+      <c r="H48" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="I48" s="49" t="str">
         <f>VLOOKUP(B48,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J48" s="36">
+      <c r="J48" s="34">
         <v>10</v>
       </c>
-      <c r="K48" s="36" t="s">
-        <v>206</v>
+      <c r="K48" s="34" t="s">
+        <v>203</v>
       </c>
       <c r="L48" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="M48" s="54">
+        <v>236</v>
+      </c>
+      <c r="M48" s="52">
         <f ca="1" t="shared" si="4"/>
         <v>0.43</v>
       </c>
-      <c r="N48" s="59">
+      <c r="N48" s="57">
         <f ca="1">M48*T48</f>
         <v>4.3</v>
       </c>
-      <c r="O48" s="55">
+      <c r="O48" s="53">
         <v>54</v>
       </c>
       <c r="P48" s="68">
         <f>O48*T48</f>
         <v>540</v>
       </c>
-      <c r="Q48" s="57">
+      <c r="Q48" s="55">
         <v>440</v>
       </c>
-      <c r="R48" s="57">
+      <c r="R48" s="55">
         <v>440</v>
       </c>
-      <c r="S48" s="36">
+      <c r="S48" s="34">
         <v>1</v>
       </c>
       <c r="T48" s="15">
         <f>J48/S48</f>
         <v>10</v>
       </c>
-      <c r="U48" s="80" t="s">
-        <v>233</v>
+      <c r="U48" s="77" t="s">
+        <v>237</v>
       </c>
       <c r="V48" s="15"/>
       <c r="W48" s="15"/>
-      <c r="X48" s="37" t="s">
+      <c r="X48" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y48" s="20" t="s">
+      <c r="Y48" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z48" s="36">
+      <c r="Z48" s="34">
         <v>5150</v>
       </c>
-      <c r="AA48" s="106">
+      <c r="AA48" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB48" s="100"/>
-      <c r="AC48" s="100"/>
+      <c r="AB48" s="91"/>
+      <c r="AC48" s="91"/>
     </row>
     <row r="49" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A49" s="15">
         <v>46</v>
       </c>
-      <c r="B49" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="C49" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E49" s="20" t="s">
+      <c r="B49" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="G49" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="I49" s="20" t="str">
+      <c r="F49" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="I49" s="49" t="str">
         <f>VLOOKUP(B49,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>AEVF4</v>
       </c>
-      <c r="J49" s="36">
+      <c r="J49" s="34">
         <v>1</v>
       </c>
-      <c r="K49" s="36" t="s">
+      <c r="K49" s="34" t="s">
         <v>64</v>
       </c>
       <c r="L49" s="67" t="s">
-        <v>239</v>
-      </c>
-      <c r="M49" s="54">
+        <v>243</v>
+      </c>
+      <c r="M49" s="52">
         <f ca="1" t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="N49" s="55">
+      <c r="N49" s="53">
         <f ca="1">M49*T49</f>
         <v>0.02</v>
       </c>
-      <c r="O49" s="56">
+      <c r="O49" s="54">
         <v>15.16</v>
       </c>
-      <c r="P49" s="57">
+      <c r="P49" s="55">
         <f>O49*T49</f>
         <v>15.16</v>
       </c>
-      <c r="Q49" s="57">
+      <c r="Q49" s="55">
         <v>15</v>
       </c>
-      <c r="R49" s="57">
+      <c r="R49" s="55">
         <v>15</v>
       </c>
-      <c r="S49" s="36">
+      <c r="S49" s="34">
         <v>1</v>
       </c>
-      <c r="T49" s="36">
+      <c r="T49" s="34">
         <f>J49/S49</f>
         <v>1</v>
       </c>
-      <c r="U49" s="80" t="s">
-        <v>240</v>
+      <c r="U49" s="77" t="s">
+        <v>244</v>
       </c>
       <c r="V49" s="15"/>
       <c r="W49" s="15"/>
-      <c r="X49" s="37" t="s">
+      <c r="X49" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y49" s="20" t="s">
+      <c r="Y49" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z49" s="36">
+      <c r="Z49" s="34">
         <v>935</v>
       </c>
-      <c r="AA49" s="106">
+      <c r="AA49" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB49" s="100"/>
-      <c r="AC49" s="100"/>
+      <c r="AB49" s="91"/>
+      <c r="AC49" s="91"/>
     </row>
     <row r="50" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A50" s="15">
         <v>47</v>
       </c>
-      <c r="B50" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="20" t="s">
+      <c r="B50" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="15" t="s">
         <v>61</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="G50" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="I50" s="20" t="str">
+        <v>247</v>
+      </c>
+      <c r="G50" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="I50" s="49" t="str">
         <f>VLOOKUP(B50,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J50" s="36">
+      <c r="J50" s="34">
         <v>10</v>
       </c>
-      <c r="K50" s="36" t="s">
+      <c r="K50" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L50" s="75" t="s">
-        <v>246</v>
+      <c r="L50" s="72" t="s">
+        <v>250</v>
       </c>
       <c r="M50" s="61">
         <f ca="1" t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="N50" s="59">
+      <c r="N50" s="57">
         <f ca="1">M50*T50</f>
         <v>0.02</v>
       </c>
-      <c r="O50" s="60">
+      <c r="O50" s="58">
         <v>5</v>
       </c>
       <c r="P50" s="62">
         <f>O50*T50</f>
         <v>5</v>
       </c>
-      <c r="Q50" s="57">
+      <c r="Q50" s="55">
         <v>0.09</v>
       </c>
-      <c r="R50" s="57">
+      <c r="R50" s="55">
         <v>0.09</v>
       </c>
-      <c r="S50" s="36">
+      <c r="S50" s="34">
         <v>10</v>
       </c>
-      <c r="T50" s="32">
+      <c r="T50" s="31">
         <f>J50/S50</f>
         <v>1</v>
       </c>
-      <c r="U50" s="82" t="s">
-        <v>247</v>
+      <c r="U50" s="79" t="s">
+        <v>251</v>
       </c>
       <c r="V50" s="15"/>
       <c r="W50" s="15"/>
-      <c r="X50" s="37" t="s">
+      <c r="X50" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y50" s="20" t="s">
+      <c r="Y50" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z50" s="36">
+      <c r="Z50" s="34">
         <v>22</v>
       </c>
-      <c r="AA50" s="106">
+      <c r="AA50" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB50" s="100"/>
-      <c r="AC50" s="100"/>
+      <c r="AB50" s="91"/>
+      <c r="AC50" s="91"/>
     </row>
     <row r="51" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A51" s="15">
         <v>48</v>
       </c>
-      <c r="B51" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="20" t="s">
+      <c r="B51" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="49" t="s">
-        <v>249</v>
-      </c>
-      <c r="G51" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="I51" s="20" t="str">
+      <c r="F51" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="G51" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="I51" s="49" t="str">
         <f>VLOOKUP(B51,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>TG-205A-FU</v>
       </c>
-      <c r="J51" s="36">
+      <c r="J51" s="34">
         <v>5</v>
       </c>
-      <c r="K51" s="36" t="s">
+      <c r="K51" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L51" s="76"/>
+      <c r="L51" s="73"/>
       <c r="M51" s="64"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="60"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="58"/>
       <c r="P51" s="62"/>
-      <c r="Q51" s="57">
+      <c r="Q51" s="55">
         <v>0.04</v>
       </c>
-      <c r="R51" s="57">
+      <c r="R51" s="55">
         <v>0.04</v>
       </c>
-      <c r="S51" s="36">
+      <c r="S51" s="34">
         <v>5</v>
       </c>
-      <c r="T51" s="32"/>
-      <c r="U51" s="83"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="80"/>
       <c r="V51" s="15"/>
       <c r="W51" s="15"/>
-      <c r="X51" s="37" t="s">
+      <c r="X51" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y51" s="20" t="s">
+      <c r="Y51" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z51" s="36">
+      <c r="Z51" s="34">
         <v>350</v>
       </c>
-      <c r="AA51" s="106">
+      <c r="AA51" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB51" s="100"/>
-      <c r="AC51" s="100"/>
+      <c r="AB51" s="91"/>
+      <c r="AC51" s="91"/>
     </row>
     <row r="52" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A52" s="15">
         <v>49</v>
       </c>
-      <c r="B52" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="20" t="s">
+      <c r="B52" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>61</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="G52" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="I52" s="20" t="str">
+        <v>256</v>
+      </c>
+      <c r="G52" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="I52" s="49" t="str">
         <f>VLOOKUP(B52,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>LS1D-01033</v>
       </c>
-      <c r="J52" s="36">
+      <c r="J52" s="34">
         <v>500</v>
       </c>
-      <c r="K52" s="36" t="s">
+      <c r="K52" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L52" s="76"/>
+      <c r="L52" s="73"/>
       <c r="M52" s="64"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
       <c r="P52" s="62"/>
-      <c r="Q52" s="57">
+      <c r="Q52" s="55">
         <v>4.5</v>
       </c>
-      <c r="R52" s="57">
+      <c r="R52" s="55">
         <v>4.5</v>
       </c>
-      <c r="S52" s="36">
+      <c r="S52" s="34">
         <v>500</v>
       </c>
-      <c r="T52" s="32"/>
-      <c r="U52" s="83"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="80"/>
       <c r="V52" s="15"/>
       <c r="W52" s="15"/>
-      <c r="X52" s="37" t="s">
+      <c r="X52" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y52" s="20" t="s">
+      <c r="Y52" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z52" s="36">
+      <c r="Z52" s="34">
         <v>8</v>
       </c>
-      <c r="AA52" s="106">
+      <c r="AA52" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB52" s="100"/>
-      <c r="AC52" s="100"/>
+      <c r="AB52" s="91"/>
+      <c r="AC52" s="91"/>
     </row>
     <row r="53" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A53" s="15">
         <v>50</v>
       </c>
-      <c r="B53" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="C53" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="20" t="s">
+      <c r="B53" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="G53" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="I53" s="20" t="str">
+      <c r="F53" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="G53" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="I53" s="49" t="str">
         <f>VLOOKUP(B53,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J53" s="36">
+      <c r="J53" s="34">
         <v>4</v>
       </c>
-      <c r="K53" s="36" t="s">
+      <c r="K53" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L53" s="76"/>
+      <c r="L53" s="73"/>
       <c r="M53" s="64"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
       <c r="P53" s="62"/>
-      <c r="Q53" s="57">
+      <c r="Q53" s="55">
         <v>0.04</v>
       </c>
-      <c r="R53" s="57">
+      <c r="R53" s="55">
         <v>0.04</v>
       </c>
-      <c r="S53" s="36">
+      <c r="S53" s="34">
         <v>4</v>
       </c>
-      <c r="T53" s="32"/>
-      <c r="U53" s="83"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="80"/>
       <c r="V53" s="15"/>
       <c r="W53" s="15"/>
-      <c r="X53" s="37" t="s">
+      <c r="X53" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y53" s="20" t="s">
+      <c r="Y53" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z53" s="36">
+      <c r="Z53" s="34">
         <v>110</v>
       </c>
-      <c r="AA53" s="106">
+      <c r="AA53" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB53" s="100"/>
-      <c r="AC53" s="100"/>
+      <c r="AB53" s="91"/>
+      <c r="AC53" s="91"/>
     </row>
     <row r="54" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A54" s="15">
         <v>51</v>
       </c>
-      <c r="B54" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" s="20" t="s">
+      <c r="B54" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="15" t="s">
         <v>61</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="G54" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="I54" s="20" t="str">
+        <v>264</v>
+      </c>
+      <c r="G54" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="I54" s="49" t="str">
         <f>VLOOKUP(B54,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J54" s="36">
+      <c r="J54" s="34">
         <v>5</v>
       </c>
-      <c r="K54" s="36" t="s">
+      <c r="K54" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L54" s="76"/>
+      <c r="L54" s="73"/>
       <c r="M54" s="64"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
+      <c r="N54" s="58"/>
+      <c r="O54" s="58"/>
       <c r="P54" s="62"/>
-      <c r="Q54" s="57">
+      <c r="Q54" s="55">
         <v>0.04</v>
       </c>
-      <c r="R54" s="57">
+      <c r="R54" s="55">
         <v>0.04</v>
       </c>
-      <c r="S54" s="36">
+      <c r="S54" s="34">
         <v>5</v>
       </c>
-      <c r="T54" s="32"/>
-      <c r="U54" s="83"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="80"/>
       <c r="V54" s="15"/>
       <c r="W54" s="15"/>
-      <c r="X54" s="37" t="s">
+      <c r="X54" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y54" s="20" t="s">
+      <c r="Y54" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z54" s="36">
+      <c r="Z54" s="34">
         <v>186.45</v>
       </c>
-      <c r="AA54" s="106">
+      <c r="AA54" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB54" s="100"/>
-      <c r="AC54" s="100"/>
+      <c r="AB54" s="91"/>
+      <c r="AC54" s="91"/>
     </row>
     <row r="55" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A55" s="15">
         <v>52</v>
       </c>
-      <c r="B55" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="C55" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E55" s="20" t="s">
+      <c r="B55" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="G55" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="H55" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="I55" s="20" t="str">
+      <c r="F55" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="G55" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="H55" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="I55" s="49" t="str">
         <f>VLOOKUP(B55,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>KYB-M7027-001</v>
       </c>
-      <c r="J55" s="36">
+      <c r="J55" s="34">
         <v>2</v>
       </c>
-      <c r="K55" s="36" t="s">
+      <c r="K55" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L55" s="76"/>
+      <c r="L55" s="73"/>
       <c r="M55" s="64"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="60"/>
+      <c r="N55" s="58"/>
+      <c r="O55" s="58"/>
       <c r="P55" s="62"/>
-      <c r="Q55" s="57">
+      <c r="Q55" s="55">
         <v>0.02</v>
       </c>
-      <c r="R55" s="57">
+      <c r="R55" s="55">
         <v>0.02</v>
       </c>
-      <c r="S55" s="36">
+      <c r="S55" s="34">
         <v>2</v>
       </c>
-      <c r="T55" s="32"/>
-      <c r="U55" s="83"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="80"/>
       <c r="V55" s="15"/>
       <c r="W55" s="15"/>
-      <c r="X55" s="37" t="s">
+      <c r="X55" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y55" s="20" t="s">
+      <c r="Y55" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z55" s="107">
+      <c r="Z55" s="98">
         <v>4950</v>
       </c>
-      <c r="AA55" s="106">
+      <c r="AA55" s="97">
         <v>0.01</v>
       </c>
-      <c r="AB55" s="100"/>
-      <c r="AC55" s="100"/>
+      <c r="AB55" s="91"/>
+      <c r="AC55" s="91"/>
     </row>
     <row r="56" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A56" s="15">
         <v>53</v>
       </c>
-      <c r="B56" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="C56" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" s="20" t="s">
+      <c r="B56" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>61</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="G56" s="48" t="s">
-        <v>268</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="I56" s="20" t="str">
+        <v>271</v>
+      </c>
+      <c r="G56" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="I56" s="49" t="str">
         <f>VLOOKUP(B56,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J56" s="36">
+      <c r="J56" s="34">
         <v>10</v>
       </c>
-      <c r="K56" s="36" t="s">
+      <c r="K56" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L56" s="76"/>
+      <c r="L56" s="73"/>
       <c r="M56" s="64"/>
-      <c r="N56" s="60"/>
-      <c r="O56" s="60"/>
+      <c r="N56" s="58"/>
+      <c r="O56" s="58"/>
       <c r="P56" s="62"/>
-      <c r="Q56" s="57">
+      <c r="Q56" s="55">
         <v>0.09</v>
       </c>
-      <c r="R56" s="57">
+      <c r="R56" s="55">
         <v>0.09</v>
       </c>
-      <c r="S56" s="36">
+      <c r="S56" s="34">
         <v>10</v>
       </c>
-      <c r="T56" s="32"/>
-      <c r="U56" s="83"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="80"/>
       <c r="V56" s="15"/>
       <c r="W56" s="15"/>
-      <c r="X56" s="37" t="s">
+      <c r="X56" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y56" s="20" t="s">
+      <c r="Y56" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z56" s="36">
+      <c r="Z56" s="34">
         <v>6.5</v>
       </c>
-      <c r="AA56" s="106">
+      <c r="AA56" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB56" s="100"/>
-      <c r="AC56" s="100"/>
+      <c r="AB56" s="91"/>
+      <c r="AC56" s="91"/>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A57" s="15">
         <v>54</v>
       </c>
-      <c r="B57" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="C57" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E57" s="20" t="s">
+      <c r="B57" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="15" t="s">
         <v>61</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="G57" s="48" t="s">
-        <v>268</v>
-      </c>
-      <c r="H57" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="I57" s="20" t="str">
+      <c r="G57" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="I57" s="49" t="str">
         <f>VLOOKUP(B57,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J57" s="36">
+      <c r="J57" s="34">
         <v>10</v>
       </c>
-      <c r="K57" s="36" t="s">
+      <c r="K57" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L57" s="76"/>
+      <c r="L57" s="73"/>
       <c r="M57" s="64"/>
-      <c r="N57" s="60"/>
-      <c r="O57" s="60"/>
+      <c r="N57" s="58"/>
+      <c r="O57" s="58"/>
       <c r="P57" s="62"/>
-      <c r="Q57" s="57">
+      <c r="Q57" s="55">
         <v>0.09</v>
       </c>
-      <c r="R57" s="57">
+      <c r="R57" s="55">
         <v>0.09</v>
       </c>
-      <c r="S57" s="36">
+      <c r="S57" s="34">
         <v>10</v>
       </c>
-      <c r="T57" s="32"/>
-      <c r="U57" s="83"/>
+      <c r="T57" s="31"/>
+      <c r="U57" s="80"/>
       <c r="V57" s="15"/>
       <c r="W57" s="15"/>
-      <c r="X57" s="37" t="s">
+      <c r="X57" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y57" s="20" t="s">
+      <c r="Y57" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z57" s="36">
+      <c r="Z57" s="34">
         <v>6.5</v>
       </c>
-      <c r="AA57" s="106">
+      <c r="AA57" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB57" s="100"/>
-      <c r="AC57" s="100"/>
+      <c r="AB57" s="91"/>
+      <c r="AC57" s="91"/>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A58" s="15">
         <v>55</v>
       </c>
-      <c r="B58" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="C58" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E58" s="20" t="s">
+      <c r="B58" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F58" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="G58" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="I58" s="20" t="str">
+      <c r="F58" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="G58" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="I58" s="49" t="str">
         <f>VLOOKUP(B58,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J58" s="36">
+      <c r="J58" s="34">
         <v>2</v>
       </c>
-      <c r="K58" s="36" t="s">
+      <c r="K58" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L58" s="76"/>
+      <c r="L58" s="73"/>
       <c r="M58" s="64"/>
-      <c r="N58" s="60"/>
-      <c r="O58" s="60"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="58"/>
       <c r="P58" s="62"/>
-      <c r="Q58" s="57">
+      <c r="Q58" s="55">
         <v>0.02</v>
       </c>
-      <c r="R58" s="57">
+      <c r="R58" s="55">
         <v>0.02</v>
       </c>
-      <c r="S58" s="36">
+      <c r="S58" s="34">
         <v>2</v>
       </c>
-      <c r="T58" s="32"/>
-      <c r="U58" s="83"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="80"/>
       <c r="V58" s="15"/>
       <c r="W58" s="15"/>
-      <c r="X58" s="37" t="s">
+      <c r="X58" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y58" s="20" t="s">
+      <c r="Y58" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z58" s="36">
+      <c r="Z58" s="34">
         <v>220</v>
       </c>
-      <c r="AA58" s="106">
+      <c r="AA58" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB58" s="100"/>
-      <c r="AC58" s="100"/>
+      <c r="AB58" s="91"/>
+      <c r="AC58" s="91"/>
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A59" s="15">
         <v>56</v>
       </c>
-      <c r="B59" s="46" t="s">
-        <v>276</v>
-      </c>
-      <c r="C59" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E59" s="20" t="s">
+      <c r="B59" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F59" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="G59" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="H59" s="25" t="s">
+      <c r="F59" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="G59" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="I59" s="20" t="str">
+      <c r="H59" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="I59" s="49" t="str">
         <f>VLOOKUP(B59,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J59" s="36">
+      <c r="J59" s="34">
         <v>2</v>
       </c>
-      <c r="K59" s="36" t="s">
+      <c r="K59" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L59" s="76"/>
+      <c r="L59" s="73"/>
       <c r="M59" s="64"/>
-      <c r="N59" s="60"/>
-      <c r="O59" s="60"/>
+      <c r="N59" s="58"/>
+      <c r="O59" s="58"/>
       <c r="P59" s="62"/>
-      <c r="Q59" s="57">
+      <c r="Q59" s="55">
         <v>0.02</v>
       </c>
-      <c r="R59" s="57">
+      <c r="R59" s="55">
         <v>0.02</v>
       </c>
-      <c r="S59" s="36">
+      <c r="S59" s="34">
         <v>2</v>
       </c>
-      <c r="T59" s="32"/>
-      <c r="U59" s="83"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="80"/>
       <c r="V59" s="15"/>
       <c r="W59" s="15"/>
-      <c r="X59" s="37" t="s">
+      <c r="X59" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y59" s="20" t="s">
+      <c r="Y59" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z59" s="36">
+      <c r="Z59" s="34">
         <v>220</v>
       </c>
-      <c r="AA59" s="106">
+      <c r="AA59" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB59" s="100"/>
-      <c r="AC59" s="100"/>
+      <c r="AB59" s="91"/>
+      <c r="AC59" s="91"/>
     </row>
     <row r="60" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A60" s="15">
         <v>57</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="G60" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="H60" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="C60" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F60" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="G60" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="I60" s="20" t="str">
+      <c r="I60" s="49" t="str">
         <f>VLOOKUP(B60,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J60" s="36">
+      <c r="J60" s="34">
         <v>2</v>
       </c>
-      <c r="K60" s="36" t="s">
+      <c r="K60" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L60" s="76"/>
+      <c r="L60" s="73"/>
       <c r="M60" s="64"/>
-      <c r="N60" s="60"/>
-      <c r="O60" s="60"/>
+      <c r="N60" s="58"/>
+      <c r="O60" s="58"/>
       <c r="P60" s="62"/>
-      <c r="Q60" s="57">
+      <c r="Q60" s="55">
         <v>0.02</v>
       </c>
-      <c r="R60" s="57">
+      <c r="R60" s="55">
         <v>0.02</v>
       </c>
-      <c r="S60" s="36">
+      <c r="S60" s="34">
         <v>2</v>
       </c>
-      <c r="T60" s="32"/>
-      <c r="U60" s="83"/>
+      <c r="T60" s="31"/>
+      <c r="U60" s="80"/>
       <c r="V60" s="15"/>
       <c r="W60" s="15"/>
-      <c r="X60" s="37" t="s">
+      <c r="X60" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y60" s="20" t="s">
+      <c r="Y60" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z60" s="36">
+      <c r="Z60" s="34">
         <v>220</v>
       </c>
-      <c r="AA60" s="106">
+      <c r="AA60" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB60" s="100"/>
-      <c r="AC60" s="100"/>
+      <c r="AB60" s="91"/>
+      <c r="AC60" s="91"/>
     </row>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A61" s="15">
         <v>58</v>
       </c>
-      <c r="B61" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="C61" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E61" s="20" t="s">
+      <c r="B61" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F61" s="49" t="s">
+      <c r="F61" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="G61" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="H61" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="G61" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="H61" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="I61" s="20" t="str">
+      <c r="I61" s="49" t="str">
         <f>VLOOKUP(B61,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J61" s="36">
+      <c r="J61" s="34">
         <v>2</v>
       </c>
-      <c r="K61" s="36" t="s">
+      <c r="K61" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L61" s="77"/>
+      <c r="L61" s="74"/>
       <c r="M61" s="63"/>
-      <c r="N61" s="56"/>
-      <c r="O61" s="56"/>
-      <c r="P61" s="57"/>
-      <c r="Q61" s="57">
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55">
         <v>0.02</v>
       </c>
-      <c r="R61" s="57">
+      <c r="R61" s="55">
         <v>0.02</v>
       </c>
-      <c r="S61" s="36">
+      <c r="S61" s="34">
         <v>2</v>
       </c>
-      <c r="T61" s="36"/>
-      <c r="U61" s="84"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="81"/>
       <c r="V61" s="15"/>
       <c r="W61" s="15"/>
-      <c r="X61" s="37" t="s">
+      <c r="X61" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y61" s="20" t="s">
+      <c r="Y61" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z61" s="36">
+      <c r="Z61" s="34">
         <v>220</v>
       </c>
-      <c r="AA61" s="106">
+      <c r="AA61" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB61" s="100"/>
-      <c r="AC61" s="100"/>
+      <c r="AB61" s="91"/>
+      <c r="AC61" s="91"/>
     </row>
     <row r="62" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A62" s="15">
         <v>59</v>
       </c>
-      <c r="B62" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="C62" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E62" s="20" t="s">
+      <c r="B62" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F62" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="G62" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="I62" s="20" t="str">
+      <c r="F62" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="G62" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="I62" s="49" t="str">
         <f>VLOOKUP(B62,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J62" s="36">
+      <c r="J62" s="34">
         <v>2</v>
       </c>
-      <c r="K62" s="36" t="s">
+      <c r="K62" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L62" s="75" t="s">
-        <v>287</v>
+      <c r="L62" s="72" t="s">
+        <v>291</v>
       </c>
       <c r="M62" s="61">
         <f ca="1">ROUND(EVALUATE(L62)*1000*0.000000001,2)</f>
         <v>0.05</v>
       </c>
-      <c r="N62" s="59">
+      <c r="N62" s="57">
         <f ca="1">M62*T62</f>
         <v>0.05</v>
       </c>
-      <c r="O62" s="60">
+      <c r="O62" s="58">
         <v>9</v>
       </c>
       <c r="P62" s="62">
         <f>O62*T62</f>
         <v>9</v>
       </c>
-      <c r="Q62" s="57">
+      <c r="Q62" s="55">
         <v>4.2</v>
       </c>
-      <c r="R62" s="57">
+      <c r="R62" s="55">
         <v>4.2</v>
       </c>
-      <c r="S62" s="36">
+      <c r="S62" s="34">
         <v>2</v>
       </c>
-      <c r="T62" s="32">
+      <c r="T62" s="31">
         <f>J62/S62</f>
         <v>1</v>
       </c>
-      <c r="U62" s="82" t="s">
-        <v>288</v>
+      <c r="U62" s="79" t="s">
+        <v>292</v>
       </c>
       <c r="V62" s="15"/>
       <c r="W62" s="15"/>
-      <c r="X62" s="37" t="s">
+      <c r="X62" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y62" s="20" t="s">
+      <c r="Y62" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z62" s="36">
+      <c r="Z62" s="34">
         <v>328</v>
       </c>
-      <c r="AA62" s="106">
+      <c r="AA62" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB62" s="100"/>
-      <c r="AC62" s="100"/>
+      <c r="AB62" s="91"/>
+      <c r="AC62" s="91"/>
     </row>
     <row r="63" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A63" s="15">
         <v>60</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G63" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="C63" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F63" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="G63" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="I63" s="20" t="str">
+      <c r="H63" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="I63" s="49" t="str">
         <f>VLOOKUP(B63,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J63" s="36">
+      <c r="J63" s="34">
         <v>2</v>
       </c>
-      <c r="K63" s="36" t="s">
+      <c r="K63" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L63" s="77"/>
+      <c r="L63" s="74"/>
       <c r="M63" s="63"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="56"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="57">
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55">
         <v>4</v>
       </c>
-      <c r="R63" s="57">
+      <c r="R63" s="55">
         <v>4</v>
       </c>
-      <c r="S63" s="36">
+      <c r="S63" s="34">
         <v>2</v>
       </c>
-      <c r="T63" s="36"/>
-      <c r="U63" s="84"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="81"/>
       <c r="V63" s="15"/>
       <c r="W63" s="15"/>
-      <c r="X63" s="37" t="s">
+      <c r="X63" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Y63" s="20" t="s">
+      <c r="Y63" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z63" s="36">
+      <c r="Z63" s="34">
         <v>328</v>
       </c>
-      <c r="AA63" s="106">
+      <c r="AA63" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB63" s="100"/>
-      <c r="AC63" s="100"/>
+      <c r="AB63" s="91"/>
+      <c r="AC63" s="91"/>
     </row>
     <row r="64" customHeight="1" spans="1:29">
       <c r="A64" s="15"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="78"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="75"/>
       <c r="J64" s="66">
         <f>SUM(J4:J63)</f>
         <v>9506</v>
       </c>
-      <c r="K64" s="36"/>
+      <c r="K64" s="34"/>
       <c r="L64" s="67"/>
-      <c r="M64" s="55"/>
+      <c r="M64" s="53"/>
       <c r="N64" s="66">
         <f ca="1">SUM(N4:N63)</f>
-        <v>18.36</v>
+        <v>18.32</v>
       </c>
       <c r="O64" s="66"/>
       <c r="P64" s="66">
         <f>SUM(P4:P63)</f>
         <v>3374.84</v>
       </c>
-      <c r="Q64" s="92"/>
+      <c r="Q64" s="83"/>
       <c r="R64" s="66">
         <f>SUM(R4:R63)</f>
         <v>3156.66</v>
@@ -7616,131 +7664,130 @@
         <f>SUM(T4:T63)</f>
         <v>168</v>
       </c>
-      <c r="U64" s="93"/>
-      <c r="V64" s="85"/>
-      <c r="W64" s="85"/>
-      <c r="X64" s="94"/>
+      <c r="U64" s="84"/>
+      <c r="V64" s="82"/>
+      <c r="W64" s="82"/>
+      <c r="X64" s="85"/>
       <c r="Y64" s="67"/>
-      <c r="Z64" s="98"/>
-      <c r="AA64" s="97"/>
-      <c r="AB64" s="99"/>
-      <c r="AC64" s="100"/>
+      <c r="Z64" s="89"/>
+      <c r="AA64" s="88"/>
+      <c r="AB64" s="90"/>
+      <c r="AC64" s="91"/>
     </row>
     <row r="65" customHeight="1" spans="1:27">
-      <c r="A65" s="108"/>
-      <c r="B65" s="109"/>
-      <c r="C65" s="109"/>
-      <c r="D65" s="110"/>
-      <c r="E65" s="110"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="112"/>
-      <c r="H65" s="112"/>
-      <c r="I65" s="114"/>
-      <c r="J65" s="115"/>
-      <c r="K65" s="108"/>
-      <c r="L65" s="116"/>
-      <c r="M65" s="117"/>
-      <c r="N65" s="117"/>
-      <c r="O65" s="117"/>
-      <c r="P65" s="118"/>
-      <c r="Q65" s="118"/>
-      <c r="R65" s="108"/>
-      <c r="S65" s="108"/>
-      <c r="T65" s="108"/>
-      <c r="U65" s="120"/>
-      <c r="V65" s="121"/>
-      <c r="W65" s="121"/>
-      <c r="X65" s="116"/>
-      <c r="Y65" s="116"/>
-      <c r="Z65" s="122"/>
-      <c r="AA65" s="123"/>
+      <c r="A65" s="99"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="103"/>
+      <c r="I65" s="105"/>
+      <c r="J65" s="106"/>
+      <c r="K65" s="99"/>
+      <c r="L65" s="107"/>
+      <c r="M65" s="108"/>
+      <c r="N65" s="108"/>
+      <c r="O65" s="108"/>
+      <c r="P65" s="109"/>
+      <c r="Q65" s="109"/>
+      <c r="R65" s="99"/>
+      <c r="S65" s="99"/>
+      <c r="T65" s="99"/>
+      <c r="U65" s="111"/>
+      <c r="V65" s="112"/>
+      <c r="W65" s="112"/>
+      <c r="X65" s="107"/>
+      <c r="Y65" s="107"/>
+      <c r="Z65" s="113"/>
+      <c r="AA65" s="114"/>
     </row>
     <row r="66" customHeight="1" spans="1:27">
-      <c r="A66" s="108"/>
-      <c r="B66" s="108"/>
-      <c r="C66" s="108"/>
-      <c r="D66" s="108"/>
-      <c r="E66" s="108"/>
-      <c r="F66" s="113"/>
-      <c r="G66" s="108"/>
-      <c r="H66" s="108"/>
-      <c r="I66" s="108"/>
+      <c r="A66" s="99"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="104"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="99"/>
       <c r="J66" s="2"/>
-      <c r="P66" s="119"/>
-      <c r="Q66" s="119"/>
-      <c r="Z66" s="122"/>
-      <c r="AA66" s="123"/>
+      <c r="P66" s="110"/>
+      <c r="Q66" s="110"/>
+      <c r="Z66" s="113"/>
+      <c r="AA66" s="114"/>
     </row>
     <row r="67" customHeight="1" spans="26:27">
-      <c r="Z67" s="122"/>
-      <c r="AA67" s="123"/>
+      <c r="Z67" s="113"/>
+      <c r="AA67" s="114"/>
     </row>
     <row r="68" customHeight="1" spans="26:27">
-      <c r="Z68" s="122"/>
-      <c r="AA68" s="123"/>
+      <c r="Z68" s="113"/>
+      <c r="AA68" s="114"/>
     </row>
     <row r="69" customHeight="1" spans="26:27">
-      <c r="Z69" s="122"/>
-      <c r="AA69" s="123"/>
+      <c r="Z69" s="113"/>
+      <c r="AA69" s="114"/>
     </row>
     <row r="70" customHeight="1" spans="26:27">
-      <c r="Z70" s="122"/>
-      <c r="AA70" s="123"/>
+      <c r="Z70" s="113"/>
+      <c r="AA70" s="114"/>
     </row>
     <row r="71" customHeight="1" spans="26:27">
-      <c r="Z71" s="122"/>
-      <c r="AA71" s="123"/>
+      <c r="Z71" s="113"/>
+      <c r="AA71" s="114"/>
     </row>
     <row r="72" customHeight="1" spans="26:27">
-      <c r="Z72" s="122"/>
-      <c r="AA72" s="123"/>
+      <c r="Z72" s="113"/>
+      <c r="AA72" s="114"/>
     </row>
     <row r="73" customHeight="1" spans="26:27">
-      <c r="Z73" s="122"/>
-      <c r="AA73" s="123"/>
+      <c r="Z73" s="113"/>
+      <c r="AA73" s="114"/>
     </row>
     <row r="74" customHeight="1" spans="26:27">
-      <c r="Z74" s="122"/>
-      <c r="AA74" s="123"/>
+      <c r="Z74" s="113"/>
+      <c r="AA74" s="114"/>
     </row>
     <row r="75" customHeight="1" spans="26:27">
-      <c r="Z75" s="122"/>
-      <c r="AA75" s="123"/>
+      <c r="Z75" s="113"/>
+      <c r="AA75" s="114"/>
     </row>
     <row r="76" customHeight="1" spans="26:27">
-      <c r="Z76" s="122"/>
-      <c r="AA76" s="123"/>
+      <c r="Z76" s="113"/>
+      <c r="AA76" s="114"/>
     </row>
     <row r="77" customHeight="1" spans="26:27">
-      <c r="Z77" s="122"/>
-      <c r="AA77" s="123"/>
+      <c r="Z77" s="113"/>
+      <c r="AA77" s="114"/>
     </row>
     <row r="78" customHeight="1" spans="26:27">
-      <c r="Z78" s="122"/>
-      <c r="AA78" s="123"/>
+      <c r="Z78" s="113"/>
+      <c r="AA78" s="114"/>
     </row>
     <row r="79" customHeight="1" spans="26:27">
-      <c r="Z79" s="122"/>
-      <c r="AA79" s="123"/>
+      <c r="Z79" s="113"/>
+      <c r="AA79" s="114"/>
     </row>
     <row r="80" customHeight="1" spans="26:27">
-      <c r="Z80" s="122"/>
-      <c r="AA80" s="123"/>
+      <c r="Z80" s="113"/>
+      <c r="AA80" s="114"/>
     </row>
     <row r="81" customHeight="1" spans="26:27">
-      <c r="Z81" s="122"/>
-      <c r="AA81" s="123"/>
+      <c r="Z81" s="113"/>
+      <c r="AA81" s="114"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:AC64" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
+  <mergeCells count="83">
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B39:B46"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C39:C46"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D39:D46"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E39:E46"/>
     <mergeCell ref="F35:F37"/>
     <mergeCell ref="F39:F46"/>
     <mergeCell ref="G35:G37"/>
@@ -7771,8 +7818,6 @@
     <mergeCell ref="N15:N21"/>
     <mergeCell ref="N22:N30"/>
     <mergeCell ref="N33:N34"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="N39:N46"/>
     <mergeCell ref="N50:N61"/>
     <mergeCell ref="N62:N63"/>
     <mergeCell ref="O5:O7"/>
@@ -7805,8 +7850,6 @@
     <mergeCell ref="T15:T21"/>
     <mergeCell ref="T22:T30"/>
     <mergeCell ref="T33:T34"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="T39:T46"/>
     <mergeCell ref="T50:T61"/>
     <mergeCell ref="T62:T63"/>
     <mergeCell ref="U5:U7"/>
@@ -7815,8 +7858,6 @@
     <mergeCell ref="U15:U21"/>
     <mergeCell ref="U22:U30"/>
     <mergeCell ref="U33:U34"/>
-    <mergeCell ref="U35:U37"/>
-    <mergeCell ref="U39:U46"/>
     <mergeCell ref="U50:U61"/>
     <mergeCell ref="U62:U63"/>
     <mergeCell ref="X35:X37"/>

--- a/testfiles/original_packing_list.xlsx
+++ b/testfiles/original_packing_list.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="297">
   <si>
     <t>采购装箱单</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>智梅尔克</t>
+  </si>
+  <si>
+    <t>AA</t>
   </si>
   <si>
     <t>Infrared heating tube-length：630mm,110V-500W</t>
@@ -3149,10 +3152,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6272727272727" defaultRowHeight="30" customHeight="1"/>
@@ -3481,16 +3484,16 @@
         <v>60</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" s="49" t="str">
         <f>VLOOKUP(B5,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -3503,7 +3506,7 @@
         <v>64</v>
       </c>
       <c r="L5" s="56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M5" s="57">
         <f ca="1" t="shared" si="0"/>
@@ -3534,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="79" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V5" s="49"/>
       <c r="W5" s="49"/>
@@ -3556,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>70</v>
@@ -3568,13 +3571,13 @@
         <v>61</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" s="49" t="str">
         <f>VLOOKUP(B6,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -3622,7 +3625,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>70</v>
@@ -3634,13 +3637,13 @@
         <v>61</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" s="49" t="str">
         <f>VLOOKUP(B7,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -3700,13 +3703,13 @@
         <v>61</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" s="49" t="str">
         <f>VLOOKUP(B8,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -3719,7 +3722,7 @@
         <v>64</v>
       </c>
       <c r="L8" s="56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M8" s="52">
         <f ca="1" t="shared" si="0"/>
@@ -3750,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="U8" s="79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V8" s="49"/>
       <c r="W8" s="49"/>
@@ -3772,10 +3775,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>60</v>
@@ -3784,13 +3787,13 @@
         <v>61</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I9" s="49" t="str">
         <f>VLOOKUP(B9,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -3803,7 +3806,7 @@
         <v>64</v>
       </c>
       <c r="L9" s="56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M9" s="61">
         <f ca="1" t="shared" si="0"/>
@@ -3834,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="79" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V9" s="49"/>
       <c r="W9" s="49"/>
@@ -3856,10 +3859,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>60</v>
@@ -3868,13 +3871,13 @@
         <v>61</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I10" s="49" t="str">
         <f>VLOOKUP(B10,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -3922,10 +3925,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>60</v>
@@ -3934,13 +3937,13 @@
         <v>61</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I11" s="49" t="str">
         <f>VLOOKUP(B11,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -3953,7 +3956,7 @@
         <v>64</v>
       </c>
       <c r="L11" s="56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M11" s="61">
         <f ca="1">ROUND(EVALUATE(L11)*1000*0.000000001,2)</f>
@@ -3984,7 +3987,7 @@
         <v>1</v>
       </c>
       <c r="U11" s="79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V11" s="49"/>
       <c r="W11" s="49"/>
@@ -4006,10 +4009,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>60</v>
@@ -4018,13 +4021,13 @@
         <v>61</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I12" s="49" t="str">
         <f>VLOOKUP(B12,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -4072,10 +4075,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>60</v>
@@ -4084,13 +4087,13 @@
         <v>61</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I13" s="49" t="str">
         <f>VLOOKUP(B13,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -4138,10 +4141,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>60</v>
@@ -4150,13 +4153,13 @@
         <v>61</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I14" s="49" t="str">
         <f>VLOOKUP(B14,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -4169,7 +4172,7 @@
         <v>64</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M14" s="52">
         <f ca="1">ROUND(EVALUATE(L14)*1000*0.000000001,2)</f>
@@ -4200,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="U14" s="77" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="V14" s="49"/>
       <c r="W14" s="49"/>
@@ -4222,10 +4225,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>60</v>
@@ -4234,13 +4237,13 @@
         <v>61</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I15" s="49" t="str">
         <f>VLOOKUP(B15,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -4253,7 +4256,7 @@
         <v>64</v>
       </c>
       <c r="L15" s="56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M15" s="57">
         <f ca="1">ROUND(EVALUATE(L15)*1000*0.000000001,2)</f>
@@ -4284,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V15" s="49"/>
       <c r="W15" s="49"/>
@@ -4306,10 +4309,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>60</v>
@@ -4318,13 +4321,13 @@
         <v>61</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I16" s="49" t="str">
         <f>VLOOKUP(B16,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -4375,10 +4378,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>60</v>
@@ -4387,13 +4390,13 @@
         <v>61</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I17" s="49" t="str">
         <f>VLOOKUP(B17,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -4444,10 +4447,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>60</v>
@@ -4456,13 +4459,13 @@
         <v>61</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I18" s="49" t="str">
         <f>VLOOKUP(B18,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -4513,10 +4516,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>60</v>
@@ -4525,13 +4528,13 @@
         <v>61</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I19" s="49" t="str">
         <f>VLOOKUP(B19,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -4582,10 +4585,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>60</v>
@@ -4594,13 +4597,13 @@
         <v>61</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I20" s="49" t="str">
         <f>VLOOKUP(B20,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -4651,10 +4654,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>60</v>
@@ -4663,13 +4666,13 @@
         <v>61</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I21" s="49" t="str">
         <f>VLOOKUP(B21,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -4715,7 +4718,7 @@
         <v>0.01</v>
       </c>
       <c r="AB21" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" ht="24.95" customHeight="1" spans="1:27">
@@ -4723,10 +4726,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>60</v>
@@ -4735,13 +4738,13 @@
         <v>61</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I22" s="49" t="str">
         <f>VLOOKUP(B22,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -4754,7 +4757,7 @@
         <v>64</v>
       </c>
       <c r="L22" s="56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M22" s="65">
         <f ca="1">ROUND(EVALUATE(L22)*1000*0.000000001,2)</f>
@@ -4785,7 +4788,7 @@
         <v>1</v>
       </c>
       <c r="U22" s="79" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="V22" s="49"/>
       <c r="W22" s="49"/>
@@ -4807,10 +4810,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>60</v>
@@ -4819,13 +4822,13 @@
         <v>61</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I23" s="49" t="str">
         <f>VLOOKUP(B23,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -4873,10 +4876,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>60</v>
@@ -4885,13 +4888,13 @@
         <v>61</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I24" s="49" t="str">
         <f>VLOOKUP(B24,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -4939,10 +4942,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>60</v>
@@ -4951,13 +4954,13 @@
         <v>61</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I25" s="49" t="str">
         <f>VLOOKUP(B25,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -5005,10 +5008,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>60</v>
@@ -5017,13 +5020,13 @@
         <v>61</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I26" s="49" t="str">
         <f>VLOOKUP(B26,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -5071,10 +5074,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>60</v>
@@ -5083,13 +5086,13 @@
         <v>61</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I27" s="49" t="str">
         <f>VLOOKUP(B27,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -5137,10 +5140,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>60</v>
@@ -5149,13 +5152,13 @@
         <v>61</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I28" s="49" t="str">
         <f>VLOOKUP(B28,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -5203,10 +5206,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>60</v>
@@ -5215,13 +5218,13 @@
         <v>61</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I29" s="49" t="str">
         <f>VLOOKUP(B29,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -5269,10 +5272,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>60</v>
@@ -5281,13 +5284,13 @@
         <v>61</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I30" s="49" t="str">
         <f>VLOOKUP(B30,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -5335,10 +5338,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>60</v>
@@ -5347,13 +5350,13 @@
         <v>61</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I31" s="49" t="str">
         <f>VLOOKUP(B31,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -5363,10 +5366,10 @@
         <v>2040</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L31" s="67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M31" s="52">
         <f ca="1">ROUND(EVALUATE(L31)*1000*0.000000001,2)</f>
@@ -5377,7 +5380,7 @@
         <v>6.12</v>
       </c>
       <c r="O31" s="67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P31" s="68">
         <f>O31*T31</f>
@@ -5390,14 +5393,14 @@
         <v>1200</v>
       </c>
       <c r="S31" s="74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T31" s="15">
         <f>J31/S31</f>
         <v>68</v>
       </c>
       <c r="U31" s="77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V31" s="82"/>
       <c r="W31" s="82"/>
@@ -5421,10 +5424,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>60</v>
@@ -5433,13 +5436,13 @@
         <v>61</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I32" s="49" t="str">
         <f>VLOOKUP(B32,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -5449,10 +5452,10 @@
         <v>2800</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L32" s="67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M32" s="52">
         <f ca="1">ROUND(EVALUATE(L32)*1000*0.000000001,2)</f>
@@ -5476,14 +5479,14 @@
         <v>866</v>
       </c>
       <c r="S32" s="74" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T32" s="15">
         <f>J32/S32</f>
         <v>56</v>
       </c>
       <c r="U32" s="77" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="V32" s="82"/>
       <c r="W32" s="82"/>
@@ -5507,10 +5510,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>60</v>
@@ -5519,13 +5522,13 @@
         <v>61</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I33" s="49" t="str">
         <f>VLOOKUP(B33,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -5538,7 +5541,7 @@
         <v>64</v>
       </c>
       <c r="L33" s="67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M33" s="53">
         <f ca="1">ROUND(EVALUATE(L33)*1000*0.000000001,2)</f>
@@ -5569,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="U33" s="79" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V33" s="82"/>
       <c r="W33" s="82"/>
@@ -5593,10 +5596,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>60</v>
@@ -5605,13 +5608,13 @@
         <v>61</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I34" s="49" t="str">
         <f>VLOOKUP(B34,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -5661,10 +5664,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>60</v>
@@ -5673,13 +5676,13 @@
         <v>61</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I35" s="49" t="str">
         <f>VLOOKUP(B35,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -5689,10 +5692,10 @@
         <v>3</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L35" s="67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M35" s="52">
         <f ca="1">ROUND(EVALUATE(L35)*1000*0.000000001,2)</f>
@@ -5716,14 +5719,14 @@
         <v>64.2</v>
       </c>
       <c r="S35" s="72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T35" s="15">
         <f>J35/S35</f>
         <v>1</v>
       </c>
       <c r="U35" s="77" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="V35" s="82"/>
       <c r="W35" s="82"/>
@@ -5740,7 +5743,7 @@
         <v>0.13</v>
       </c>
       <c r="AB35" s="90" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AC35" s="91"/>
     </row>
@@ -5757,13 +5760,13 @@
       <c r="F36" s="32"/>
       <c r="G36" s="33"/>
       <c r="H36" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I36" s="49"/>
       <c r="J36" s="70"/>
       <c r="K36" s="15"/>
       <c r="L36" s="67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M36" s="52">
         <f ca="1">ROUND(EVALUATE(L36)*1000*0.000000001,2)</f>
@@ -5787,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="U36" s="77" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V36" s="82"/>
       <c r="W36" s="82"/>
@@ -5813,13 +5816,13 @@
       <c r="F37" s="26"/>
       <c r="G37" s="23"/>
       <c r="H37" s="24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I37" s="49"/>
       <c r="J37" s="70"/>
       <c r="K37" s="15"/>
       <c r="L37" s="67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M37" s="52">
         <f ca="1">ROUND(EVALUATE(L37)*1000*0.000000001,2)</f>
@@ -5843,7 +5846,7 @@
         <v>1</v>
       </c>
       <c r="U37" s="77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V37" s="82"/>
       <c r="W37" s="82"/>
@@ -5861,10 +5864,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>60</v>
@@ -5873,13 +5876,13 @@
         <v>61</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I38" s="49" t="str">
         <f>VLOOKUP(B38,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -5889,10 +5892,10 @@
         <v>12</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L38" s="67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M38" s="52">
         <f ca="1" t="shared" ref="M38:M50" si="4">ROUND(EVALUATE(L38)*1000*0.000000001,2)</f>
@@ -5916,13 +5919,13 @@
         <v>34</v>
       </c>
       <c r="S38" s="67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T38" s="15">
         <v>1</v>
       </c>
       <c r="U38" s="77" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="V38" s="15"/>
       <c r="W38" s="15"/>
@@ -5946,10 +5949,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>60</v>
@@ -5958,13 +5961,13 @@
         <v>61</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G39" s="39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I39" s="49" t="str">
         <f>VLOOKUP(B39,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -5974,10 +5977,10 @@
         <v>9</v>
       </c>
       <c r="K39" s="65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L39" s="67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M39" s="52">
         <f ca="1" t="shared" si="4"/>
@@ -6008,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="U39" s="77" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V39" s="49"/>
       <c r="W39" s="49"/>
@@ -6036,13 +6039,13 @@
       <c r="F40" s="41"/>
       <c r="G40" s="42"/>
       <c r="H40" s="24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I40" s="49"/>
       <c r="J40" s="31"/>
       <c r="K40" s="31"/>
       <c r="L40" s="67" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M40" s="52">
         <f ca="1" t="shared" si="4"/>
@@ -6063,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="U40" s="77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
@@ -6087,13 +6090,13 @@
       <c r="F41" s="41"/>
       <c r="G41" s="42"/>
       <c r="H41" s="24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I41" s="49"/>
       <c r="J41" s="31"/>
       <c r="K41" s="31"/>
       <c r="L41" s="67" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M41" s="52">
         <f ca="1" t="shared" si="4"/>
@@ -6114,7 +6117,7 @@
         <v>1</v>
       </c>
       <c r="U41" s="77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V41" s="15"/>
       <c r="W41" s="15"/>
@@ -6138,13 +6141,13 @@
       <c r="F42" s="41"/>
       <c r="G42" s="42"/>
       <c r="H42" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I42" s="49"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M42" s="52">
         <f ca="1" t="shared" si="4"/>
@@ -6165,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="U42" s="77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V42" s="15"/>
       <c r="W42" s="15"/>
@@ -6189,13 +6192,13 @@
       <c r="F43" s="41"/>
       <c r="G43" s="42"/>
       <c r="H43" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I43" s="49"/>
       <c r="J43" s="31"/>
       <c r="K43" s="31"/>
       <c r="L43" s="67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M43" s="52">
         <f ca="1" t="shared" si="4"/>
@@ -6216,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="U43" s="77" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="V43" s="15"/>
       <c r="W43" s="15"/>
@@ -6240,13 +6243,13 @@
       <c r="F44" s="41"/>
       <c r="G44" s="42"/>
       <c r="H44" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I44" s="49"/>
       <c r="J44" s="31"/>
       <c r="K44" s="31"/>
       <c r="L44" s="67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M44" s="52">
         <f ca="1" t="shared" si="4"/>
@@ -6267,7 +6270,7 @@
         <v>1</v>
       </c>
       <c r="U44" s="77" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V44" s="15"/>
       <c r="W44" s="15"/>
@@ -6291,13 +6294,13 @@
       <c r="F45" s="41"/>
       <c r="G45" s="42"/>
       <c r="H45" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I45" s="49"/>
       <c r="J45" s="31"/>
       <c r="K45" s="31"/>
       <c r="L45" s="67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M45" s="52">
         <f ca="1" t="shared" si="4"/>
@@ -6318,7 +6321,7 @@
         <v>1</v>
       </c>
       <c r="U45" s="77" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="V45" s="15"/>
       <c r="W45" s="15"/>
@@ -6342,13 +6345,13 @@
       <c r="F46" s="44"/>
       <c r="G46" s="45"/>
       <c r="H46" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I46" s="49"/>
       <c r="J46" s="34"/>
       <c r="K46" s="34"/>
       <c r="L46" s="67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M46" s="52">
         <f ca="1" t="shared" si="4"/>
@@ -6369,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="U46" s="77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="V46" s="15"/>
       <c r="W46" s="15"/>
@@ -6387,10 +6390,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>60</v>
@@ -6399,13 +6402,13 @@
         <v>61</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G47" s="45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I47" s="49" t="str">
         <f>VLOOKUP(B47,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -6415,10 +6418,10 @@
         <v>10</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L47" s="67" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M47" s="52">
         <f ca="1" t="shared" si="4"/>
@@ -6449,7 +6452,7 @@
         <v>10</v>
       </c>
       <c r="U47" s="77" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V47" s="15"/>
       <c r="W47" s="15"/>
@@ -6473,10 +6476,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>60</v>
@@ -6485,13 +6488,13 @@
         <v>61</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G48" s="45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I48" s="49" t="str">
         <f>VLOOKUP(B48,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -6501,10 +6504,10 @@
         <v>10</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L48" s="67" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M48" s="52">
         <f ca="1" t="shared" si="4"/>
@@ -6535,7 +6538,7 @@
         <v>10</v>
       </c>
       <c r="U48" s="77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="V48" s="15"/>
       <c r="W48" s="15"/>
@@ -6559,10 +6562,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>60</v>
@@ -6571,13 +6574,13 @@
         <v>61</v>
       </c>
       <c r="F49" s="46" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G49" s="45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I49" s="49" t="str">
         <f>VLOOKUP(B49,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -6590,7 +6593,7 @@
         <v>64</v>
       </c>
       <c r="L49" s="67" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M49" s="52">
         <f ca="1" t="shared" si="4"/>
@@ -6621,7 +6624,7 @@
         <v>1</v>
       </c>
       <c r="U49" s="77" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="V49" s="15"/>
       <c r="W49" s="15"/>
@@ -6645,10 +6648,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>60</v>
@@ -6657,13 +6660,13 @@
         <v>61</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G50" s="45" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I50" s="49" t="str">
         <f>VLOOKUP(B50,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -6676,7 +6679,7 @@
         <v>64</v>
       </c>
       <c r="L50" s="72" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M50" s="61">
         <f ca="1" t="shared" si="4"/>
@@ -6707,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="U50" s="79" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="V50" s="15"/>
       <c r="W50" s="15"/>
@@ -6731,10 +6734,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>60</v>
@@ -6743,13 +6746,13 @@
         <v>61</v>
       </c>
       <c r="F51" s="46" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G51" s="45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I51" s="49" t="str">
         <f>VLOOKUP(B51,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -6799,10 +6802,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>60</v>
@@ -6811,13 +6814,13 @@
         <v>61</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G52" s="45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I52" s="49" t="str">
         <f>VLOOKUP(B52,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -6867,10 +6870,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>60</v>
@@ -6879,13 +6882,13 @@
         <v>61</v>
       </c>
       <c r="F53" s="47" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G53" s="45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I53" s="49" t="str">
         <f>VLOOKUP(B53,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -6935,10 +6938,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>60</v>
@@ -6947,13 +6950,13 @@
         <v>61</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G54" s="45" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I54" s="49" t="str">
         <f>VLOOKUP(B54,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -7003,10 +7006,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>60</v>
@@ -7015,13 +7018,13 @@
         <v>61</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G55" s="45" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H55" s="44" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I55" s="49" t="str">
         <f>VLOOKUP(B55,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -7071,10 +7074,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>60</v>
@@ -7083,13 +7086,13 @@
         <v>61</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G56" s="45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I56" s="49" t="str">
         <f>VLOOKUP(B56,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -7139,10 +7142,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>60</v>
@@ -7151,13 +7154,13 @@
         <v>61</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G57" s="45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I57" s="49" t="str">
         <f>VLOOKUP(B57,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -7207,10 +7210,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>60</v>
@@ -7219,13 +7222,13 @@
         <v>61</v>
       </c>
       <c r="F58" s="46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G58" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I58" s="49" t="str">
         <f>VLOOKUP(B58,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -7275,10 +7278,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>60</v>
@@ -7287,13 +7290,13 @@
         <v>61</v>
       </c>
       <c r="F59" s="46" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G59" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I59" s="49" t="str">
         <f>VLOOKUP(B59,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -7343,10 +7346,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>60</v>
@@ -7355,13 +7358,13 @@
         <v>61</v>
       </c>
       <c r="F60" s="46" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G60" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I60" s="49" t="str">
         <f>VLOOKUP(B60,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -7411,10 +7414,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>60</v>
@@ -7423,13 +7426,13 @@
         <v>61</v>
       </c>
       <c r="F61" s="46" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G61" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I61" s="49" t="str">
         <f>VLOOKUP(B61,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -7479,10 +7482,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>60</v>
@@ -7491,13 +7494,13 @@
         <v>61</v>
       </c>
       <c r="F62" s="46" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G62" s="45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I62" s="49" t="str">
         <f>VLOOKUP(B62,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -7510,7 +7513,7 @@
         <v>64</v>
       </c>
       <c r="L62" s="72" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M62" s="61">
         <f ca="1">ROUND(EVALUATE(L62)*1000*0.000000001,2)</f>
@@ -7541,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="U62" s="79" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="V62" s="15"/>
       <c r="W62" s="15"/>
@@ -7565,10 +7568,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>60</v>
@@ -7577,13 +7580,13 @@
         <v>61</v>
       </c>
       <c r="F63" s="46" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G63" s="45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I63" s="49" t="str">
         <f>VLOOKUP(B63,[1]CXCI2025012201!$B:$D,3,0)</f>

--- a/testfiles/original_packing_list.xlsx
+++ b/testfiles/original_packing_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11630" tabRatio="495"/>
+    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="495"/>
   </bookViews>
   <sheets>
     <sheet name="装箱单模版-2025年更新" sheetId="2" r:id="rId1"/>
@@ -13,9 +13,9 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'装箱单模版-2025年更新'!$A$2:$AC$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'装箱单模版-2025年更新'!$A$3:$Y$64</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'装箱单模版-2025年更新'!$3:$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'装箱单模版-2025年更新'!$A$2:$AC$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'装箱单模版-2025年更新'!$A$4:$Y$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'装箱单模版-2025年更新'!$4:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,12 +90,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="Z4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">给工厂的时候需删除此列
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给工厂的时候需删除此列</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="299">
   <si>
     <t>采购装箱单</t>
   </si>
@@ -280,159 +305,165 @@
     <t>SMT工厂月度辅耗材</t>
   </si>
   <si>
+    <t>Silvassa</t>
+  </si>
+  <si>
+    <t>Milling cutter</t>
+  </si>
+  <si>
+    <t>铣刀</t>
+  </si>
+  <si>
+    <t>个</t>
+  </si>
+  <si>
+    <t>29*21*12</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>一般贸易</t>
+  </si>
+  <si>
+    <t>世博创想数字科技（深圳）有限公司</t>
+  </si>
+  <si>
+    <t>E100.020310008</t>
+  </si>
+  <si>
+    <t>智梅尔克</t>
+  </si>
+  <si>
+    <t>SMT工厂设备配件</t>
+  </si>
+  <si>
+    <t>Infrared heating tube-length：630mm,110V-500W</t>
+  </si>
+  <si>
+    <t>红外发热管</t>
+  </si>
+  <si>
+    <t>108*20*20</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>E100.020310014</t>
+  </si>
+  <si>
+    <t>Coupler-X/Y axis-12-14</t>
+  </si>
+  <si>
+    <t>联轴器</t>
+  </si>
+  <si>
+    <t>X/Y轴联轴器</t>
+  </si>
+  <si>
+    <t>E100.020310015</t>
+  </si>
+  <si>
+    <t>Coupler-Z axis-8-14</t>
+  </si>
+  <si>
+    <t>Z轴联轴器</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>E100.A37-066-02-00</t>
+  </si>
+  <si>
+    <t>捷豹</t>
+  </si>
+  <si>
+    <t>Connector-metal</t>
+  </si>
+  <si>
+    <t>重型双柱爪</t>
+  </si>
+  <si>
+    <t>22*15*19</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>J100.020715018</t>
+  </si>
+  <si>
+    <t>信尔为</t>
+  </si>
+  <si>
+    <t>Filter cotton-for Nozzle-N510059196AA</t>
+  </si>
+  <si>
+    <t>过滤棉</t>
+  </si>
+  <si>
+    <t>松下贴片机3HEAD过滤棉</t>
+  </si>
+  <si>
+    <t>E100.020200009</t>
+  </si>
+  <si>
+    <t>劲拓</t>
+  </si>
+  <si>
+    <t>Frequency converter-FA2P5N1W20360133</t>
+  </si>
+  <si>
+    <t>变频器</t>
+  </si>
+  <si>
+    <t>JT波峰焊    变频器</t>
+  </si>
+  <si>
+    <t>39*24*24.5</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>E100.020310017</t>
+  </si>
+  <si>
+    <t>星火</t>
+  </si>
+  <si>
+    <t>Motor-TM86118S</t>
+  </si>
+  <si>
+    <t>电机</t>
+  </si>
+  <si>
+    <t>宽窄电机-STM86118S</t>
+  </si>
+  <si>
+    <t>E100.020310012</t>
+  </si>
+  <si>
+    <t>Motor-STM8680</t>
+  </si>
+  <si>
+    <t>步进电机-STM8680</t>
+  </si>
+  <si>
+    <t>E100.A33-013-03-00</t>
+  </si>
+  <si>
+    <t>工铭</t>
+  </si>
+  <si>
+    <t>组装厂月度辅耗材</t>
+  </si>
+  <si>
     <t>Daman</t>
   </si>
   <si>
-    <t>Milling cutter</t>
-  </si>
-  <si>
-    <t>铣刀</t>
-  </si>
-  <si>
-    <t>个</t>
-  </si>
-  <si>
-    <t>29*21*12</t>
-  </si>
-  <si>
-    <t>F01</t>
-  </si>
-  <si>
-    <t>一般贸易</t>
-  </si>
-  <si>
-    <t>世博创想数字科技（深圳）有限公司</t>
-  </si>
-  <si>
-    <t>E100.020310008</t>
-  </si>
-  <si>
-    <t>智梅尔克</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>Infrared heating tube-length：630mm,110V-500W</t>
-  </si>
-  <si>
-    <t>红外发热管</t>
-  </si>
-  <si>
-    <t>108*20*20</t>
-  </si>
-  <si>
-    <t>F02</t>
-  </si>
-  <si>
-    <t>E100.020310014</t>
-  </si>
-  <si>
-    <t>Coupler-X/Y axis-12-14</t>
-  </si>
-  <si>
-    <t>联轴器</t>
-  </si>
-  <si>
-    <t>X/Y轴联轴器</t>
-  </si>
-  <si>
-    <t>E100.020310015</t>
-  </si>
-  <si>
-    <t>Coupler-Z axis-8-14</t>
-  </si>
-  <si>
-    <t>Z轴联轴器</t>
-  </si>
-  <si>
-    <t>F03</t>
-  </si>
-  <si>
-    <t>E100.A37-066-02-00</t>
-  </si>
-  <si>
-    <t>捷豹</t>
-  </si>
-  <si>
-    <t>Connector-metal</t>
-  </si>
-  <si>
-    <t>重型双柱爪</t>
-  </si>
-  <si>
-    <t>22*15*19</t>
-  </si>
-  <si>
-    <t>F04</t>
-  </si>
-  <si>
-    <t>J100.020715018</t>
-  </si>
-  <si>
-    <t>信尔为</t>
-  </si>
-  <si>
-    <t>Filter cotton-for Nozzle-N510059196AA</t>
-  </si>
-  <si>
-    <t>过滤棉</t>
-  </si>
-  <si>
-    <t>松下贴片机3HEAD过滤棉</t>
-  </si>
-  <si>
-    <t>E100.020200009</t>
-  </si>
-  <si>
-    <t>劲拓</t>
-  </si>
-  <si>
-    <t>Frequency converter-FA2P5N1W20360133</t>
-  </si>
-  <si>
-    <t>变频器</t>
-  </si>
-  <si>
-    <t>JT波峰焊    变频器</t>
-  </si>
-  <si>
-    <t>39*24*24.5</t>
-  </si>
-  <si>
-    <t>F05</t>
-  </si>
-  <si>
-    <t>E100.020310017</t>
-  </si>
-  <si>
-    <t>星火</t>
-  </si>
-  <si>
-    <t>Motor-TM86118S</t>
-  </si>
-  <si>
-    <t>电机</t>
-  </si>
-  <si>
-    <t>宽窄电机-STM86118S</t>
-  </si>
-  <si>
-    <t>E100.020310012</t>
-  </si>
-  <si>
-    <t>Motor-STM8680</t>
-  </si>
-  <si>
-    <t>步进电机-STM8680</t>
-  </si>
-  <si>
-    <t>E100.A33-013-03-00</t>
-  </si>
-  <si>
-    <t>工铭</t>
-  </si>
-  <si>
     <t>Airtight valve</t>
   </si>
   <si>
@@ -511,9 +542,6 @@
     <t>焊接海绵</t>
   </si>
   <si>
-    <t>深圳办</t>
-  </si>
-  <si>
     <t>E100.A20-001-15-00</t>
   </si>
   <si>
@@ -622,6 +650,9 @@
     <t>浦洛</t>
   </si>
   <si>
+    <t>TP-LINK</t>
+  </si>
+  <si>
     <t>Socket-For program machine-AT-TSSOP20-CMS</t>
   </si>
   <si>
@@ -655,6 +686,9 @@
     <t>宇思</t>
   </si>
   <si>
+    <t>麦格米特</t>
+  </si>
+  <si>
     <t>Bracket-3m*45cm</t>
   </si>
   <si>
@@ -674,9 +708,6 @@
   </si>
   <si>
     <t>F134</t>
-  </si>
-  <si>
-    <t>配件都在这里</t>
   </si>
   <si>
     <t>钣金流利条（1920MM*9条）</t>
@@ -992,7 +1023,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="12">
+  <numFmts count="11">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1004,9 +1035,8 @@
     <numFmt numFmtId="180" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="182" formatCode="0.00_ "/>
-    <numFmt numFmtId="183" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,11 +1079,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1430,7 +1455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1488,19 +1513,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1619,133 +1631,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
@@ -1755,7 +1767,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1766,7 +1778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="92">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1830,6 +1842,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1869,6 +1885,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1879,6 +1899,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1928,13 +1952,6 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1971,14 +1988,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2032,9 +2041,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="181" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2062,18 +2068,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2090,12 +2084,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2121,64 +2109,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3149,13 +3079,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC81"/>
+  <sheetPr filterMode="1" codeName="Sheet1"/>
+  <dimension ref="A1:AB64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:AA64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6272727272727" defaultRowHeight="30" customHeight="1"/>
@@ -3245,7 +3175,7 @@
       <c r="H2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="20" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="15" t="s">
@@ -3257,31 +3187,31 @@
       <c r="L2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="76" t="s">
+      <c r="R2" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="S2" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="51" t="s">
+      <c r="T2" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="77" t="s">
+      <c r="U2" s="75" t="s">
         <v>24</v>
       </c>
       <c r="V2" s="17" t="s">
@@ -3290,20 +3220,20 @@
       <c r="W2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="78" t="s">
+      <c r="X2" s="76" t="s">
         <v>27</v>
       </c>
       <c r="Y2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="86" t="s">
+      <c r="Z2" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="87" t="s">
+      <c r="AA2" s="82" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" ht="23" spans="1:27">
+    <row r="3" s="1" customFormat="1" ht="23" spans="1:28">
       <c r="A3" s="15" t="s">
         <v>31</v>
       </c>
@@ -3328,7 +3258,7 @@
       <c r="H3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="20" t="s">
         <v>39</v>
       </c>
       <c r="J3" s="15" t="s">
@@ -3340,31 +3270,31 @@
       <c r="L3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="50" t="s">
+      <c r="N3" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="P3" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="76" t="s">
+      <c r="R3" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="T3" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="77" t="s">
+      <c r="U3" s="75" t="s">
         <v>51</v>
       </c>
       <c r="V3" s="17" t="s">
@@ -3373,665 +3303,665 @@
       <c r="W3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="78" t="s">
+      <c r="X3" s="76" t="s">
         <v>54</v>
       </c>
       <c r="Y3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="86" t="s">
+      <c r="Z3" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" s="87" t="s">
+      <c r="AA3" s="82" t="s">
         <v>57</v>
       </c>
+      <c r="AB3" s="10"/>
     </row>
-    <row r="4" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A4" s="15">
+    <row r="4" ht="23" hidden="1" spans="1:27">
+      <c r="A4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z4" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4" s="82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:27">
+      <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="49" t="str">
-        <f>VLOOKUP(B4,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
-      </c>
-      <c r="J4" s="15">
-        <v>500</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="52">
-        <f ca="1" t="shared" ref="M4:M9" si="0">ROUND(EVALUATE(L4)*1000*0.000000001,2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="N4" s="53">
-        <f ca="1">M4*T4</f>
-        <v>0.01</v>
-      </c>
-      <c r="O4" s="54">
-        <v>2.8</v>
-      </c>
-      <c r="P4" s="55">
-        <f>O4*T4</f>
-        <v>2.8</v>
-      </c>
-      <c r="Q4" s="55">
-        <v>2.6</v>
-      </c>
-      <c r="R4" s="55">
-        <v>2.6</v>
-      </c>
-      <c r="S4" s="34">
-        <v>500</v>
-      </c>
-      <c r="T4" s="34">
-        <f>J4/S4</f>
-        <v>1</v>
-      </c>
-      <c r="U4" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y4" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z4" s="15">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="88">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="5" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A5" s="15">
-        <v>2</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>71</v>
+      <c r="E5" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>73</v>
+        <v>62</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="49" t="str">
+        <v>63</v>
+      </c>
+      <c r="I5" s="20" t="str">
         <f>VLOOKUP(B5,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
       <c r="J5" s="15">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="53">
+        <f ca="1" t="shared" ref="M5:M10" si="0">ROUND(EVALUATE(L5)*1000*0.000000001,2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="N5" s="54">
+        <f ca="1" t="shared" ref="N5:N10" si="1">M5*T5</f>
+        <v>0.01</v>
+      </c>
+      <c r="O5" s="55">
+        <v>2.8</v>
+      </c>
+      <c r="P5" s="56">
+        <f t="shared" ref="P5:P10" si="2">O5*T5</f>
+        <v>2.8</v>
+      </c>
+      <c r="Q5" s="56">
+        <v>2.6</v>
+      </c>
+      <c r="R5" s="56">
+        <v>2.6</v>
+      </c>
+      <c r="S5" s="36">
+        <v>500</v>
+      </c>
+      <c r="T5" s="36">
+        <f t="shared" ref="T5:T10" si="3">J5/S5</f>
+        <v>1</v>
+      </c>
+      <c r="U5" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="83">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:27">
+      <c r="A6" s="15">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="20" t="str">
+        <f>VLOOKUP(B6,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J6" s="15">
+        <v>3</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M6" s="58">
         <f ca="1" t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="N5" s="57">
-        <f ca="1">M5*T5</f>
+      <c r="N6" s="58">
+        <f ca="1" t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="O5" s="58">
+      <c r="O6" s="59">
         <v>2.04</v>
       </c>
-      <c r="P5" s="57">
-        <f t="shared" ref="P4:P5" si="1">O5*T5</f>
+      <c r="P6" s="58">
+        <f t="shared" si="2"/>
         <v>2.04</v>
       </c>
-      <c r="Q5" s="55">
+      <c r="Q6" s="56">
         <v>1.1</v>
       </c>
-      <c r="R5" s="55">
+      <c r="R6" s="56">
         <v>1.1</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S6" s="15">
         <v>3</v>
       </c>
-      <c r="T5" s="65">
-        <f>J5/S5</f>
+      <c r="T6" s="64">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U5" s="79" t="s">
+      <c r="U6" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49" t="s">
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Y5" s="49" t="s">
+      <c r="Y6" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z5" s="15">
+      <c r="Z6" s="15">
         <v>110</v>
       </c>
-      <c r="AA5" s="88">
+      <c r="AA6" s="83">
         <v>0.13</v>
       </c>
     </row>
-    <row r="6" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A6" s="15">
+    <row r="7" customHeight="1" spans="1:27">
+      <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B7" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C7" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G7" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="49" t="str">
-        <f>VLOOKUP(B6,[1]CXCI2025012201!$B:$D,3,0)</f>
+      <c r="I7" s="20" t="str">
+        <f>VLOOKUP(B7,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>12-14</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J7" s="15">
         <v>2</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="15">
-        <v>2</v>
-      </c>
-      <c r="T6" s="31"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y6" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z6" s="15">
-        <v>78</v>
-      </c>
-      <c r="AA6" s="88">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A7" s="15">
-        <v>4</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="49" t="str">
-        <f>VLOOKUP(B7,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>8-14</v>
-      </c>
-      <c r="J7" s="15">
-        <v>1</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="60"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55">
-        <v>0.2</v>
-      </c>
-      <c r="R7" s="55">
-        <v>0.2</v>
+      <c r="L7" s="33"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="56">
+        <v>0.5</v>
       </c>
       <c r="S7" s="15">
-        <v>1</v>
-      </c>
-      <c r="T7" s="34"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="32"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Y7" s="49" t="s">
+      <c r="Y7" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z7" s="15">
         <v>78</v>
       </c>
-      <c r="AA7" s="88">
+      <c r="AA7" s="83">
         <v>0.13</v>
       </c>
     </row>
-    <row r="8" ht="24.95" customHeight="1" spans="1:27">
+    <row r="8" customHeight="1" spans="1:27">
       <c r="A8" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>70</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>73</v>
+        <v>81</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="49" t="str">
+        <v>82</v>
+      </c>
+      <c r="I8" s="20" t="str">
         <f>VLOOKUP(B8,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
+        <v>8-14</v>
       </c>
       <c r="J8" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="56" t="s">
+      <c r="L8" s="37"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="R8" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="S8" s="15">
+        <v>1</v>
+      </c>
+      <c r="T8" s="36"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z8" s="15">
+        <v>78</v>
+      </c>
+      <c r="AA8" s="83">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:27">
+      <c r="A9" s="15">
+        <v>5</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="20" t="str">
+        <f>VLOOKUP(B9,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J9" s="15">
+        <v>3</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M9" s="53">
         <f ca="1" t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="N8" s="57">
-        <f ca="1">M8*T8</f>
+      <c r="N9" s="58">
+        <f ca="1" t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="O8" s="53">
+      <c r="O9" s="54">
         <v>1.88</v>
       </c>
-      <c r="P8" s="53">
-        <f>O8*T8</f>
+      <c r="P9" s="54">
+        <f t="shared" si="2"/>
         <v>1.88</v>
       </c>
-      <c r="Q8" s="55">
+      <c r="Q9" s="56">
         <v>1.55</v>
       </c>
-      <c r="R8" s="55">
+      <c r="R9" s="56">
         <v>1.55</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S9" s="15">
         <v>3</v>
       </c>
-      <c r="T8" s="15">
-        <f>J8/S8</f>
+      <c r="T9" s="15">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U8" s="79" t="s">
+      <c r="U9" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49" t="s">
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Y8" s="49" t="s">
+      <c r="Y9" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="Z9" s="15">
         <v>110</v>
       </c>
-      <c r="AA8" s="88">
+      <c r="AA9" s="83">
         <v>0.13</v>
       </c>
     </row>
-    <row r="9" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A9" s="15">
+    <row r="10" customHeight="1" spans="1:27">
+      <c r="A10" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C10" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="D10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="49" t="str">
-        <f>VLOOKUP(B9,[1]CXCI2025012201!$B:$D,3,0)</f>
+      <c r="I10" s="20" t="str">
+        <f>VLOOKUP(B10,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>QLDZ.0014</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J10" s="15">
         <v>100</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="56" t="s">
+      <c r="L10" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M10" s="60">
         <f ca="1" t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="N9" s="57">
-        <f ca="1">M9*T9</f>
+      <c r="N10" s="58">
+        <f ca="1" t="shared" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="O9" s="58">
+      <c r="O10" s="59">
         <v>4.3</v>
       </c>
-      <c r="P9" s="62">
-        <f>O9*T9</f>
+      <c r="P10" s="61">
+        <f t="shared" si="2"/>
         <v>4.3</v>
       </c>
-      <c r="Q9" s="55">
+      <c r="Q10" s="56">
         <v>2</v>
       </c>
-      <c r="R9" s="55">
+      <c r="R10" s="56">
         <v>2</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S10" s="15">
         <v>100</v>
       </c>
-      <c r="T9" s="31">
-        <f>J9/S9</f>
+      <c r="T10" s="32">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U9" s="79" t="s">
+      <c r="U10" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49" t="s">
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Y9" s="49" t="s">
+      <c r="Y10" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z9" s="15">
+      <c r="Z10" s="15">
         <v>22.6</v>
       </c>
-      <c r="AA9" s="88">
+      <c r="AA10" s="83">
         <v>0.13</v>
       </c>
     </row>
-    <row r="10" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A10" s="15">
+    <row r="11" customHeight="1" spans="1:27">
+      <c r="A11" s="15">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="49" t="str">
-        <f>VLOOKUP(B10,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>N510059196AA</v>
-      </c>
-      <c r="J10" s="15">
-        <v>137</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="60"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55">
-        <v>2.1</v>
-      </c>
-      <c r="R10" s="55">
-        <v>2.1</v>
-      </c>
-      <c r="S10" s="15">
-        <v>137</v>
-      </c>
-      <c r="T10" s="34"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y10" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z10" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="AA10" s="88">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A11" s="15">
-        <v>8</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="49" t="str">
+        <v>94</v>
+      </c>
+      <c r="I11" s="20" t="str">
         <f>VLOOKUP(B11,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>FA2P5N1W20360133</v>
+        <v>N510059196AA</v>
       </c>
       <c r="J11" s="15">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="61">
-        <f ca="1">ROUND(EVALUATE(L11)*1000*0.000000001,2)</f>
-        <v>0.02</v>
-      </c>
-      <c r="N11" s="57">
-        <f ca="1">M11*T11</f>
-        <v>0.02</v>
-      </c>
-      <c r="O11" s="58">
-        <v>14</v>
-      </c>
-      <c r="P11" s="62">
-        <f>O11*T11</f>
-        <v>14</v>
-      </c>
-      <c r="Q11" s="55">
-        <v>3</v>
-      </c>
-      <c r="R11" s="55">
-        <v>3</v>
+      <c r="L11" s="37"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56">
+        <v>2.1</v>
+      </c>
+      <c r="R11" s="56">
+        <v>2.1</v>
       </c>
       <c r="S11" s="15">
-        <v>1</v>
-      </c>
-      <c r="T11" s="65">
-        <f>J11/S11</f>
-        <v>1</v>
-      </c>
-      <c r="U11" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="T11" s="36"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y11" s="49" t="s">
+      <c r="Y11" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z11" s="15">
-        <v>1140</v>
-      </c>
-      <c r="AA11" s="88">
-        <v>0.13</v>
+        <v>0.8</v>
+      </c>
+      <c r="AA11" s="83">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:27">
+    <row r="12" customHeight="1" spans="1:27">
       <c r="A12" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>105</v>
+        <v>97</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="49" t="str">
+        <v>99</v>
+      </c>
+      <c r="I12" s="20" t="str">
         <f>VLOOKUP(B12,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>STM86118S</v>
+        <v>FA2P5N1W20360133</v>
       </c>
       <c r="J12" s="15">
         <v>1</v>
@@ -4039,506 +3969,521 @@
       <c r="K12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="59"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="55">
-        <v>5</v>
-      </c>
-      <c r="R12" s="55">
-        <v>5</v>
+      <c r="L12" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="60">
+        <f ca="1" t="shared" ref="M12:M16" si="4">ROUND(EVALUATE(L12)*1000*0.000000001,2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="N12" s="58">
+        <f ca="1" t="shared" ref="N12:N16" si="5">M12*T12</f>
+        <v>0.02</v>
+      </c>
+      <c r="O12" s="59">
+        <v>14</v>
+      </c>
+      <c r="P12" s="61">
+        <f t="shared" ref="P12:P23" si="6">O12*T12</f>
+        <v>14</v>
+      </c>
+      <c r="Q12" s="56">
+        <v>3</v>
+      </c>
+      <c r="R12" s="56">
+        <v>3</v>
       </c>
       <c r="S12" s="15">
         <v>1</v>
       </c>
-      <c r="T12" s="31"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49" t="s">
+      <c r="T12" s="64">
+        <f t="shared" ref="T12:T16" si="7">J12/S12</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Y12" s="49" t="s">
+      <c r="Y12" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z12" s="15">
-        <v>230</v>
-      </c>
-      <c r="AA12" s="88">
+        <v>1140</v>
+      </c>
+      <c r="AA12" s="83">
         <v>0.13</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:27">
+    <row r="13" customHeight="1" spans="1:27">
       <c r="A13" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>105</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="49" t="str">
+        <v>106</v>
+      </c>
+      <c r="I13" s="20" t="str">
         <f>VLOOKUP(B13,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>STM8680</v>
+        <v>STM86118S</v>
       </c>
       <c r="J13" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="60"/>
+      <c r="L13" s="33"/>
       <c r="M13" s="63"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55">
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="56">
         <v>5</v>
       </c>
-      <c r="R13" s="55">
+      <c r="R13" s="56">
         <v>5</v>
       </c>
       <c r="S13" s="15">
+        <v>1</v>
+      </c>
+      <c r="T13" s="32"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>230</v>
+      </c>
+      <c r="AA13" s="83">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:27">
+      <c r="A14" s="15">
+        <v>10</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="20" t="str">
+        <f>VLOOKUP(B14,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>STM8680</v>
+      </c>
+      <c r="J14" s="15">
         <v>3</v>
-      </c>
-      <c r="T13" s="34"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y13" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z13" s="15">
-        <v>185</v>
-      </c>
-      <c r="AA13" s="88">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="14" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A14" s="15">
-        <v>11</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="49" t="str">
-        <f>VLOOKUP(B14,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
-      </c>
-      <c r="J14" s="15">
-        <v>5</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="49" t="s">
+      <c r="L14" s="37"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56">
+        <v>5</v>
+      </c>
+      <c r="R14" s="56">
+        <v>5</v>
+      </c>
+      <c r="S14" s="15">
+        <v>3</v>
+      </c>
+      <c r="T14" s="36"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z14" s="15">
+        <v>185</v>
+      </c>
+      <c r="AA14" s="83">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:27">
+      <c r="A15" s="15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="M14" s="52">
-        <f ca="1">ROUND(EVALUATE(L14)*1000*0.000000001,2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="N14" s="53">
-        <f ca="1">M14*T14</f>
-        <v>0.01</v>
-      </c>
-      <c r="O14" s="54">
-        <v>1.44</v>
-      </c>
-      <c r="P14" s="55">
-        <f>O14*T14</f>
-        <v>1.44</v>
-      </c>
-      <c r="Q14" s="55">
-        <v>1.23</v>
-      </c>
-      <c r="R14" s="55">
-        <v>1.23</v>
-      </c>
-      <c r="S14" s="34">
+      <c r="G15" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="20" t="str">
+        <f>VLOOKUP(B15,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J15" s="15">
         <v>5</v>
-      </c>
-      <c r="T14" s="34">
-        <f>J14/S14</f>
-        <v>1</v>
-      </c>
-      <c r="U14" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y14" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z14" s="15">
-        <v>350</v>
-      </c>
-      <c r="AA14" s="88">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="15" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A15" s="15">
-        <v>12</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15" s="49" t="str">
-        <f>VLOOKUP(B15,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>900M-T-sk</v>
-      </c>
-      <c r="J15" s="15">
-        <v>30</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="M15" s="57">
-        <f ca="1">ROUND(EVALUATE(L15)*1000*0.000000001,2)</f>
+      <c r="L15" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" s="53">
+        <f ca="1" t="shared" si="4"/>
         <v>0.01</v>
       </c>
-      <c r="N15" s="57">
-        <f ca="1">M15*T15</f>
+      <c r="N15" s="54">
+        <f ca="1" t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="O15" s="65">
-        <v>7.55</v>
-      </c>
-      <c r="P15" s="65">
-        <f>O15*T15</f>
-        <v>7.55</v>
-      </c>
-      <c r="Q15" s="55">
-        <v>0.15</v>
-      </c>
-      <c r="R15" s="55">
-        <v>0.15</v>
-      </c>
-      <c r="S15" s="15">
-        <v>30</v>
-      </c>
-      <c r="T15" s="31">
-        <f>J15/S15</f>
+      <c r="O15" s="55">
+        <v>1.44</v>
+      </c>
+      <c r="P15" s="56">
+        <f t="shared" si="6"/>
+        <v>1.44</v>
+      </c>
+      <c r="Q15" s="56">
+        <v>1.23</v>
+      </c>
+      <c r="R15" s="56">
+        <v>1.23</v>
+      </c>
+      <c r="S15" s="36">
+        <v>5</v>
+      </c>
+      <c r="T15" s="36">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="U15" s="79" t="s">
-        <v>122</v>
-      </c>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="60" t="s">
+      <c r="U15" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Y15" s="49" t="s">
+      <c r="Y15" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z15" s="15">
-        <v>5</v>
-      </c>
-      <c r="AA15" s="88">
-        <v>0.01</v>
+        <v>350</v>
+      </c>
+      <c r="AA15" s="83">
+        <v>0.13</v>
       </c>
     </row>
-    <row r="16" ht="24.95" customHeight="1" spans="1:27">
+    <row r="16" customHeight="1" spans="1:27">
       <c r="A16" s="15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="I16" s="49" t="str">
+        <v>122</v>
+      </c>
+      <c r="I16" s="20" t="str">
         <f>VLOOKUP(B16,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>900M-T-B</v>
+        <v>900M-T-sk</v>
       </c>
       <c r="J16" s="15">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="59"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31">
-        <f t="shared" ref="P16:P22" si="2">O16*T16</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="55">
-        <v>2.5</v>
-      </c>
-      <c r="R16" s="55">
-        <v>2.5</v>
+      <c r="L16" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="58">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="N16" s="58">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="O16" s="64">
+        <v>7.55</v>
+      </c>
+      <c r="P16" s="64">
+        <f t="shared" si="6"/>
+        <v>7.55</v>
+      </c>
+      <c r="Q16" s="56">
+        <v>0.15</v>
+      </c>
+      <c r="R16" s="56">
+        <v>0.15</v>
       </c>
       <c r="S16" s="15">
-        <v>500</v>
-      </c>
-      <c r="T16" s="31"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" s="32">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U16" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y16" s="49" t="s">
+      <c r="Y16" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z16" s="15">
         <v>5</v>
       </c>
-      <c r="AA16" s="88">
+      <c r="AA16" s="83">
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" ht="24.95" customHeight="1" spans="1:27">
+    <row r="17" customHeight="1" spans="1:27">
       <c r="A17" s="15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>125</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>119</v>
+      <c r="G17" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" s="49" t="str">
+        <v>121</v>
+      </c>
+      <c r="I17" s="20" t="str">
         <f>VLOOKUP(B17,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>900M-T-4C</v>
+        <v>900M-T-B</v>
       </c>
       <c r="J17" s="15">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="59"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31">
-        <f t="shared" si="2"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="55">
-        <v>2</v>
-      </c>
-      <c r="R17" s="55">
-        <v>2</v>
+      <c r="Q17" s="56">
+        <v>2.5</v>
+      </c>
+      <c r="R17" s="56">
+        <v>2.5</v>
       </c>
       <c r="S17" s="15">
-        <v>400</v>
-      </c>
-      <c r="T17" s="31"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="T17" s="32"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Y17" s="49" t="s">
+      <c r="Y17" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z17" s="15">
         <v>5</v>
       </c>
-      <c r="AA17" s="88">
+      <c r="AA17" s="83">
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" ht="24.95" customHeight="1" spans="1:27">
+    <row r="18" customHeight="1" spans="1:27">
       <c r="A18" s="15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>127</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>119</v>
+      <c r="G18" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" s="49" t="str">
+        <v>121</v>
+      </c>
+      <c r="I18" s="20" t="str">
         <f>VLOOKUP(B18,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>900M-T-2C</v>
+        <v>900M-T-4C</v>
       </c>
       <c r="J18" s="15">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="59"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31">
-        <f t="shared" si="2"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="55">
-        <v>0.2</v>
-      </c>
-      <c r="R18" s="55">
-        <v>0.2</v>
+      <c r="Q18" s="56">
+        <v>2</v>
+      </c>
+      <c r="R18" s="56">
+        <v>2</v>
       </c>
       <c r="S18" s="15">
-        <v>40</v>
-      </c>
-      <c r="T18" s="31"/>
-      <c r="U18" s="80"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="T18" s="32"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Y18" s="49" t="s">
+      <c r="Y18" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z18" s="15">
         <v>5</v>
       </c>
-      <c r="AA18" s="88">
+      <c r="AA18" s="83">
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" ht="24.95" customHeight="1" spans="1:27">
+    <row r="19" customHeight="1" spans="1:27">
       <c r="A19" s="15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>119</v>
+      <c r="G19" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="I19" s="49" t="str">
+      <c r="I19" s="20" t="str">
         <f>VLOOKUP(B19,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>900-T-1.2D</v>
+        <v>900M-T-2C</v>
       </c>
       <c r="J19" s="15">
         <v>40</v>
@@ -4546,687 +4491,687 @@
       <c r="K19" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="59"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31">
-        <f t="shared" si="2"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="55">
+      <c r="Q19" s="56">
         <v>0.2</v>
       </c>
-      <c r="R19" s="55">
+      <c r="R19" s="56">
         <v>0.2</v>
       </c>
       <c r="S19" s="15">
         <v>40</v>
       </c>
-      <c r="T19" s="31"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49" t="s">
+      <c r="T19" s="32"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Y19" s="49" t="s">
+      <c r="Y19" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z19" s="15">
-        <v>3</v>
-      </c>
-      <c r="AA19" s="88">
+        <v>5</v>
+      </c>
+      <c r="AA19" s="83">
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" ht="24.95" customHeight="1" spans="1:27">
+    <row r="20" customHeight="1" spans="1:27">
       <c r="A20" s="15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>132</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="F20" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" s="49" t="str">
+      <c r="I20" s="20" t="str">
         <f>VLOOKUP(B20,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>WRNT-013</v>
+        <v>900-T-1.2D</v>
       </c>
       <c r="J20" s="15">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="59"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31">
-        <f t="shared" si="2"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="55">
-        <v>0.7</v>
-      </c>
-      <c r="R20" s="55">
-        <v>0.7</v>
+      <c r="Q20" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="R20" s="56">
+        <v>0.2</v>
       </c>
       <c r="S20" s="15">
+        <v>40</v>
+      </c>
+      <c r="T20" s="32"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z20" s="15">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="83">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:27">
+      <c r="A21" s="15">
+        <v>17</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="20" t="str">
+        <f>VLOOKUP(B21,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>WRNT-013</v>
+      </c>
+      <c r="J21" s="15">
         <v>140</v>
-      </c>
-      <c r="T20" s="31"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y20" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z20" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="AA20" s="88">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="21" ht="24.95" customHeight="1" spans="1:28">
-      <c r="A21" s="15">
-        <v>18</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="I21" s="49" t="str">
-        <f>VLOOKUP(B21,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
-      </c>
-      <c r="J21" s="15">
-        <v>250</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="60"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34">
-        <f t="shared" si="2"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="55">
-        <v>1.25</v>
-      </c>
-      <c r="R21" s="55">
-        <v>1.25</v>
+      <c r="Q21" s="56">
+        <v>0.7</v>
+      </c>
+      <c r="R21" s="56">
+        <v>0.7</v>
       </c>
       <c r="S21" s="15">
-        <v>250</v>
-      </c>
-      <c r="T21" s="34"/>
-      <c r="U21" s="81"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="T21" s="32"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Y21" s="49" t="s">
+      <c r="Y21" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z21" s="15">
-        <v>0.99</v>
-      </c>
-      <c r="AA21" s="88">
+        <v>1.2</v>
+      </c>
+      <c r="AA21" s="83">
         <v>0.01</v>
       </c>
-      <c r="AB21" s="10" t="s">
+    </row>
+    <row r="22" customHeight="1" spans="1:27">
+      <c r="A22" s="15">
+        <v>18</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="22" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A22" s="15">
-        <v>19</v>
-      </c>
-      <c r="B22" s="16" t="s">
+      <c r="G22" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>142</v>
-      </c>
       <c r="H22" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I22" s="49" t="str">
+        <v>139</v>
+      </c>
+      <c r="I22" s="20" t="str">
         <f>VLOOKUP(B22,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
       <c r="J22" s="15">
-        <v>388</v>
+        <v>250</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="56" t="s">
+      <c r="L22" s="37"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="56">
+        <v>1.25</v>
+      </c>
+      <c r="R22" s="56">
+        <v>1.25</v>
+      </c>
+      <c r="S22" s="15">
+        <v>250</v>
+      </c>
+      <c r="T22" s="36"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z22" s="15">
+        <v>0.99</v>
+      </c>
+      <c r="AA22" s="83">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:27">
+      <c r="A23" s="15">
+        <v>19</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="M22" s="65">
-        <f ca="1">ROUND(EVALUATE(L22)*1000*0.000000001,2)</f>
-        <v>0.02</v>
-      </c>
-      <c r="N22" s="65">
-        <f ca="1">M22*T22</f>
-        <v>0.02</v>
-      </c>
-      <c r="O22" s="65">
-        <v>20</v>
-      </c>
-      <c r="P22" s="65">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="Q22" s="55">
-        <v>3.49</v>
-      </c>
-      <c r="R22" s="55">
-        <v>3.49</v>
-      </c>
-      <c r="S22" s="15">
-        <v>388</v>
-      </c>
-      <c r="T22" s="31">
-        <f>J22/S22</f>
-        <v>1</v>
-      </c>
-      <c r="U22" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y22" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z22" s="15">
-        <v>1.32</v>
-      </c>
-      <c r="AA22" s="88">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="23" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A23" s="15">
-        <v>20</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>142</v>
-      </c>
       <c r="H23" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I23" s="49" t="str">
+        <v>143</v>
+      </c>
+      <c r="I23" s="20" t="str">
         <f>VLOOKUP(B23,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
       <c r="J23" s="15">
-        <v>457</v>
+        <v>388</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="59"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="55">
-        <v>4.11</v>
-      </c>
-      <c r="R23" s="55">
-        <v>4.11</v>
+      <c r="L23" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" s="64">
+        <f ca="1">ROUND(EVALUATE(L23)*1000*0.000000001,2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="N23" s="64">
+        <f ca="1">M23*T23</f>
+        <v>0.02</v>
+      </c>
+      <c r="O23" s="64">
+        <v>20</v>
+      </c>
+      <c r="P23" s="64">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="Q23" s="56">
+        <v>3.49</v>
+      </c>
+      <c r="R23" s="56">
+        <v>3.49</v>
       </c>
       <c r="S23" s="15">
-        <v>457</v>
-      </c>
-      <c r="T23" s="31"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="T23" s="32">
+        <f>J23/S23</f>
+        <v>1</v>
+      </c>
+      <c r="U23" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Y23" s="49" t="s">
+      <c r="Y23" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z23" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA23" s="88">
+      <c r="AA23" s="83">
         <v>0.13</v>
       </c>
     </row>
-    <row r="24" ht="24.95" customHeight="1" spans="1:27">
+    <row r="24" customHeight="1" spans="1:27">
       <c r="A24" s="15">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>146</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="20" t="s">
         <v>142</v>
       </c>
+      <c r="G24" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="H24" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="49" t="str">
+        <v>143</v>
+      </c>
+      <c r="I24" s="20" t="str">
         <f>VLOOKUP(B24,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
       <c r="J24" s="15">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K24" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="59"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="55">
-        <v>4.12</v>
-      </c>
-      <c r="R24" s="55">
-        <v>4.12</v>
+      <c r="L24" s="33"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="56">
+        <v>4.11</v>
+      </c>
+      <c r="R24" s="56">
+        <v>4.11</v>
       </c>
       <c r="S24" s="15">
-        <v>458</v>
-      </c>
-      <c r="T24" s="31"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="T24" s="32"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Y24" s="49" t="s">
+      <c r="Y24" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z24" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA24" s="88">
+      <c r="AA24" s="83">
         <v>0.13</v>
       </c>
     </row>
-    <row r="25" ht="24.95" customHeight="1" spans="1:27">
+    <row r="25" customHeight="1" spans="1:27">
       <c r="A25" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>147</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="20" t="s">
         <v>142</v>
       </c>
+      <c r="G25" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="H25" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" s="49" t="str">
+        <v>143</v>
+      </c>
+      <c r="I25" s="20" t="str">
         <f>VLOOKUP(B25,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
       <c r="J25" s="15">
-        <v>287</v>
+        <v>458</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L25" s="59"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="55">
-        <v>2.58</v>
-      </c>
-      <c r="R25" s="55">
-        <v>2.58</v>
+      <c r="L25" s="33"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="56">
+        <v>4.12</v>
+      </c>
+      <c r="R25" s="56">
+        <v>4.12</v>
       </c>
       <c r="S25" s="15">
-        <v>287</v>
-      </c>
-      <c r="T25" s="31"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="T25" s="32"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Y25" s="49" t="s">
+      <c r="Y25" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z25" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA25" s="88">
+      <c r="AA25" s="83">
         <v>0.13</v>
       </c>
     </row>
-    <row r="26" ht="24.95" customHeight="1" spans="1:27">
+    <row r="26" customHeight="1" spans="1:27">
       <c r="A26" s="15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>148</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="20" t="s">
         <v>142</v>
       </c>
+      <c r="G26" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="H26" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="I26" s="49" t="str">
+        <v>143</v>
+      </c>
+      <c r="I26" s="20" t="str">
         <f>VLOOKUP(B26,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
       <c r="J26" s="15">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="59"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="55">
-        <v>0.36</v>
-      </c>
-      <c r="R26" s="55">
-        <v>0.36</v>
+      <c r="L26" s="33"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="56">
+        <v>2.58</v>
+      </c>
+      <c r="R26" s="56">
+        <v>2.58</v>
       </c>
       <c r="S26" s="15">
-        <v>40</v>
-      </c>
-      <c r="T26" s="31"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="T26" s="32"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Y26" s="49" t="s">
+      <c r="Y26" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z26" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA26" s="88">
+      <c r="AA26" s="83">
         <v>0.13</v>
       </c>
     </row>
-    <row r="27" ht="24.95" customHeight="1" spans="1:27">
+    <row r="27" customHeight="1" spans="1:27">
       <c r="A27" s="15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="I27" s="49" t="str">
+      <c r="I27" s="20" t="str">
         <f>VLOOKUP(B27,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
       <c r="J27" s="15">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L27" s="59"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="55">
-        <v>0.54</v>
-      </c>
-      <c r="R27" s="55">
-        <v>0.54</v>
+      <c r="L27" s="33"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="56">
+        <v>0.36</v>
+      </c>
+      <c r="R27" s="56">
+        <v>0.36</v>
       </c>
       <c r="S27" s="15">
-        <v>60</v>
-      </c>
-      <c r="T27" s="31"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" s="32"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Y27" s="49" t="s">
+      <c r="Y27" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z27" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA27" s="88">
+      <c r="AA27" s="83">
         <v>0.13</v>
       </c>
     </row>
-    <row r="28" ht="24.95" customHeight="1" spans="1:27">
+    <row r="28" customHeight="1" spans="1:27">
       <c r="A28" s="15">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>142</v>
+      <c r="G28" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="I28" s="49" t="str">
+        <v>151</v>
+      </c>
+      <c r="I28" s="20" t="str">
         <f>VLOOKUP(B28,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
       <c r="J28" s="15">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L28" s="59"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="55">
-        <v>0.45</v>
-      </c>
-      <c r="R28" s="55">
-        <v>0.45</v>
+      <c r="L28" s="33"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="56">
+        <v>0.54</v>
+      </c>
+      <c r="R28" s="56">
+        <v>0.54</v>
       </c>
       <c r="S28" s="15">
-        <v>50</v>
-      </c>
-      <c r="T28" s="31"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="T28" s="32"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Y28" s="49" t="s">
+      <c r="Y28" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z28" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA28" s="88">
+      <c r="AA28" s="83">
         <v>0.13</v>
       </c>
     </row>
-    <row r="29" ht="24.95" customHeight="1" spans="1:27">
+    <row r="29" customHeight="1" spans="1:27">
       <c r="A29" s="15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>142</v>
+      <c r="G29" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29" s="49" t="str">
+        <v>151</v>
+      </c>
+      <c r="I29" s="20" t="str">
         <f>VLOOKUP(B29,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
@@ -5236,1107 +5181,1090 @@
       <c r="K29" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L29" s="59"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="55">
+      <c r="L29" s="33"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="56">
         <v>0.45</v>
       </c>
-      <c r="R29" s="55">
+      <c r="R29" s="56">
         <v>0.45</v>
       </c>
       <c r="S29" s="15">
         <v>50</v>
       </c>
-      <c r="T29" s="31"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49" t="s">
+      <c r="T29" s="32"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Y29" s="49" t="s">
+      <c r="Y29" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z29" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA29" s="88">
+      <c r="AA29" s="83">
         <v>0.13</v>
       </c>
     </row>
-    <row r="30" ht="24.95" customHeight="1" spans="1:27">
+    <row r="30" customHeight="1" spans="1:27">
       <c r="A30" s="15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>142</v>
+      <c r="G30" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" s="49" t="str">
+        <v>143</v>
+      </c>
+      <c r="I30" s="20" t="str">
         <f>VLOOKUP(B30,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
       <c r="J30" s="15">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K30" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L30" s="60"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="55">
-        <v>0.99</v>
-      </c>
-      <c r="R30" s="55">
-        <v>0.99</v>
+      <c r="L30" s="33"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="56">
+        <v>0.45</v>
+      </c>
+      <c r="R30" s="56">
+        <v>0.45</v>
       </c>
       <c r="S30" s="15">
-        <v>110</v>
-      </c>
-      <c r="T30" s="34"/>
-      <c r="U30" s="81"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="T30" s="32"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Y30" s="49" t="s">
+      <c r="Y30" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z30" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA30" s="88">
+      <c r="AA30" s="83">
         <v>0.13</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:29">
+    <row r="31" customHeight="1" spans="1:27">
       <c r="A31" s="15">
-        <v>28</v>
-      </c>
-      <c r="B31" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="I31" s="49" t="str">
+      <c r="G31" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="20" t="str">
         <f>VLOOKUP(B31,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J31" s="66">
-        <v>2040</v>
-      </c>
-      <c r="K31" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="L31" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="M31" s="52">
-        <f ca="1">ROUND(EVALUATE(L31)*1000*0.000000001,2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="N31" s="67">
-        <f ca="1">M31*T31</f>
-        <v>6.12</v>
-      </c>
-      <c r="O31" s="67" t="s">
-        <v>165</v>
-      </c>
-      <c r="P31" s="68">
-        <f>O31*T31</f>
-        <v>1204.28</v>
-      </c>
-      <c r="Q31" s="55">
-        <v>1200</v>
-      </c>
-      <c r="R31" s="55">
-        <v>1200</v>
-      </c>
-      <c r="S31" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="T31" s="15">
-        <f>J31/S31</f>
+      <c r="J31" s="15">
+        <v>110</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31" s="37"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="56">
+        <v>0.99</v>
+      </c>
+      <c r="R31" s="56">
+        <v>0.99</v>
+      </c>
+      <c r="S31" s="15">
+        <v>110</v>
+      </c>
+      <c r="T31" s="36"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y31" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="U31" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y31" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z31" s="89">
-        <v>14.8</v>
-      </c>
-      <c r="AA31" s="88">
+      <c r="Z31" s="15">
+        <v>1.32</v>
+      </c>
+      <c r="AA31" s="83">
         <v>0.13</v>
       </c>
-      <c r="AB31" s="90"/>
-      <c r="AC31" s="91"/>
     </row>
-    <row r="32" customHeight="1" spans="1:29">
+    <row r="32" customHeight="1" spans="1:27">
       <c r="A32" s="15">
-        <v>29</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>168</v>
+        <v>28</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="G32" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="H32" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="I32" s="49" t="str">
+      <c r="G32" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="20" t="str">
         <f>VLOOKUP(B32,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J32" s="66">
-        <v>2800</v>
-      </c>
-      <c r="K32" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="L32" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="M32" s="52">
-        <f ca="1">ROUND(EVALUATE(L32)*1000*0.000000001,2)</f>
-        <v>0.07</v>
-      </c>
-      <c r="N32" s="57">
-        <f ca="1">M32*T32</f>
-        <v>3.92</v>
-      </c>
-      <c r="O32" s="53">
-        <v>15.5</v>
-      </c>
-      <c r="P32" s="68">
-        <f>O32*T32</f>
-        <v>868</v>
-      </c>
-      <c r="Q32" s="55">
-        <v>866</v>
-      </c>
-      <c r="R32" s="55">
-        <v>866</v>
-      </c>
-      <c r="S32" s="74" t="s">
-        <v>171</v>
+      <c r="J32" s="65">
+        <v>2040</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="L32" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="M32" s="53">
+        <f ca="1" t="shared" ref="M32:M34" si="8">ROUND(EVALUATE(L32)*1000*0.000000001,2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="N32" s="66">
+        <f ca="1" t="shared" ref="N32:N34" si="9">M32*T32</f>
+        <v>6.12</v>
+      </c>
+      <c r="O32" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="P32" s="67">
+        <f t="shared" ref="P32:P34" si="10">O32*T32</f>
+        <v>1204.28</v>
+      </c>
+      <c r="Q32" s="56">
+        <v>1200</v>
+      </c>
+      <c r="R32" s="56">
+        <v>1200</v>
+      </c>
+      <c r="S32" s="73" t="s">
+        <v>167</v>
       </c>
       <c r="T32" s="15">
-        <f>J32/S32</f>
-        <v>56</v>
-      </c>
-      <c r="U32" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="V32" s="82"/>
-      <c r="W32" s="82"/>
-      <c r="X32" s="60" t="s">
+        <f t="shared" ref="T32:T34" si="11">J32/S32</f>
+        <v>68</v>
+      </c>
+      <c r="U32" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="V32" s="80"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y32" s="49" t="s">
+      <c r="Y32" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z32" s="89">
-        <v>7.3</v>
-      </c>
-      <c r="AA32" s="88">
+      <c r="Z32" s="84">
+        <v>14.8</v>
+      </c>
+      <c r="AA32" s="83">
         <v>0.13</v>
       </c>
-      <c r="AB32" s="90"/>
-      <c r="AC32" s="91"/>
     </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="33" customHeight="1" spans="1:27">
       <c r="A33" s="15">
-        <v>30</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>173</v>
+        <v>29</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="I33" s="20" t="str">
+        <f>VLOOKUP(B33,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J33" s="65">
+        <v>2800</v>
+      </c>
+      <c r="K33" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="L33" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="M33" s="53">
+        <f ca="1" t="shared" si="8"/>
+        <v>0.07</v>
+      </c>
+      <c r="N33" s="58">
+        <f ca="1" t="shared" si="9"/>
+        <v>3.92</v>
+      </c>
+      <c r="O33" s="54">
+        <v>15.5</v>
+      </c>
+      <c r="P33" s="67">
+        <f t="shared" si="10"/>
+        <v>868</v>
+      </c>
+      <c r="Q33" s="56">
+        <v>866</v>
+      </c>
+      <c r="R33" s="56">
+        <v>866</v>
+      </c>
+      <c r="S33" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="T33" s="15">
+        <f t="shared" si="11"/>
+        <v>56</v>
+      </c>
+      <c r="U33" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="V33" s="80"/>
+      <c r="W33" s="80"/>
+      <c r="X33" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y33" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z33" s="84">
+        <v>7.3</v>
+      </c>
+      <c r="AA33" s="83">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:27">
+      <c r="A34" s="15">
+        <v>30</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="D34" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="E34" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="I33" s="49" t="str">
-        <f>VLOOKUP(B33,[1]CXCI2025012201!$B:$D,3,0)</f>
+      <c r="G34" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="I34" s="20" t="str">
+        <f>VLOOKUP(B34,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>AT-TSSOP20-CMS</v>
       </c>
-      <c r="J33" s="69">
+      <c r="J34" s="68">
         <v>2</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L33" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="M33" s="53">
-        <f ca="1">ROUND(EVALUATE(L33)*1000*0.000000001,2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="N33" s="57">
-        <f ca="1">M33*T33</f>
-        <v>0.01</v>
-      </c>
-      <c r="O33" s="58">
-        <v>1</v>
-      </c>
-      <c r="P33" s="62">
-        <f>O33*T33</f>
-        <v>1</v>
-      </c>
-      <c r="Q33" s="55">
-        <v>0.3</v>
-      </c>
-      <c r="R33" s="55">
-        <v>0.3</v>
-      </c>
-      <c r="S33" s="15">
-        <v>2</v>
-      </c>
-      <c r="T33" s="65">
-        <f>J33/S33</f>
-        <v>1</v>
-      </c>
-      <c r="U33" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="V33" s="82"/>
-      <c r="W33" s="82"/>
-      <c r="X33" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y33" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z33" s="89">
-        <v>580</v>
-      </c>
-      <c r="AA33" s="88">
-        <v>0.13</v>
-      </c>
-      <c r="AB33" s="91"/>
-      <c r="AC33" s="91"/>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A34" s="15">
-        <v>31</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="I34" s="49" t="str">
-        <f>VLOOKUP(B34,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>KLV-M913A-A10</v>
-      </c>
-      <c r="J34" s="69">
-        <v>5</v>
       </c>
       <c r="K34" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L34" s="67"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="55">
+      <c r="L34" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="M34" s="54">
+        <f ca="1" t="shared" si="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="N34" s="58">
+        <f ca="1" t="shared" si="9"/>
+        <v>0.01</v>
+      </c>
+      <c r="O34" s="59">
+        <v>1</v>
+      </c>
+      <c r="P34" s="61">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q34" s="56">
+        <v>0.3</v>
+      </c>
+      <c r="R34" s="56">
+        <v>0.3</v>
+      </c>
+      <c r="S34" s="15">
+        <v>2</v>
+      </c>
+      <c r="T34" s="64">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U34" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="V34" s="80"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y34" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z34" s="84">
+        <v>580</v>
+      </c>
+      <c r="AA34" s="83">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:27">
+      <c r="A35" s="15">
+        <v>31</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="I35" s="20" t="str">
+        <f>VLOOKUP(B35,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>KLV-M913A-A10</v>
+      </c>
+      <c r="J35" s="68">
+        <v>5</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L35" s="66"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="56">
         <v>0.6</v>
       </c>
-      <c r="R34" s="55">
+      <c r="R35" s="56">
         <v>0.6</v>
       </c>
-      <c r="S34" s="15">
+      <c r="S35" s="15">
         <v>5</v>
       </c>
-      <c r="T34" s="31"/>
-      <c r="U34" s="80"/>
-      <c r="V34" s="82"/>
-      <c r="W34" s="82"/>
-      <c r="X34" s="60" t="s">
+      <c r="T35" s="32"/>
+      <c r="U35" s="78"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y34" s="49" t="s">
+      <c r="Y35" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z34" s="92">
+      <c r="Z35" s="85">
         <v>80</v>
       </c>
-      <c r="AA34" s="93">
+      <c r="AA35" s="86">
         <v>0.13</v>
       </c>
-      <c r="AB34" s="91"/>
-      <c r="AC34" s="91"/>
     </row>
-    <row r="35" customHeight="1" spans="1:29">
-      <c r="A35" s="15">
+    <row r="36" customHeight="1" spans="1:27">
+      <c r="A36" s="15">
         <v>32</v>
       </c>
-      <c r="B35" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="15" t="s">
+      <c r="B36" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="G35" s="33" t="s">
+      <c r="F36" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="I36" s="20" t="str">
+        <f>VLOOKUP(B36,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J36" s="69">
+        <v>3</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="L36" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="M36" s="53">
+        <f ca="1" t="shared" ref="M36:M51" si="12">ROUND(EVALUATE(L36)*1000*0.000000001,2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="N36" s="58">
+        <f ca="1" t="shared" ref="N36:N40" si="13">M36*T36</f>
+        <v>0.06</v>
+      </c>
+      <c r="O36" s="54">
+        <v>34.24</v>
+      </c>
+      <c r="P36" s="70">
+        <f>SUM(O36:O38)</f>
+        <v>66.02</v>
+      </c>
+      <c r="Q36" s="61">
+        <v>34</v>
+      </c>
+      <c r="R36" s="61">
+        <v>64.2</v>
+      </c>
+      <c r="S36" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="T36" s="15">
+        <f>J36/S36</f>
+        <v>1</v>
+      </c>
+      <c r="U36" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="V36" s="80"/>
+      <c r="W36" s="80"/>
+      <c r="X36" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y36" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z36" s="85">
+        <v>1160</v>
+      </c>
+      <c r="AA36" s="86">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:27">
+      <c r="A37" s="15">
+        <v>33</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="M37" s="53">
+        <f ca="1" t="shared" si="12"/>
+        <v>0.03</v>
+      </c>
+      <c r="N37" s="58">
+        <f ca="1" t="shared" si="13"/>
+        <v>0.03</v>
+      </c>
+      <c r="O37" s="55">
+        <v>18.4</v>
+      </c>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61">
+        <v>205</v>
+      </c>
+      <c r="R37" s="61"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="15">
+        <f>J36/S36</f>
+        <v>1</v>
+      </c>
+      <c r="U37" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="V37" s="80"/>
+      <c r="W37" s="80"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z37" s="87"/>
+      <c r="AA37" s="88"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:27">
+      <c r="A38" s="15">
+        <v>34</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I38" s="20"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="M38" s="53">
+        <f ca="1" t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="N38" s="58">
+        <f ca="1" t="shared" si="13"/>
+        <v>0.05</v>
+      </c>
+      <c r="O38" s="55">
+        <v>13.38</v>
+      </c>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56">
+        <v>270</v>
+      </c>
+      <c r="R38" s="56"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="15">
+        <f>J36/S36</f>
+        <v>1</v>
+      </c>
+      <c r="U38" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="V38" s="80"/>
+      <c r="W38" s="80"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z38" s="89"/>
+      <c r="AA38" s="90"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:27">
+      <c r="A39" s="15">
+        <v>35</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="D39" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="I35" s="49" t="str">
-        <f>VLOOKUP(B35,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
-      </c>
-      <c r="J35" s="70">
-        <v>3</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="L35" s="67" t="s">
-        <v>190</v>
-      </c>
-      <c r="M35" s="52">
-        <f ca="1">ROUND(EVALUATE(L35)*1000*0.000000001,2)</f>
-        <v>0.06</v>
-      </c>
-      <c r="N35" s="57">
-        <f ca="1" t="shared" ref="N35:N39" si="3">M35*T35</f>
-        <v>0.06</v>
-      </c>
-      <c r="O35" s="53">
-        <v>34.24</v>
-      </c>
-      <c r="P35" s="71">
-        <f>SUM(O35:O37)</f>
-        <v>66.02</v>
-      </c>
-      <c r="Q35" s="62">
-        <v>34</v>
-      </c>
-      <c r="R35" s="62">
-        <v>64.2</v>
-      </c>
-      <c r="S35" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="T35" s="15">
-        <f>J35/S35</f>
-        <v>1</v>
-      </c>
-      <c r="U35" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="V35" s="82"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y35" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z35" s="92">
-        <v>1160</v>
-      </c>
-      <c r="AA35" s="93">
-        <v>0.13</v>
-      </c>
-      <c r="AB35" s="90" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC35" s="91"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:29">
-      <c r="A36" s="15">
-        <v>33</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="15" t="s">
+      <c r="E39" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="I36" s="49"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="67" t="s">
-        <v>195</v>
-      </c>
-      <c r="M36" s="52">
-        <f ca="1">ROUND(EVALUATE(L36)*1000*0.000000001,2)</f>
-        <v>0.03</v>
-      </c>
-      <c r="N36" s="57">
-        <f ca="1" t="shared" si="3"/>
-        <v>0.03</v>
-      </c>
-      <c r="O36" s="54">
-        <v>18.4</v>
-      </c>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62">
+      <c r="F39" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="H39" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="R36" s="62"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="15">
-        <f>J35/S35</f>
-        <v>1</v>
-      </c>
-      <c r="U36" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="V36" s="82"/>
-      <c r="W36" s="82"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z36" s="94"/>
-      <c r="AA36" s="95"/>
-      <c r="AB36" s="90"/>
-      <c r="AC36" s="91"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:29">
-      <c r="A37" s="15">
-        <v>34</v>
-      </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="I37" s="49"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="67" t="s">
-        <v>198</v>
-      </c>
-      <c r="M37" s="52">
-        <f ca="1">ROUND(EVALUATE(L37)*1000*0.000000001,2)</f>
-        <v>0.05</v>
-      </c>
-      <c r="N37" s="57">
-        <f ca="1" t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="O37" s="54">
-        <v>13.38</v>
-      </c>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55">
-        <v>270</v>
-      </c>
-      <c r="R37" s="55"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="15">
-        <f>J35/S35</f>
-        <v>1</v>
-      </c>
-      <c r="U37" s="77" t="s">
-        <v>199</v>
-      </c>
-      <c r="V37" s="82"/>
-      <c r="W37" s="82"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z37" s="96"/>
-      <c r="AA37" s="97"/>
-      <c r="AB37" s="90"/>
-      <c r="AC37" s="91"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:29">
-      <c r="A38" s="15">
-        <v>35</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="I38" s="49" t="str">
-        <f>VLOOKUP(B38,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
-      </c>
-      <c r="J38" s="70">
-        <v>12</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="L38" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="M38" s="52">
-        <f ca="1" t="shared" ref="M38:M50" si="4">ROUND(EVALUATE(L38)*1000*0.000000001,2)</f>
-        <v>0.05</v>
-      </c>
-      <c r="N38" s="53">
-        <f ca="1" t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="O38" s="53">
-        <v>34.91</v>
-      </c>
-      <c r="P38" s="68">
-        <f>O38*T38</f>
-        <v>34.91</v>
-      </c>
-      <c r="Q38" s="55">
-        <v>34</v>
-      </c>
-      <c r="R38" s="55">
-        <v>34</v>
-      </c>
-      <c r="S38" s="67" t="s">
-        <v>206</v>
-      </c>
-      <c r="T38" s="15">
-        <v>1</v>
-      </c>
-      <c r="U38" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15"/>
-      <c r="X38" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y38" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z38" s="89">
-        <v>1300</v>
-      </c>
-      <c r="AA38" s="88">
-        <v>0.13</v>
-      </c>
-      <c r="AB38" s="90"/>
-      <c r="AC38" s="91"/>
-    </row>
-    <row r="39" ht="26.1" customHeight="1" spans="1:27">
-      <c r="A39" s="15">
-        <v>36</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="I39" s="49" t="str">
+      <c r="I39" s="20" t="str">
         <f>VLOOKUP(B39,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J39" s="65">
+      <c r="J39" s="69">
+        <v>12</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L39" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="M39" s="53">
+        <f ca="1" t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="N39" s="54">
+        <f ca="1" t="shared" si="13"/>
+        <v>0.05</v>
+      </c>
+      <c r="O39" s="54">
+        <v>34.91</v>
+      </c>
+      <c r="P39" s="67">
+        <f>O39*T39</f>
+        <v>34.91</v>
+      </c>
+      <c r="Q39" s="56">
+        <v>34</v>
+      </c>
+      <c r="R39" s="56">
+        <v>34</v>
+      </c>
+      <c r="S39" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="T39" s="15">
+        <v>1</v>
+      </c>
+      <c r="U39" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y39" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z39" s="84">
+        <v>1300</v>
+      </c>
+      <c r="AA39" s="83">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:27">
+      <c r="A40" s="15">
+        <v>36</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="I40" s="20" t="str">
+        <f>VLOOKUP(B40,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J40" s="64">
         <v>9</v>
       </c>
-      <c r="K39" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="L39" s="67" t="s">
-        <v>212</v>
-      </c>
-      <c r="M39" s="52">
-        <f ca="1" t="shared" si="4"/>
+      <c r="K40" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="L40" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="M40" s="53">
+        <f ca="1" t="shared" si="12"/>
         <v>0.01</v>
       </c>
-      <c r="N39" s="53">
-        <f ca="1" t="shared" si="3"/>
+      <c r="N40" s="54">
+        <f ca="1" t="shared" si="13"/>
         <v>0.01</v>
       </c>
-      <c r="O39" s="53">
+      <c r="O40" s="54">
         <v>10.63</v>
       </c>
-      <c r="P39" s="71">
-        <f>SUM(O39:O46)</f>
+      <c r="P40" s="70">
+        <f>SUM(O40:O47)</f>
         <v>207.46</v>
       </c>
-      <c r="Q39" s="62">
+      <c r="Q40" s="61">
         <v>205</v>
       </c>
-      <c r="R39" s="62">
+      <c r="R40" s="61">
         <v>205</v>
       </c>
-      <c r="S39" s="31">
+      <c r="S40" s="32">
         <v>9</v>
       </c>
-      <c r="T39" s="15">
-        <f>J39/S39</f>
+      <c r="T40" s="15">
+        <f>J40/S40</f>
         <v>1</v>
       </c>
-      <c r="U39" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="V39" s="49"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="59" t="s">
+      <c r="U40" s="75" t="s">
+        <v>215</v>
+      </c>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Y39" s="49" t="s">
+      <c r="Y40" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z39" s="65">
+      <c r="Z40" s="64">
         <v>300</v>
       </c>
-      <c r="AA39" s="93">
+      <c r="AA40" s="86">
         <v>0.13</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:29">
-      <c r="A40" s="15">
+    <row r="41" customHeight="1" spans="1:27">
+      <c r="A41" s="15">
         <v>37</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="I40" s="49"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="67" t="s">
-        <v>215</v>
-      </c>
-      <c r="M40" s="52">
-        <f ca="1" t="shared" si="4"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I41" s="20"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="M41" s="53">
+        <f ca="1" t="shared" si="12"/>
         <v>0.08</v>
       </c>
-      <c r="N40" s="53">
+      <c r="N41" s="54">
         <v>0.08</v>
       </c>
-      <c r="O40" s="53">
+      <c r="O41" s="54">
         <v>25.83</v>
       </c>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="15">
-        <f>J39/S39</f>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="15">
+        <f>J40/S40</f>
         <v>1</v>
       </c>
-      <c r="U40" s="77" t="s">
-        <v>216</v>
-      </c>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="95"/>
-      <c r="AB40" s="90"/>
-      <c r="AC40" s="91"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:29">
-      <c r="A41" s="15">
-        <v>38</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="I41" s="49"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="67" t="s">
-        <v>215</v>
-      </c>
-      <c r="M41" s="52">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.08</v>
-      </c>
-      <c r="N41" s="53">
-        <v>0.08</v>
-      </c>
-      <c r="O41" s="53">
-        <v>21.09</v>
-      </c>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="15">
-        <f>J39/S39</f>
-        <v>1</v>
-      </c>
-      <c r="U41" s="77" t="s">
+      <c r="U41" s="75" t="s">
         <v>218</v>
       </c>
       <c r="V41" s="15"/>
       <c r="W41" s="15"/>
-      <c r="X41" s="59"/>
-      <c r="Y41" s="49" t="s">
+      <c r="X41" s="33"/>
+      <c r="Y41" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="95"/>
-      <c r="AB41" s="90"/>
-      <c r="AC41" s="91"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="88"/>
     </row>
-    <row r="42" customHeight="1" spans="1:29">
+    <row r="42" customHeight="1" spans="1:27">
       <c r="A42" s="15">
-        <v>39</v>
-      </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="I42" s="49"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="67" t="s">
+      <c r="I42" s="20"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="M42" s="53">
+        <f ca="1" t="shared" si="12"/>
+        <v>0.08</v>
+      </c>
+      <c r="N42" s="54">
+        <v>0.08</v>
+      </c>
+      <c r="O42" s="54">
+        <v>21.09</v>
+      </c>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="15">
+        <f>J40/S40</f>
+        <v>1</v>
+      </c>
+      <c r="U42" s="75" t="s">
         <v>220</v>
-      </c>
-      <c r="M42" s="52">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.08</v>
-      </c>
-      <c r="N42" s="53">
-        <v>0.08</v>
-      </c>
-      <c r="O42" s="53">
-        <v>33.25</v>
-      </c>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="15">
-        <f>J39/S39</f>
-        <v>1</v>
-      </c>
-      <c r="U42" s="77" t="s">
-        <v>221</v>
       </c>
       <c r="V42" s="15"/>
       <c r="W42" s="15"/>
-      <c r="X42" s="59"/>
-      <c r="Y42" s="49" t="s">
+      <c r="X42" s="33"/>
+      <c r="Y42" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="95"/>
-      <c r="AB42" s="90"/>
-      <c r="AC42" s="91"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="88"/>
     </row>
-    <row r="43" customHeight="1" spans="1:29">
+    <row r="43" customHeight="1" spans="1:27">
       <c r="A43" s="15">
-        <v>40</v>
-      </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="I43" s="49"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="M43" s="52">
-        <f ca="1" t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="I43" s="20"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="M43" s="53">
+        <f ca="1" t="shared" si="12"/>
         <v>0.08</v>
       </c>
-      <c r="N43" s="53">
+      <c r="N43" s="54">
         <v>0.08</v>
       </c>
-      <c r="O43" s="53">
+      <c r="O43" s="54">
         <v>33.25</v>
       </c>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="31"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="32"/>
       <c r="T43" s="15">
-        <f>J39/S39</f>
+        <f>J40/S40</f>
         <v>1</v>
       </c>
-      <c r="U43" s="77" t="s">
-        <v>222</v>
+      <c r="U43" s="75" t="s">
+        <v>223</v>
       </c>
       <c r="V43" s="15"/>
       <c r="W43" s="15"/>
-      <c r="X43" s="59"/>
-      <c r="Y43" s="49" t="s">
+      <c r="X43" s="33"/>
+      <c r="Y43" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="95"/>
-      <c r="AB43" s="90"/>
-      <c r="AC43" s="91"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="88"/>
     </row>
-    <row r="44" customHeight="1" spans="1:29">
+    <row r="44" customHeight="1" spans="1:27">
       <c r="A44" s="15">
-        <v>41</v>
-      </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="I44" s="49"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="M44" s="52">
-        <f ca="1" t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="M44" s="53">
+        <f ca="1" t="shared" si="12"/>
         <v>0.08</v>
       </c>
-      <c r="N44" s="53">
+      <c r="N44" s="54">
         <v>0.08</v>
       </c>
-      <c r="O44" s="53">
+      <c r="O44" s="54">
         <v>33.25</v>
       </c>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="62"/>
-      <c r="S44" s="31"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="61"/>
+      <c r="S44" s="32"/>
       <c r="T44" s="15">
-        <f>J39/S39</f>
+        <f>J40/S40</f>
         <v>1</v>
       </c>
-      <c r="U44" s="77" t="s">
-        <v>223</v>
+      <c r="U44" s="75" t="s">
+        <v>224</v>
       </c>
       <c r="V44" s="15"/>
       <c r="W44" s="15"/>
-      <c r="X44" s="59"/>
-      <c r="Y44" s="49" t="s">
+      <c r="X44" s="33"/>
+      <c r="Y44" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="95"/>
-      <c r="AB44" s="90"/>
-      <c r="AC44" s="91"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="88"/>
     </row>
-    <row r="45" customHeight="1" spans="1:29">
+    <row r="45" customHeight="1" spans="1:27">
       <c r="A45" s="15">
-        <v>42</v>
-      </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="I45" s="49"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="M45" s="52">
-        <f ca="1" t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="M45" s="53">
+        <f ca="1" t="shared" si="12"/>
         <v>0.08</v>
       </c>
-      <c r="N45" s="53">
+      <c r="N45" s="54">
         <v>0.08</v>
       </c>
-      <c r="O45" s="53">
+      <c r="O45" s="54">
         <v>33.25</v>
       </c>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="31"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="32"/>
       <c r="T45" s="15">
-        <f>J39/S39</f>
+        <f>J40/S40</f>
         <v>1</v>
       </c>
-      <c r="U45" s="77" t="s">
-        <v>224</v>
+      <c r="U45" s="75" t="s">
+        <v>225</v>
       </c>
       <c r="V45" s="15"/>
       <c r="W45" s="15"/>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="49" t="s">
+      <c r="X45" s="33"/>
+      <c r="Y45" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="95"/>
-      <c r="AB45" s="90"/>
-      <c r="AC45" s="91"/>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="88"/>
     </row>
-    <row r="46" customHeight="1" spans="1:29">
+    <row r="46" customHeight="1" spans="1:27">
       <c r="A46" s="15">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
@@ -6344,1554 +6272,1428 @@
       <c r="E46" s="43"/>
       <c r="F46" s="44"/>
       <c r="G46" s="45"/>
-      <c r="H46" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="I46" s="49"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="67" t="s">
+      <c r="H46" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="M46" s="53">
+        <f ca="1" t="shared" si="12"/>
+        <v>0.08</v>
+      </c>
+      <c r="N46" s="54">
+        <v>0.08</v>
+      </c>
+      <c r="O46" s="54">
+        <v>33.25</v>
+      </c>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="15">
+        <f>J40/S40</f>
+        <v>1</v>
+      </c>
+      <c r="U46" s="75" t="s">
         <v>226</v>
-      </c>
-      <c r="M46" s="52">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.4</v>
-      </c>
-      <c r="N46" s="53">
-        <v>0.04</v>
-      </c>
-      <c r="O46" s="53">
-        <v>16.91</v>
-      </c>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="55"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="15">
-        <f>J39/S39</f>
-        <v>1</v>
-      </c>
-      <c r="U46" s="77" t="s">
-        <v>227</v>
       </c>
       <c r="V46" s="15"/>
       <c r="W46" s="15"/>
-      <c r="X46" s="60"/>
-      <c r="Y46" s="49" t="s">
+      <c r="X46" s="33"/>
+      <c r="Y46" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z46" s="34"/>
-      <c r="AA46" s="97"/>
-      <c r="AB46" s="90"/>
-      <c r="AC46" s="91"/>
+      <c r="Z46" s="32"/>
+      <c r="AA46" s="88"/>
     </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="47" customHeight="1" spans="1:27">
       <c r="A47" s="15">
-        <v>44</v>
-      </c>
-      <c r="B47" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="M47" s="53">
+        <f ca="1" t="shared" si="12"/>
+        <v>0.4</v>
+      </c>
+      <c r="N47" s="54">
+        <v>0.04</v>
+      </c>
+      <c r="O47" s="54">
+        <v>16.91</v>
+      </c>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="15">
+        <f>J40/S40</f>
+        <v>1</v>
+      </c>
+      <c r="U47" s="75" t="s">
         <v>229</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="G47" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="I47" s="49" t="str">
-        <f>VLOOKUP(B47,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
-      </c>
-      <c r="J47" s="34">
-        <v>10</v>
-      </c>
-      <c r="K47" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="L47" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="M47" s="52">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="N47" s="57">
-        <f ca="1">M47*T47</f>
-        <v>3</v>
-      </c>
-      <c r="O47" s="53">
-        <v>37</v>
-      </c>
-      <c r="P47" s="68">
-        <f>O47*T47</f>
-        <v>370</v>
-      </c>
-      <c r="Q47" s="55">
-        <v>270</v>
-      </c>
-      <c r="R47" s="55">
-        <v>270</v>
-      </c>
-      <c r="S47" s="34">
-        <v>1</v>
-      </c>
-      <c r="T47" s="15">
-        <f>J47/S47</f>
-        <v>10</v>
-      </c>
-      <c r="U47" s="77" t="s">
-        <v>234</v>
       </c>
       <c r="V47" s="15"/>
       <c r="W47" s="15"/>
-      <c r="X47" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y47" s="49" t="s">
+      <c r="X47" s="37"/>
+      <c r="Y47" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z47" s="34">
-        <v>3400</v>
-      </c>
-      <c r="AA47" s="97">
-        <v>0.13</v>
-      </c>
-      <c r="AB47" s="91"/>
-      <c r="AC47" s="91"/>
+      <c r="Z47" s="36"/>
+      <c r="AA47" s="90"/>
     </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="48" customHeight="1" spans="1:27">
       <c r="A48" s="15">
-        <v>45</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>176</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="G48" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="H48" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="I48" s="49" t="str">
+        <v>232</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="I48" s="20" t="str">
         <f>VLOOKUP(B48,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J48" s="34">
+      <c r="J48" s="36">
         <v>10</v>
       </c>
-      <c r="K48" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="L48" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M48" s="52">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.43</v>
-      </c>
-      <c r="N48" s="57">
-        <f ca="1">M48*T48</f>
-        <v>4.3</v>
-      </c>
-      <c r="O48" s="53">
-        <v>54</v>
-      </c>
-      <c r="P48" s="68">
-        <f>O48*T48</f>
-        <v>540</v>
-      </c>
-      <c r="Q48" s="55">
-        <v>440</v>
-      </c>
-      <c r="R48" s="55">
-        <v>440</v>
-      </c>
-      <c r="S48" s="34">
+      <c r="K48" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="L48" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="M48" s="53">
+        <f ca="1" t="shared" si="12"/>
+        <v>0.3</v>
+      </c>
+      <c r="N48" s="58">
+        <f ca="1" t="shared" ref="N48:N51" si="14">M48*T48</f>
+        <v>3</v>
+      </c>
+      <c r="O48" s="54">
+        <v>37</v>
+      </c>
+      <c r="P48" s="67">
+        <f t="shared" ref="P48:P51" si="15">O48*T48</f>
+        <v>370</v>
+      </c>
+      <c r="Q48" s="56">
+        <v>270</v>
+      </c>
+      <c r="R48" s="56">
+        <v>270</v>
+      </c>
+      <c r="S48" s="36">
         <v>1</v>
       </c>
       <c r="T48" s="15">
-        <f>J48/S48</f>
+        <f t="shared" ref="T48:T51" si="16">J48/S48</f>
         <v>10</v>
       </c>
-      <c r="U48" s="77" t="s">
-        <v>238</v>
+      <c r="U48" s="75" t="s">
+        <v>236</v>
       </c>
       <c r="V48" s="15"/>
       <c r="W48" s="15"/>
-      <c r="X48" s="60" t="s">
+      <c r="X48" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y48" s="49" t="s">
+      <c r="Y48" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z48" s="34">
-        <v>5150</v>
-      </c>
-      <c r="AA48" s="97">
+      <c r="Z48" s="36">
+        <v>3400</v>
+      </c>
+      <c r="AA48" s="90">
         <v>0.13</v>
       </c>
-      <c r="AB48" s="91"/>
-      <c r="AC48" s="91"/>
     </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="49" customHeight="1" spans="1:27">
       <c r="A49" s="15">
-        <v>46</v>
-      </c>
-      <c r="B49" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="G49" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="I49" s="20" t="str">
+        <f>VLOOKUP(B49,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J49" s="36">
+        <v>10</v>
+      </c>
+      <c r="K49" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="L49" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="M49" s="53">
+        <f ca="1" t="shared" si="12"/>
+        <v>0.43</v>
+      </c>
+      <c r="N49" s="58">
+        <f ca="1" t="shared" si="14"/>
+        <v>4.3</v>
+      </c>
+      <c r="O49" s="54">
+        <v>54</v>
+      </c>
+      <c r="P49" s="67">
+        <f t="shared" si="15"/>
+        <v>540</v>
+      </c>
+      <c r="Q49" s="56">
+        <v>440</v>
+      </c>
+      <c r="R49" s="56">
+        <v>440</v>
+      </c>
+      <c r="S49" s="36">
+        <v>1</v>
+      </c>
+      <c r="T49" s="15">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="U49" s="75" t="s">
         <v>240</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="G49" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="H49" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="I49" s="49" t="str">
-        <f>VLOOKUP(B49,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>AEVF4</v>
-      </c>
-      <c r="J49" s="34">
-        <v>1</v>
-      </c>
-      <c r="K49" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="L49" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="M49" s="52">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.02</v>
-      </c>
-      <c r="N49" s="53">
-        <f ca="1">M49*T49</f>
-        <v>0.02</v>
-      </c>
-      <c r="O49" s="54">
-        <v>15.16</v>
-      </c>
-      <c r="P49" s="55">
-        <f>O49*T49</f>
-        <v>15.16</v>
-      </c>
-      <c r="Q49" s="55">
-        <v>15</v>
-      </c>
-      <c r="R49" s="55">
-        <v>15</v>
-      </c>
-      <c r="S49" s="34">
-        <v>1</v>
-      </c>
-      <c r="T49" s="34">
-        <f>J49/S49</f>
-        <v>1</v>
-      </c>
-      <c r="U49" s="77" t="s">
-        <v>245</v>
       </c>
       <c r="V49" s="15"/>
       <c r="W49" s="15"/>
-      <c r="X49" s="60" t="s">
+      <c r="X49" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y49" s="49" t="s">
+      <c r="Y49" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z49" s="34">
-        <v>935</v>
-      </c>
-      <c r="AA49" s="97">
+      <c r="Z49" s="36">
+        <v>5150</v>
+      </c>
+      <c r="AA49" s="90">
         <v>0.13</v>
       </c>
-      <c r="AB49" s="91"/>
-      <c r="AC49" s="91"/>
     </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="50" customHeight="1" spans="1:27">
       <c r="A50" s="15">
-        <v>47</v>
-      </c>
-      <c r="B50" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="I50" s="20" t="str">
+        <f>VLOOKUP(B50,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>AEVF4</v>
+      </c>
+      <c r="J50" s="36">
+        <v>1</v>
+      </c>
+      <c r="K50" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L50" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="M50" s="53">
+        <f ca="1" t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="N50" s="54">
+        <f ca="1" t="shared" si="14"/>
+        <v>0.02</v>
+      </c>
+      <c r="O50" s="55">
+        <v>15.16</v>
+      </c>
+      <c r="P50" s="56">
+        <f t="shared" si="15"/>
+        <v>15.16</v>
+      </c>
+      <c r="Q50" s="56">
+        <v>15</v>
+      </c>
+      <c r="R50" s="56">
+        <v>15</v>
+      </c>
+      <c r="S50" s="36">
+        <v>1</v>
+      </c>
+      <c r="T50" s="36">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U50" s="75" t="s">
         <v>247</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="G50" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="I50" s="49" t="str">
-        <f>VLOOKUP(B50,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
-      </c>
-      <c r="J50" s="34">
-        <v>10</v>
-      </c>
-      <c r="K50" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="L50" s="72" t="s">
-        <v>251</v>
-      </c>
-      <c r="M50" s="61">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.02</v>
-      </c>
-      <c r="N50" s="57">
-        <f ca="1">M50*T50</f>
-        <v>0.02</v>
-      </c>
-      <c r="O50" s="58">
-        <v>5</v>
-      </c>
-      <c r="P50" s="62">
-        <f>O50*T50</f>
-        <v>5</v>
-      </c>
-      <c r="Q50" s="55">
-        <v>0.09</v>
-      </c>
-      <c r="R50" s="55">
-        <v>0.09</v>
-      </c>
-      <c r="S50" s="34">
-        <v>10</v>
-      </c>
-      <c r="T50" s="31">
-        <f>J50/S50</f>
-        <v>1</v>
-      </c>
-      <c r="U50" s="79" t="s">
-        <v>252</v>
       </c>
       <c r="V50" s="15"/>
       <c r="W50" s="15"/>
-      <c r="X50" s="60" t="s">
+      <c r="X50" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y50" s="49" t="s">
+      <c r="Y50" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z50" s="34">
-        <v>22</v>
-      </c>
-      <c r="AA50" s="97">
+      <c r="Z50" s="36">
+        <v>935</v>
+      </c>
+      <c r="AA50" s="90">
         <v>0.13</v>
       </c>
-      <c r="AB50" s="91"/>
-      <c r="AC50" s="91"/>
     </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="51" customHeight="1" spans="1:27">
       <c r="A51" s="15">
-        <v>48</v>
-      </c>
-      <c r="B51" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="G51" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="I51" s="20" t="str">
+        <f>VLOOKUP(B51,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J51" s="36">
+        <v>10</v>
+      </c>
+      <c r="K51" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L51" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="C51" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F51" s="46" t="s">
+      <c r="M51" s="60">
+        <f ca="1" t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="N51" s="58">
+        <f ca="1" t="shared" si="14"/>
+        <v>0.02</v>
+      </c>
+      <c r="O51" s="59">
+        <v>5</v>
+      </c>
+      <c r="P51" s="61">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="Q51" s="56">
+        <v>0.09</v>
+      </c>
+      <c r="R51" s="56">
+        <v>0.09</v>
+      </c>
+      <c r="S51" s="36">
+        <v>10</v>
+      </c>
+      <c r="T51" s="32">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U51" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="G51" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="H51" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="I51" s="49" t="str">
-        <f>VLOOKUP(B51,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>TG-205A-FU</v>
-      </c>
-      <c r="J51" s="34">
-        <v>5</v>
-      </c>
-      <c r="K51" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="L51" s="73"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="58"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="55">
-        <v>0.04</v>
-      </c>
-      <c r="R51" s="55">
-        <v>0.04</v>
-      </c>
-      <c r="S51" s="34">
-        <v>5</v>
-      </c>
-      <c r="T51" s="31"/>
-      <c r="U51" s="80"/>
       <c r="V51" s="15"/>
       <c r="W51" s="15"/>
-      <c r="X51" s="60" t="s">
+      <c r="X51" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y51" s="49" t="s">
+      <c r="Y51" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z51" s="34">
-        <v>350</v>
-      </c>
-      <c r="AA51" s="97">
+      <c r="Z51" s="36">
+        <v>22</v>
+      </c>
+      <c r="AA51" s="90">
         <v>0.13</v>
       </c>
-      <c r="AB51" s="91"/>
-      <c r="AC51" s="91"/>
     </row>
-    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="52" customHeight="1" spans="1:27">
       <c r="A52" s="15">
-        <v>49</v>
-      </c>
-      <c r="B52" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="C52" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" s="18" t="s">
+      <c r="G52" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H52" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="G52" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="H52" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="I52" s="49" t="str">
+      <c r="I52" s="20" t="str">
         <f>VLOOKUP(B52,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>LS1D-01033</v>
-      </c>
-      <c r="J52" s="34">
-        <v>500</v>
-      </c>
-      <c r="K52" s="34" t="s">
+        <v>TG-205A-FU</v>
+      </c>
+      <c r="J52" s="36">
+        <v>5</v>
+      </c>
+      <c r="K52" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L52" s="73"/>
-      <c r="M52" s="64"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="55">
-        <v>4.5</v>
-      </c>
-      <c r="R52" s="55">
-        <v>4.5</v>
-      </c>
-      <c r="S52" s="34">
-        <v>500</v>
-      </c>
-      <c r="T52" s="31"/>
-      <c r="U52" s="80"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="56">
+        <v>0.04</v>
+      </c>
+      <c r="R52" s="56">
+        <v>0.04</v>
+      </c>
+      <c r="S52" s="36">
+        <v>5</v>
+      </c>
+      <c r="T52" s="32"/>
+      <c r="U52" s="78"/>
       <c r="V52" s="15"/>
       <c r="W52" s="15"/>
-      <c r="X52" s="60" t="s">
+      <c r="X52" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y52" s="49" t="s">
+      <c r="Y52" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z52" s="34">
-        <v>8</v>
-      </c>
-      <c r="AA52" s="97">
+      <c r="Z52" s="36">
+        <v>350</v>
+      </c>
+      <c r="AA52" s="90">
         <v>0.13</v>
       </c>
-      <c r="AB52" s="91"/>
-      <c r="AC52" s="91"/>
     </row>
-    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="53" customHeight="1" spans="1:27">
       <c r="A53" s="15">
-        <v>50</v>
-      </c>
-      <c r="B53" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="G53" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="C53" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" s="47" t="s">
+      <c r="H53" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="G53" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="I53" s="49" t="str">
+      <c r="I53" s="20" t="str">
         <f>VLOOKUP(B53,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
-      </c>
-      <c r="J53" s="34">
-        <v>4</v>
-      </c>
-      <c r="K53" s="34" t="s">
+        <v>LS1D-01033</v>
+      </c>
+      <c r="J53" s="36">
+        <v>500</v>
+      </c>
+      <c r="K53" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L53" s="73"/>
-      <c r="M53" s="64"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="55">
-        <v>0.04</v>
-      </c>
-      <c r="R53" s="55">
-        <v>0.04</v>
-      </c>
-      <c r="S53" s="34">
-        <v>4</v>
-      </c>
-      <c r="T53" s="31"/>
-      <c r="U53" s="80"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="56">
+        <v>4.5</v>
+      </c>
+      <c r="R53" s="56">
+        <v>4.5</v>
+      </c>
+      <c r="S53" s="36">
+        <v>500</v>
+      </c>
+      <c r="T53" s="32"/>
+      <c r="U53" s="78"/>
       <c r="V53" s="15"/>
       <c r="W53" s="15"/>
-      <c r="X53" s="60" t="s">
+      <c r="X53" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y53" s="49" t="s">
+      <c r="Y53" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z53" s="34">
-        <v>110</v>
-      </c>
-      <c r="AA53" s="97">
+      <c r="Z53" s="36">
+        <v>8</v>
+      </c>
+      <c r="AA53" s="90">
         <v>0.13</v>
       </c>
-      <c r="AB53" s="91"/>
-      <c r="AC53" s="91"/>
     </row>
-    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="54" customHeight="1" spans="1:27">
       <c r="A54" s="15">
-        <v>51</v>
-      </c>
-      <c r="B54" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="C54" s="43" t="s">
+      <c r="G54" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="G54" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="H54" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="I54" s="49" t="str">
+      <c r="H54" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="I54" s="20" t="str">
         <f>VLOOKUP(B54,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J54" s="34">
-        <v>5</v>
-      </c>
-      <c r="K54" s="34" t="s">
+      <c r="J54" s="36">
+        <v>4</v>
+      </c>
+      <c r="K54" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L54" s="73"/>
-      <c r="M54" s="64"/>
-      <c r="N54" s="58"/>
-      <c r="O54" s="58"/>
-      <c r="P54" s="62"/>
-      <c r="Q54" s="55">
+      <c r="L54" s="72"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="56">
         <v>0.04</v>
       </c>
-      <c r="R54" s="55">
+      <c r="R54" s="56">
         <v>0.04</v>
       </c>
-      <c r="S54" s="34">
-        <v>5</v>
-      </c>
-      <c r="T54" s="31"/>
-      <c r="U54" s="80"/>
+      <c r="S54" s="36">
+        <v>4</v>
+      </c>
+      <c r="T54" s="32"/>
+      <c r="U54" s="78"/>
       <c r="V54" s="15"/>
       <c r="W54" s="15"/>
-      <c r="X54" s="60" t="s">
+      <c r="X54" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y54" s="49" t="s">
+      <c r="Y54" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z54" s="34">
-        <v>186.45</v>
-      </c>
-      <c r="AA54" s="97">
+      <c r="Z54" s="36">
+        <v>110</v>
+      </c>
+      <c r="AA54" s="90">
         <v>0.13</v>
       </c>
-      <c r="AB54" s="91"/>
-      <c r="AC54" s="91"/>
     </row>
-    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="55" customHeight="1" spans="1:27">
       <c r="A55" s="15">
-        <v>52</v>
-      </c>
-      <c r="B55" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="G55" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="C55" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F55" s="47" t="s">
+      <c r="H55" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="G55" s="45" t="s">
-        <v>270</v>
-      </c>
-      <c r="H55" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="I55" s="49" t="str">
+      <c r="I55" s="20" t="str">
         <f>VLOOKUP(B55,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>KYB-M7027-001</v>
-      </c>
-      <c r="J55" s="34">
-        <v>2</v>
-      </c>
-      <c r="K55" s="34" t="s">
+        <v>/</v>
+      </c>
+      <c r="J55" s="36">
+        <v>5</v>
+      </c>
+      <c r="K55" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L55" s="73"/>
-      <c r="M55" s="64"/>
-      <c r="N55" s="58"/>
-      <c r="O55" s="58"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="55">
-        <v>0.02</v>
-      </c>
-      <c r="R55" s="55">
-        <v>0.02</v>
-      </c>
-      <c r="S55" s="34">
-        <v>2</v>
-      </c>
-      <c r="T55" s="31"/>
-      <c r="U55" s="80"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="61"/>
+      <c r="Q55" s="56">
+        <v>0.04</v>
+      </c>
+      <c r="R55" s="56">
+        <v>0.04</v>
+      </c>
+      <c r="S55" s="36">
+        <v>5</v>
+      </c>
+      <c r="T55" s="32"/>
+      <c r="U55" s="78"/>
       <c r="V55" s="15"/>
       <c r="W55" s="15"/>
-      <c r="X55" s="60" t="s">
+      <c r="X55" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y55" s="49" t="s">
+      <c r="Y55" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z55" s="98">
-        <v>4950</v>
-      </c>
-      <c r="AA55" s="97">
-        <v>0.01</v>
-      </c>
-      <c r="AB55" s="91"/>
-      <c r="AC55" s="91"/>
+      <c r="Z55" s="36">
+        <v>186.45</v>
+      </c>
+      <c r="AA55" s="90">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="56" customHeight="1" spans="1:27">
       <c r="A56" s="15">
-        <v>53</v>
-      </c>
-      <c r="B56" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="C56" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" s="18" t="s">
+      <c r="G56" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="G56" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="H56" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="I56" s="49" t="str">
+      <c r="H56" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="I56" s="20" t="str">
         <f>VLOOKUP(B56,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
-      </c>
-      <c r="J56" s="34">
-        <v>10</v>
-      </c>
-      <c r="K56" s="34" t="s">
+        <v>KYB-M7027-001</v>
+      </c>
+      <c r="J56" s="36">
+        <v>2</v>
+      </c>
+      <c r="K56" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L56" s="73"/>
-      <c r="M56" s="64"/>
-      <c r="N56" s="58"/>
-      <c r="O56" s="58"/>
-      <c r="P56" s="62"/>
-      <c r="Q56" s="55">
-        <v>0.09</v>
-      </c>
-      <c r="R56" s="55">
-        <v>0.09</v>
-      </c>
-      <c r="S56" s="34">
-        <v>10</v>
-      </c>
-      <c r="T56" s="31"/>
-      <c r="U56" s="80"/>
+      <c r="L56" s="72"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="R56" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="S56" s="36">
+        <v>2</v>
+      </c>
+      <c r="T56" s="32"/>
+      <c r="U56" s="78"/>
       <c r="V56" s="15"/>
       <c r="W56" s="15"/>
-      <c r="X56" s="60" t="s">
+      <c r="X56" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y56" s="49" t="s">
+      <c r="Y56" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z56" s="34">
-        <v>6.5</v>
-      </c>
-      <c r="AA56" s="97">
-        <v>0.13</v>
-      </c>
-      <c r="AB56" s="91"/>
-      <c r="AC56" s="91"/>
+      <c r="Z56" s="91">
+        <v>4950</v>
+      </c>
+      <c r="AA56" s="90">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="57" customHeight="1" spans="1:27">
       <c r="A57" s="15">
-        <v>54</v>
-      </c>
-      <c r="B57" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G57" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="C57" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="G57" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="H57" s="24" t="s">
+      <c r="H57" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="I57" s="49" t="str">
+      <c r="I57" s="20" t="str">
         <f>VLOOKUP(B57,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J57" s="34">
+      <c r="J57" s="36">
         <v>10</v>
       </c>
-      <c r="K57" s="34" t="s">
+      <c r="K57" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L57" s="73"/>
-      <c r="M57" s="64"/>
-      <c r="N57" s="58"/>
-      <c r="O57" s="58"/>
-      <c r="P57" s="62"/>
-      <c r="Q57" s="55">
+      <c r="L57" s="72"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="61"/>
+      <c r="Q57" s="56">
         <v>0.09</v>
       </c>
-      <c r="R57" s="55">
+      <c r="R57" s="56">
         <v>0.09</v>
       </c>
-      <c r="S57" s="34">
+      <c r="S57" s="36">
         <v>10</v>
       </c>
-      <c r="T57" s="31"/>
-      <c r="U57" s="80"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="78"/>
       <c r="V57" s="15"/>
       <c r="W57" s="15"/>
-      <c r="X57" s="60" t="s">
+      <c r="X57" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y57" s="49" t="s">
+      <c r="Y57" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z57" s="34">
+      <c r="Z57" s="36">
         <v>6.5</v>
       </c>
-      <c r="AA57" s="97">
+      <c r="AA57" s="90">
         <v>0.13</v>
       </c>
-      <c r="AB57" s="91"/>
-      <c r="AC57" s="91"/>
     </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="58" customHeight="1" spans="1:27">
       <c r="A58" s="15">
-        <v>55</v>
-      </c>
-      <c r="B58" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="C58" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E58" s="15" t="s">
+      <c r="C58" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F58" s="46" t="s">
+      <c r="F58" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G58" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="H58" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="G58" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="H58" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="I58" s="49" t="str">
+      <c r="I58" s="20" t="str">
         <f>VLOOKUP(B58,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J58" s="34">
-        <v>2</v>
-      </c>
-      <c r="K58" s="34" t="s">
+      <c r="J58" s="36">
+        <v>10</v>
+      </c>
+      <c r="K58" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L58" s="73"/>
-      <c r="M58" s="64"/>
-      <c r="N58" s="58"/>
-      <c r="O58" s="58"/>
-      <c r="P58" s="62"/>
-      <c r="Q58" s="55">
-        <v>0.02</v>
-      </c>
-      <c r="R58" s="55">
-        <v>0.02</v>
-      </c>
-      <c r="S58" s="34">
-        <v>2</v>
-      </c>
-      <c r="T58" s="31"/>
-      <c r="U58" s="80"/>
+      <c r="L58" s="72"/>
+      <c r="M58" s="63"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="61"/>
+      <c r="Q58" s="56">
+        <v>0.09</v>
+      </c>
+      <c r="R58" s="56">
+        <v>0.09</v>
+      </c>
+      <c r="S58" s="36">
+        <v>10</v>
+      </c>
+      <c r="T58" s="32"/>
+      <c r="U58" s="78"/>
       <c r="V58" s="15"/>
       <c r="W58" s="15"/>
-      <c r="X58" s="60" t="s">
+      <c r="X58" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y58" s="49" t="s">
+      <c r="Y58" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z58" s="34">
-        <v>220</v>
-      </c>
-      <c r="AA58" s="97">
+      <c r="Z58" s="36">
+        <v>6.5</v>
+      </c>
+      <c r="AA58" s="90">
         <v>0.13</v>
       </c>
-      <c r="AB58" s="91"/>
-      <c r="AC58" s="91"/>
     </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="59" customHeight="1" spans="1:27">
       <c r="A59" s="15">
-        <v>56</v>
-      </c>
-      <c r="B59" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="C59" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="G59" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="C59" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F59" s="46" t="s">
+      <c r="H59" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="G59" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="H59" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="I59" s="49" t="str">
+      <c r="I59" s="20" t="str">
         <f>VLOOKUP(B59,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J59" s="34">
+      <c r="J59" s="36">
         <v>2</v>
       </c>
-      <c r="K59" s="34" t="s">
+      <c r="K59" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L59" s="73"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="58"/>
-      <c r="O59" s="58"/>
-      <c r="P59" s="62"/>
-      <c r="Q59" s="55">
+      <c r="L59" s="72"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="56">
         <v>0.02</v>
       </c>
-      <c r="R59" s="55">
+      <c r="R59" s="56">
         <v>0.02</v>
       </c>
-      <c r="S59" s="34">
+      <c r="S59" s="36">
         <v>2</v>
       </c>
-      <c r="T59" s="31"/>
-      <c r="U59" s="80"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="78"/>
       <c r="V59" s="15"/>
       <c r="W59" s="15"/>
-      <c r="X59" s="60" t="s">
+      <c r="X59" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y59" s="49" t="s">
+      <c r="Y59" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z59" s="34">
+      <c r="Z59" s="36">
         <v>220</v>
       </c>
-      <c r="AA59" s="97">
+      <c r="AA59" s="90">
         <v>0.13</v>
       </c>
-      <c r="AB59" s="91"/>
-      <c r="AC59" s="91"/>
     </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="60" customHeight="1" spans="1:27">
       <c r="A60" s="15">
-        <v>57</v>
-      </c>
-      <c r="B60" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="C60" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="C60" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F60" s="46" t="s">
+      <c r="G60" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="H60" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="G60" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="H60" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="I60" s="49" t="str">
+      <c r="I60" s="20" t="str">
         <f>VLOOKUP(B60,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J60" s="34">
+      <c r="J60" s="36">
         <v>2</v>
       </c>
-      <c r="K60" s="34" t="s">
+      <c r="K60" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L60" s="73"/>
-      <c r="M60" s="64"/>
-      <c r="N60" s="58"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="62"/>
-      <c r="Q60" s="55">
+      <c r="L60" s="72"/>
+      <c r="M60" s="63"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="59"/>
+      <c r="P60" s="61"/>
+      <c r="Q60" s="56">
         <v>0.02</v>
       </c>
-      <c r="R60" s="55">
+      <c r="R60" s="56">
         <v>0.02</v>
       </c>
-      <c r="S60" s="34">
+      <c r="S60" s="36">
         <v>2</v>
       </c>
-      <c r="T60" s="31"/>
-      <c r="U60" s="80"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="78"/>
       <c r="V60" s="15"/>
       <c r="W60" s="15"/>
-      <c r="X60" s="60" t="s">
+      <c r="X60" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y60" s="49" t="s">
+      <c r="Y60" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z60" s="34">
+      <c r="Z60" s="36">
         <v>220</v>
       </c>
-      <c r="AA60" s="97">
+      <c r="AA60" s="90">
         <v>0.13</v>
       </c>
-      <c r="AB60" s="91"/>
-      <c r="AC60" s="91"/>
     </row>
-    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="61" customHeight="1" spans="1:27">
       <c r="A61" s="15">
-        <v>58</v>
-      </c>
-      <c r="B61" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="C61" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E61" s="15" t="s">
+      <c r="C61" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F61" s="46" t="s">
+      <c r="F61" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="G61" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="H61" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="I61" s="49" t="str">
+      <c r="G61" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="I61" s="20" t="str">
         <f>VLOOKUP(B61,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J61" s="34">
+      <c r="J61" s="36">
         <v>2</v>
       </c>
-      <c r="K61" s="34" t="s">
+      <c r="K61" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L61" s="74"/>
+      <c r="L61" s="72"/>
       <c r="M61" s="63"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="55">
+      <c r="N61" s="59"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="56">
         <v>0.02</v>
       </c>
-      <c r="R61" s="55">
+      <c r="R61" s="56">
         <v>0.02</v>
       </c>
-      <c r="S61" s="34">
+      <c r="S61" s="36">
         <v>2</v>
       </c>
-      <c r="T61" s="34"/>
-      <c r="U61" s="81"/>
+      <c r="T61" s="32"/>
+      <c r="U61" s="78"/>
       <c r="V61" s="15"/>
       <c r="W61" s="15"/>
-      <c r="X61" s="60" t="s">
+      <c r="X61" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y61" s="49" t="s">
+      <c r="Y61" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z61" s="34">
+      <c r="Z61" s="36">
         <v>220</v>
       </c>
-      <c r="AA61" s="97">
+      <c r="AA61" s="90">
         <v>0.13</v>
       </c>
-      <c r="AB61" s="91"/>
-      <c r="AC61" s="91"/>
     </row>
-    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="62" customHeight="1" spans="1:27">
       <c r="A62" s="15">
-        <v>59</v>
-      </c>
-      <c r="B62" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="C62" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E62" s="15" t="s">
+      <c r="C62" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F62" s="46" t="s">
+      <c r="F62" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="G62" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="H62" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="I62" s="49" t="str">
+      <c r="G62" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="I62" s="20" t="str">
         <f>VLOOKUP(B62,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J62" s="34">
+      <c r="J62" s="36">
         <v>2</v>
       </c>
-      <c r="K62" s="34" t="s">
+      <c r="K62" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L62" s="72" t="s">
-        <v>292</v>
-      </c>
-      <c r="M62" s="61">
-        <f ca="1">ROUND(EVALUATE(L62)*1000*0.000000001,2)</f>
-        <v>0.05</v>
-      </c>
-      <c r="N62" s="57">
-        <f ca="1">M62*T62</f>
-        <v>0.05</v>
-      </c>
-      <c r="O62" s="58">
-        <v>9</v>
-      </c>
-      <c r="P62" s="62">
-        <f>O62*T62</f>
-        <v>9</v>
-      </c>
-      <c r="Q62" s="55">
-        <v>4.2</v>
-      </c>
-      <c r="R62" s="55">
-        <v>4.2</v>
-      </c>
-      <c r="S62" s="34">
+      <c r="L62" s="73"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="56"/>
+      <c r="Q62" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="R62" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="S62" s="36">
         <v>2</v>
       </c>
-      <c r="T62" s="31">
-        <f>J62/S62</f>
-        <v>1</v>
-      </c>
-      <c r="U62" s="79" t="s">
-        <v>293</v>
-      </c>
+      <c r="T62" s="36"/>
+      <c r="U62" s="79"/>
       <c r="V62" s="15"/>
       <c r="W62" s="15"/>
-      <c r="X62" s="60" t="s">
+      <c r="X62" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y62" s="49" t="s">
+      <c r="Y62" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z62" s="34">
-        <v>328</v>
-      </c>
-      <c r="AA62" s="97">
+      <c r="Z62" s="36">
+        <v>220</v>
+      </c>
+      <c r="AA62" s="90">
         <v>0.13</v>
       </c>
-      <c r="AB62" s="91"/>
-      <c r="AC62" s="91"/>
     </row>
-    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="63" customHeight="1" spans="1:27">
       <c r="A63" s="15">
-        <v>60</v>
-      </c>
-      <c r="B63" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E63" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="C63" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F63" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="G63" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="H63" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="I63" s="49" t="str">
+      <c r="F63" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="G63" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="I63" s="20" t="str">
         <f>VLOOKUP(B63,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J63" s="34">
+      <c r="J63" s="36">
         <v>2</v>
       </c>
-      <c r="K63" s="34" t="s">
+      <c r="K63" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L63" s="74"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="55">
-        <v>4</v>
-      </c>
-      <c r="R63" s="55">
-        <v>4</v>
-      </c>
-      <c r="S63" s="34">
+      <c r="L63" s="71" t="s">
+        <v>294</v>
+      </c>
+      <c r="M63" s="60">
+        <f ca="1">ROUND(EVALUATE(L63)*1000*0.000000001,2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="N63" s="58">
+        <f ca="1">M63*T63</f>
+        <v>0.05</v>
+      </c>
+      <c r="O63" s="59">
+        <v>9</v>
+      </c>
+      <c r="P63" s="61">
+        <f>O63*T63</f>
+        <v>9</v>
+      </c>
+      <c r="Q63" s="56">
+        <v>4.2</v>
+      </c>
+      <c r="R63" s="56">
+        <v>4.2</v>
+      </c>
+      <c r="S63" s="36">
         <v>2</v>
       </c>
-      <c r="T63" s="34"/>
-      <c r="U63" s="81"/>
+      <c r="T63" s="32">
+        <f>J63/S63</f>
+        <v>1</v>
+      </c>
+      <c r="U63" s="77" t="s">
+        <v>295</v>
+      </c>
       <c r="V63" s="15"/>
       <c r="W63" s="15"/>
-      <c r="X63" s="60" t="s">
+      <c r="X63" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Y63" s="49" t="s">
+      <c r="Y63" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z63" s="34">
+      <c r="Z63" s="36">
         <v>328</v>
       </c>
-      <c r="AA63" s="97">
+      <c r="AA63" s="90">
         <v>0.13</v>
       </c>
-      <c r="AB63" s="91"/>
-      <c r="AC63" s="91"/>
     </row>
-    <row r="64" customHeight="1" spans="1:29">
-      <c r="A64" s="15"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="66">
-        <f>SUM(J4:J63)</f>
-        <v>9506</v>
-      </c>
-      <c r="K64" s="34"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="66">
-        <f ca="1">SUM(N4:N63)</f>
-        <v>18.32</v>
-      </c>
-      <c r="O64" s="66"/>
-      <c r="P64" s="66">
-        <f>SUM(P4:P63)</f>
-        <v>3374.84</v>
-      </c>
-      <c r="Q64" s="83"/>
-      <c r="R64" s="66">
-        <f>SUM(R4:R63)</f>
-        <v>3156.66</v>
-      </c>
-      <c r="S64" s="67"/>
-      <c r="T64" s="66">
-        <f>SUM(T4:T63)</f>
-        <v>168</v>
-      </c>
-      <c r="U64" s="84"/>
-      <c r="V64" s="82"/>
-      <c r="W64" s="82"/>
-      <c r="X64" s="85"/>
-      <c r="Y64" s="67"/>
-      <c r="Z64" s="89"/>
-      <c r="AA64" s="88"/>
-      <c r="AB64" s="90"/>
-      <c r="AC64" s="91"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:27">
-      <c r="A65" s="99"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="100"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="102"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="103"/>
-      <c r="I65" s="105"/>
-      <c r="J65" s="106"/>
-      <c r="K65" s="99"/>
-      <c r="L65" s="107"/>
-      <c r="M65" s="108"/>
-      <c r="N65" s="108"/>
-      <c r="O65" s="108"/>
-      <c r="P65" s="109"/>
-      <c r="Q65" s="109"/>
-      <c r="R65" s="99"/>
-      <c r="S65" s="99"/>
-      <c r="T65" s="99"/>
-      <c r="U65" s="111"/>
-      <c r="V65" s="112"/>
-      <c r="W65" s="112"/>
-      <c r="X65" s="107"/>
-      <c r="Y65" s="107"/>
-      <c r="Z65" s="113"/>
-      <c r="AA65" s="114"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:27">
-      <c r="A66" s="99"/>
-      <c r="B66" s="99"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="104"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="99"/>
-      <c r="J66" s="2"/>
-      <c r="P66" s="110"/>
-      <c r="Q66" s="110"/>
-      <c r="Z66" s="113"/>
-      <c r="AA66" s="114"/>
-    </row>
-    <row r="67" customHeight="1" spans="26:27">
-      <c r="Z67" s="113"/>
-      <c r="AA67" s="114"/>
-    </row>
-    <row r="68" customHeight="1" spans="26:27">
-      <c r="Z68" s="113"/>
-      <c r="AA68" s="114"/>
-    </row>
-    <row r="69" customHeight="1" spans="26:27">
-      <c r="Z69" s="113"/>
-      <c r="AA69" s="114"/>
-    </row>
-    <row r="70" customHeight="1" spans="26:27">
-      <c r="Z70" s="113"/>
-      <c r="AA70" s="114"/>
-    </row>
-    <row r="71" customHeight="1" spans="26:27">
-      <c r="Z71" s="113"/>
-      <c r="AA71" s="114"/>
-    </row>
-    <row r="72" customHeight="1" spans="26:27">
-      <c r="Z72" s="113"/>
-      <c r="AA72" s="114"/>
-    </row>
-    <row r="73" customHeight="1" spans="26:27">
-      <c r="Z73" s="113"/>
-      <c r="AA73" s="114"/>
-    </row>
-    <row r="74" customHeight="1" spans="26:27">
-      <c r="Z74" s="113"/>
-      <c r="AA74" s="114"/>
-    </row>
-    <row r="75" customHeight="1" spans="26:27">
-      <c r="Z75" s="113"/>
-      <c r="AA75" s="114"/>
-    </row>
-    <row r="76" customHeight="1" spans="26:27">
-      <c r="Z76" s="113"/>
-      <c r="AA76" s="114"/>
-    </row>
-    <row r="77" customHeight="1" spans="26:27">
-      <c r="Z77" s="113"/>
-      <c r="AA77" s="114"/>
-    </row>
-    <row r="78" customHeight="1" spans="26:27">
-      <c r="Z78" s="113"/>
-      <c r="AA78" s="114"/>
-    </row>
-    <row r="79" customHeight="1" spans="26:27">
-      <c r="Z79" s="113"/>
-      <c r="AA79" s="114"/>
-    </row>
-    <row r="80" customHeight="1" spans="26:27">
-      <c r="Z80" s="113"/>
-      <c r="AA80" s="114"/>
-    </row>
-    <row r="81" customHeight="1" spans="26:27">
-      <c r="Z81" s="113"/>
-      <c r="AA81" s="114"/>
+    <row r="64" customHeight="1" spans="1:27">
+      <c r="A64" s="15">
+        <v>60</v>
+      </c>
+      <c r="B64" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="C64" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="G64" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="I64" s="20" t="str">
+        <f>VLOOKUP(B64,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J64" s="36">
+        <v>2</v>
+      </c>
+      <c r="K64" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L64" s="73"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="55"/>
+      <c r="O64" s="55"/>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="56">
+        <v>4</v>
+      </c>
+      <c r="R64" s="56">
+        <v>4</v>
+      </c>
+      <c r="S64" s="36">
+        <v>2</v>
+      </c>
+      <c r="T64" s="36"/>
+      <c r="U64" s="79"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y64" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z64" s="36">
+        <v>328</v>
+      </c>
+      <c r="AA64" s="90">
+        <v>0.13</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:AC64" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:AC4" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="equal" val=""/>
+        <customFilter operator="equal" val="SMT工厂设备配件"/>
+      </customFilters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
-  <mergeCells count="83">
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B39:B46"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C39:C46"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="F39:F46"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G39:G46"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="J39:J46"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="K39:K46"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L15:L21"/>
-    <mergeCell ref="L22:L30"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="L50:L61"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M15:M21"/>
-    <mergeCell ref="M22:M30"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M50:M61"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N15:N21"/>
-    <mergeCell ref="N22:N30"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="N50:N61"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="O15:O21"/>
-    <mergeCell ref="O22:O30"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O50:O61"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="P15:P21"/>
-    <mergeCell ref="P22:P30"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="P39:P46"/>
-    <mergeCell ref="P50:P61"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q35:Q37"/>
-    <mergeCell ref="Q39:Q46"/>
-    <mergeCell ref="R35:R37"/>
-    <mergeCell ref="R39:R46"/>
-    <mergeCell ref="S35:S37"/>
-    <mergeCell ref="S39:S46"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="T15:T21"/>
-    <mergeCell ref="T22:T30"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="T50:T61"/>
-    <mergeCell ref="T62:T63"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="U15:U21"/>
-    <mergeCell ref="U22:U30"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="U50:U61"/>
-    <mergeCell ref="U62:U63"/>
-    <mergeCell ref="X35:X37"/>
-    <mergeCell ref="X39:X46"/>
-    <mergeCell ref="Z35:Z37"/>
-    <mergeCell ref="Z39:Z46"/>
-    <mergeCell ref="AA35:AA37"/>
-    <mergeCell ref="AA39:AA46"/>
-    <mergeCell ref="AB35:AB37"/>
+  <mergeCells count="86">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D40:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E40:E47"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="F40:F47"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="G40:G47"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="J40:J47"/>
+    <mergeCell ref="K36:K38"/>
+    <mergeCell ref="K40:K47"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L16:L22"/>
+    <mergeCell ref="L23:L31"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="L51:L62"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M16:M22"/>
+    <mergeCell ref="M23:M31"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M51:M62"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N16:N22"/>
+    <mergeCell ref="N23:N31"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="N51:N62"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O16:O22"/>
+    <mergeCell ref="O23:O31"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="O51:O62"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P16:P22"/>
+    <mergeCell ref="P23:P31"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="P36:P38"/>
+    <mergeCell ref="P40:P47"/>
+    <mergeCell ref="P51:P62"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="Q36:Q38"/>
+    <mergeCell ref="Q40:Q47"/>
+    <mergeCell ref="R36:R38"/>
+    <mergeCell ref="R40:R47"/>
+    <mergeCell ref="S36:S38"/>
+    <mergeCell ref="S40:S47"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T16:T22"/>
+    <mergeCell ref="T23:T31"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T51:T62"/>
+    <mergeCell ref="T63:T64"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U16:U22"/>
+    <mergeCell ref="U23:U31"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U51:U62"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="X36:X38"/>
+    <mergeCell ref="X40:X47"/>
+    <mergeCell ref="Z36:Z38"/>
+    <mergeCell ref="Z40:Z47"/>
+    <mergeCell ref="AA36:AA38"/>
+    <mergeCell ref="AA40:AA47"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C2">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:C3">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C3">
+  <conditionalFormatting sqref="B9">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="B5:B7 B10:B31">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67:C65522 B4:B6 B9:B30">
-    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
+  <conditionalFormatting sqref="B65:C65372">
+    <cfRule type="duplicateValues" dxfId="0" priority="80"/>
   </conditionalFormatting>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="O31" numberStoredAsText="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/testfiles/original_packing_list.xlsx
+++ b/testfiles/original_packing_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="495"/>
+    <workbookView windowWidth="24750" windowHeight="11630" tabRatio="495"/>
   </bookViews>
   <sheets>
     <sheet name="装箱单模版-2025年更新" sheetId="2" r:id="rId1"/>
@@ -13,9 +13,9 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'装箱单模版-2025年更新'!$A$2:$AC$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'装箱单模版-2025年更新'!$A$4:$Y$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'装箱单模版-2025年更新'!$4:$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'装箱单模版-2025年更新'!$A$2:$AC$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'装箱单模版-2025年更新'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'装箱单模版-2025年更新'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,37 +90,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">给工厂的时候需删除此列
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>给工厂的时候需删除此列</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="299">
   <si>
     <t>采购装箱单</t>
   </si>
@@ -3080,12 +3055,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1" codeName="Sheet1"/>
-  <dimension ref="A1:AB64"/>
+  <dimension ref="A1:AB63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:AA64"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6272727272727" defaultRowHeight="30" customHeight="1"/>
@@ -3317,157 +3292,158 @@
       </c>
       <c r="AB3" s="10"/>
     </row>
-    <row r="4" ht="23" hidden="1" spans="1:27">
-      <c r="A4" s="15" t="s">
-        <v>31</v>
+    <row r="4" customHeight="1" spans="1:27">
+      <c r="A4" s="15">
+        <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>33</v>
+        <v>58</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>40</v>
+        <v>62</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="20" t="str">
+        <f>VLOOKUP(B4,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J4" s="15">
+        <v>500</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4" s="52" t="s">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="53">
+        <f ca="1" t="shared" ref="M4:M9" si="0">ROUND(EVALUATE(L4)*1000*0.000000001,2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="N4" s="54">
+        <f ca="1" t="shared" ref="N4:N9" si="1">M4*T4</f>
+        <v>0.01</v>
+      </c>
+      <c r="O4" s="55">
+        <v>2.8</v>
+      </c>
+      <c r="P4" s="56">
+        <f t="shared" ref="P4:P9" si="2">O4*T4</f>
+        <v>2.8</v>
+      </c>
+      <c r="Q4" s="56">
+        <v>2.6</v>
+      </c>
+      <c r="R4" s="56">
+        <v>2.6</v>
+      </c>
+      <c r="S4" s="36">
+        <v>500</v>
+      </c>
+      <c r="T4" s="36">
+        <f t="shared" ref="T4:T9" si="3">J4/S4</f>
+        <v>1</v>
       </c>
       <c r="U4" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="V4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="W4" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="X4" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y4" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA4" s="82" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="83">
+        <v>0.13</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:27">
       <c r="A5" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I5" s="20" t="str">
         <f>VLOOKUP(B5,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
       <c r="J5" s="15">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="53">
-        <f ca="1" t="shared" ref="M5:M10" si="0">ROUND(EVALUATE(L5)*1000*0.000000001,2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="N5" s="54">
-        <f ca="1" t="shared" ref="N5:N10" si="1">M5*T5</f>
-        <v>0.01</v>
-      </c>
-      <c r="O5" s="55">
-        <v>2.8</v>
-      </c>
-      <c r="P5" s="56">
-        <f t="shared" ref="P5:P10" si="2">O5*T5</f>
-        <v>2.8</v>
+      <c r="L5" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="58">
+        <f ca="1" t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="N5" s="58">
+        <f ca="1" t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="O5" s="59">
+        <v>2.04</v>
+      </c>
+      <c r="P5" s="58">
+        <f t="shared" si="2"/>
+        <v>2.04</v>
       </c>
       <c r="Q5" s="56">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="R5" s="56">
-        <v>2.6</v>
-      </c>
-      <c r="S5" s="36">
-        <v>500</v>
-      </c>
-      <c r="T5" s="36">
-        <f t="shared" ref="T5:T10" si="3">J5/S5</f>
+        <v>1.1</v>
+      </c>
+      <c r="S5" s="15">
+        <v>3</v>
+      </c>
+      <c r="T5" s="64">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U5" s="75" t="s">
-        <v>66</v>
+      <c r="U5" s="77" t="s">
+        <v>75</v>
       </c>
       <c r="V5" s="20"/>
       <c r="W5" s="20"/>
@@ -3478,7 +3454,7 @@
         <v>68</v>
       </c>
       <c r="Z5" s="15">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="AA5" s="83">
         <v>0.13</v>
@@ -3486,10 +3462,10 @@
     </row>
     <row r="6" customHeight="1" spans="1:27">
       <c r="A6" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>70</v>
@@ -3501,58 +3477,40 @@
         <v>61</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I6" s="20" t="str">
         <f>VLOOKUP(B6,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
+        <v>12-14</v>
       </c>
       <c r="J6" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.04</v>
-      </c>
-      <c r="N6" s="58">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.04</v>
-      </c>
-      <c r="O6" s="59">
-        <v>2.04</v>
-      </c>
-      <c r="P6" s="58">
-        <f t="shared" si="2"/>
-        <v>2.04</v>
-      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
       <c r="Q6" s="56">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="56">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="S6" s="15">
-        <v>3</v>
-      </c>
-      <c r="T6" s="64">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U6" s="77" t="s">
-        <v>75</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="T6" s="32"/>
+      <c r="U6" s="78"/>
       <c r="V6" s="20"/>
       <c r="W6" s="20"/>
       <c r="X6" s="20" t="s">
@@ -3562,7 +3520,7 @@
         <v>68</v>
       </c>
       <c r="Z6" s="15">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="AA6" s="83">
         <v>0.13</v>
@@ -3570,10 +3528,10 @@
     </row>
     <row r="7" customHeight="1" spans="1:27">
       <c r="A7" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>70</v>
@@ -3585,40 +3543,40 @@
         <v>61</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>78</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I7" s="20" t="str">
         <f>VLOOKUP(B7,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>12-14</v>
+        <v>8-14</v>
       </c>
       <c r="J7" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
       <c r="Q7" s="56">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="R7" s="56">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="S7" s="15">
-        <v>2</v>
-      </c>
-      <c r="T7" s="32"/>
-      <c r="U7" s="78"/>
+        <v>1</v>
+      </c>
+      <c r="T7" s="36"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20" t="s">
@@ -3636,10 +3594,10 @@
     </row>
     <row r="8" customHeight="1" spans="1:27">
       <c r="A8" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>70</v>
@@ -3651,40 +3609,58 @@
         <v>61</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I8" s="20" t="str">
         <f>VLOOKUP(B8,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>8-14</v>
+        <v>/</v>
       </c>
       <c r="J8" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
+      <c r="L8" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="53">
+        <f ca="1" t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="N8" s="58">
+        <f ca="1" t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="O8" s="54">
+        <v>1.88</v>
+      </c>
+      <c r="P8" s="54">
+        <f t="shared" si="2"/>
+        <v>1.88</v>
+      </c>
       <c r="Q8" s="56">
-        <v>0.2</v>
+        <v>1.55</v>
       </c>
       <c r="R8" s="56">
-        <v>0.2</v>
+        <v>1.55</v>
       </c>
       <c r="S8" s="15">
+        <v>3</v>
+      </c>
+      <c r="T8" s="15">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T8" s="36"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="77" t="s">
+        <v>83</v>
+      </c>
       <c r="V8" s="20"/>
       <c r="W8" s="20"/>
       <c r="X8" s="20" t="s">
@@ -3694,7 +3670,7 @@
         <v>68</v>
       </c>
       <c r="Z8" s="15">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AA8" s="83">
         <v>0.13</v>
@@ -3702,13 +3678,13 @@
     </row>
     <row r="9" customHeight="1" spans="1:27">
       <c r="A9" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>71</v>
@@ -3717,57 +3693,57 @@
         <v>61</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I9" s="20" t="str">
         <f>VLOOKUP(B9,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
+        <v>QLDZ.0014</v>
       </c>
       <c r="J9" s="15">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>64</v>
       </c>
       <c r="L9" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="53">
+        <v>88</v>
+      </c>
+      <c r="M9" s="60">
         <f ca="1" t="shared" si="0"/>
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="N9" s="58">
         <f ca="1" t="shared" si="1"/>
-        <v>0.04</v>
-      </c>
-      <c r="O9" s="54">
-        <v>1.88</v>
-      </c>
-      <c r="P9" s="54">
+        <v>0.01</v>
+      </c>
+      <c r="O9" s="59">
+        <v>4.3</v>
+      </c>
+      <c r="P9" s="61">
         <f t="shared" si="2"/>
-        <v>1.88</v>
+        <v>4.3</v>
       </c>
       <c r="Q9" s="56">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="R9" s="56">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="S9" s="15">
-        <v>3</v>
-      </c>
-      <c r="T9" s="15">
+        <v>100</v>
+      </c>
+      <c r="T9" s="32">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U9" s="77" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="V9" s="20"/>
       <c r="W9" s="20"/>
@@ -3778,7 +3754,7 @@
         <v>68</v>
       </c>
       <c r="Z9" s="15">
-        <v>110</v>
+        <v>22.6</v>
       </c>
       <c r="AA9" s="83">
         <v>0.13</v>
@@ -3786,163 +3762,163 @@
     </row>
     <row r="10" customHeight="1" spans="1:27">
       <c r="A10" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I10" s="20" t="str">
         <f>VLOOKUP(B10,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>QLDZ.0014</v>
+        <v>N510059196AA</v>
       </c>
       <c r="J10" s="15">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="60">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="N10" s="58">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="O10" s="59">
-        <v>4.3</v>
-      </c>
-      <c r="P10" s="61">
-        <f t="shared" si="2"/>
-        <v>4.3</v>
-      </c>
+      <c r="L10" s="37"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="56"/>
       <c r="Q10" s="56">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R10" s="56">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S10" s="15">
-        <v>100</v>
-      </c>
-      <c r="T10" s="32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U10" s="77" t="s">
-        <v>89</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="T10" s="36"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
-      <c r="X10" s="20" t="s">
+      <c r="X10" s="37" t="s">
         <v>67</v>
       </c>
       <c r="Y10" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z10" s="15">
-        <v>22.6</v>
+        <v>0.8</v>
       </c>
       <c r="AA10" s="83">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:27">
       <c r="A11" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I11" s="20" t="str">
         <f>VLOOKUP(B11,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>N510059196AA</v>
+        <v>FA2P5N1W20360133</v>
       </c>
       <c r="J11" s="15">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="56"/>
+      <c r="L11" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="60">
+        <f ca="1" t="shared" ref="M11:M15" si="4">ROUND(EVALUATE(L11)*1000*0.000000001,2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="N11" s="58">
+        <f ca="1" t="shared" ref="N11:N15" si="5">M11*T11</f>
+        <v>0.02</v>
+      </c>
+      <c r="O11" s="59">
+        <v>14</v>
+      </c>
+      <c r="P11" s="61">
+        <f t="shared" ref="P11:P22" si="6">O11*T11</f>
+        <v>14</v>
+      </c>
       <c r="Q11" s="56">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="R11" s="56">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="S11" s="15">
-        <v>137</v>
-      </c>
-      <c r="T11" s="36"/>
-      <c r="U11" s="79"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="64">
+        <f t="shared" ref="T11:T15" si="7">J11/S11</f>
+        <v>1</v>
+      </c>
+      <c r="U11" s="77" t="s">
+        <v>101</v>
+      </c>
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
-      <c r="X11" s="37" t="s">
+      <c r="X11" s="20" t="s">
         <v>67</v>
       </c>
       <c r="Y11" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z11" s="15">
-        <v>0.8</v>
+        <v>1140</v>
       </c>
       <c r="AA11" s="83">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:27">
       <c r="A12" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>71</v>
@@ -3951,17 +3927,17 @@
         <v>61</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I12" s="20" t="str">
         <f>VLOOKUP(B12,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>FA2P5N1W20360133</v>
+        <v>STM86118S</v>
       </c>
       <c r="J12" s="15">
         <v>1</v>
@@ -3969,40 +3945,22 @@
       <c r="K12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="M12" s="60">
-        <f ca="1" t="shared" ref="M12:M16" si="4">ROUND(EVALUATE(L12)*1000*0.000000001,2)</f>
-        <v>0.02</v>
-      </c>
-      <c r="N12" s="58">
-        <f ca="1" t="shared" ref="N12:N16" si="5">M12*T12</f>
-        <v>0.02</v>
-      </c>
-      <c r="O12" s="59">
-        <v>14</v>
-      </c>
-      <c r="P12" s="61">
-        <f t="shared" ref="P12:P23" si="6">O12*T12</f>
-        <v>14</v>
-      </c>
+      <c r="L12" s="33"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="61"/>
       <c r="Q12" s="56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R12" s="56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S12" s="15">
         <v>1</v>
       </c>
-      <c r="T12" s="64">
-        <f t="shared" ref="T12:T16" si="7">J12/S12</f>
-        <v>1</v>
-      </c>
-      <c r="U12" s="77" t="s">
-        <v>101</v>
-      </c>
+      <c r="T12" s="32"/>
+      <c r="U12" s="78"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20" t="s">
@@ -4012,7 +3970,7 @@
         <v>68</v>
       </c>
       <c r="Z12" s="15">
-        <v>1140</v>
+        <v>230</v>
       </c>
       <c r="AA12" s="83">
         <v>0.13</v>
@@ -4020,10 +3978,10 @@
     </row>
     <row r="13" customHeight="1" spans="1:27">
       <c r="A13" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>103</v>
@@ -4035,29 +3993,29 @@
         <v>61</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>105</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I13" s="20" t="str">
         <f>VLOOKUP(B13,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>STM86118S</v>
+        <v>STM8680</v>
       </c>
       <c r="J13" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="33"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="61"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="56"/>
       <c r="Q13" s="56">
         <v>5</v>
       </c>
@@ -4065,10 +4023,10 @@
         <v>5</v>
       </c>
       <c r="S13" s="15">
-        <v>1</v>
-      </c>
-      <c r="T13" s="32"/>
-      <c r="U13" s="78"/>
+        <v>3</v>
+      </c>
+      <c r="T13" s="36"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20" t="s">
@@ -4078,7 +4036,7 @@
         <v>68</v>
       </c>
       <c r="Z13" s="15">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="AA13" s="83">
         <v>0.13</v>
@@ -4086,55 +4044,73 @@
     </row>
     <row r="14" customHeight="1" spans="1:27">
       <c r="A14" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>61</v>
+        <v>112</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I14" s="20" t="str">
         <f>VLOOKUP(B14,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>STM8680</v>
+        <v>/</v>
       </c>
       <c r="J14" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="37"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="56"/>
+      <c r="L14" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="53">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="N14" s="54">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="O14" s="55">
+        <v>1.44</v>
+      </c>
+      <c r="P14" s="56">
+        <f t="shared" si="6"/>
+        <v>1.44</v>
+      </c>
       <c r="Q14" s="56">
+        <v>1.23</v>
+      </c>
+      <c r="R14" s="56">
+        <v>1.23</v>
+      </c>
+      <c r="S14" s="36">
         <v>5</v>
       </c>
-      <c r="R14" s="56">
-        <v>5</v>
-      </c>
-      <c r="S14" s="15">
-        <v>3</v>
-      </c>
-      <c r="T14" s="36"/>
-      <c r="U14" s="79"/>
+      <c r="T14" s="36">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U14" s="75" t="s">
+        <v>117</v>
+      </c>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20" t="s">
@@ -4144,7 +4120,7 @@
         <v>68</v>
       </c>
       <c r="Z14" s="15">
-        <v>185</v>
+        <v>350</v>
       </c>
       <c r="AA14" s="83">
         <v>0.13</v>
@@ -4152,160 +4128,145 @@
     </row>
     <row r="15" customHeight="1" spans="1:27">
       <c r="A15" s="15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>113</v>
+        <v>60</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I15" s="20" t="str">
         <f>VLOOKUP(B15,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
+        <v>900M-T-sk</v>
       </c>
       <c r="J15" s="15">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="M15" s="53">
+      <c r="L15" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="58">
         <f ca="1" t="shared" si="4"/>
         <v>0.01</v>
       </c>
-      <c r="N15" s="54">
+      <c r="N15" s="58">
         <f ca="1" t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="O15" s="55">
-        <v>1.44</v>
-      </c>
-      <c r="P15" s="56">
+      <c r="O15" s="64">
+        <v>7.55</v>
+      </c>
+      <c r="P15" s="64">
         <f t="shared" si="6"/>
-        <v>1.44</v>
+        <v>7.55</v>
       </c>
       <c r="Q15" s="56">
-        <v>1.23</v>
+        <v>0.15</v>
       </c>
       <c r="R15" s="56">
-        <v>1.23</v>
-      </c>
-      <c r="S15" s="36">
-        <v>5</v>
-      </c>
-      <c r="T15" s="36">
+        <v>0.15</v>
+      </c>
+      <c r="S15" s="15">
+        <v>30</v>
+      </c>
+      <c r="T15" s="32">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="U15" s="75" t="s">
-        <v>117</v>
+      <c r="U15" s="77" t="s">
+        <v>124</v>
       </c>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
-      <c r="X15" s="20" t="s">
+      <c r="X15" s="37" t="s">
         <v>67</v>
       </c>
       <c r="Y15" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z15" s="15">
-        <v>350</v>
+        <v>5</v>
       </c>
       <c r="AA15" s="83">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:27">
       <c r="A16" s="15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>61</v>
+        <v>112</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>121</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I16" s="20" t="str">
         <f>VLOOKUP(B16,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>900M-T-sk</v>
+        <v>900M-T-B</v>
       </c>
       <c r="J16" s="15">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" s="58">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-      <c r="N16" s="58">
-        <f ca="1" t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="O16" s="64">
-        <v>7.55</v>
-      </c>
-      <c r="P16" s="64">
+      <c r="L16" s="33"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32">
         <f t="shared" si="6"/>
-        <v>7.55</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="56">
-        <v>0.15</v>
+        <v>2.5</v>
       </c>
       <c r="R16" s="56">
-        <v>0.15</v>
+        <v>2.5</v>
       </c>
       <c r="S16" s="15">
-        <v>30</v>
-      </c>
-      <c r="T16" s="32">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="U16" s="77" t="s">
-        <v>124</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="T16" s="32"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
-      <c r="X16" s="37" t="s">
+      <c r="X16" s="20" t="s">
         <v>67</v>
       </c>
       <c r="Y16" s="20" t="s">
@@ -4320,10 +4281,10 @@
     </row>
     <row r="17" customHeight="1" spans="1:27">
       <c r="A17" s="15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>119</v>
@@ -4335,7 +4296,7 @@
         <v>113</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>121</v>
@@ -4345,10 +4306,10 @@
       </c>
       <c r="I17" s="20" t="str">
         <f>VLOOKUP(B17,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>900M-T-B</v>
+        <v>900M-T-4C</v>
       </c>
       <c r="J17" s="15">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>64</v>
@@ -4362,13 +4323,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="56">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="R17" s="56">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="S17" s="15">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T17" s="32"/>
       <c r="U17" s="78"/>
@@ -4389,10 +4350,10 @@
     </row>
     <row r="18" customHeight="1" spans="1:27">
       <c r="A18" s="15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>119</v>
@@ -4404,20 +4365,20 @@
         <v>113</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>121</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I18" s="20" t="str">
         <f>VLOOKUP(B18,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>900M-T-4C</v>
+        <v>900M-T-2C</v>
       </c>
       <c r="J18" s="15">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>64</v>
@@ -4431,13 +4392,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="56">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="R18" s="56">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="S18" s="15">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="T18" s="32"/>
       <c r="U18" s="78"/>
@@ -4458,10 +4419,10 @@
     </row>
     <row r="19" customHeight="1" spans="1:27">
       <c r="A19" s="15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>119</v>
@@ -4473,17 +4434,17 @@
         <v>113</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>121</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I19" s="20" t="str">
         <f>VLOOKUP(B19,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>900M-T-2C</v>
+        <v>900-T-1.2D</v>
       </c>
       <c r="J19" s="15">
         <v>40</v>
@@ -4519,7 +4480,7 @@
         <v>68</v>
       </c>
       <c r="Z19" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA19" s="83">
         <v>0.01</v>
@@ -4527,10 +4488,10 @@
     </row>
     <row r="20" customHeight="1" spans="1:27">
       <c r="A20" s="15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>119</v>
@@ -4542,20 +4503,20 @@
         <v>113</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I20" s="20" t="str">
         <f>VLOOKUP(B20,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>900-T-1.2D</v>
+        <v>WRNT-013</v>
       </c>
       <c r="J20" s="15">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>64</v>
@@ -4569,13 +4530,13 @@
         <v>0</v>
       </c>
       <c r="Q20" s="56">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="R20" s="56">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="S20" s="15">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="T20" s="32"/>
       <c r="U20" s="78"/>
@@ -4588,7 +4549,7 @@
         <v>68</v>
       </c>
       <c r="Z20" s="15">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="AA20" s="83">
         <v>0.01</v>
@@ -4596,10 +4557,10 @@
     </row>
     <row r="21" customHeight="1" spans="1:27">
       <c r="A21" s="15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>119</v>
@@ -4611,43 +4572,43 @@
         <v>113</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I21" s="20" t="str">
         <f>VLOOKUP(B21,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>WRNT-013</v>
+        <v>/</v>
       </c>
       <c r="J21" s="15">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="33"/>
+      <c r="L21" s="37"/>
       <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32">
+      <c r="N21" s="55"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q21" s="56">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="R21" s="56">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="S21" s="15">
-        <v>140</v>
-      </c>
-      <c r="T21" s="32"/>
-      <c r="U21" s="78"/>
+        <v>250</v>
+      </c>
+      <c r="T21" s="36"/>
+      <c r="U21" s="79"/>
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20" t="s">
@@ -4657,7 +4618,7 @@
         <v>68</v>
       </c>
       <c r="Z21" s="15">
-        <v>1.2</v>
+        <v>0.99</v>
       </c>
       <c r="AA21" s="83">
         <v>0.01</v>
@@ -4665,13 +4626,13 @@
     </row>
     <row r="22" customHeight="1" spans="1:27">
       <c r="A22" s="15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>112</v>
@@ -4680,43 +4641,58 @@
         <v>113</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I22" s="20" t="str">
         <f>VLOOKUP(B22,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
       <c r="J22" s="15">
-        <v>250</v>
+        <v>388</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="37"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36">
+      <c r="L22" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" s="64">
+        <f ca="1">ROUND(EVALUATE(L22)*1000*0.000000001,2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="N22" s="64">
+        <f ca="1">M22*T22</f>
+        <v>0.02</v>
+      </c>
+      <c r="O22" s="64">
+        <v>20</v>
+      </c>
+      <c r="P22" s="64">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="56">
-        <v>1.25</v>
+        <v>3.49</v>
       </c>
       <c r="R22" s="56">
-        <v>1.25</v>
+        <v>3.49</v>
       </c>
       <c r="S22" s="15">
-        <v>250</v>
-      </c>
-      <c r="T22" s="36"/>
-      <c r="U22" s="79"/>
+        <v>388</v>
+      </c>
+      <c r="T22" s="32">
+        <f>J22/S22</f>
+        <v>1</v>
+      </c>
+      <c r="U22" s="77" t="s">
+        <v>145</v>
+      </c>
       <c r="V22" s="20"/>
       <c r="W22" s="20"/>
       <c r="X22" s="20" t="s">
@@ -4726,18 +4702,18 @@
         <v>68</v>
       </c>
       <c r="Z22" s="15">
-        <v>0.99</v>
+        <v>1.32</v>
       </c>
       <c r="AA22" s="83">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:27">
       <c r="A23" s="15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>141</v>
@@ -4762,45 +4738,27 @@
         <v>/</v>
       </c>
       <c r="J23" s="15">
-        <v>388</v>
+        <v>457</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="M23" s="64">
-        <f ca="1">ROUND(EVALUATE(L23)*1000*0.000000001,2)</f>
-        <v>0.02</v>
-      </c>
-      <c r="N23" s="64">
-        <f ca="1">M23*T23</f>
-        <v>0.02</v>
-      </c>
-      <c r="O23" s="64">
-        <v>20</v>
-      </c>
-      <c r="P23" s="64">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
+      <c r="L23" s="33"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
       <c r="Q23" s="56">
-        <v>3.49</v>
+        <v>4.11</v>
       </c>
       <c r="R23" s="56">
-        <v>3.49</v>
+        <v>4.11</v>
       </c>
       <c r="S23" s="15">
-        <v>388</v>
-      </c>
-      <c r="T23" s="32">
-        <f>J23/S23</f>
-        <v>1</v>
-      </c>
-      <c r="U23" s="77" t="s">
-        <v>145</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="T23" s="32"/>
+      <c r="U23" s="78"/>
       <c r="V23" s="20"/>
       <c r="W23" s="20"/>
       <c r="X23" s="20" t="s">
@@ -4818,10 +4776,10 @@
     </row>
     <row r="24" customHeight="1" spans="1:27">
       <c r="A24" s="15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>141</v>
@@ -4846,7 +4804,7 @@
         <v>/</v>
       </c>
       <c r="J24" s="15">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K24" s="15" t="s">
         <v>64</v>
@@ -4857,13 +4815,13 @@
       <c r="O24" s="32"/>
       <c r="P24" s="32"/>
       <c r="Q24" s="56">
-        <v>4.11</v>
+        <v>4.12</v>
       </c>
       <c r="R24" s="56">
-        <v>4.11</v>
+        <v>4.12</v>
       </c>
       <c r="S24" s="15">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="T24" s="32"/>
       <c r="U24" s="78"/>
@@ -4884,10 +4842,10 @@
     </row>
     <row r="25" customHeight="1" spans="1:27">
       <c r="A25" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>141</v>
@@ -4912,7 +4870,7 @@
         <v>/</v>
       </c>
       <c r="J25" s="15">
-        <v>458</v>
+        <v>287</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>64</v>
@@ -4923,13 +4881,13 @@
       <c r="O25" s="32"/>
       <c r="P25" s="32"/>
       <c r="Q25" s="56">
-        <v>4.12</v>
+        <v>2.58</v>
       </c>
       <c r="R25" s="56">
-        <v>4.12</v>
+        <v>2.58</v>
       </c>
       <c r="S25" s="15">
-        <v>458</v>
+        <v>287</v>
       </c>
       <c r="T25" s="32"/>
       <c r="U25" s="78"/>
@@ -4950,10 +4908,10 @@
     </row>
     <row r="26" customHeight="1" spans="1:27">
       <c r="A26" s="15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>141</v>
@@ -4965,20 +4923,20 @@
         <v>113</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>143</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I26" s="20" t="str">
         <f>VLOOKUP(B26,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
       <c r="J26" s="15">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>64</v>
@@ -4989,13 +4947,13 @@
       <c r="O26" s="32"/>
       <c r="P26" s="32"/>
       <c r="Q26" s="56">
-        <v>2.58</v>
+        <v>0.36</v>
       </c>
       <c r="R26" s="56">
-        <v>2.58</v>
+        <v>0.36</v>
       </c>
       <c r="S26" s="15">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="T26" s="32"/>
       <c r="U26" s="78"/>
@@ -5016,10 +4974,10 @@
     </row>
     <row r="27" customHeight="1" spans="1:27">
       <c r="A27" s="15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>141</v>
@@ -5031,7 +4989,7 @@
         <v>113</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>143</v>
@@ -5044,7 +5002,7 @@
         <v>/</v>
       </c>
       <c r="J27" s="15">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>64</v>
@@ -5055,13 +5013,13 @@
       <c r="O27" s="32"/>
       <c r="P27" s="32"/>
       <c r="Q27" s="56">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="R27" s="56">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="S27" s="15">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="T27" s="32"/>
       <c r="U27" s="78"/>
@@ -5082,10 +5040,10 @@
     </row>
     <row r="28" customHeight="1" spans="1:27">
       <c r="A28" s="15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>141</v>
@@ -5097,7 +5055,7 @@
         <v>113</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G28" s="21" t="s">
         <v>143</v>
@@ -5110,7 +5068,7 @@
         <v>/</v>
       </c>
       <c r="J28" s="15">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>64</v>
@@ -5121,13 +5079,13 @@
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
       <c r="Q28" s="56">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="R28" s="56">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="S28" s="15">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T28" s="32"/>
       <c r="U28" s="78"/>
@@ -5148,10 +5106,10 @@
     </row>
     <row r="29" customHeight="1" spans="1:27">
       <c r="A29" s="15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>141</v>
@@ -5163,13 +5121,13 @@
         <v>113</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>143</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I29" s="20" t="str">
         <f>VLOOKUP(B29,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -5214,10 +5172,10 @@
     </row>
     <row r="30" customHeight="1" spans="1:27">
       <c r="A30" s="15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>141</v>
@@ -5229,7 +5187,7 @@
         <v>113</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G30" s="21" t="s">
         <v>143</v>
@@ -5242,27 +5200,27 @@
         <v>/</v>
       </c>
       <c r="J30" s="15">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K30" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L30" s="33"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
       <c r="Q30" s="56">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
       <c r="R30" s="56">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
       <c r="S30" s="15">
-        <v>50</v>
-      </c>
-      <c r="T30" s="32"/>
-      <c r="U30" s="78"/>
+        <v>110</v>
+      </c>
+      <c r="T30" s="36"/>
+      <c r="U30" s="79"/>
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20" t="s">
@@ -5280,65 +5238,83 @@
     </row>
     <row r="31" customHeight="1" spans="1:27">
       <c r="A31" s="15">
-        <v>27</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>158</v>
+        <v>28</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>113</v>
+        <v>60</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>143</v>
+        <v>162</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>163</v>
       </c>
       <c r="I31" s="20" t="str">
         <f>VLOOKUP(B31,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J31" s="15">
-        <v>110</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L31" s="37"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
+      <c r="J31" s="65">
+        <v>2040</v>
+      </c>
+      <c r="K31" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="L31" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="M31" s="53">
+        <f ca="1" t="shared" ref="M31:M33" si="8">ROUND(EVALUATE(L31)*1000*0.000000001,2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="N31" s="66">
+        <f ca="1" t="shared" ref="N31:N33" si="9">M31*T31</f>
+        <v>6.12</v>
+      </c>
+      <c r="O31" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="P31" s="67">
+        <f t="shared" ref="P31:P33" si="10">O31*T31</f>
+        <v>1204.28</v>
+      </c>
       <c r="Q31" s="56">
-        <v>0.99</v>
+        <v>1200</v>
       </c>
       <c r="R31" s="56">
-        <v>0.99</v>
-      </c>
-      <c r="S31" s="15">
-        <v>110</v>
-      </c>
-      <c r="T31" s="36"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20" t="s">
+        <v>1200</v>
+      </c>
+      <c r="S31" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="T31" s="15">
+        <f t="shared" ref="T31:T33" si="11">J31/S31</f>
+        <v>68</v>
+      </c>
+      <c r="U31" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="V31" s="80"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="37" t="s">
         <v>67</v>
       </c>
       <c r="Y31" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z31" s="15">
-        <v>1.32</v>
+      <c r="Z31" s="84">
+        <v>14.8</v>
       </c>
       <c r="AA31" s="83">
         <v>0.13</v>
@@ -5346,10 +5322,10 @@
     </row>
     <row r="32" customHeight="1" spans="1:27">
       <c r="A32" s="15">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>161</v>
@@ -5361,7 +5337,7 @@
         <v>61</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>163</v>
@@ -5374,44 +5350,44 @@
         <v>/</v>
       </c>
       <c r="J32" s="65">
-        <v>2040</v>
+        <v>2800</v>
       </c>
       <c r="K32" s="36" t="s">
         <v>164</v>
       </c>
       <c r="L32" s="66" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M32" s="53">
-        <f ca="1" t="shared" ref="M32:M34" si="8">ROUND(EVALUATE(L32)*1000*0.000000001,2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="N32" s="66">
-        <f ca="1" t="shared" ref="N32:N34" si="9">M32*T32</f>
-        <v>6.12</v>
-      </c>
-      <c r="O32" s="66" t="s">
-        <v>166</v>
+        <f ca="1" t="shared" si="8"/>
+        <v>0.07</v>
+      </c>
+      <c r="N32" s="58">
+        <f ca="1" t="shared" si="9"/>
+        <v>3.92</v>
+      </c>
+      <c r="O32" s="54">
+        <v>15.5</v>
       </c>
       <c r="P32" s="67">
-        <f t="shared" ref="P32:P34" si="10">O32*T32</f>
-        <v>1204.28</v>
+        <f t="shared" si="10"/>
+        <v>868</v>
       </c>
       <c r="Q32" s="56">
-        <v>1200</v>
+        <v>866</v>
       </c>
       <c r="R32" s="56">
-        <v>1200</v>
+        <v>866</v>
       </c>
       <c r="S32" s="73" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="T32" s="15">
-        <f t="shared" ref="T32:T34" si="11">J32/S32</f>
-        <v>68</v>
+        <f t="shared" si="11"/>
+        <v>56</v>
       </c>
       <c r="U32" s="75" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="V32" s="80"/>
       <c r="W32" s="80"/>
@@ -5422,7 +5398,7 @@
         <v>68</v>
       </c>
       <c r="Z32" s="84">
-        <v>14.8</v>
+        <v>7.3</v>
       </c>
       <c r="AA32" s="83">
         <v>0.13</v>
@@ -5430,72 +5406,72 @@
     </row>
     <row r="33" customHeight="1" spans="1:27">
       <c r="A33" s="15">
-        <v>29</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>169</v>
+        <v>30</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="18" t="s">
-        <v>170</v>
+      <c r="F33" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="I33" s="20" t="str">
         <f>VLOOKUP(B33,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
-      </c>
-      <c r="J33" s="65">
-        <v>2800</v>
-      </c>
-      <c r="K33" s="36" t="s">
-        <v>164</v>
+        <v>AT-TSSOP20-CMS</v>
+      </c>
+      <c r="J33" s="68">
+        <v>2</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="L33" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="M33" s="53">
+        <v>180</v>
+      </c>
+      <c r="M33" s="54">
         <f ca="1" t="shared" si="8"/>
-        <v>0.07</v>
+        <v>0.01</v>
       </c>
       <c r="N33" s="58">
         <f ca="1" t="shared" si="9"/>
-        <v>3.92</v>
-      </c>
-      <c r="O33" s="54">
-        <v>15.5</v>
-      </c>
-      <c r="P33" s="67">
+        <v>0.01</v>
+      </c>
+      <c r="O33" s="59">
+        <v>1</v>
+      </c>
+      <c r="P33" s="61">
         <f t="shared" si="10"/>
-        <v>868</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="56">
-        <v>866</v>
+        <v>0.3</v>
       </c>
       <c r="R33" s="56">
-        <v>866</v>
-      </c>
-      <c r="S33" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="T33" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="S33" s="15">
+        <v>2</v>
+      </c>
+      <c r="T33" s="64">
         <f t="shared" si="11"/>
-        <v>56</v>
-      </c>
-      <c r="U33" s="75" t="s">
-        <v>173</v>
+        <v>1</v>
+      </c>
+      <c r="U33" s="77" t="s">
+        <v>181</v>
       </c>
       <c r="V33" s="80"/>
       <c r="W33" s="80"/>
@@ -5506,7 +5482,7 @@
         <v>68</v>
       </c>
       <c r="Z33" s="84">
-        <v>7.3</v>
+        <v>580</v>
       </c>
       <c r="AA33" s="83">
         <v>0.13</v>
@@ -5514,73 +5490,55 @@
     </row>
     <row r="34" customHeight="1" spans="1:27">
       <c r="A34" s="15">
-        <v>30</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>174</v>
+        <v>31</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>182</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>179</v>
+        <v>184</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="I34" s="20" t="str">
         <f>VLOOKUP(B34,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>AT-TSSOP20-CMS</v>
+        <v>KLV-M913A-A10</v>
       </c>
       <c r="J34" s="68">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K34" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L34" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="M34" s="54">
-        <f ca="1" t="shared" si="8"/>
-        <v>0.01</v>
-      </c>
-      <c r="N34" s="58">
-        <f ca="1" t="shared" si="9"/>
-        <v>0.01</v>
-      </c>
-      <c r="O34" s="59">
-        <v>1</v>
-      </c>
-      <c r="P34" s="61">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
+      <c r="L34" s="66"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="61"/>
       <c r="Q34" s="56">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="R34" s="56">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="S34" s="15">
-        <v>2</v>
-      </c>
-      <c r="T34" s="64">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="U34" s="77" t="s">
-        <v>181</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="T34" s="32"/>
+      <c r="U34" s="78"/>
       <c r="V34" s="80"/>
       <c r="W34" s="80"/>
       <c r="X34" s="37" t="s">
@@ -5589,74 +5547,92 @@
       <c r="Y34" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z34" s="84">
-        <v>580</v>
-      </c>
-      <c r="AA34" s="83">
+      <c r="Z34" s="85">
+        <v>80</v>
+      </c>
+      <c r="AA34" s="86">
         <v>0.13</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:27">
       <c r="A35" s="15">
-        <v>31</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>185</v>
+      <c r="F35" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>191</v>
       </c>
       <c r="I35" s="20" t="str">
         <f>VLOOKUP(B35,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>KLV-M913A-A10</v>
-      </c>
-      <c r="J35" s="68">
-        <v>5</v>
+        <v>/</v>
+      </c>
+      <c r="J35" s="69">
+        <v>3</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L35" s="66"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="56">
-        <v>0.6</v>
-      </c>
-      <c r="R35" s="56">
-        <v>0.6</v>
-      </c>
-      <c r="S35" s="15">
-        <v>5</v>
-      </c>
-      <c r="T35" s="32"/>
-      <c r="U35" s="78"/>
+        <v>192</v>
+      </c>
+      <c r="L35" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="M35" s="53">
+        <f ca="1" t="shared" ref="M35:M50" si="12">ROUND(EVALUATE(L35)*1000*0.000000001,2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="N35" s="58">
+        <f ca="1" t="shared" ref="N35:N39" si="13">M35*T35</f>
+        <v>0.06</v>
+      </c>
+      <c r="O35" s="54">
+        <v>34.24</v>
+      </c>
+      <c r="P35" s="70">
+        <f>SUM(O35:O37)</f>
+        <v>66.02</v>
+      </c>
+      <c r="Q35" s="61">
+        <v>34</v>
+      </c>
+      <c r="R35" s="61">
+        <v>64.2</v>
+      </c>
+      <c r="S35" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="T35" s="15">
+        <f>J35/S35</f>
+        <v>1</v>
+      </c>
+      <c r="U35" s="75" t="s">
+        <v>195</v>
+      </c>
       <c r="V35" s="80"/>
       <c r="W35" s="80"/>
-      <c r="X35" s="37" t="s">
+      <c r="X35" s="33" t="s">
         <v>67</v>
       </c>
       <c r="Y35" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Z35" s="85">
-        <v>80</v>
+        <v>1160</v>
       </c>
       <c r="AA35" s="86">
         <v>0.13</v>
@@ -5664,362 +5640,327 @@
     </row>
     <row r="36" customHeight="1" spans="1:27">
       <c r="A36" s="15">
-        <v>32</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>190</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="35"/>
       <c r="H36" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="I36" s="20" t="str">
-        <f>VLOOKUP(B36,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
-      </c>
-      <c r="J36" s="69">
-        <v>3</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>192</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="15"/>
       <c r="L36" s="66" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M36" s="53">
-        <f ca="1" t="shared" ref="M36:M51" si="12">ROUND(EVALUATE(L36)*1000*0.000000001,2)</f>
-        <v>0.06</v>
+        <f ca="1" t="shared" si="12"/>
+        <v>0.03</v>
       </c>
       <c r="N36" s="58">
-        <f ca="1" t="shared" ref="N36:N40" si="13">M36*T36</f>
-        <v>0.06</v>
-      </c>
-      <c r="O36" s="54">
-        <v>34.24</v>
-      </c>
-      <c r="P36" s="70">
-        <f>SUM(O36:O38)</f>
-        <v>66.02</v>
-      </c>
+        <f ca="1" t="shared" si="13"/>
+        <v>0.03</v>
+      </c>
+      <c r="O36" s="55">
+        <v>18.4</v>
+      </c>
+      <c r="P36" s="61"/>
       <c r="Q36" s="61">
-        <v>34</v>
-      </c>
-      <c r="R36" s="61">
-        <v>64.2</v>
-      </c>
-      <c r="S36" s="71" t="s">
-        <v>194</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="R36" s="61"/>
+      <c r="S36" s="72"/>
       <c r="T36" s="15">
-        <f>J36/S36</f>
+        <f>J35/S35</f>
         <v>1</v>
       </c>
       <c r="U36" s="75" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="V36" s="80"/>
       <c r="W36" s="80"/>
-      <c r="X36" s="33" t="s">
-        <v>67</v>
-      </c>
+      <c r="X36" s="33"/>
       <c r="Y36" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z36" s="85">
-        <v>1160</v>
-      </c>
-      <c r="AA36" s="86">
-        <v>0.13</v>
-      </c>
+      <c r="Z36" s="87"/>
+      <c r="AA36" s="88"/>
     </row>
     <row r="37" customHeight="1" spans="1:27">
       <c r="A37" s="15">
-        <v>33</v>
-      </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="69"/>
       <c r="K37" s="15"/>
       <c r="L37" s="66" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M37" s="53">
         <f ca="1" t="shared" si="12"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="N37" s="58">
         <f ca="1" t="shared" si="13"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="O37" s="55">
-        <v>18.4</v>
-      </c>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61">
-        <v>205</v>
-      </c>
-      <c r="R37" s="61"/>
-      <c r="S37" s="72"/>
+        <v>13.38</v>
+      </c>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56">
+        <v>270</v>
+      </c>
+      <c r="R37" s="56"/>
+      <c r="S37" s="73"/>
       <c r="T37" s="15">
-        <f>J36/S36</f>
+        <f>J35/S35</f>
         <v>1</v>
       </c>
       <c r="U37" s="75" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="V37" s="80"/>
       <c r="W37" s="80"/>
-      <c r="X37" s="33"/>
+      <c r="X37" s="37"/>
       <c r="Y37" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z37" s="87"/>
-      <c r="AA37" s="88"/>
+      <c r="Z37" s="89"/>
+      <c r="AA37" s="90"/>
     </row>
     <row r="38" customHeight="1" spans="1:27">
       <c r="A38" s="15">
-        <v>34</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I38" s="20" t="str">
+        <f>VLOOKUP(B38,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J38" s="69">
+        <v>12</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>206</v>
+      </c>
       <c r="L38" s="66" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M38" s="53">
         <f ca="1" t="shared" si="12"/>
         <v>0.05</v>
       </c>
-      <c r="N38" s="58">
+      <c r="N38" s="54">
         <f ca="1" t="shared" si="13"/>
         <v>0.05</v>
       </c>
-      <c r="O38" s="55">
-        <v>13.38</v>
-      </c>
-      <c r="P38" s="56"/>
+      <c r="O38" s="54">
+        <v>34.91</v>
+      </c>
+      <c r="P38" s="67">
+        <f>O38*T38</f>
+        <v>34.91</v>
+      </c>
       <c r="Q38" s="56">
-        <v>270</v>
-      </c>
-      <c r="R38" s="56"/>
-      <c r="S38" s="73"/>
+        <v>34</v>
+      </c>
+      <c r="R38" s="56">
+        <v>34</v>
+      </c>
+      <c r="S38" s="66" t="s">
+        <v>208</v>
+      </c>
       <c r="T38" s="15">
-        <f>J36/S36</f>
         <v>1</v>
       </c>
       <c r="U38" s="75" t="s">
-        <v>201</v>
-      </c>
-      <c r="V38" s="80"/>
-      <c r="W38" s="80"/>
-      <c r="X38" s="37"/>
+        <v>209</v>
+      </c>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="Y38" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z38" s="89"/>
-      <c r="AA38" s="90"/>
+      <c r="Z38" s="84">
+        <v>1300</v>
+      </c>
+      <c r="AA38" s="83">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="39" customHeight="1" spans="1:27">
       <c r="A39" s="15">
-        <v>35</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="C39" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>204</v>
+      <c r="F39" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>212</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="I39" s="20" t="str">
         <f>VLOOKUP(B39,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J39" s="69">
-        <v>12</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>206</v>
+      <c r="J39" s="64">
+        <v>9</v>
+      </c>
+      <c r="K39" s="64" t="s">
+        <v>192</v>
       </c>
       <c r="L39" s="66" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M39" s="53">
         <f ca="1" t="shared" si="12"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="N39" s="54">
         <f ca="1" t="shared" si="13"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="O39" s="54">
-        <v>34.91</v>
-      </c>
-      <c r="P39" s="67">
-        <f>O39*T39</f>
-        <v>34.91</v>
-      </c>
-      <c r="Q39" s="56">
-        <v>34</v>
-      </c>
-      <c r="R39" s="56">
-        <v>34</v>
-      </c>
-      <c r="S39" s="66" t="s">
-        <v>208</v>
+        <v>10.63</v>
+      </c>
+      <c r="P39" s="70">
+        <f>SUM(O39:O46)</f>
+        <v>207.46</v>
+      </c>
+      <c r="Q39" s="61">
+        <v>205</v>
+      </c>
+      <c r="R39" s="61">
+        <v>205</v>
+      </c>
+      <c r="S39" s="32">
+        <v>9</v>
       </c>
       <c r="T39" s="15">
+        <f>J39/S39</f>
         <v>1</v>
       </c>
       <c r="U39" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="33" t="s">
         <v>67</v>
       </c>
       <c r="Y39" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z39" s="84">
-        <v>1300</v>
-      </c>
-      <c r="AA39" s="83">
+      <c r="Z39" s="64">
+        <v>300</v>
+      </c>
+      <c r="AA39" s="86">
         <v>0.13</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:27">
       <c r="A40" s="15">
-        <v>36</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="G40" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="H40" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="I40" s="20" t="str">
-        <f>VLOOKUP(B40,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
-      </c>
-      <c r="J40" s="64">
-        <v>9</v>
-      </c>
-      <c r="K40" s="64" t="s">
-        <v>192</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
       <c r="L40" s="66" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M40" s="53">
         <f ca="1" t="shared" si="12"/>
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="N40" s="54">
-        <f ca="1" t="shared" si="13"/>
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="O40" s="54">
-        <v>10.63</v>
-      </c>
-      <c r="P40" s="70">
-        <f>SUM(O40:O47)</f>
-        <v>207.46</v>
-      </c>
-      <c r="Q40" s="61">
-        <v>205</v>
-      </c>
-      <c r="R40" s="61">
-        <v>205</v>
-      </c>
-      <c r="S40" s="32">
-        <v>9</v>
-      </c>
+        <v>25.83</v>
+      </c>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="32"/>
       <c r="T40" s="15">
-        <f>J40/S40</f>
+        <f>J39/S39</f>
         <v>1</v>
       </c>
       <c r="U40" s="75" t="s">
-        <v>215</v>
-      </c>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="33" t="s">
-        <v>67</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="33"/>
       <c r="Y40" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z40" s="64">
-        <v>300</v>
-      </c>
-      <c r="AA40" s="86">
-        <v>0.13</v>
-      </c>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="88"/>
     </row>
     <row r="41" customHeight="1" spans="1:27">
       <c r="A41" s="15">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
@@ -6028,7 +5969,7 @@
       <c r="F41" s="44"/>
       <c r="G41" s="45"/>
       <c r="H41" s="25" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="32"/>
@@ -6044,18 +5985,18 @@
         <v>0.08</v>
       </c>
       <c r="O41" s="54">
-        <v>25.83</v>
+        <v>21.09</v>
       </c>
       <c r="P41" s="61"/>
       <c r="Q41" s="61"/>
       <c r="R41" s="61"/>
       <c r="S41" s="32"/>
       <c r="T41" s="15">
-        <f>J40/S40</f>
+        <f>J39/S39</f>
         <v>1</v>
       </c>
       <c r="U41" s="75" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="V41" s="15"/>
       <c r="W41" s="15"/>
@@ -6068,7 +6009,7 @@
     </row>
     <row r="42" customHeight="1" spans="1:27">
       <c r="A42" s="15">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
@@ -6077,13 +6018,13 @@
       <c r="F42" s="44"/>
       <c r="G42" s="45"/>
       <c r="H42" s="25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="32"/>
       <c r="K42" s="32"/>
       <c r="L42" s="66" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M42" s="53">
         <f ca="1" t="shared" si="12"/>
@@ -6093,18 +6034,18 @@
         <v>0.08</v>
       </c>
       <c r="O42" s="54">
-        <v>21.09</v>
+        <v>33.25</v>
       </c>
       <c r="P42" s="61"/>
       <c r="Q42" s="61"/>
       <c r="R42" s="61"/>
       <c r="S42" s="32"/>
       <c r="T42" s="15">
-        <f>J40/S40</f>
+        <f>J39/S39</f>
         <v>1</v>
       </c>
       <c r="U42" s="75" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="V42" s="15"/>
       <c r="W42" s="15"/>
@@ -6117,7 +6058,7 @@
     </row>
     <row r="43" customHeight="1" spans="1:27">
       <c r="A43" s="15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
@@ -6149,11 +6090,11 @@
       <c r="R43" s="61"/>
       <c r="S43" s="32"/>
       <c r="T43" s="15">
-        <f>J40/S40</f>
+        <f>J39/S39</f>
         <v>1</v>
       </c>
       <c r="U43" s="75" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="V43" s="15"/>
       <c r="W43" s="15"/>
@@ -6166,7 +6107,7 @@
     </row>
     <row r="44" customHeight="1" spans="1:27">
       <c r="A44" s="15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -6198,11 +6139,11 @@
       <c r="R44" s="61"/>
       <c r="S44" s="32"/>
       <c r="T44" s="15">
-        <f>J40/S40</f>
+        <f>J39/S39</f>
         <v>1</v>
       </c>
       <c r="U44" s="75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="V44" s="15"/>
       <c r="W44" s="15"/>
@@ -6215,7 +6156,7 @@
     </row>
     <row r="45" customHeight="1" spans="1:27">
       <c r="A45" s="15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -6247,11 +6188,11 @@
       <c r="R45" s="61"/>
       <c r="S45" s="32"/>
       <c r="T45" s="15">
-        <f>J40/S40</f>
+        <f>J39/S39</f>
         <v>1</v>
       </c>
       <c r="U45" s="75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="V45" s="15"/>
       <c r="W45" s="15"/>
@@ -6264,108 +6205,143 @@
     </row>
     <row r="46" customHeight="1" spans="1:27">
       <c r="A46" s="15">
-        <v>42</v>
-      </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="48"/>
       <c r="H46" s="25" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="I46" s="20"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
       <c r="L46" s="66" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M46" s="53">
         <f ca="1" t="shared" si="12"/>
-        <v>0.08</v>
+        <v>0.4</v>
       </c>
       <c r="N46" s="54">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="O46" s="54">
-        <v>33.25</v>
-      </c>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="61"/>
-      <c r="S46" s="32"/>
+        <v>16.91</v>
+      </c>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="36"/>
       <c r="T46" s="15">
-        <f>J40/S40</f>
+        <f>J39/S39</f>
         <v>1</v>
       </c>
       <c r="U46" s="75" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="V46" s="15"/>
       <c r="W46" s="15"/>
-      <c r="X46" s="33"/>
+      <c r="X46" s="37"/>
       <c r="Y46" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z46" s="32"/>
-      <c r="AA46" s="88"/>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="90"/>
     </row>
     <row r="47" customHeight="1" spans="1:27">
       <c r="A47" s="15">
-        <v>43</v>
-      </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="48"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>233</v>
+      </c>
       <c r="H47" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
+        <v>234</v>
+      </c>
+      <c r="I47" s="20" t="str">
+        <f>VLOOKUP(B47,[1]CXCI2025012201!$B:$D,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J47" s="36">
+        <v>10</v>
+      </c>
+      <c r="K47" s="36" t="s">
+        <v>206</v>
+      </c>
       <c r="L47" s="66" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M47" s="53">
         <f ca="1" t="shared" si="12"/>
-        <v>0.4</v>
-      </c>
-      <c r="N47" s="54">
-        <v>0.04</v>
+        <v>0.3</v>
+      </c>
+      <c r="N47" s="58">
+        <f ca="1" t="shared" ref="N47:N50" si="14">M47*T47</f>
+        <v>3</v>
       </c>
       <c r="O47" s="54">
-        <v>16.91</v>
-      </c>
-      <c r="P47" s="56"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="56"/>
-      <c r="S47" s="36"/>
+        <v>37</v>
+      </c>
+      <c r="P47" s="67">
+        <f t="shared" ref="P47:P50" si="15">O47*T47</f>
+        <v>370</v>
+      </c>
+      <c r="Q47" s="56">
+        <v>270</v>
+      </c>
+      <c r="R47" s="56">
+        <v>270</v>
+      </c>
+      <c r="S47" s="36">
+        <v>1</v>
+      </c>
       <c r="T47" s="15">
-        <f>J40/S40</f>
-        <v>1</v>
+        <f t="shared" ref="T47:T50" si="16">J47/S47</f>
+        <v>10</v>
       </c>
       <c r="U47" s="75" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="V47" s="15"/>
       <c r="W47" s="15"/>
-      <c r="X47" s="37"/>
+      <c r="X47" s="37" t="s">
+        <v>67</v>
+      </c>
       <c r="Y47" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="90"/>
+      <c r="Z47" s="36">
+        <v>3400</v>
+      </c>
+      <c r="AA47" s="90">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="48" customHeight="1" spans="1:27">
       <c r="A48" s="15">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C48" s="46" t="s">
         <v>231</v>
@@ -6383,7 +6359,7 @@
         <v>233</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I48" s="20" t="str">
         <f>VLOOKUP(B48,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -6396,38 +6372,38 @@
         <v>206</v>
       </c>
       <c r="L48" s="66" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M48" s="53">
         <f ca="1" t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="N48" s="58">
-        <f ca="1" t="shared" ref="N48:N51" si="14">M48*T48</f>
-        <v>3</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>4.3</v>
       </c>
       <c r="O48" s="54">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="P48" s="67">
-        <f t="shared" ref="P48:P51" si="15">O48*T48</f>
-        <v>370</v>
+        <f t="shared" si="15"/>
+        <v>540</v>
       </c>
       <c r="Q48" s="56">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="R48" s="56">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="S48" s="36">
         <v>1</v>
       </c>
       <c r="T48" s="15">
-        <f t="shared" ref="T48:T51" si="16">J48/S48</f>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="U48" s="75" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="V48" s="15"/>
       <c r="W48" s="15"/>
@@ -6438,7 +6414,7 @@
         <v>68</v>
       </c>
       <c r="Z48" s="36">
-        <v>3400</v>
+        <v>5150</v>
       </c>
       <c r="AA48" s="90">
         <v>0.13</v>
@@ -6446,72 +6422,72 @@
     </row>
     <row r="49" customHeight="1" spans="1:27">
       <c r="A49" s="15">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>232</v>
+        <v>242</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="49" t="s">
+        <v>243</v>
       </c>
       <c r="G49" s="48" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="I49" s="20" t="str">
         <f>VLOOKUP(B49,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
+        <v>AEVF4</v>
       </c>
       <c r="J49" s="36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="L49" s="66" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="M49" s="53">
         <f ca="1" t="shared" si="12"/>
-        <v>0.43</v>
-      </c>
-      <c r="N49" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="N49" s="54">
         <f ca="1" t="shared" si="14"/>
-        <v>4.3</v>
-      </c>
-      <c r="O49" s="54">
-        <v>54</v>
-      </c>
-      <c r="P49" s="67">
+        <v>0.02</v>
+      </c>
+      <c r="O49" s="55">
+        <v>15.16</v>
+      </c>
+      <c r="P49" s="56">
         <f t="shared" si="15"/>
-        <v>540</v>
+        <v>15.16</v>
       </c>
       <c r="Q49" s="56">
-        <v>440</v>
+        <v>15</v>
       </c>
       <c r="R49" s="56">
-        <v>440</v>
+        <v>15</v>
       </c>
       <c r="S49" s="36">
         <v>1</v>
       </c>
-      <c r="T49" s="15">
+      <c r="T49" s="36">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U49" s="75" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="V49" s="15"/>
       <c r="W49" s="15"/>
@@ -6522,7 +6498,7 @@
         <v>68</v>
       </c>
       <c r="Z49" s="36">
-        <v>5150</v>
+        <v>935</v>
       </c>
       <c r="AA49" s="90">
         <v>0.13</v>
@@ -6530,13 +6506,13 @@
     </row>
     <row r="50" customHeight="1" spans="1:27">
       <c r="A50" s="15">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="46" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C50" s="46" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>71</v>
@@ -6544,58 +6520,58 @@
       <c r="E50" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F50" s="49" t="s">
-        <v>243</v>
+      <c r="F50" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="G50" s="48" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I50" s="20" t="str">
         <f>VLOOKUP(B50,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>AEVF4</v>
+        <v>/</v>
       </c>
       <c r="J50" s="36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K50" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L50" s="66" t="s">
-        <v>246</v>
-      </c>
-      <c r="M50" s="53">
+      <c r="L50" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="M50" s="60">
         <f ca="1" t="shared" si="12"/>
         <v>0.02</v>
       </c>
-      <c r="N50" s="54">
+      <c r="N50" s="58">
         <f ca="1" t="shared" si="14"/>
         <v>0.02</v>
       </c>
-      <c r="O50" s="55">
-        <v>15.16</v>
-      </c>
-      <c r="P50" s="56">
+      <c r="O50" s="59">
+        <v>5</v>
+      </c>
+      <c r="P50" s="61">
         <f t="shared" si="15"/>
-        <v>15.16</v>
+        <v>5</v>
       </c>
       <c r="Q50" s="56">
-        <v>15</v>
+        <v>0.09</v>
       </c>
       <c r="R50" s="56">
-        <v>15</v>
+        <v>0.09</v>
       </c>
       <c r="S50" s="36">
-        <v>1</v>
-      </c>
-      <c r="T50" s="36">
+        <v>10</v>
+      </c>
+      <c r="T50" s="32">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U50" s="75" t="s">
-        <v>247</v>
+      <c r="U50" s="77" t="s">
+        <v>254</v>
       </c>
       <c r="V50" s="15"/>
       <c r="W50" s="15"/>
@@ -6606,7 +6582,7 @@
         <v>68</v>
       </c>
       <c r="Z50" s="36">
-        <v>935</v>
+        <v>22</v>
       </c>
       <c r="AA50" s="90">
         <v>0.13</v>
@@ -6614,10 +6590,10 @@
     </row>
     <row r="51" customHeight="1" spans="1:27">
       <c r="A51" s="15">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" s="46" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C51" s="46" t="s">
         <v>249</v>
@@ -6628,59 +6604,41 @@
       <c r="E51" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="18" t="s">
-        <v>250</v>
+      <c r="F51" s="49" t="s">
+        <v>256</v>
       </c>
       <c r="G51" s="48" t="s">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="I51" s="20" t="str">
         <f>VLOOKUP(B51,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
+        <v>TG-205A-FU</v>
       </c>
       <c r="J51" s="36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K51" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L51" s="71" t="s">
-        <v>253</v>
-      </c>
-      <c r="M51" s="60">
-        <f ca="1" t="shared" si="12"/>
-        <v>0.02</v>
-      </c>
-      <c r="N51" s="58">
-        <f ca="1" t="shared" si="14"/>
-        <v>0.02</v>
-      </c>
-      <c r="O51" s="59">
+      <c r="L51" s="72"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="56">
+        <v>0.04</v>
+      </c>
+      <c r="R51" s="56">
+        <v>0.04</v>
+      </c>
+      <c r="S51" s="36">
         <v>5</v>
       </c>
-      <c r="P51" s="61">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="Q51" s="56">
-        <v>0.09</v>
-      </c>
-      <c r="R51" s="56">
-        <v>0.09</v>
-      </c>
-      <c r="S51" s="36">
-        <v>10</v>
-      </c>
-      <c r="T51" s="32">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="U51" s="77" t="s">
-        <v>254</v>
-      </c>
+      <c r="T51" s="32"/>
+      <c r="U51" s="78"/>
       <c r="V51" s="15"/>
       <c r="W51" s="15"/>
       <c r="X51" s="37" t="s">
@@ -6690,7 +6648,7 @@
         <v>68</v>
       </c>
       <c r="Z51" s="36">
-        <v>22</v>
+        <v>350</v>
       </c>
       <c r="AA51" s="90">
         <v>0.13</v>
@@ -6698,10 +6656,10 @@
     </row>
     <row r="52" customHeight="1" spans="1:27">
       <c r="A52" s="15">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C52" s="46" t="s">
         <v>249</v>
@@ -6712,21 +6670,21 @@
       <c r="E52" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F52" s="49" t="s">
-        <v>256</v>
+      <c r="F52" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="G52" s="48" t="s">
-        <v>105</v>
+        <v>260</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I52" s="20" t="str">
         <f>VLOOKUP(B52,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>TG-205A-FU</v>
+        <v>LS1D-01033</v>
       </c>
       <c r="J52" s="36">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="K52" s="36" t="s">
         <v>64</v>
@@ -6737,13 +6695,13 @@
       <c r="O52" s="59"/>
       <c r="P52" s="61"/>
       <c r="Q52" s="56">
-        <v>0.04</v>
+        <v>4.5</v>
       </c>
       <c r="R52" s="56">
-        <v>0.04</v>
+        <v>4.5</v>
       </c>
       <c r="S52" s="36">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="T52" s="32"/>
       <c r="U52" s="78"/>
@@ -6756,7 +6714,7 @@
         <v>68</v>
       </c>
       <c r="Z52" s="36">
-        <v>350</v>
+        <v>8</v>
       </c>
       <c r="AA52" s="90">
         <v>0.13</v>
@@ -6764,10 +6722,10 @@
     </row>
     <row r="53" customHeight="1" spans="1:27">
       <c r="A53" s="15">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C53" s="46" t="s">
         <v>249</v>
@@ -6778,21 +6736,21 @@
       <c r="E53" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="18" t="s">
-        <v>259</v>
+      <c r="F53" s="50" t="s">
+        <v>263</v>
       </c>
       <c r="G53" s="48" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I53" s="20" t="str">
         <f>VLOOKUP(B53,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>LS1D-01033</v>
+        <v>/</v>
       </c>
       <c r="J53" s="36">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="K53" s="36" t="s">
         <v>64</v>
@@ -6803,13 +6761,13 @@
       <c r="O53" s="59"/>
       <c r="P53" s="61"/>
       <c r="Q53" s="56">
-        <v>4.5</v>
+        <v>0.04</v>
       </c>
       <c r="R53" s="56">
-        <v>4.5</v>
+        <v>0.04</v>
       </c>
       <c r="S53" s="36">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="T53" s="32"/>
       <c r="U53" s="78"/>
@@ -6822,7 +6780,7 @@
         <v>68</v>
       </c>
       <c r="Z53" s="36">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="AA53" s="90">
         <v>0.13</v>
@@ -6830,13 +6788,13 @@
     </row>
     <row r="54" customHeight="1" spans="1:27">
       <c r="A54" s="15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>71</v>
@@ -6844,21 +6802,21 @@
       <c r="E54" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="50" t="s">
-        <v>263</v>
+      <c r="F54" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="G54" s="48" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I54" s="20" t="str">
         <f>VLOOKUP(B54,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
       <c r="J54" s="36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K54" s="36" t="s">
         <v>64</v>
@@ -6875,7 +6833,7 @@
         <v>0.04</v>
       </c>
       <c r="S54" s="36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T54" s="32"/>
       <c r="U54" s="78"/>
@@ -6888,7 +6846,7 @@
         <v>68</v>
       </c>
       <c r="Z54" s="36">
-        <v>110</v>
+        <v>186.45</v>
       </c>
       <c r="AA54" s="90">
         <v>0.13</v>
@@ -6896,13 +6854,13 @@
     </row>
     <row r="55" customHeight="1" spans="1:27">
       <c r="A55" s="15">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C55" s="46" t="s">
-        <v>266</v>
+        <v>91</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>71</v>
@@ -6910,21 +6868,21 @@
       <c r="E55" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="18" t="s">
-        <v>267</v>
+      <c r="F55" s="50" t="s">
+        <v>271</v>
       </c>
       <c r="G55" s="48" t="s">
-        <v>268</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>269</v>
+        <v>272</v>
+      </c>
+      <c r="H55" s="47" t="s">
+        <v>272</v>
       </c>
       <c r="I55" s="20" t="str">
         <f>VLOOKUP(B55,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
+        <v>KYB-M7027-001</v>
       </c>
       <c r="J55" s="36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K55" s="36" t="s">
         <v>64</v>
@@ -6935,13 +6893,13 @@
       <c r="O55" s="59"/>
       <c r="P55" s="61"/>
       <c r="Q55" s="56">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="R55" s="56">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="S55" s="36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T55" s="32"/>
       <c r="U55" s="78"/>
@@ -6953,22 +6911,22 @@
       <c r="Y55" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z55" s="36">
-        <v>186.45</v>
+      <c r="Z55" s="91">
+        <v>4950</v>
       </c>
       <c r="AA55" s="90">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:27">
       <c r="A56" s="15">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>91</v>
+        <v>242</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>71</v>
@@ -6976,21 +6934,21 @@
       <c r="E56" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F56" s="50" t="s">
-        <v>271</v>
+      <c r="F56" s="18" t="s">
+        <v>274</v>
       </c>
       <c r="G56" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="H56" s="47" t="s">
-        <v>272</v>
+        <v>275</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>276</v>
       </c>
       <c r="I56" s="20" t="str">
         <f>VLOOKUP(B56,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>KYB-M7027-001</v>
+        <v>/</v>
       </c>
       <c r="J56" s="36">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K56" s="36" t="s">
         <v>64</v>
@@ -7001,13 +6959,13 @@
       <c r="O56" s="59"/>
       <c r="P56" s="61"/>
       <c r="Q56" s="56">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="R56" s="56">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="S56" s="36">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T56" s="32"/>
       <c r="U56" s="78"/>
@@ -7019,19 +6977,19 @@
       <c r="Y56" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Z56" s="91">
-        <v>4950</v>
+      <c r="Z56" s="36">
+        <v>6.5</v>
       </c>
       <c r="AA56" s="90">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:27">
       <c r="A57" s="15">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C57" s="46" t="s">
         <v>242</v>
@@ -7049,7 +7007,7 @@
         <v>275</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I57" s="20" t="str">
         <f>VLOOKUP(B57,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -7094,10 +7052,10 @@
     </row>
     <row r="58" customHeight="1" spans="1:27">
       <c r="A58" s="15">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" s="46" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C58" s="46" t="s">
         <v>242</v>
@@ -7108,21 +7066,21 @@
       <c r="E58" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F58" s="18" t="s">
-        <v>274</v>
+      <c r="F58" s="49" t="s">
+        <v>280</v>
       </c>
       <c r="G58" s="48" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="I58" s="20" t="str">
         <f>VLOOKUP(B58,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
       <c r="J58" s="36">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K58" s="36" t="s">
         <v>64</v>
@@ -7133,13 +7091,13 @@
       <c r="O58" s="59"/>
       <c r="P58" s="61"/>
       <c r="Q58" s="56">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="R58" s="56">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="S58" s="36">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T58" s="32"/>
       <c r="U58" s="78"/>
@@ -7152,7 +7110,7 @@
         <v>68</v>
       </c>
       <c r="Z58" s="36">
-        <v>6.5</v>
+        <v>220</v>
       </c>
       <c r="AA58" s="90">
         <v>0.13</v>
@@ -7160,10 +7118,10 @@
     </row>
     <row r="59" customHeight="1" spans="1:27">
       <c r="A59" s="15">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" s="46" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C59" s="46" t="s">
         <v>242</v>
@@ -7175,13 +7133,13 @@
         <v>61</v>
       </c>
       <c r="F59" s="49" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G59" s="48" t="s">
         <v>281</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I59" s="20" t="str">
         <f>VLOOKUP(B59,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -7226,10 +7184,10 @@
     </row>
     <row r="60" customHeight="1" spans="1:27">
       <c r="A60" s="15">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="46" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C60" s="46" t="s">
         <v>242</v>
@@ -7241,13 +7199,13 @@
         <v>61</v>
       </c>
       <c r="F60" s="49" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G60" s="48" t="s">
         <v>281</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I60" s="20" t="str">
         <f>VLOOKUP(B60,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -7292,10 +7250,10 @@
     </row>
     <row r="61" customHeight="1" spans="1:27">
       <c r="A61" s="15">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" s="46" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C61" s="46" t="s">
         <v>242</v>
@@ -7307,13 +7265,13 @@
         <v>61</v>
       </c>
       <c r="F61" s="49" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G61" s="48" t="s">
         <v>281</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I61" s="20" t="str">
         <f>VLOOKUP(B61,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -7325,11 +7283,11 @@
       <c r="K61" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L61" s="72"/>
-      <c r="M61" s="63"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="59"/>
-      <c r="P61" s="61"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="62"/>
+      <c r="N61" s="55"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="56"/>
       <c r="Q61" s="56">
         <v>0.02</v>
       </c>
@@ -7339,8 +7297,8 @@
       <c r="S61" s="36">
         <v>2</v>
       </c>
-      <c r="T61" s="32"/>
-      <c r="U61" s="78"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="79"/>
       <c r="V61" s="15"/>
       <c r="W61" s="15"/>
       <c r="X61" s="37" t="s">
@@ -7358,10 +7316,10 @@
     </row>
     <row r="62" customHeight="1" spans="1:27">
       <c r="A62" s="15">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" s="46" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C62" s="46" t="s">
         <v>242</v>
@@ -7373,13 +7331,13 @@
         <v>61</v>
       </c>
       <c r="F62" s="49" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G62" s="48" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="I62" s="20" t="str">
         <f>VLOOKUP(B62,[1]CXCI2025012201!$B:$D,3,0)</f>
@@ -7391,22 +7349,40 @@
       <c r="K62" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L62" s="73"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="56"/>
+      <c r="L62" s="71" t="s">
+        <v>294</v>
+      </c>
+      <c r="M62" s="60">
+        <f ca="1">ROUND(EVALUATE(L62)*1000*0.000000001,2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="N62" s="58">
+        <f ca="1">M62*T62</f>
+        <v>0.05</v>
+      </c>
+      <c r="O62" s="59">
+        <v>9</v>
+      </c>
+      <c r="P62" s="61">
+        <f>O62*T62</f>
+        <v>9</v>
+      </c>
       <c r="Q62" s="56">
-        <v>0.02</v>
+        <v>4.2</v>
       </c>
       <c r="R62" s="56">
-        <v>0.02</v>
+        <v>4.2</v>
       </c>
       <c r="S62" s="36">
         <v>2</v>
       </c>
-      <c r="T62" s="36"/>
-      <c r="U62" s="79"/>
+      <c r="T62" s="32">
+        <f>J62/S62</f>
+        <v>1</v>
+      </c>
+      <c r="U62" s="77" t="s">
+        <v>295</v>
+      </c>
       <c r="V62" s="15"/>
       <c r="W62" s="15"/>
       <c r="X62" s="37" t="s">
@@ -7416,7 +7392,7 @@
         <v>68</v>
       </c>
       <c r="Z62" s="36">
-        <v>220</v>
+        <v>328</v>
       </c>
       <c r="AA62" s="90">
         <v>0.13</v>
@@ -7424,10 +7400,10 @@
     </row>
     <row r="63" customHeight="1" spans="1:27">
       <c r="A63" s="15">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" s="46" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C63" s="46" t="s">
         <v>242</v>
@@ -7439,58 +7415,40 @@
         <v>61</v>
       </c>
       <c r="F63" s="49" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G63" s="48" t="s">
         <v>292</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="I63" s="20" t="str">
         <f>VLOOKUP(B63,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
       <c r="J63" s="36">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="K63" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L63" s="71" t="s">
-        <v>294</v>
-      </c>
-      <c r="M63" s="60">
-        <f ca="1">ROUND(EVALUATE(L63)*1000*0.000000001,2)</f>
-        <v>0.05</v>
-      </c>
-      <c r="N63" s="58">
-        <f ca="1">M63*T63</f>
-        <v>0.05</v>
-      </c>
-      <c r="O63" s="59">
-        <v>9</v>
-      </c>
-      <c r="P63" s="61">
-        <f>O63*T63</f>
-        <v>9</v>
-      </c>
+      <c r="L63" s="73"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="56"/>
       <c r="Q63" s="56">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="R63" s="56">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="S63" s="36">
         <v>2</v>
       </c>
-      <c r="T63" s="32">
-        <f>J63/S63</f>
-        <v>1</v>
-      </c>
-      <c r="U63" s="77" t="s">
-        <v>295</v>
-      </c>
+      <c r="T63" s="36"/>
+      <c r="U63" s="79"/>
       <c r="V63" s="15"/>
       <c r="W63" s="15"/>
       <c r="X63" s="37" t="s">
@@ -7506,74 +7464,8 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:27">
-      <c r="A64" s="15">
-        <v>60</v>
-      </c>
-      <c r="B64" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="C64" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F64" s="49" t="s">
-        <v>297</v>
-      </c>
-      <c r="G64" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="I64" s="20" t="str">
-        <f>VLOOKUP(B64,[1]CXCI2025012201!$B:$D,3,0)</f>
-        <v>/</v>
-      </c>
-      <c r="J64" s="36">
-        <v>2</v>
-      </c>
-      <c r="K64" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="L64" s="73"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="55"/>
-      <c r="O64" s="55"/>
-      <c r="P64" s="56"/>
-      <c r="Q64" s="56">
-        <v>4</v>
-      </c>
-      <c r="R64" s="56">
-        <v>4</v>
-      </c>
-      <c r="S64" s="36">
-        <v>2</v>
-      </c>
-      <c r="T64" s="36"/>
-      <c r="U64" s="79"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y64" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z64" s="36">
-        <v>328</v>
-      </c>
-      <c r="AA64" s="90">
-        <v>0.13</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:AC4" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:AC63" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <customFilters>
         <customFilter operator="equal" val=""/>
@@ -7583,92 +7475,92 @@
     <extLst/>
   </autoFilter>
   <mergeCells count="86">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D40:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E40:E47"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="F40:F47"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="G40:G47"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="J40:J47"/>
-    <mergeCell ref="K36:K38"/>
-    <mergeCell ref="K40:K47"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L16:L22"/>
-    <mergeCell ref="L23:L31"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="L51:L62"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M16:M22"/>
-    <mergeCell ref="M23:M31"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M51:M62"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N16:N22"/>
-    <mergeCell ref="N23:N31"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="N51:N62"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O16:O22"/>
-    <mergeCell ref="O23:O31"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="O51:O62"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P16:P22"/>
-    <mergeCell ref="P23:P31"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="P36:P38"/>
-    <mergeCell ref="P40:P47"/>
-    <mergeCell ref="P51:P62"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="Q36:Q38"/>
-    <mergeCell ref="Q40:Q47"/>
-    <mergeCell ref="R36:R38"/>
-    <mergeCell ref="R40:R47"/>
-    <mergeCell ref="S36:S38"/>
-    <mergeCell ref="S40:S47"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T16:T22"/>
-    <mergeCell ref="T23:T31"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T51:T62"/>
-    <mergeCell ref="T63:T64"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U16:U22"/>
-    <mergeCell ref="U23:U31"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U51:U62"/>
-    <mergeCell ref="U63:U64"/>
-    <mergeCell ref="X36:X38"/>
-    <mergeCell ref="X40:X47"/>
-    <mergeCell ref="Z36:Z38"/>
-    <mergeCell ref="Z40:Z47"/>
-    <mergeCell ref="AA36:AA38"/>
-    <mergeCell ref="AA40:AA47"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D39:D46"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E39:E46"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="F39:F46"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G39:G46"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="J39:J46"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="K39:K46"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L15:L21"/>
+    <mergeCell ref="L22:L30"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="L50:L61"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M15:M21"/>
+    <mergeCell ref="M22:M30"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M50:M61"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N15:N21"/>
+    <mergeCell ref="N22:N30"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N50:N61"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O15:O21"/>
+    <mergeCell ref="O22:O30"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O50:O61"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="P15:P21"/>
+    <mergeCell ref="P22:P30"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="P39:P46"/>
+    <mergeCell ref="P50:P61"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q35:Q37"/>
+    <mergeCell ref="Q39:Q46"/>
+    <mergeCell ref="R35:R37"/>
+    <mergeCell ref="R39:R46"/>
+    <mergeCell ref="S35:S37"/>
+    <mergeCell ref="S39:S46"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="T15:T21"/>
+    <mergeCell ref="T22:T30"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="T50:T61"/>
+    <mergeCell ref="T62:T63"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="U15:U21"/>
+    <mergeCell ref="U22:U30"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="U50:U61"/>
+    <mergeCell ref="U62:U63"/>
+    <mergeCell ref="X35:X37"/>
+    <mergeCell ref="X39:X46"/>
+    <mergeCell ref="Z35:Z37"/>
+    <mergeCell ref="Z39:Z46"/>
+    <mergeCell ref="AA35:AA37"/>
+    <mergeCell ref="AA39:AA46"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C2">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
@@ -7676,19 +7568,16 @@
   <conditionalFormatting sqref="B3:C3">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B7 B10:B31">
+  <conditionalFormatting sqref="B4:B6 B9:B30">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:C65372">
+  <conditionalFormatting sqref="B64:C65371">
     <cfRule type="duplicateValues" dxfId="0" priority="80"/>
   </conditionalFormatting>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>
